--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="330">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -778,7 +778,7 @@
     <t xml:space="preserve">Jump unconditionally</t>
   </si>
   <si>
-    <t xml:space="preserve">JUMP FFF0h</t>
+    <t xml:space="preserve">JMP FFF0h</t>
   </si>
   <si>
     <t xml:space="preserve">Jump to given address</t>
@@ -787,9 +787,6 @@
     <t xml:space="preserve">JMP M</t>
   </si>
   <si>
-    <t xml:space="preserve">JUMP M</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jump to memory address in H and L registers</t>
   </si>
   <si>
@@ -961,6 +958,9 @@
     <t xml:space="preserve">Return unconditionally</t>
   </si>
   <si>
+    <t xml:space="preserve">00000101</t>
+  </si>
+  <si>
     <t xml:space="preserve">Return</t>
   </si>
   <si>
@@ -970,6 +970,9 @@
     <t xml:space="preserve">Return on carry</t>
   </si>
   <si>
+    <t xml:space="preserve">00001111</t>
+  </si>
+  <si>
     <t xml:space="preserve">Return if carry flag is set</t>
   </si>
   <si>
@@ -979,6 +982,9 @@
     <t xml:space="preserve">Return on no carry</t>
   </si>
   <si>
+    <t xml:space="preserve">00010001</t>
+  </si>
+  <si>
     <t xml:space="preserve">Return if carry flag is clear</t>
   </si>
   <si>
@@ -988,6 +994,9 @@
     <t xml:space="preserve">Return on zero</t>
   </si>
   <si>
+    <t xml:space="preserve">00010101</t>
+  </si>
+  <si>
     <t xml:space="preserve">Return if zero flag is set</t>
   </si>
   <si>
@@ -995,6 +1004,9 @@
   </si>
   <si>
     <t xml:space="preserve">Return on no zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00011111</t>
   </si>
   <si>
     <t xml:space="preserve">Return if zero flag is clear</t>
@@ -3512,7 +3524,7 @@
         <v>68</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>254</v>
@@ -3525,7 +3537,7 @@
         <v>85</v>
       </c>
       <c r="L111" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,19 +3545,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H112" s="7" t="n">
         <v>10000111</v>
@@ -3561,7 +3573,7 @@
         <v>124</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,16 +3581,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H113" s="1" t="n">
         <v>10001001</v>
@@ -3588,7 +3600,7 @@
         <v>89</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3596,19 +3608,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H114" s="7" t="n">
         <v>10001011</v>
@@ -3624,7 +3636,7 @@
         <v>124</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3632,16 +3644,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H115" s="1" t="n">
         <v>10010001</v>
@@ -3651,7 +3663,7 @@
         <v>91</v>
       </c>
       <c r="L115" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="116" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,19 +3671,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H116" s="7" t="n">
         <v>10010101</v>
@@ -3687,7 +3699,7 @@
         <v>124</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,16 +3707,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H117" s="1" t="n">
         <v>10010111</v>
@@ -3714,7 +3726,7 @@
         <v>97</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3722,19 +3734,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H118" s="7" t="n">
         <v>10011001</v>
@@ -3750,7 +3762,7 @@
         <v>124</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3758,16 +3770,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H119" s="1" t="n">
         <v>10011011</v>
@@ -3777,7 +3789,7 @@
         <v>9B</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="120" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3785,19 +3797,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H120" s="7" t="n">
         <v>10100001</v>
@@ -3813,7 +3825,7 @@
         <v>124</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3821,16 +3833,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H121" s="1" t="n">
         <v>10100011</v>
@@ -3840,7 +3852,7 @@
         <v>A3</v>
       </c>
       <c r="L121" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3848,19 +3860,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H122" s="7" t="n">
         <v>10100111</v>
@@ -3876,7 +3888,7 @@
         <v>124</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3884,16 +3896,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H123" s="1" t="n">
         <v>10101001</v>
@@ -3903,7 +3915,7 @@
         <v>A9</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,19 +3923,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H124" s="7" t="n">
         <v>10101011</v>
@@ -3939,7 +3951,7 @@
         <v>124</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,16 +3959,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H125" s="1" t="n">
         <v>10110001</v>
@@ -3966,7 +3978,7 @@
         <v>B1</v>
       </c>
       <c r="L125" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3974,19 +3986,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H126" s="7" t="n">
         <v>10110011</v>
@@ -4002,7 +4014,7 @@
         <v>124</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,16 +4022,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H127" s="1" t="n">
         <v>10110101</v>
@@ -4029,7 +4041,7 @@
         <v>B5</v>
       </c>
       <c r="L127" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,19 +4049,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H128" s="7" t="n">
         <v>10111001</v>
@@ -4065,7 +4077,7 @@
         <v>124</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4073,16 +4085,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H129" s="1" t="n">
         <v>10111011</v>
@@ -4092,7 +4104,7 @@
         <v>BB</v>
       </c>
       <c r="L129" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="130" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,23 +4112,23 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="F130" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H130" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="H130" s="7" t="n">
-        <v>11000001</v>
       </c>
       <c r="I130" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H130),2)</f>
-        <v>C1</v>
+        <v>05</v>
       </c>
       <c r="L130" s="6" t="s">
         <v>313</v>
@@ -4138,15 +4150,15 @@
       <c r="G131" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H131" s="7" t="n">
-        <v>11000011</v>
+      <c r="H131" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="I131" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H131),2)</f>
-        <v>C3</v>
+        <v>0F</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="132" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,26 +4166,26 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C132" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F132" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="F132" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="G132" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="H132" s="7" t="n">
-        <v>11000101</v>
+        <v>318</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="I132" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H132),2)</f>
-        <v>C5</v>
+        <v>11</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4181,26 +4193,26 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="H133" s="7" t="n">
-        <v>11000111</v>
+        <v>322</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="I133" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H133),2)</f>
-        <v>C7</v>
+        <v>15</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4208,26 +4220,26 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="H134" s="7" t="n">
-        <v>11001011</v>
+        <v>326</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="I134" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H134),2)</f>
-        <v>CB</v>
+        <v>1F</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -310,7 +310,7 @@
     <t xml:space="preserve">MOV HL,IP</t>
   </si>
   <si>
-    <t xml:space="preserve">0&lt;r&gt;&lt;r&gt;0</t>
+    <t xml:space="preserve">0&lt;rd&gt;&lt;rs&gt;0</t>
   </si>
   <si>
     <t xml:space="preserve">H and L registers</t>
@@ -1172,20 +1172,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1259,9 +1246,9 @@
   <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -1112,7 +1112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1153,6 +1153,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1171,15 +1175,13 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-    </dxf>
+    <dxf/>
   </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1246,9 +1248,9 @@
   <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1433,7 +1435,7 @@
       <c r="H6" s="1" t="n">
         <v>10000100</v>
       </c>
-      <c r="I6" s="8" t="str">
+      <c r="I6" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H6),2)</f>
         <v>84</v>
       </c>
@@ -1448,7 +1450,7 @@
       <c r="H7" s="1" t="n">
         <v>10000110</v>
       </c>
-      <c r="I7" s="8" t="str">
+      <c r="I7" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H7),2)</f>
         <v>86</v>
       </c>
@@ -1466,7 +1468,7 @@
       <c r="H8" s="1" t="n">
         <v>10001000</v>
       </c>
-      <c r="I8" s="8" t="str">
+      <c r="I8" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H8),2)</f>
         <v>88</v>
       </c>
@@ -1484,7 +1486,7 @@
       <c r="H9" s="1" t="n">
         <v>10001010</v>
       </c>
-      <c r="I9" s="8" t="str">
+      <c r="I9" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H9),2)</f>
         <v>8A</v>
       </c>
@@ -1502,7 +1504,7 @@
       <c r="H10" s="1" t="n">
         <v>10010000</v>
       </c>
-      <c r="I10" s="8" t="str">
+      <c r="I10" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H10),2)</f>
         <v>90</v>
       </c>
@@ -1520,7 +1522,7 @@
       <c r="H11" s="1" t="n">
         <v>10010100</v>
       </c>
-      <c r="I11" s="8" t="str">
+      <c r="I11" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H11),2)</f>
         <v>94</v>
       </c>
@@ -1538,7 +1540,7 @@
       <c r="H12" s="1" t="n">
         <v>10010110</v>
       </c>
-      <c r="I12" s="8" t="str">
+      <c r="I12" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H12),2)</f>
         <v>96</v>
       </c>
@@ -1556,7 +1558,7 @@
       <c r="H13" s="1" t="n">
         <v>10011000</v>
       </c>
-      <c r="I13" s="8" t="str">
+      <c r="I13" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H13),2)</f>
         <v>98</v>
       </c>
@@ -1574,7 +1576,7 @@
       <c r="H14" s="1" t="n">
         <v>10011010</v>
       </c>
-      <c r="I14" s="8" t="str">
+      <c r="I14" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H14),2)</f>
         <v>9A</v>
       </c>
@@ -1592,7 +1594,7 @@
       <c r="H15" s="1" t="n">
         <v>10100000</v>
       </c>
-      <c r="I15" s="8" t="str">
+      <c r="I15" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H15),2)</f>
         <v>A0</v>
       </c>
@@ -1607,7 +1609,7 @@
       <c r="H16" s="1" t="n">
         <v>10100010</v>
       </c>
-      <c r="I16" s="8" t="str">
+      <c r="I16" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H16),2)</f>
         <v>A2</v>
       </c>
@@ -1622,7 +1624,7 @@
       <c r="H17" s="1" t="n">
         <v>10100110</v>
       </c>
-      <c r="I17" s="8" t="str">
+      <c r="I17" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H17),2)</f>
         <v>A6</v>
       </c>
@@ -1637,7 +1639,7 @@
       <c r="H18" s="1" t="n">
         <v>10101000</v>
       </c>
-      <c r="I18" s="8" t="str">
+      <c r="I18" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H18),2)</f>
         <v>A8</v>
       </c>
@@ -1652,7 +1654,7 @@
       <c r="H19" s="1" t="n">
         <v>10101010</v>
       </c>
-      <c r="I19" s="8" t="str">
+      <c r="I19" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H19),2)</f>
         <v>AA</v>
       </c>
@@ -1667,7 +1669,7 @@
       <c r="H20" s="1" t="n">
         <v>10110000</v>
       </c>
-      <c r="I20" s="8" t="str">
+      <c r="I20" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H20),2)</f>
         <v>B0</v>
       </c>
@@ -1682,7 +1684,7 @@
       <c r="H21" s="1" t="n">
         <v>10110010</v>
       </c>
-      <c r="I21" s="8" t="str">
+      <c r="I21" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H21),2)</f>
         <v>B2</v>
       </c>
@@ -1697,7 +1699,7 @@
       <c r="H22" s="1" t="n">
         <v>10110100</v>
       </c>
-      <c r="I22" s="8" t="str">
+      <c r="I22" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H22),2)</f>
         <v>B4</v>
       </c>
@@ -1712,7 +1714,7 @@
       <c r="H23" s="1" t="n">
         <v>10111000</v>
       </c>
-      <c r="I23" s="8" t="str">
+      <c r="I23" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H23),2)</f>
         <v>B8</v>
       </c>
@@ -1727,7 +1729,7 @@
       <c r="H24" s="1" t="n">
         <v>10111010</v>
       </c>
-      <c r="I24" s="8" t="str">
+      <c r="I24" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H24),2)</f>
         <v>BA</v>
       </c>
@@ -1742,7 +1744,7 @@
       <c r="H25" s="1" t="n">
         <v>11000000</v>
       </c>
-      <c r="I25" s="8" t="str">
+      <c r="I25" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H25),2)</f>
         <v>C0</v>
       </c>
@@ -1757,7 +1759,7 @@
       <c r="H26" s="1" t="n">
         <v>11000010</v>
       </c>
-      <c r="I26" s="8" t="str">
+      <c r="I26" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H26),2)</f>
         <v>C2</v>
       </c>
@@ -1772,7 +1774,7 @@
       <c r="H27" s="1" t="n">
         <v>11000100</v>
       </c>
-      <c r="I27" s="8" t="str">
+      <c r="I27" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H27),2)</f>
         <v>C4</v>
       </c>
@@ -1787,7 +1789,7 @@
       <c r="H28" s="1" t="n">
         <v>11000110</v>
       </c>
-      <c r="I28" s="8" t="str">
+      <c r="I28" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H28),2)</f>
         <v>C6</v>
       </c>
@@ -1802,7 +1804,7 @@
       <c r="H29" s="1" t="n">
         <v>11001010</v>
       </c>
-      <c r="I29" s="8" t="str">
+      <c r="I29" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H29),2)</f>
         <v>CA</v>
       </c>
@@ -1817,7 +1819,7 @@
       <c r="H30" s="1" t="n">
         <v>11010000</v>
       </c>
-      <c r="I30" s="8" t="str">
+      <c r="I30" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H30),2)</f>
         <v>D0</v>
       </c>
@@ -1832,7 +1834,7 @@
       <c r="H31" s="1" t="n">
         <v>11010010</v>
       </c>
-      <c r="I31" s="8" t="str">
+      <c r="I31" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H31),2)</f>
         <v>D2</v>
       </c>
@@ -1847,7 +1849,7 @@
       <c r="H32" s="1" t="n">
         <v>11010100</v>
       </c>
-      <c r="I32" s="8" t="str">
+      <c r="I32" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H32),2)</f>
         <v>D4</v>
       </c>
@@ -1862,7 +1864,7 @@
       <c r="H33" s="1" t="n">
         <v>11010110</v>
       </c>
-      <c r="I33" s="8" t="str">
+      <c r="I33" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H33),2)</f>
         <v>D6</v>
       </c>
@@ -1877,7 +1879,7 @@
       <c r="H34" s="1" t="n">
         <v>11011000</v>
       </c>
-      <c r="I34" s="8" t="str">
+      <c r="I34" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H34),2)</f>
         <v>D8</v>
       </c>
@@ -1904,7 +1906,7 @@
       <c r="H35" s="1" t="n">
         <v>10001100</v>
       </c>
-      <c r="I35" s="8" t="str">
+      <c r="I35" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H35),2)</f>
         <v>8C</v>
       </c>
@@ -1922,7 +1924,7 @@
       <c r="H36" s="1" t="n">
         <v>10011100</v>
       </c>
-      <c r="I36" s="8" t="str">
+      <c r="I36" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H36),2)</f>
         <v>9C</v>
       </c>
@@ -1937,7 +1939,7 @@
       <c r="H37" s="1" t="n">
         <v>10101100</v>
       </c>
-      <c r="I37" s="8" t="str">
+      <c r="I37" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H37),2)</f>
         <v>AC</v>
       </c>
@@ -1952,7 +1954,7 @@
       <c r="H38" s="1" t="n">
         <v>10111100</v>
       </c>
-      <c r="I38" s="8" t="str">
+      <c r="I38" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H38),2)</f>
         <v>BC</v>
       </c>
@@ -1967,7 +1969,7 @@
       <c r="H39" s="1" t="n">
         <v>11001100</v>
       </c>
-      <c r="I39" s="8" t="str">
+      <c r="I39" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H39),2)</f>
         <v>CC</v>
       </c>
@@ -1982,7 +1984,7 @@
       <c r="H40" s="1" t="n">
         <v>11011100</v>
       </c>
-      <c r="I40" s="8" t="str">
+      <c r="I40" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H40),2)</f>
         <v>DC</v>
       </c>
@@ -2009,7 +2011,7 @@
       <c r="H41" s="1" t="n">
         <v>11100000</v>
       </c>
-      <c r="I41" s="8" t="str">
+      <c r="I41" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H41),2)</f>
         <v>E0</v>
       </c>
@@ -2027,7 +2029,7 @@
       <c r="H42" s="1" t="n">
         <v>11100010</v>
       </c>
-      <c r="I42" s="8" t="str">
+      <c r="I42" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H42),2)</f>
         <v>E2</v>
       </c>
@@ -2042,7 +2044,7 @@
       <c r="H43" s="1" t="n">
         <v>11100100</v>
       </c>
-      <c r="I43" s="8" t="str">
+      <c r="I43" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H43),2)</f>
         <v>E4</v>
       </c>
@@ -2057,7 +2059,7 @@
       <c r="H44" s="1" t="n">
         <v>11100110</v>
       </c>
-      <c r="I44" s="8" t="str">
+      <c r="I44" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H44),2)</f>
         <v>E6</v>
       </c>
@@ -2072,7 +2074,7 @@
       <c r="H45" s="1" t="n">
         <v>11101000</v>
       </c>
-      <c r="I45" s="8" t="str">
+      <c r="I45" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H45),2)</f>
         <v>E8</v>
       </c>
@@ -2087,7 +2089,7 @@
       <c r="H46" s="1" t="n">
         <v>11101010</v>
       </c>
-      <c r="I46" s="8" t="str">
+      <c r="I46" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H46),2)</f>
         <v>EA</v>
       </c>
@@ -2114,7 +2116,7 @@
       <c r="H47" s="1" t="n">
         <v>10001110</v>
       </c>
-      <c r="I47" s="8" t="str">
+      <c r="I47" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H47),2)</f>
         <v>8E</v>
       </c>
@@ -2135,7 +2137,7 @@
       <c r="H48" s="1" t="n">
         <v>10011110</v>
       </c>
-      <c r="I48" s="8" t="str">
+      <c r="I48" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H48),2)</f>
         <v>9E</v>
       </c>
@@ -2150,7 +2152,7 @@
       <c r="H49" s="1" t="n">
         <v>10101110</v>
       </c>
-      <c r="I49" s="8" t="str">
+      <c r="I49" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H49),2)</f>
         <v>AE</v>
       </c>
@@ -2165,7 +2167,7 @@
       <c r="H50" s="1" t="n">
         <v>10111110</v>
       </c>
-      <c r="I50" s="8" t="str">
+      <c r="I50" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H50),2)</f>
         <v>BE</v>
       </c>
@@ -2180,7 +2182,7 @@
       <c r="H51" s="1" t="n">
         <v>11001110</v>
       </c>
-      <c r="I51" s="8" t="str">
+      <c r="I51" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H51),2)</f>
         <v>CE</v>
       </c>
@@ -2195,7 +2197,7 @@
       <c r="H52" s="1" t="n">
         <v>11011110</v>
       </c>
-      <c r="I52" s="8" t="str">
+      <c r="I52" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H52),2)</f>
         <v>DE</v>
       </c>
@@ -2225,7 +2227,7 @@
       <c r="H53" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I53" s="8" t="str">
+      <c r="I53" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H53),2)</f>
         <v>02</v>
       </c>
@@ -2255,7 +2257,7 @@
       <c r="H54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I54" s="8" t="str">
+      <c r="I54" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H54),2)</f>
         <v>04</v>
       </c>
@@ -2288,7 +2290,7 @@
       <c r="H55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I55" s="8" t="str">
+      <c r="I55" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H55),2)</f>
         <v>10</v>
       </c>
@@ -2321,7 +2323,7 @@
       <c r="H56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I56" s="8" t="str">
+      <c r="I56" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H56),2)</f>
         <v>14</v>
       </c>
@@ -2354,7 +2356,7 @@
       <c r="H57" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I57" s="8" t="str">
+      <c r="I57" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H57),2)</f>
         <v>20</v>
       </c>
@@ -2387,7 +2389,7 @@
       <c r="H58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I58" s="8" t="str">
+      <c r="I58" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H58),2)</f>
         <v>22</v>
       </c>
@@ -2417,7 +2419,7 @@
       <c r="H59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I59" s="8" t="str">
+      <c r="I59" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H59),2)</f>
         <v>0E</v>
       </c>
@@ -2453,7 +2455,7 @@
       <c r="H60" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I60" s="8" t="str">
+      <c r="I60" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H60),2)</f>
         <v>1E</v>
       </c>
@@ -2489,7 +2491,7 @@
       <c r="H61" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I61" s="8" t="str">
+      <c r="I61" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H61),2)</f>
         <v>2E</v>
       </c>
@@ -2555,7 +2557,7 @@
       <c r="H63" s="1" t="n">
         <v>10011101</v>
       </c>
-      <c r="I63" s="8" t="str">
+      <c r="I63" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H63),2)</f>
         <v>9D</v>
       </c>
@@ -2570,7 +2572,7 @@
       <c r="H64" s="1" t="n">
         <v>10101101</v>
       </c>
-      <c r="I64" s="8" t="str">
+      <c r="I64" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H64),2)</f>
         <v>AD</v>
       </c>
@@ -2585,7 +2587,7 @@
       <c r="H65" s="1" t="n">
         <v>10111101</v>
       </c>
-      <c r="I65" s="8" t="str">
+      <c r="I65" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H65),2)</f>
         <v>BD</v>
       </c>
@@ -2600,7 +2602,7 @@
       <c r="H66" s="1" t="n">
         <v>11001101</v>
       </c>
-      <c r="I66" s="8" t="str">
+      <c r="I66" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H66),2)</f>
         <v>CD</v>
       </c>
@@ -2615,7 +2617,7 @@
       <c r="H67" s="1" t="n">
         <v>11011101</v>
       </c>
-      <c r="I67" s="8" t="str">
+      <c r="I67" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H67),2)</f>
         <v>DD</v>
       </c>
@@ -2672,7 +2674,7 @@
       <c r="H69" s="1" t="n">
         <v>11100011</v>
       </c>
-      <c r="I69" s="8" t="str">
+      <c r="I69" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H69),2)</f>
         <v>E3</v>
       </c>
@@ -2687,7 +2689,7 @@
       <c r="H70" s="1" t="n">
         <v>11100101</v>
       </c>
-      <c r="I70" s="8" t="str">
+      <c r="I70" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H70),2)</f>
         <v>E5</v>
       </c>
@@ -2702,7 +2704,7 @@
       <c r="H71" s="1" t="n">
         <v>11100111</v>
       </c>
-      <c r="I71" s="8" t="str">
+      <c r="I71" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H71),2)</f>
         <v>E7</v>
       </c>
@@ -2717,7 +2719,7 @@
       <c r="H72" s="1" t="n">
         <v>11101001</v>
       </c>
-      <c r="I72" s="8" t="str">
+      <c r="I72" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H72),2)</f>
         <v>E9</v>
       </c>
@@ -2732,7 +2734,7 @@
       <c r="H73" s="1" t="n">
         <v>11101011</v>
       </c>
-      <c r="I73" s="8" t="str">
+      <c r="I73" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H73),2)</f>
         <v>EB</v>
       </c>
@@ -2780,7 +2782,7 @@
       <c r="H75" s="1" t="n">
         <v>10010010</v>
       </c>
-      <c r="I75" s="8" t="str">
+      <c r="I75" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H75),2)</f>
         <v>92</v>
       </c>
@@ -2795,7 +2797,7 @@
       <c r="H76" s="1" t="n">
         <v>10100100</v>
       </c>
-      <c r="I76" s="8" t="str">
+      <c r="I76" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H76),2)</f>
         <v>A4</v>
       </c>
@@ -2810,7 +2812,7 @@
       <c r="H77" s="1" t="n">
         <v>10110110</v>
       </c>
-      <c r="I77" s="8" t="str">
+      <c r="I77" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H77),2)</f>
         <v>B6</v>
       </c>
@@ -2825,7 +2827,7 @@
       <c r="H78" s="1" t="n">
         <v>11001000</v>
       </c>
-      <c r="I78" s="8" t="str">
+      <c r="I78" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H78),2)</f>
         <v>C8</v>
       </c>
@@ -2840,7 +2842,7 @@
       <c r="H79" s="1" t="n">
         <v>11011010</v>
       </c>
-      <c r="I79" s="8" t="str">
+      <c r="I79" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H79),2)</f>
         <v>DA</v>
       </c>
@@ -2888,7 +2890,7 @@
       <c r="H81" s="1" t="n">
         <v>10010011</v>
       </c>
-      <c r="I81" s="8" t="str">
+      <c r="I81" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H81),2)</f>
         <v>93</v>
       </c>
@@ -2903,7 +2905,7 @@
       <c r="H82" s="1" t="n">
         <v>10100101</v>
       </c>
-      <c r="I82" s="8" t="str">
+      <c r="I82" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H82),2)</f>
         <v>A5</v>
       </c>
@@ -2918,7 +2920,7 @@
       <c r="H83" s="1" t="n">
         <v>10110111</v>
       </c>
-      <c r="I83" s="8" t="str">
+      <c r="I83" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H83),2)</f>
         <v>B7</v>
       </c>
@@ -2933,7 +2935,7 @@
       <c r="H84" s="1" t="n">
         <v>11001001</v>
       </c>
-      <c r="I84" s="8" t="str">
+      <c r="I84" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H84),2)</f>
         <v>C9</v>
       </c>
@@ -2948,7 +2950,7 @@
       <c r="H85" s="1" t="n">
         <v>11011011</v>
       </c>
-      <c r="I85" s="8" t="str">
+      <c r="I85" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H85),2)</f>
         <v>DB</v>
       </c>
@@ -2996,7 +2998,7 @@
       <c r="H87" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I87" s="8" t="str">
+      <c r="I87" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H87),2)</f>
         <v>62</v>
       </c>
@@ -3012,7 +3014,7 @@
       <c r="H88" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I88" s="8" t="str">
+      <c r="I88" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H88),2)</f>
         <v>64</v>
       </c>
@@ -3027,7 +3029,7 @@
       <c r="H89" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I89" s="8" t="str">
+      <c r="I89" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H89),2)</f>
         <v>66</v>
       </c>
@@ -3042,7 +3044,7 @@
       <c r="H90" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I90" s="8" t="str">
+      <c r="I90" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H90),2)</f>
         <v>68</v>
       </c>
@@ -3057,7 +3059,7 @@
       <c r="H91" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I91" s="8" t="str">
+      <c r="I91" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H91),2)</f>
         <v>6A</v>
       </c>
@@ -3081,7 +3083,7 @@
       <c r="H92" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I92" s="8" t="str">
+      <c r="I92" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H92),2)</f>
         <v>6C</v>
       </c>
@@ -3111,7 +3113,7 @@
       <c r="H93" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I93" s="8" t="str">
+      <c r="I93" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H93),2)</f>
         <v>6E</v>
       </c>
@@ -3165,7 +3167,7 @@
       <c r="H95" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I95" s="8" t="str">
+      <c r="I95" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H95),2)</f>
         <v>63</v>
       </c>
@@ -3181,7 +3183,7 @@
       <c r="H96" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I96" s="8" t="str">
+      <c r="I96" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H96),2)</f>
         <v>65</v>
       </c>
@@ -3196,7 +3198,7 @@
       <c r="H97" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I97" s="8" t="str">
+      <c r="I97" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H97),2)</f>
         <v>67</v>
       </c>
@@ -3211,7 +3213,7 @@
       <c r="H98" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I98" s="8" t="str">
+      <c r="I98" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H98),2)</f>
         <v>69</v>
       </c>
@@ -3226,7 +3228,7 @@
       <c r="H99" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I99" s="8" t="str">
+      <c r="I99" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H99),2)</f>
         <v>6B</v>
       </c>
@@ -3250,7 +3252,7 @@
       <c r="H100" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I100" s="8" t="str">
+      <c r="I100" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H100),2)</f>
         <v>6D</v>
       </c>
@@ -3280,7 +3282,7 @@
       <c r="H101" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I101" s="8" t="str">
+      <c r="I101" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H101),2)</f>
         <v>6F</v>
       </c>
@@ -3298,7 +3300,7 @@
       <c r="B102" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="11" t="s">
         <v>227</v>
       </c>
       <c r="D102" s="6" t="s">
@@ -3331,7 +3333,7 @@
       <c r="H103" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I103" s="8" t="str">
+      <c r="I103" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H103),2)</f>
         <v>72</v>
       </c>
@@ -3343,14 +3345,14 @@
       <c r="A104" s="6" t="n">
         <v>103</v>
       </c>
-      <c r="C104" s="11"/>
+      <c r="C104" s="12"/>
       <c r="G104" s="0" t="s">
         <v>234</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I104" s="8" t="str">
+      <c r="I104" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H104),2)</f>
         <v>74</v>
       </c>
@@ -3359,14 +3361,14 @@
       <c r="A105" s="6" t="n">
         <v>104</v>
       </c>
-      <c r="C105" s="11"/>
+      <c r="C105" s="12"/>
       <c r="G105" s="0" t="s">
         <v>236</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I105" s="8" t="str">
+      <c r="I105" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H105),2)</f>
         <v>76</v>
       </c>
@@ -3375,14 +3377,14 @@
       <c r="A106" s="6" t="n">
         <v>105</v>
       </c>
-      <c r="C106" s="11"/>
+      <c r="C106" s="12"/>
       <c r="G106" s="0" t="s">
         <v>238</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I106" s="8" t="str">
+      <c r="I106" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H106),2)</f>
         <v>78</v>
       </c>
@@ -3391,14 +3393,14 @@
       <c r="A107" s="6" t="n">
         <v>106</v>
       </c>
-      <c r="C107" s="11"/>
+      <c r="C107" s="12"/>
       <c r="G107" s="0" t="s">
         <v>240</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I107" s="8" t="str">
+      <c r="I107" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H107),2)</f>
         <v>7A</v>
       </c>
@@ -3410,7 +3412,7 @@
       <c r="B108" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C108" s="11"/>
+      <c r="C108" s="12"/>
       <c r="D108" s="0" t="s">
         <v>68</v>
       </c>
@@ -3423,7 +3425,7 @@
       <c r="H108" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="I108" s="8" t="str">
+      <c r="I108" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H108),2)</f>
         <v>7C</v>
       </c>
@@ -3453,7 +3455,7 @@
       <c r="H109" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I109" s="8" t="str">
+      <c r="I109" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H109),2)</f>
         <v>7E</v>
       </c>
@@ -3519,7 +3521,7 @@
       <c r="H111" s="1" t="n">
         <v>10000101</v>
       </c>
-      <c r="I111" s="8" t="str">
+      <c r="I111" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H111),2)</f>
         <v>85</v>
       </c>
@@ -3582,7 +3584,7 @@
       <c r="H113" s="1" t="n">
         <v>10001001</v>
       </c>
-      <c r="I113" s="8" t="str">
+      <c r="I113" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H113),2)</f>
         <v>89</v>
       </c>
@@ -3645,7 +3647,7 @@
       <c r="H115" s="1" t="n">
         <v>10010001</v>
       </c>
-      <c r="I115" s="8" t="str">
+      <c r="I115" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H115),2)</f>
         <v>91</v>
       </c>
@@ -3708,7 +3710,7 @@
       <c r="H117" s="1" t="n">
         <v>10010111</v>
       </c>
-      <c r="I117" s="8" t="str">
+      <c r="I117" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H117),2)</f>
         <v>97</v>
       </c>
@@ -3771,7 +3773,7 @@
       <c r="H119" s="1" t="n">
         <v>10011011</v>
       </c>
-      <c r="I119" s="8" t="str">
+      <c r="I119" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H119),2)</f>
         <v>9B</v>
       </c>
@@ -3834,7 +3836,7 @@
       <c r="H121" s="1" t="n">
         <v>10100011</v>
       </c>
-      <c r="I121" s="8" t="str">
+      <c r="I121" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H121),2)</f>
         <v>A3</v>
       </c>
@@ -3897,7 +3899,7 @@
       <c r="H123" s="1" t="n">
         <v>10101001</v>
       </c>
-      <c r="I123" s="8" t="str">
+      <c r="I123" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H123),2)</f>
         <v>A9</v>
       </c>
@@ -3960,7 +3962,7 @@
       <c r="H125" s="1" t="n">
         <v>10110001</v>
       </c>
-      <c r="I125" s="8" t="str">
+      <c r="I125" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H125),2)</f>
         <v>B1</v>
       </c>
@@ -4023,7 +4025,7 @@
       <c r="H127" s="1" t="n">
         <v>10110101</v>
       </c>
-      <c r="I127" s="8" t="str">
+      <c r="I127" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H127),2)</f>
         <v>B5</v>
       </c>
@@ -4086,7 +4088,7 @@
       <c r="H129" s="1" t="n">
         <v>10111011</v>
       </c>
-      <c r="I129" s="8" t="str">
+      <c r="I129" s="10" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H129),2)</f>
         <v>BB</v>
       </c>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Instruction Set" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Opcodes" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="330">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -1112,7 +1113,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1153,10 +1154,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1175,13 +1172,28 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
-    <dxf/>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1435,7 +1447,7 @@
       <c r="H6" s="1" t="n">
         <v>10000100</v>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H6),2)</f>
         <v>84</v>
       </c>
@@ -1450,7 +1462,7 @@
       <c r="H7" s="1" t="n">
         <v>10000110</v>
       </c>
-      <c r="I7" s="10" t="str">
+      <c r="I7" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H7),2)</f>
         <v>86</v>
       </c>
@@ -1468,7 +1480,7 @@
       <c r="H8" s="1" t="n">
         <v>10001000</v>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="I8" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H8),2)</f>
         <v>88</v>
       </c>
@@ -1486,7 +1498,7 @@
       <c r="H9" s="1" t="n">
         <v>10001010</v>
       </c>
-      <c r="I9" s="10" t="str">
+      <c r="I9" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H9),2)</f>
         <v>8A</v>
       </c>
@@ -1504,7 +1516,7 @@
       <c r="H10" s="1" t="n">
         <v>10010000</v>
       </c>
-      <c r="I10" s="10" t="str">
+      <c r="I10" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H10),2)</f>
         <v>90</v>
       </c>
@@ -1522,7 +1534,7 @@
       <c r="H11" s="1" t="n">
         <v>10010100</v>
       </c>
-      <c r="I11" s="10" t="str">
+      <c r="I11" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H11),2)</f>
         <v>94</v>
       </c>
@@ -1540,7 +1552,7 @@
       <c r="H12" s="1" t="n">
         <v>10010110</v>
       </c>
-      <c r="I12" s="10" t="str">
+      <c r="I12" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H12),2)</f>
         <v>96</v>
       </c>
@@ -1558,7 +1570,7 @@
       <c r="H13" s="1" t="n">
         <v>10011000</v>
       </c>
-      <c r="I13" s="10" t="str">
+      <c r="I13" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H13),2)</f>
         <v>98</v>
       </c>
@@ -1576,7 +1588,7 @@
       <c r="H14" s="1" t="n">
         <v>10011010</v>
       </c>
-      <c r="I14" s="10" t="str">
+      <c r="I14" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H14),2)</f>
         <v>9A</v>
       </c>
@@ -1594,7 +1606,7 @@
       <c r="H15" s="1" t="n">
         <v>10100000</v>
       </c>
-      <c r="I15" s="10" t="str">
+      <c r="I15" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H15),2)</f>
         <v>A0</v>
       </c>
@@ -1609,7 +1621,7 @@
       <c r="H16" s="1" t="n">
         <v>10100010</v>
       </c>
-      <c r="I16" s="10" t="str">
+      <c r="I16" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H16),2)</f>
         <v>A2</v>
       </c>
@@ -1624,7 +1636,7 @@
       <c r="H17" s="1" t="n">
         <v>10100110</v>
       </c>
-      <c r="I17" s="10" t="str">
+      <c r="I17" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H17),2)</f>
         <v>A6</v>
       </c>
@@ -1639,7 +1651,7 @@
       <c r="H18" s="1" t="n">
         <v>10101000</v>
       </c>
-      <c r="I18" s="10" t="str">
+      <c r="I18" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H18),2)</f>
         <v>A8</v>
       </c>
@@ -1654,7 +1666,7 @@
       <c r="H19" s="1" t="n">
         <v>10101010</v>
       </c>
-      <c r="I19" s="10" t="str">
+      <c r="I19" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H19),2)</f>
         <v>AA</v>
       </c>
@@ -1669,7 +1681,7 @@
       <c r="H20" s="1" t="n">
         <v>10110000</v>
       </c>
-      <c r="I20" s="10" t="str">
+      <c r="I20" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H20),2)</f>
         <v>B0</v>
       </c>
@@ -1684,7 +1696,7 @@
       <c r="H21" s="1" t="n">
         <v>10110010</v>
       </c>
-      <c r="I21" s="10" t="str">
+      <c r="I21" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H21),2)</f>
         <v>B2</v>
       </c>
@@ -1699,7 +1711,7 @@
       <c r="H22" s="1" t="n">
         <v>10110100</v>
       </c>
-      <c r="I22" s="10" t="str">
+      <c r="I22" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H22),2)</f>
         <v>B4</v>
       </c>
@@ -1714,7 +1726,7 @@
       <c r="H23" s="1" t="n">
         <v>10111000</v>
       </c>
-      <c r="I23" s="10" t="str">
+      <c r="I23" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H23),2)</f>
         <v>B8</v>
       </c>
@@ -1729,7 +1741,7 @@
       <c r="H24" s="1" t="n">
         <v>10111010</v>
       </c>
-      <c r="I24" s="10" t="str">
+      <c r="I24" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H24),2)</f>
         <v>BA</v>
       </c>
@@ -1744,7 +1756,7 @@
       <c r="H25" s="1" t="n">
         <v>11000000</v>
       </c>
-      <c r="I25" s="10" t="str">
+      <c r="I25" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H25),2)</f>
         <v>C0</v>
       </c>
@@ -1759,7 +1771,7 @@
       <c r="H26" s="1" t="n">
         <v>11000010</v>
       </c>
-      <c r="I26" s="10" t="str">
+      <c r="I26" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H26),2)</f>
         <v>C2</v>
       </c>
@@ -1774,7 +1786,7 @@
       <c r="H27" s="1" t="n">
         <v>11000100</v>
       </c>
-      <c r="I27" s="10" t="str">
+      <c r="I27" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H27),2)</f>
         <v>C4</v>
       </c>
@@ -1789,7 +1801,7 @@
       <c r="H28" s="1" t="n">
         <v>11000110</v>
       </c>
-      <c r="I28" s="10" t="str">
+      <c r="I28" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H28),2)</f>
         <v>C6</v>
       </c>
@@ -1804,7 +1816,7 @@
       <c r="H29" s="1" t="n">
         <v>11001010</v>
       </c>
-      <c r="I29" s="10" t="str">
+      <c r="I29" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H29),2)</f>
         <v>CA</v>
       </c>
@@ -1819,7 +1831,7 @@
       <c r="H30" s="1" t="n">
         <v>11010000</v>
       </c>
-      <c r="I30" s="10" t="str">
+      <c r="I30" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H30),2)</f>
         <v>D0</v>
       </c>
@@ -1834,7 +1846,7 @@
       <c r="H31" s="1" t="n">
         <v>11010010</v>
       </c>
-      <c r="I31" s="10" t="str">
+      <c r="I31" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H31),2)</f>
         <v>D2</v>
       </c>
@@ -1849,7 +1861,7 @@
       <c r="H32" s="1" t="n">
         <v>11010100</v>
       </c>
-      <c r="I32" s="10" t="str">
+      <c r="I32" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H32),2)</f>
         <v>D4</v>
       </c>
@@ -1864,7 +1876,7 @@
       <c r="H33" s="1" t="n">
         <v>11010110</v>
       </c>
-      <c r="I33" s="10" t="str">
+      <c r="I33" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H33),2)</f>
         <v>D6</v>
       </c>
@@ -1879,7 +1891,7 @@
       <c r="H34" s="1" t="n">
         <v>11011000</v>
       </c>
-      <c r="I34" s="10" t="str">
+      <c r="I34" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H34),2)</f>
         <v>D8</v>
       </c>
@@ -1906,7 +1918,7 @@
       <c r="H35" s="1" t="n">
         <v>10001100</v>
       </c>
-      <c r="I35" s="10" t="str">
+      <c r="I35" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H35),2)</f>
         <v>8C</v>
       </c>
@@ -1924,7 +1936,7 @@
       <c r="H36" s="1" t="n">
         <v>10011100</v>
       </c>
-      <c r="I36" s="10" t="str">
+      <c r="I36" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H36),2)</f>
         <v>9C</v>
       </c>
@@ -1939,7 +1951,7 @@
       <c r="H37" s="1" t="n">
         <v>10101100</v>
       </c>
-      <c r="I37" s="10" t="str">
+      <c r="I37" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H37),2)</f>
         <v>AC</v>
       </c>
@@ -1954,7 +1966,7 @@
       <c r="H38" s="1" t="n">
         <v>10111100</v>
       </c>
-      <c r="I38" s="10" t="str">
+      <c r="I38" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H38),2)</f>
         <v>BC</v>
       </c>
@@ -1969,7 +1981,7 @@
       <c r="H39" s="1" t="n">
         <v>11001100</v>
       </c>
-      <c r="I39" s="10" t="str">
+      <c r="I39" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H39),2)</f>
         <v>CC</v>
       </c>
@@ -1984,7 +1996,7 @@
       <c r="H40" s="1" t="n">
         <v>11011100</v>
       </c>
-      <c r="I40" s="10" t="str">
+      <c r="I40" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H40),2)</f>
         <v>DC</v>
       </c>
@@ -2011,7 +2023,7 @@
       <c r="H41" s="1" t="n">
         <v>11100000</v>
       </c>
-      <c r="I41" s="10" t="str">
+      <c r="I41" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H41),2)</f>
         <v>E0</v>
       </c>
@@ -2029,7 +2041,7 @@
       <c r="H42" s="1" t="n">
         <v>11100010</v>
       </c>
-      <c r="I42" s="10" t="str">
+      <c r="I42" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H42),2)</f>
         <v>E2</v>
       </c>
@@ -2044,7 +2056,7 @@
       <c r="H43" s="1" t="n">
         <v>11100100</v>
       </c>
-      <c r="I43" s="10" t="str">
+      <c r="I43" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H43),2)</f>
         <v>E4</v>
       </c>
@@ -2059,7 +2071,7 @@
       <c r="H44" s="1" t="n">
         <v>11100110</v>
       </c>
-      <c r="I44" s="10" t="str">
+      <c r="I44" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H44),2)</f>
         <v>E6</v>
       </c>
@@ -2074,7 +2086,7 @@
       <c r="H45" s="1" t="n">
         <v>11101000</v>
       </c>
-      <c r="I45" s="10" t="str">
+      <c r="I45" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H45),2)</f>
         <v>E8</v>
       </c>
@@ -2089,7 +2101,7 @@
       <c r="H46" s="1" t="n">
         <v>11101010</v>
       </c>
-      <c r="I46" s="10" t="str">
+      <c r="I46" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H46),2)</f>
         <v>EA</v>
       </c>
@@ -2116,7 +2128,7 @@
       <c r="H47" s="1" t="n">
         <v>10001110</v>
       </c>
-      <c r="I47" s="10" t="str">
+      <c r="I47" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H47),2)</f>
         <v>8E</v>
       </c>
@@ -2137,7 +2149,7 @@
       <c r="H48" s="1" t="n">
         <v>10011110</v>
       </c>
-      <c r="I48" s="10" t="str">
+      <c r="I48" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H48),2)</f>
         <v>9E</v>
       </c>
@@ -2152,7 +2164,7 @@
       <c r="H49" s="1" t="n">
         <v>10101110</v>
       </c>
-      <c r="I49" s="10" t="str">
+      <c r="I49" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H49),2)</f>
         <v>AE</v>
       </c>
@@ -2167,7 +2179,7 @@
       <c r="H50" s="1" t="n">
         <v>10111110</v>
       </c>
-      <c r="I50" s="10" t="str">
+      <c r="I50" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H50),2)</f>
         <v>BE</v>
       </c>
@@ -2182,7 +2194,7 @@
       <c r="H51" s="1" t="n">
         <v>11001110</v>
       </c>
-      <c r="I51" s="10" t="str">
+      <c r="I51" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H51),2)</f>
         <v>CE</v>
       </c>
@@ -2197,7 +2209,7 @@
       <c r="H52" s="1" t="n">
         <v>11011110</v>
       </c>
-      <c r="I52" s="10" t="str">
+      <c r="I52" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H52),2)</f>
         <v>DE</v>
       </c>
@@ -2227,7 +2239,7 @@
       <c r="H53" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I53" s="10" t="str">
+      <c r="I53" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H53),2)</f>
         <v>02</v>
       </c>
@@ -2257,7 +2269,7 @@
       <c r="H54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I54" s="10" t="str">
+      <c r="I54" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H54),2)</f>
         <v>04</v>
       </c>
@@ -2290,7 +2302,7 @@
       <c r="H55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I55" s="10" t="str">
+      <c r="I55" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H55),2)</f>
         <v>10</v>
       </c>
@@ -2323,7 +2335,7 @@
       <c r="H56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I56" s="10" t="str">
+      <c r="I56" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H56),2)</f>
         <v>14</v>
       </c>
@@ -2356,7 +2368,7 @@
       <c r="H57" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I57" s="10" t="str">
+      <c r="I57" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H57),2)</f>
         <v>20</v>
       </c>
@@ -2389,7 +2401,7 @@
       <c r="H58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I58" s="10" t="str">
+      <c r="I58" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H58),2)</f>
         <v>22</v>
       </c>
@@ -2419,7 +2431,7 @@
       <c r="H59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I59" s="10" t="str">
+      <c r="I59" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H59),2)</f>
         <v>0E</v>
       </c>
@@ -2455,7 +2467,7 @@
       <c r="H60" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I60" s="10" t="str">
+      <c r="I60" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H60),2)</f>
         <v>1E</v>
       </c>
@@ -2491,7 +2503,7 @@
       <c r="H61" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I61" s="10" t="str">
+      <c r="I61" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H61),2)</f>
         <v>2E</v>
       </c>
@@ -2557,7 +2569,7 @@
       <c r="H63" s="1" t="n">
         <v>10011101</v>
       </c>
-      <c r="I63" s="10" t="str">
+      <c r="I63" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H63),2)</f>
         <v>9D</v>
       </c>
@@ -2572,7 +2584,7 @@
       <c r="H64" s="1" t="n">
         <v>10101101</v>
       </c>
-      <c r="I64" s="10" t="str">
+      <c r="I64" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H64),2)</f>
         <v>AD</v>
       </c>
@@ -2587,7 +2599,7 @@
       <c r="H65" s="1" t="n">
         <v>10111101</v>
       </c>
-      <c r="I65" s="10" t="str">
+      <c r="I65" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H65),2)</f>
         <v>BD</v>
       </c>
@@ -2602,7 +2614,7 @@
       <c r="H66" s="1" t="n">
         <v>11001101</v>
       </c>
-      <c r="I66" s="10" t="str">
+      <c r="I66" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H66),2)</f>
         <v>CD</v>
       </c>
@@ -2617,7 +2629,7 @@
       <c r="H67" s="1" t="n">
         <v>11011101</v>
       </c>
-      <c r="I67" s="10" t="str">
+      <c r="I67" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H67),2)</f>
         <v>DD</v>
       </c>
@@ -2674,7 +2686,7 @@
       <c r="H69" s="1" t="n">
         <v>11100011</v>
       </c>
-      <c r="I69" s="10" t="str">
+      <c r="I69" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H69),2)</f>
         <v>E3</v>
       </c>
@@ -2689,7 +2701,7 @@
       <c r="H70" s="1" t="n">
         <v>11100101</v>
       </c>
-      <c r="I70" s="10" t="str">
+      <c r="I70" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H70),2)</f>
         <v>E5</v>
       </c>
@@ -2704,7 +2716,7 @@
       <c r="H71" s="1" t="n">
         <v>11100111</v>
       </c>
-      <c r="I71" s="10" t="str">
+      <c r="I71" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H71),2)</f>
         <v>E7</v>
       </c>
@@ -2719,7 +2731,7 @@
       <c r="H72" s="1" t="n">
         <v>11101001</v>
       </c>
-      <c r="I72" s="10" t="str">
+      <c r="I72" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H72),2)</f>
         <v>E9</v>
       </c>
@@ -2734,7 +2746,7 @@
       <c r="H73" s="1" t="n">
         <v>11101011</v>
       </c>
-      <c r="I73" s="10" t="str">
+      <c r="I73" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H73),2)</f>
         <v>EB</v>
       </c>
@@ -2782,7 +2794,7 @@
       <c r="H75" s="1" t="n">
         <v>10010010</v>
       </c>
-      <c r="I75" s="10" t="str">
+      <c r="I75" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H75),2)</f>
         <v>92</v>
       </c>
@@ -2797,7 +2809,7 @@
       <c r="H76" s="1" t="n">
         <v>10100100</v>
       </c>
-      <c r="I76" s="10" t="str">
+      <c r="I76" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H76),2)</f>
         <v>A4</v>
       </c>
@@ -2812,7 +2824,7 @@
       <c r="H77" s="1" t="n">
         <v>10110110</v>
       </c>
-      <c r="I77" s="10" t="str">
+      <c r="I77" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H77),2)</f>
         <v>B6</v>
       </c>
@@ -2827,7 +2839,7 @@
       <c r="H78" s="1" t="n">
         <v>11001000</v>
       </c>
-      <c r="I78" s="10" t="str">
+      <c r="I78" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H78),2)</f>
         <v>C8</v>
       </c>
@@ -2842,7 +2854,7 @@
       <c r="H79" s="1" t="n">
         <v>11011010</v>
       </c>
-      <c r="I79" s="10" t="str">
+      <c r="I79" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H79),2)</f>
         <v>DA</v>
       </c>
@@ -2890,7 +2902,7 @@
       <c r="H81" s="1" t="n">
         <v>10010011</v>
       </c>
-      <c r="I81" s="10" t="str">
+      <c r="I81" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H81),2)</f>
         <v>93</v>
       </c>
@@ -2905,7 +2917,7 @@
       <c r="H82" s="1" t="n">
         <v>10100101</v>
       </c>
-      <c r="I82" s="10" t="str">
+      <c r="I82" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H82),2)</f>
         <v>A5</v>
       </c>
@@ -2920,7 +2932,7 @@
       <c r="H83" s="1" t="n">
         <v>10110111</v>
       </c>
-      <c r="I83" s="10" t="str">
+      <c r="I83" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H83),2)</f>
         <v>B7</v>
       </c>
@@ -2935,7 +2947,7 @@
       <c r="H84" s="1" t="n">
         <v>11001001</v>
       </c>
-      <c r="I84" s="10" t="str">
+      <c r="I84" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H84),2)</f>
         <v>C9</v>
       </c>
@@ -2950,7 +2962,7 @@
       <c r="H85" s="1" t="n">
         <v>11011011</v>
       </c>
-      <c r="I85" s="10" t="str">
+      <c r="I85" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H85),2)</f>
         <v>DB</v>
       </c>
@@ -2998,7 +3010,7 @@
       <c r="H87" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I87" s="10" t="str">
+      <c r="I87" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H87),2)</f>
         <v>62</v>
       </c>
@@ -3014,7 +3026,7 @@
       <c r="H88" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I88" s="10" t="str">
+      <c r="I88" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H88),2)</f>
         <v>64</v>
       </c>
@@ -3029,7 +3041,7 @@
       <c r="H89" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I89" s="10" t="str">
+      <c r="I89" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H89),2)</f>
         <v>66</v>
       </c>
@@ -3044,7 +3056,7 @@
       <c r="H90" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I90" s="10" t="str">
+      <c r="I90" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H90),2)</f>
         <v>68</v>
       </c>
@@ -3059,7 +3071,7 @@
       <c r="H91" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I91" s="10" t="str">
+      <c r="I91" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H91),2)</f>
         <v>6A</v>
       </c>
@@ -3083,7 +3095,7 @@
       <c r="H92" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I92" s="10" t="str">
+      <c r="I92" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H92),2)</f>
         <v>6C</v>
       </c>
@@ -3113,7 +3125,7 @@
       <c r="H93" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I93" s="10" t="str">
+      <c r="I93" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H93),2)</f>
         <v>6E</v>
       </c>
@@ -3167,7 +3179,7 @@
       <c r="H95" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I95" s="10" t="str">
+      <c r="I95" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H95),2)</f>
         <v>63</v>
       </c>
@@ -3183,7 +3195,7 @@
       <c r="H96" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I96" s="10" t="str">
+      <c r="I96" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H96),2)</f>
         <v>65</v>
       </c>
@@ -3198,7 +3210,7 @@
       <c r="H97" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I97" s="10" t="str">
+      <c r="I97" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H97),2)</f>
         <v>67</v>
       </c>
@@ -3213,7 +3225,7 @@
       <c r="H98" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I98" s="10" t="str">
+      <c r="I98" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H98),2)</f>
         <v>69</v>
       </c>
@@ -3228,7 +3240,7 @@
       <c r="H99" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I99" s="10" t="str">
+      <c r="I99" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H99),2)</f>
         <v>6B</v>
       </c>
@@ -3252,7 +3264,7 @@
       <c r="H100" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I100" s="10" t="str">
+      <c r="I100" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H100),2)</f>
         <v>6D</v>
       </c>
@@ -3282,7 +3294,7 @@
       <c r="H101" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I101" s="10" t="str">
+      <c r="I101" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H101),2)</f>
         <v>6F</v>
       </c>
@@ -3300,7 +3312,7 @@
       <c r="B102" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="10" t="s">
         <v>227</v>
       </c>
       <c r="D102" s="6" t="s">
@@ -3333,7 +3345,7 @@
       <c r="H103" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I103" s="10" t="str">
+      <c r="I103" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H103),2)</f>
         <v>72</v>
       </c>
@@ -3345,14 +3357,14 @@
       <c r="A104" s="6" t="n">
         <v>103</v>
       </c>
-      <c r="C104" s="12"/>
+      <c r="C104" s="11"/>
       <c r="G104" s="0" t="s">
         <v>234</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I104" s="10" t="str">
+      <c r="I104" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H104),2)</f>
         <v>74</v>
       </c>
@@ -3361,14 +3373,14 @@
       <c r="A105" s="6" t="n">
         <v>104</v>
       </c>
-      <c r="C105" s="12"/>
+      <c r="C105" s="11"/>
       <c r="G105" s="0" t="s">
         <v>236</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I105" s="10" t="str">
+      <c r="I105" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H105),2)</f>
         <v>76</v>
       </c>
@@ -3377,14 +3389,14 @@
       <c r="A106" s="6" t="n">
         <v>105</v>
       </c>
-      <c r="C106" s="12"/>
+      <c r="C106" s="11"/>
       <c r="G106" s="0" t="s">
         <v>238</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I106" s="10" t="str">
+      <c r="I106" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H106),2)</f>
         <v>78</v>
       </c>
@@ -3393,14 +3405,14 @@
       <c r="A107" s="6" t="n">
         <v>106</v>
       </c>
-      <c r="C107" s="12"/>
+      <c r="C107" s="11"/>
       <c r="G107" s="0" t="s">
         <v>240</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I107" s="10" t="str">
+      <c r="I107" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H107),2)</f>
         <v>7A</v>
       </c>
@@ -3412,7 +3424,7 @@
       <c r="B108" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C108" s="12"/>
+      <c r="C108" s="11"/>
       <c r="D108" s="0" t="s">
         <v>68</v>
       </c>
@@ -3425,7 +3437,7 @@
       <c r="H108" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="I108" s="10" t="str">
+      <c r="I108" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H108),2)</f>
         <v>7C</v>
       </c>
@@ -3455,7 +3467,7 @@
       <c r="H109" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I109" s="10" t="str">
+      <c r="I109" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H109),2)</f>
         <v>7E</v>
       </c>
@@ -3521,7 +3533,7 @@
       <c r="H111" s="1" t="n">
         <v>10000101</v>
       </c>
-      <c r="I111" s="10" t="str">
+      <c r="I111" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H111),2)</f>
         <v>85</v>
       </c>
@@ -3584,7 +3596,7 @@
       <c r="H113" s="1" t="n">
         <v>10001001</v>
       </c>
-      <c r="I113" s="10" t="str">
+      <c r="I113" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H113),2)</f>
         <v>89</v>
       </c>
@@ -3647,7 +3659,7 @@
       <c r="H115" s="1" t="n">
         <v>10010001</v>
       </c>
-      <c r="I115" s="10" t="str">
+      <c r="I115" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H115),2)</f>
         <v>91</v>
       </c>
@@ -3710,7 +3722,7 @@
       <c r="H117" s="1" t="n">
         <v>10010111</v>
       </c>
-      <c r="I117" s="10" t="str">
+      <c r="I117" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H117),2)</f>
         <v>97</v>
       </c>
@@ -3773,7 +3785,7 @@
       <c r="H119" s="1" t="n">
         <v>10011011</v>
       </c>
-      <c r="I119" s="10" t="str">
+      <c r="I119" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H119),2)</f>
         <v>9B</v>
       </c>
@@ -3836,7 +3848,7 @@
       <c r="H121" s="1" t="n">
         <v>10100011</v>
       </c>
-      <c r="I121" s="10" t="str">
+      <c r="I121" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H121),2)</f>
         <v>A3</v>
       </c>
@@ -3899,7 +3911,7 @@
       <c r="H123" s="1" t="n">
         <v>10101001</v>
       </c>
-      <c r="I123" s="10" t="str">
+      <c r="I123" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H123),2)</f>
         <v>A9</v>
       </c>
@@ -3962,7 +3974,7 @@
       <c r="H125" s="1" t="n">
         <v>10110001</v>
       </c>
-      <c r="I125" s="10" t="str">
+      <c r="I125" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H125),2)</f>
         <v>B1</v>
       </c>
@@ -4025,7 +4037,7 @@
       <c r="H127" s="1" t="n">
         <v>10110101</v>
       </c>
-      <c r="I127" s="10" t="str">
+      <c r="I127" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H127),2)</f>
         <v>B5</v>
       </c>
@@ -4088,7 +4100,7 @@
       <c r="H129" s="1" t="n">
         <v>10111011</v>
       </c>
-      <c r="I129" s="10" t="str">
+      <c r="I129" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H129),2)</f>
         <v>BB</v>
       </c>
@@ -4249,4 +4261,4403 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D257"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D2,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D2,'Instruction Set'!I:I,0)))</f>
+        <v>NOP</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f aca="false">DEC2BIN(A2,8)</f>
+        <v>00000000</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f aca="false">DEC2HEX(A2,2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D3,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D3,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f aca="false">DEC2BIN(A3,8)</f>
+        <v>00000001</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f aca="false">DEC2HEX(A3,2)</f>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D4,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D4,'Instruction Set'!I:I,0)))</f>
+        <v>MOV HL,IP</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f aca="false">DEC2BIN(A4,8)</f>
+        <v>00000010</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f aca="false">DEC2HEX(A4,2)</f>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D5,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D5,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f aca="false">DEC2BIN(A5,8)</f>
+        <v>00000011</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f aca="false">DEC2HEX(A5,2)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D6,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D6,'Instruction Set'!I:I,0)))</f>
+        <v>MOV HL,SP</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f aca="false">DEC2BIN(A6,8)</f>
+        <v>00000100</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f aca="false">DEC2HEX(A6,2)</f>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D7,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D7,'Instruction Set'!I:I,0)))</f>
+        <v>RET</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f aca="false">DEC2BIN(A7,8)</f>
+        <v>00000101</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f aca="false">DEC2HEX(A7,2)</f>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D8,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D8,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f aca="false">DEC2BIN(A8,8)</f>
+        <v>00000110</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f aca="false">DEC2HEX(A8,2)</f>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D9,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D9,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f aca="false">DEC2BIN(A9,8)</f>
+        <v>00000111</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f aca="false">DEC2HEX(A9,2)</f>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D10,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D10,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f aca="false">DEC2BIN(A10,8)</f>
+        <v>00001000</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f aca="false">DEC2HEX(A10,2)</f>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D11,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D11,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f aca="false">DEC2BIN(A11,8)</f>
+        <v>00001001</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f aca="false">DEC2HEX(A11,2)</f>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D12,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D12,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f aca="false">DEC2BIN(A12,8)</f>
+        <v>00001010</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f aca="false">DEC2HEX(A12,2)</f>
+        <v>0A</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D13,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D13,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f aca="false">DEC2BIN(A13,8)</f>
+        <v>00001011</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f aca="false">DEC2HEX(A13,2)</f>
+        <v>0B</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D14,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D14,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f aca="false">DEC2BIN(A14,8)</f>
+        <v>00001100</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f aca="false">DEC2HEX(A14,2)</f>
+        <v>0C</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D15,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D15,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f aca="false">DEC2BIN(A15,8)</f>
+        <v>00001101</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f aca="false">DEC2HEX(A15,2)</f>
+        <v>0D</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D16,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D16,'Instruction Set'!I:I,0)))</f>
+        <v>MOV HL,data</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">DEC2BIN(A16,8)</f>
+        <v>00001110</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f aca="false">DEC2HEX(A16,2)</f>
+        <v>0E</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D17,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D17,'Instruction Set'!I:I,0)))</f>
+        <v>RC</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f aca="false">DEC2BIN(A17,8)</f>
+        <v>00001111</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f aca="false">DEC2HEX(A17,2)</f>
+        <v>0F</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D18,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D18,'Instruction Set'!I:I,0)))</f>
+        <v>MOV IP,HL</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f aca="false">DEC2BIN(A18,8)</f>
+        <v>00010000</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f aca="false">DEC2HEX(A18,2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D19,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D19,'Instruction Set'!I:I,0)))</f>
+        <v>RNC</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f aca="false">DEC2BIN(A19,8)</f>
+        <v>00010001</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f aca="false">DEC2HEX(A19,2)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D20,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D20,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f aca="false">DEC2BIN(A20,8)</f>
+        <v>00010010</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f aca="false">DEC2HEX(A20,2)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D21,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D21,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f aca="false">DEC2BIN(A21,8)</f>
+        <v>00010011</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f aca="false">DEC2HEX(A21,2)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D22,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D22,'Instruction Set'!I:I,0)))</f>
+        <v>MOV IP,SP</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f aca="false">DEC2BIN(A22,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f aca="false">DEC2HEX(A22,2)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D23,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D23,'Instruction Set'!I:I,0)))</f>
+        <v>RZ</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f aca="false">DEC2BIN(A23,8)</f>
+        <v>00010101</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f aca="false">DEC2HEX(A23,2)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D24,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D24,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f aca="false">DEC2BIN(A24,8)</f>
+        <v>00010110</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f aca="false">DEC2HEX(A24,2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D25,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D25,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f aca="false">DEC2BIN(A25,8)</f>
+        <v>00010111</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f aca="false">DEC2HEX(A25,2)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D26,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D26,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f aca="false">DEC2BIN(A26,8)</f>
+        <v>00011000</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f aca="false">DEC2HEX(A26,2)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D27,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D27,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f aca="false">DEC2BIN(A27,8)</f>
+        <v>00011001</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f aca="false">DEC2HEX(A27,2)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D28,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D28,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f aca="false">DEC2BIN(A28,8)</f>
+        <v>00011010</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f aca="false">DEC2HEX(A28,2)</f>
+        <v>1A</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D29,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D29,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f aca="false">DEC2BIN(A29,8)</f>
+        <v>00011011</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f aca="false">DEC2HEX(A29,2)</f>
+        <v>1B</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D30,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D30,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f aca="false">DEC2BIN(A30,8)</f>
+        <v>00011100</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f aca="false">DEC2HEX(A30,2)</f>
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D31,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D31,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C31" s="2" t="str">
+        <f aca="false">DEC2BIN(A31,8)</f>
+        <v>00011101</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f aca="false">DEC2HEX(A31,2)</f>
+        <v>1D</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D32,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D32,'Instruction Set'!I:I,0)))</f>
+        <v>MOV IP,data</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f aca="false">DEC2BIN(A32,8)</f>
+        <v>00011110</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f aca="false">DEC2HEX(A32,2)</f>
+        <v>1E</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D33,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D33,'Instruction Set'!I:I,0)))</f>
+        <v>RNZ</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f aca="false">DEC2BIN(A33,8)</f>
+        <v>00011111</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f aca="false">DEC2HEX(A33,2)</f>
+        <v>1F</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D34,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D34,'Instruction Set'!I:I,0)))</f>
+        <v>MOV SP,HL</v>
+      </c>
+      <c r="C34" s="2" t="str">
+        <f aca="false">DEC2BIN(A34,8)</f>
+        <v>00100000</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f aca="false">DEC2HEX(A34,2)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D35,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D35,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f aca="false">DEC2BIN(A35,8)</f>
+        <v>00100001</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f aca="false">DEC2HEX(A35,2)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D36,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D36,'Instruction Set'!I:I,0)))</f>
+        <v>MOV SP,IP</v>
+      </c>
+      <c r="C36" s="2" t="str">
+        <f aca="false">DEC2BIN(A36,8)</f>
+        <v>00100010</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f aca="false">DEC2HEX(A36,2)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D37,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D37,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f aca="false">DEC2BIN(A37,8)</f>
+        <v>00100011</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f aca="false">DEC2HEX(A37,2)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D38,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D38,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f aca="false">DEC2BIN(A38,8)</f>
+        <v>00100100</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f aca="false">DEC2HEX(A38,2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D39,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D39,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f aca="false">DEC2BIN(A39,8)</f>
+        <v>00100101</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f aca="false">DEC2HEX(A39,2)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D40,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D40,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f aca="false">DEC2BIN(A40,8)</f>
+        <v>00100110</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f aca="false">DEC2HEX(A40,2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D41,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D41,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f aca="false">DEC2BIN(A41,8)</f>
+        <v>00100111</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f aca="false">DEC2HEX(A41,2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D42,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D42,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f aca="false">DEC2BIN(A42,8)</f>
+        <v>00101000</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f aca="false">DEC2HEX(A42,2)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D43,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D43,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f aca="false">DEC2BIN(A43,8)</f>
+        <v>00101001</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f aca="false">DEC2HEX(A43,2)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D44,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D44,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f aca="false">DEC2BIN(A44,8)</f>
+        <v>00101010</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f aca="false">DEC2HEX(A44,2)</f>
+        <v>2A</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D45,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D45,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f aca="false">DEC2BIN(A45,8)</f>
+        <v>00101011</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f aca="false">DEC2HEX(A45,2)</f>
+        <v>2B</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D46,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D46,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C46" s="2" t="str">
+        <f aca="false">DEC2BIN(A46,8)</f>
+        <v>00101100</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f aca="false">DEC2HEX(A46,2)</f>
+        <v>2C</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D47,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D47,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f aca="false">DEC2BIN(A47,8)</f>
+        <v>00101101</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f aca="false">DEC2HEX(A47,2)</f>
+        <v>2D</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D48,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D48,'Instruction Set'!I:I,0)))</f>
+        <v>MOV SP,data</v>
+      </c>
+      <c r="C48" s="2" t="str">
+        <f aca="false">DEC2BIN(A48,8)</f>
+        <v>00101110</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f aca="false">DEC2HEX(A48,2)</f>
+        <v>2E</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D49,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D49,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C49" s="2" t="str">
+        <f aca="false">DEC2BIN(A49,8)</f>
+        <v>00101111</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f aca="false">DEC2HEX(A49,2)</f>
+        <v>2F</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D50,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D50,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C50" s="2" t="str">
+        <f aca="false">DEC2BIN(A50,8)</f>
+        <v>00110000</v>
+      </c>
+      <c r="D50" s="2" t="str">
+        <f aca="false">DEC2HEX(A50,2)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D51,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D51,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C51" s="2" t="str">
+        <f aca="false">DEC2BIN(A51,8)</f>
+        <v>00110001</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f aca="false">DEC2HEX(A51,2)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D52,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D52,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C52" s="2" t="str">
+        <f aca="false">DEC2BIN(A52,8)</f>
+        <v>00110010</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f aca="false">DEC2HEX(A52,2)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D53,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D53,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C53" s="2" t="str">
+        <f aca="false">DEC2BIN(A53,8)</f>
+        <v>00110011</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f aca="false">DEC2HEX(A53,2)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D54,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D54,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C54" s="2" t="str">
+        <f aca="false">DEC2BIN(A54,8)</f>
+        <v>00110100</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f aca="false">DEC2HEX(A54,2)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D55,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D55,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C55" s="2" t="str">
+        <f aca="false">DEC2BIN(A55,8)</f>
+        <v>00110101</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f aca="false">DEC2HEX(A55,2)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D56,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D56,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C56" s="2" t="str">
+        <f aca="false">DEC2BIN(A56,8)</f>
+        <v>00110110</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f aca="false">DEC2HEX(A56,2)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D57,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D57,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C57" s="2" t="str">
+        <f aca="false">DEC2BIN(A57,8)</f>
+        <v>00110111</v>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f aca="false">DEC2HEX(A57,2)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D58,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D58,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C58" s="2" t="str">
+        <f aca="false">DEC2BIN(A58,8)</f>
+        <v>00111000</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f aca="false">DEC2HEX(A58,2)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D59,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D59,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C59" s="2" t="str">
+        <f aca="false">DEC2BIN(A59,8)</f>
+        <v>00111001</v>
+      </c>
+      <c r="D59" s="2" t="str">
+        <f aca="false">DEC2HEX(A59,2)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D60,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D60,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C60" s="2" t="str">
+        <f aca="false">DEC2BIN(A60,8)</f>
+        <v>00111010</v>
+      </c>
+      <c r="D60" s="2" t="str">
+        <f aca="false">DEC2HEX(A60,2)</f>
+        <v>3A</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D61,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D61,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C61" s="2" t="str">
+        <f aca="false">DEC2BIN(A61,8)</f>
+        <v>00111011</v>
+      </c>
+      <c r="D61" s="2" t="str">
+        <f aca="false">DEC2HEX(A61,2)</f>
+        <v>3B</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D62,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D62,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C62" s="2" t="str">
+        <f aca="false">DEC2BIN(A62,8)</f>
+        <v>00111100</v>
+      </c>
+      <c r="D62" s="2" t="str">
+        <f aca="false">DEC2HEX(A62,2)</f>
+        <v>3C</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D63,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D63,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C63" s="2" t="str">
+        <f aca="false">DEC2BIN(A63,8)</f>
+        <v>00111101</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <f aca="false">DEC2HEX(A63,2)</f>
+        <v>3D</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D64,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D64,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C64" s="2" t="str">
+        <f aca="false">DEC2BIN(A64,8)</f>
+        <v>00111110</v>
+      </c>
+      <c r="D64" s="2" t="str">
+        <f aca="false">DEC2HEX(A64,2)</f>
+        <v>3E</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D65,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D65,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C65" s="2" t="str">
+        <f aca="false">DEC2BIN(A65,8)</f>
+        <v>00111111</v>
+      </c>
+      <c r="D65" s="2" t="str">
+        <f aca="false">DEC2HEX(A65,2)</f>
+        <v>3F</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D66,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D66,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C66" s="2" t="str">
+        <f aca="false">DEC2BIN(A66,8)</f>
+        <v>01000000</v>
+      </c>
+      <c r="D66" s="2" t="str">
+        <f aca="false">DEC2HEX(A66,2)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D67,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D67,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C67" s="2" t="str">
+        <f aca="false">DEC2BIN(A67,8)</f>
+        <v>01000001</v>
+      </c>
+      <c r="D67" s="2" t="str">
+        <f aca="false">DEC2HEX(A67,2)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D68,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D68,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C68" s="2" t="str">
+        <f aca="false">DEC2BIN(A68,8)</f>
+        <v>01000010</v>
+      </c>
+      <c r="D68" s="2" t="str">
+        <f aca="false">DEC2HEX(A68,2)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D69,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D69,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C69" s="2" t="str">
+        <f aca="false">DEC2BIN(A69,8)</f>
+        <v>01000011</v>
+      </c>
+      <c r="D69" s="2" t="str">
+        <f aca="false">DEC2HEX(A69,2)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D70,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D70,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C70" s="2" t="str">
+        <f aca="false">DEC2BIN(A70,8)</f>
+        <v>01000100</v>
+      </c>
+      <c r="D70" s="2" t="str">
+        <f aca="false">DEC2HEX(A70,2)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D71,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D71,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C71" s="2" t="str">
+        <f aca="false">DEC2BIN(A71,8)</f>
+        <v>01000101</v>
+      </c>
+      <c r="D71" s="2" t="str">
+        <f aca="false">DEC2HEX(A71,2)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D72,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D72,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C72" s="2" t="str">
+        <f aca="false">DEC2BIN(A72,8)</f>
+        <v>01000110</v>
+      </c>
+      <c r="D72" s="2" t="str">
+        <f aca="false">DEC2HEX(A72,2)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D73,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D73,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C73" s="2" t="str">
+        <f aca="false">DEC2BIN(A73,8)</f>
+        <v>01000111</v>
+      </c>
+      <c r="D73" s="2" t="str">
+        <f aca="false">DEC2HEX(A73,2)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D74,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D74,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C74" s="2" t="str">
+        <f aca="false">DEC2BIN(A74,8)</f>
+        <v>01001000</v>
+      </c>
+      <c r="D74" s="2" t="str">
+        <f aca="false">DEC2HEX(A74,2)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D75,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D75,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C75" s="2" t="str">
+        <f aca="false">DEC2BIN(A75,8)</f>
+        <v>01001001</v>
+      </c>
+      <c r="D75" s="2" t="str">
+        <f aca="false">DEC2HEX(A75,2)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D76,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D76,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C76" s="2" t="str">
+        <f aca="false">DEC2BIN(A76,8)</f>
+        <v>01001010</v>
+      </c>
+      <c r="D76" s="2" t="str">
+        <f aca="false">DEC2HEX(A76,2)</f>
+        <v>4A</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D77,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D77,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C77" s="2" t="str">
+        <f aca="false">DEC2BIN(A77,8)</f>
+        <v>01001011</v>
+      </c>
+      <c r="D77" s="2" t="str">
+        <f aca="false">DEC2HEX(A77,2)</f>
+        <v>4B</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D78,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D78,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C78" s="2" t="str">
+        <f aca="false">DEC2BIN(A78,8)</f>
+        <v>01001100</v>
+      </c>
+      <c r="D78" s="2" t="str">
+        <f aca="false">DEC2HEX(A78,2)</f>
+        <v>4C</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D79,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D79,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C79" s="2" t="str">
+        <f aca="false">DEC2BIN(A79,8)</f>
+        <v>01001101</v>
+      </c>
+      <c r="D79" s="2" t="str">
+        <f aca="false">DEC2HEX(A79,2)</f>
+        <v>4D</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D80,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D80,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C80" s="2" t="str">
+        <f aca="false">DEC2BIN(A80,8)</f>
+        <v>01001110</v>
+      </c>
+      <c r="D80" s="2" t="str">
+        <f aca="false">DEC2HEX(A80,2)</f>
+        <v>4E</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D81,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D81,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C81" s="2" t="str">
+        <f aca="false">DEC2BIN(A81,8)</f>
+        <v>01001111</v>
+      </c>
+      <c r="D81" s="2" t="str">
+        <f aca="false">DEC2HEX(A81,2)</f>
+        <v>4F</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D82,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D82,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C82" s="2" t="str">
+        <f aca="false">DEC2BIN(A82,8)</f>
+        <v>01010000</v>
+      </c>
+      <c r="D82" s="2" t="str">
+        <f aca="false">DEC2HEX(A82,2)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D83,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D83,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C83" s="2" t="str">
+        <f aca="false">DEC2BIN(A83,8)</f>
+        <v>01010001</v>
+      </c>
+      <c r="D83" s="2" t="str">
+        <f aca="false">DEC2HEX(A83,2)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D84,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D84,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C84" s="2" t="str">
+        <f aca="false">DEC2BIN(A84,8)</f>
+        <v>01010010</v>
+      </c>
+      <c r="D84" s="2" t="str">
+        <f aca="false">DEC2HEX(A84,2)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D85,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D85,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C85" s="2" t="str">
+        <f aca="false">DEC2BIN(A85,8)</f>
+        <v>01010011</v>
+      </c>
+      <c r="D85" s="2" t="str">
+        <f aca="false">DEC2HEX(A85,2)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D86,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D86,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C86" s="2" t="str">
+        <f aca="false">DEC2BIN(A86,8)</f>
+        <v>01010100</v>
+      </c>
+      <c r="D86" s="2" t="str">
+        <f aca="false">DEC2HEX(A86,2)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D87,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D87,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C87" s="2" t="str">
+        <f aca="false">DEC2BIN(A87,8)</f>
+        <v>01010101</v>
+      </c>
+      <c r="D87" s="2" t="str">
+        <f aca="false">DEC2HEX(A87,2)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D88,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D88,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C88" s="2" t="str">
+        <f aca="false">DEC2BIN(A88,8)</f>
+        <v>01010110</v>
+      </c>
+      <c r="D88" s="2" t="str">
+        <f aca="false">DEC2HEX(A88,2)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D89,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D89,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C89" s="2" t="str">
+        <f aca="false">DEC2BIN(A89,8)</f>
+        <v>01010111</v>
+      </c>
+      <c r="D89" s="2" t="str">
+        <f aca="false">DEC2HEX(A89,2)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D90,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D90,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C90" s="2" t="str">
+        <f aca="false">DEC2BIN(A90,8)</f>
+        <v>01011000</v>
+      </c>
+      <c r="D90" s="2" t="str">
+        <f aca="false">DEC2HEX(A90,2)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D91,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D91,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C91" s="2" t="str">
+        <f aca="false">DEC2BIN(A91,8)</f>
+        <v>01011001</v>
+      </c>
+      <c r="D91" s="2" t="str">
+        <f aca="false">DEC2HEX(A91,2)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D92,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D92,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C92" s="2" t="str">
+        <f aca="false">DEC2BIN(A92,8)</f>
+        <v>01011010</v>
+      </c>
+      <c r="D92" s="2" t="str">
+        <f aca="false">DEC2HEX(A92,2)</f>
+        <v>5A</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D93,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D93,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C93" s="2" t="str">
+        <f aca="false">DEC2BIN(A93,8)</f>
+        <v>01011011</v>
+      </c>
+      <c r="D93" s="2" t="str">
+        <f aca="false">DEC2HEX(A93,2)</f>
+        <v>5B</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D94,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D94,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C94" s="2" t="str">
+        <f aca="false">DEC2BIN(A94,8)</f>
+        <v>01011100</v>
+      </c>
+      <c r="D94" s="2" t="str">
+        <f aca="false">DEC2HEX(A94,2)</f>
+        <v>5C</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D95,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D95,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C95" s="2" t="str">
+        <f aca="false">DEC2BIN(A95,8)</f>
+        <v>01011101</v>
+      </c>
+      <c r="D95" s="2" t="str">
+        <f aca="false">DEC2HEX(A95,2)</f>
+        <v>5D</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D96,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D96,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C96" s="2" t="str">
+        <f aca="false">DEC2BIN(A96,8)</f>
+        <v>01011110</v>
+      </c>
+      <c r="D96" s="2" t="str">
+        <f aca="false">DEC2HEX(A96,2)</f>
+        <v>5E</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D97,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D97,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C97" s="2" t="str">
+        <f aca="false">DEC2BIN(A97,8)</f>
+        <v>01011111</v>
+      </c>
+      <c r="D97" s="2" t="str">
+        <f aca="false">DEC2HEX(A97,2)</f>
+        <v>5F</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D98,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D98,'Instruction Set'!I:I,0)))</f>
+        <v>ADD A</v>
+      </c>
+      <c r="C98" s="2" t="str">
+        <f aca="false">DEC2BIN(A98,8)</f>
+        <v>01100000</v>
+      </c>
+      <c r="D98" s="2" t="str">
+        <f aca="false">DEC2HEX(A98,2)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D99,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D99,'Instruction Set'!I:I,0)))</f>
+        <v>SUB A</v>
+      </c>
+      <c r="C99" s="2" t="str">
+        <f aca="false">DEC2BIN(A99,8)</f>
+        <v>01100001</v>
+      </c>
+      <c r="D99" s="2" t="str">
+        <f aca="false">DEC2HEX(A99,2)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D100,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D100,'Instruction Set'!I:I,0)))</f>
+        <v>ADD B</v>
+      </c>
+      <c r="C100" s="2" t="str">
+        <f aca="false">DEC2BIN(A100,8)</f>
+        <v>01100010</v>
+      </c>
+      <c r="D100" s="2" t="str">
+        <f aca="false">DEC2HEX(A100,2)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D101,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D101,'Instruction Set'!I:I,0)))</f>
+        <v>SUB B</v>
+      </c>
+      <c r="C101" s="2" t="str">
+        <f aca="false">DEC2BIN(A101,8)</f>
+        <v>01100011</v>
+      </c>
+      <c r="D101" s="2" t="str">
+        <f aca="false">DEC2HEX(A101,2)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D102,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D102,'Instruction Set'!I:I,0)))</f>
+        <v>ADD C</v>
+      </c>
+      <c r="C102" s="2" t="str">
+        <f aca="false">DEC2BIN(A102,8)</f>
+        <v>01100100</v>
+      </c>
+      <c r="D102" s="2" t="str">
+        <f aca="false">DEC2HEX(A102,2)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D103,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D103,'Instruction Set'!I:I,0)))</f>
+        <v>SUB C</v>
+      </c>
+      <c r="C103" s="2" t="str">
+        <f aca="false">DEC2BIN(A103,8)</f>
+        <v>01100101</v>
+      </c>
+      <c r="D103" s="2" t="str">
+        <f aca="false">DEC2HEX(A103,2)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D104,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D104,'Instruction Set'!I:I,0)))</f>
+        <v>ADD D</v>
+      </c>
+      <c r="C104" s="2" t="str">
+        <f aca="false">DEC2BIN(A104,8)</f>
+        <v>01100110</v>
+      </c>
+      <c r="D104" s="2" t="str">
+        <f aca="false">DEC2HEX(A104,2)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D105,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D105,'Instruction Set'!I:I,0)))</f>
+        <v>SUB D</v>
+      </c>
+      <c r="C105" s="2" t="str">
+        <f aca="false">DEC2BIN(A105,8)</f>
+        <v>01100111</v>
+      </c>
+      <c r="D105" s="2" t="str">
+        <f aca="false">DEC2HEX(A105,2)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D106,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D106,'Instruction Set'!I:I,0)))</f>
+        <v>ADD H</v>
+      </c>
+      <c r="C106" s="2" t="str">
+        <f aca="false">DEC2BIN(A106,8)</f>
+        <v>01101000</v>
+      </c>
+      <c r="D106" s="2" t="str">
+        <f aca="false">DEC2HEX(A106,2)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D107,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D107,'Instruction Set'!I:I,0)))</f>
+        <v>SUB H</v>
+      </c>
+      <c r="C107" s="2" t="str">
+        <f aca="false">DEC2BIN(A107,8)</f>
+        <v>01101001</v>
+      </c>
+      <c r="D107" s="2" t="str">
+        <f aca="false">DEC2HEX(A107,2)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D108,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D108,'Instruction Set'!I:I,0)))</f>
+        <v>ADD L</v>
+      </c>
+      <c r="C108" s="2" t="str">
+        <f aca="false">DEC2BIN(A108,8)</f>
+        <v>01101010</v>
+      </c>
+      <c r="D108" s="2" t="str">
+        <f aca="false">DEC2HEX(A108,2)</f>
+        <v>6A</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D109,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D109,'Instruction Set'!I:I,0)))</f>
+        <v>SUB L</v>
+      </c>
+      <c r="C109" s="2" t="str">
+        <f aca="false">DEC2BIN(A109,8)</f>
+        <v>01101011</v>
+      </c>
+      <c r="D109" s="2" t="str">
+        <f aca="false">DEC2HEX(A109,2)</f>
+        <v>6B</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D110,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D110,'Instruction Set'!I:I,0)))</f>
+        <v>ADD M</v>
+      </c>
+      <c r="C110" s="2" t="str">
+        <f aca="false">DEC2BIN(A110,8)</f>
+        <v>01101100</v>
+      </c>
+      <c r="D110" s="2" t="str">
+        <f aca="false">DEC2HEX(A110,2)</f>
+        <v>6C</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D111,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D111,'Instruction Set'!I:I,0)))</f>
+        <v>SUB M</v>
+      </c>
+      <c r="C111" s="2" t="str">
+        <f aca="false">DEC2BIN(A111,8)</f>
+        <v>01101101</v>
+      </c>
+      <c r="D111" s="2" t="str">
+        <f aca="false">DEC2HEX(A111,2)</f>
+        <v>6D</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D112,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D112,'Instruction Set'!I:I,0)))</f>
+        <v>ADD data</v>
+      </c>
+      <c r="C112" s="2" t="str">
+        <f aca="false">DEC2BIN(A112,8)</f>
+        <v>01101110</v>
+      </c>
+      <c r="D112" s="2" t="str">
+        <f aca="false">DEC2HEX(A112,2)</f>
+        <v>6E</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D113,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D113,'Instruction Set'!I:I,0)))</f>
+        <v>SUB data</v>
+      </c>
+      <c r="C113" s="2" t="str">
+        <f aca="false">DEC2BIN(A113,8)</f>
+        <v>01101111</v>
+      </c>
+      <c r="D113" s="2" t="str">
+        <f aca="false">DEC2HEX(A113,2)</f>
+        <v>6F</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D114,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D114,'Instruction Set'!I:I,0)))</f>
+        <v>CMP A</v>
+      </c>
+      <c r="C114" s="2" t="str">
+        <f aca="false">DEC2BIN(A114,8)</f>
+        <v>01110000</v>
+      </c>
+      <c r="D114" s="2" t="str">
+        <f aca="false">DEC2HEX(A114,2)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="6" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D115,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D115,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C115" s="2" t="str">
+        <f aca="false">DEC2BIN(A115,8)</f>
+        <v>01110001</v>
+      </c>
+      <c r="D115" s="2" t="str">
+        <f aca="false">DEC2HEX(A115,2)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D116,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D116,'Instruction Set'!I:I,0)))</f>
+        <v>CMP B</v>
+      </c>
+      <c r="C116" s="2" t="str">
+        <f aca="false">DEC2BIN(A116,8)</f>
+        <v>01110010</v>
+      </c>
+      <c r="D116" s="2" t="str">
+        <f aca="false">DEC2HEX(A116,2)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D117,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D117,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C117" s="2" t="str">
+        <f aca="false">DEC2BIN(A117,8)</f>
+        <v>01110011</v>
+      </c>
+      <c r="D117" s="2" t="str">
+        <f aca="false">DEC2HEX(A117,2)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D118,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D118,'Instruction Set'!I:I,0)))</f>
+        <v>CMP C</v>
+      </c>
+      <c r="C118" s="2" t="str">
+        <f aca="false">DEC2BIN(A118,8)</f>
+        <v>01110100</v>
+      </c>
+      <c r="D118" s="2" t="str">
+        <f aca="false">DEC2HEX(A118,2)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="6" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D119,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D119,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C119" s="2" t="str">
+        <f aca="false">DEC2BIN(A119,8)</f>
+        <v>01110101</v>
+      </c>
+      <c r="D119" s="2" t="str">
+        <f aca="false">DEC2HEX(A119,2)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D120,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D120,'Instruction Set'!I:I,0)))</f>
+        <v>CMP D</v>
+      </c>
+      <c r="C120" s="2" t="str">
+        <f aca="false">DEC2BIN(A120,8)</f>
+        <v>01110110</v>
+      </c>
+      <c r="D120" s="2" t="str">
+        <f aca="false">DEC2HEX(A120,2)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D121,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D121,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C121" s="2" t="str">
+        <f aca="false">DEC2BIN(A121,8)</f>
+        <v>01110111</v>
+      </c>
+      <c r="D121" s="2" t="str">
+        <f aca="false">DEC2HEX(A121,2)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D122,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D122,'Instruction Set'!I:I,0)))</f>
+        <v>CMP H</v>
+      </c>
+      <c r="C122" s="2" t="str">
+        <f aca="false">DEC2BIN(A122,8)</f>
+        <v>01111000</v>
+      </c>
+      <c r="D122" s="2" t="str">
+        <f aca="false">DEC2HEX(A122,2)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D123,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D123,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C123" s="2" t="str">
+        <f aca="false">DEC2BIN(A123,8)</f>
+        <v>01111001</v>
+      </c>
+      <c r="D123" s="2" t="str">
+        <f aca="false">DEC2HEX(A123,2)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D124,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D124,'Instruction Set'!I:I,0)))</f>
+        <v>CMP L</v>
+      </c>
+      <c r="C124" s="2" t="str">
+        <f aca="false">DEC2BIN(A124,8)</f>
+        <v>01111010</v>
+      </c>
+      <c r="D124" s="2" t="str">
+        <f aca="false">DEC2HEX(A124,2)</f>
+        <v>7A</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D125,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D125,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C125" s="2" t="str">
+        <f aca="false">DEC2BIN(A125,8)</f>
+        <v>01111011</v>
+      </c>
+      <c r="D125" s="2" t="str">
+        <f aca="false">DEC2HEX(A125,2)</f>
+        <v>7B</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D126,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D126,'Instruction Set'!I:I,0)))</f>
+        <v>CMP M</v>
+      </c>
+      <c r="C126" s="2" t="str">
+        <f aca="false">DEC2BIN(A126,8)</f>
+        <v>01111100</v>
+      </c>
+      <c r="D126" s="2" t="str">
+        <f aca="false">DEC2HEX(A126,2)</f>
+        <v>7C</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D127,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D127,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C127" s="2" t="str">
+        <f aca="false">DEC2BIN(A127,8)</f>
+        <v>01111101</v>
+      </c>
+      <c r="D127" s="2" t="str">
+        <f aca="false">DEC2HEX(A127,2)</f>
+        <v>7D</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D128,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D128,'Instruction Set'!I:I,0)))</f>
+        <v>CMP data</v>
+      </c>
+      <c r="C128" s="2" t="str">
+        <f aca="false">DEC2BIN(A128,8)</f>
+        <v>01111110</v>
+      </c>
+      <c r="D128" s="2" t="str">
+        <f aca="false">DEC2HEX(A128,2)</f>
+        <v>7E</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D129,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D129,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C129" s="2" t="str">
+        <f aca="false">DEC2BIN(A129,8)</f>
+        <v>01111111</v>
+      </c>
+      <c r="D129" s="2" t="str">
+        <f aca="false">DEC2HEX(A129,2)</f>
+        <v>7F</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D130,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D130,'Instruction Set'!I:I,0)))</f>
+        <v>PUSH A</v>
+      </c>
+      <c r="C130" s="2" t="str">
+        <f aca="false">DEC2BIN(A130,8)</f>
+        <v>10000000</v>
+      </c>
+      <c r="D130" s="2" t="str">
+        <f aca="false">DEC2HEX(A130,2)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D131,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D131,'Instruction Set'!I:I,0)))</f>
+        <v>POP A</v>
+      </c>
+      <c r="C131" s="2" t="str">
+        <f aca="false">DEC2BIN(A131,8)</f>
+        <v>10000001</v>
+      </c>
+      <c r="D131" s="2" t="str">
+        <f aca="false">DEC2HEX(A131,2)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D132,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D132,'Instruction Set'!I:I,0)))</f>
+        <v>MOV A,B</v>
+      </c>
+      <c r="C132" s="2" t="str">
+        <f aca="false">DEC2BIN(A132,8)</f>
+        <v>10000010</v>
+      </c>
+      <c r="D132" s="2" t="str">
+        <f aca="false">DEC2HEX(A132,2)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D133,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D133,'Instruction Set'!I:I,0)))</f>
+        <v>JMP addr</v>
+      </c>
+      <c r="C133" s="2" t="str">
+        <f aca="false">DEC2BIN(A133,8)</f>
+        <v>10000011</v>
+      </c>
+      <c r="D133" s="2" t="str">
+        <f aca="false">DEC2HEX(A133,2)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="6" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D134,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D134,'Instruction Set'!I:I,0)))</f>
+        <v>MOV A,C</v>
+      </c>
+      <c r="C134" s="2" t="str">
+        <f aca="false">DEC2BIN(A134,8)</f>
+        <v>10000100</v>
+      </c>
+      <c r="D134" s="2" t="str">
+        <f aca="false">DEC2HEX(A134,2)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D135,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D135,'Instruction Set'!I:I,0)))</f>
+        <v>JMP M</v>
+      </c>
+      <c r="C135" s="2" t="str">
+        <f aca="false">DEC2BIN(A135,8)</f>
+        <v>10000101</v>
+      </c>
+      <c r="D135" s="2" t="str">
+        <f aca="false">DEC2HEX(A135,2)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D136,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D136,'Instruction Set'!I:I,0)))</f>
+        <v>MOV A,D</v>
+      </c>
+      <c r="C136" s="2" t="str">
+        <f aca="false">DEC2BIN(A136,8)</f>
+        <v>10000110</v>
+      </c>
+      <c r="D136" s="2" t="str">
+        <f aca="false">DEC2HEX(A136,2)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D137,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D137,'Instruction Set'!I:I,0)))</f>
+        <v>JC addr</v>
+      </c>
+      <c r="C137" s="2" t="str">
+        <f aca="false">DEC2BIN(A137,8)</f>
+        <v>10000111</v>
+      </c>
+      <c r="D137" s="2" t="str">
+        <f aca="false">DEC2HEX(A137,2)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D138,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D138,'Instruction Set'!I:I,0)))</f>
+        <v>MOV A,H</v>
+      </c>
+      <c r="C138" s="2" t="str">
+        <f aca="false">DEC2BIN(A138,8)</f>
+        <v>10001000</v>
+      </c>
+      <c r="D138" s="2" t="str">
+        <f aca="false">DEC2HEX(A138,2)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D139,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D139,'Instruction Set'!I:I,0)))</f>
+        <v>JC M</v>
+      </c>
+      <c r="C139" s="2" t="str">
+        <f aca="false">DEC2BIN(A139,8)</f>
+        <v>10001001</v>
+      </c>
+      <c r="D139" s="2" t="str">
+        <f aca="false">DEC2HEX(A139,2)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D140,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D140,'Instruction Set'!I:I,0)))</f>
+        <v>MOV A,L</v>
+      </c>
+      <c r="C140" s="2" t="str">
+        <f aca="false">DEC2BIN(A140,8)</f>
+        <v>10001010</v>
+      </c>
+      <c r="D140" s="2" t="str">
+        <f aca="false">DEC2HEX(A140,2)</f>
+        <v>8A</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="6" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D141,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D141,'Instruction Set'!I:I,0)))</f>
+        <v>JNC addr</v>
+      </c>
+      <c r="C141" s="2" t="str">
+        <f aca="false">DEC2BIN(A141,8)</f>
+        <v>10001011</v>
+      </c>
+      <c r="D141" s="2" t="str">
+        <f aca="false">DEC2HEX(A141,2)</f>
+        <v>8B</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="6" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D142,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D142,'Instruction Set'!I:I,0)))</f>
+        <v>MOV A,M</v>
+      </c>
+      <c r="C142" s="2" t="str">
+        <f aca="false">DEC2BIN(A142,8)</f>
+        <v>10001100</v>
+      </c>
+      <c r="D142" s="2" t="str">
+        <f aca="false">DEC2HEX(A142,2)</f>
+        <v>8C</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="6" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D143,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D143,'Instruction Set'!I:I,0)))</f>
+        <v>LDA A,addr</v>
+      </c>
+      <c r="C143" s="2" t="str">
+        <f aca="false">DEC2BIN(A143,8)</f>
+        <v>10001101</v>
+      </c>
+      <c r="D143" s="2" t="str">
+        <f aca="false">DEC2HEX(A143,2)</f>
+        <v>8D</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="6" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D144,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D144,'Instruction Set'!I:I,0)))</f>
+        <v>MOV A,data</v>
+      </c>
+      <c r="C144" s="2" t="str">
+        <f aca="false">DEC2BIN(A144,8)</f>
+        <v>10001110</v>
+      </c>
+      <c r="D144" s="2" t="str">
+        <f aca="false">DEC2HEX(A144,2)</f>
+        <v>8E</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="6" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D145,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D145,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C145" s="2" t="str">
+        <f aca="false">DEC2BIN(A145,8)</f>
+        <v>10001111</v>
+      </c>
+      <c r="D145" s="2" t="str">
+        <f aca="false">DEC2HEX(A145,2)</f>
+        <v>8F</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="6" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D146,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D146,'Instruction Set'!I:I,0)))</f>
+        <v>MOV B,A</v>
+      </c>
+      <c r="C146" s="2" t="str">
+        <f aca="false">DEC2BIN(A146,8)</f>
+        <v>10010000</v>
+      </c>
+      <c r="D146" s="2" t="str">
+        <f aca="false">DEC2HEX(A146,2)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="6" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D147,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D147,'Instruction Set'!I:I,0)))</f>
+        <v>JNC M</v>
+      </c>
+      <c r="C147" s="2" t="str">
+        <f aca="false">DEC2BIN(A147,8)</f>
+        <v>10010001</v>
+      </c>
+      <c r="D147" s="2" t="str">
+        <f aca="false">DEC2HEX(A147,2)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="6" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D148,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D148,'Instruction Set'!I:I,0)))</f>
+        <v>PUSH B</v>
+      </c>
+      <c r="C148" s="2" t="str">
+        <f aca="false">DEC2BIN(A148,8)</f>
+        <v>10010010</v>
+      </c>
+      <c r="D148" s="2" t="str">
+        <f aca="false">DEC2HEX(A148,2)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="6" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D149,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D149,'Instruction Set'!I:I,0)))</f>
+        <v>POP B</v>
+      </c>
+      <c r="C149" s="2" t="str">
+        <f aca="false">DEC2BIN(A149,8)</f>
+        <v>10010011</v>
+      </c>
+      <c r="D149" s="2" t="str">
+        <f aca="false">DEC2HEX(A149,2)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="6" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D150,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D150,'Instruction Set'!I:I,0)))</f>
+        <v>MOV B,C</v>
+      </c>
+      <c r="C150" s="2" t="str">
+        <f aca="false">DEC2BIN(A150,8)</f>
+        <v>10010100</v>
+      </c>
+      <c r="D150" s="2" t="str">
+        <f aca="false">DEC2HEX(A150,2)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="6" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D151,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D151,'Instruction Set'!I:I,0)))</f>
+        <v>JZ addr</v>
+      </c>
+      <c r="C151" s="2" t="str">
+        <f aca="false">DEC2BIN(A151,8)</f>
+        <v>10010101</v>
+      </c>
+      <c r="D151" s="2" t="str">
+        <f aca="false">DEC2HEX(A151,2)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D152,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D152,'Instruction Set'!I:I,0)))</f>
+        <v>MOV B,D</v>
+      </c>
+      <c r="C152" s="2" t="str">
+        <f aca="false">DEC2BIN(A152,8)</f>
+        <v>10010110</v>
+      </c>
+      <c r="D152" s="2" t="str">
+        <f aca="false">DEC2HEX(A152,2)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="6" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D153,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D153,'Instruction Set'!I:I,0)))</f>
+        <v>JZ M</v>
+      </c>
+      <c r="C153" s="2" t="str">
+        <f aca="false">DEC2BIN(A153,8)</f>
+        <v>10010111</v>
+      </c>
+      <c r="D153" s="2" t="str">
+        <f aca="false">DEC2HEX(A153,2)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="6" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D154,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D154,'Instruction Set'!I:I,0)))</f>
+        <v>MOV B,H</v>
+      </c>
+      <c r="C154" s="2" t="str">
+        <f aca="false">DEC2BIN(A154,8)</f>
+        <v>10011000</v>
+      </c>
+      <c r="D154" s="2" t="str">
+        <f aca="false">DEC2HEX(A154,2)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="6" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D155,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D155,'Instruction Set'!I:I,0)))</f>
+        <v>JNZ addr</v>
+      </c>
+      <c r="C155" s="2" t="str">
+        <f aca="false">DEC2BIN(A155,8)</f>
+        <v>10011001</v>
+      </c>
+      <c r="D155" s="2" t="str">
+        <f aca="false">DEC2HEX(A155,2)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="6" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D156,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D156,'Instruction Set'!I:I,0)))</f>
+        <v>MOV B,L</v>
+      </c>
+      <c r="C156" s="2" t="str">
+        <f aca="false">DEC2BIN(A156,8)</f>
+        <v>10011010</v>
+      </c>
+      <c r="D156" s="2" t="str">
+        <f aca="false">DEC2HEX(A156,2)</f>
+        <v>9A</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="6" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D157,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D157,'Instruction Set'!I:I,0)))</f>
+        <v>JNZ M</v>
+      </c>
+      <c r="C157" s="2" t="str">
+        <f aca="false">DEC2BIN(A157,8)</f>
+        <v>10011011</v>
+      </c>
+      <c r="D157" s="2" t="str">
+        <f aca="false">DEC2HEX(A157,2)</f>
+        <v>9B</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="6" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D158,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D158,'Instruction Set'!I:I,0)))</f>
+        <v>MOV B,M</v>
+      </c>
+      <c r="C158" s="2" t="str">
+        <f aca="false">DEC2BIN(A158,8)</f>
+        <v>10011100</v>
+      </c>
+      <c r="D158" s="2" t="str">
+        <f aca="false">DEC2HEX(A158,2)</f>
+        <v>9C</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="6" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D159,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D159,'Instruction Set'!I:I,0)))</f>
+        <v>LDA B,addr</v>
+      </c>
+      <c r="C159" s="2" t="str">
+        <f aca="false">DEC2BIN(A159,8)</f>
+        <v>10011101</v>
+      </c>
+      <c r="D159" s="2" t="str">
+        <f aca="false">DEC2HEX(A159,2)</f>
+        <v>9D</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="6" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D160,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D160,'Instruction Set'!I:I,0)))</f>
+        <v>MOV B,data</v>
+      </c>
+      <c r="C160" s="2" t="str">
+        <f aca="false">DEC2BIN(A160,8)</f>
+        <v>10011110</v>
+      </c>
+      <c r="D160" s="2" t="str">
+        <f aca="false">DEC2HEX(A160,2)</f>
+        <v>9E</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="6" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D161,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D161,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C161" s="2" t="str">
+        <f aca="false">DEC2BIN(A161,8)</f>
+        <v>10011111</v>
+      </c>
+      <c r="D161" s="2" t="str">
+        <f aca="false">DEC2HEX(A161,2)</f>
+        <v>9F</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="6" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D162,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D162,'Instruction Set'!I:I,0)))</f>
+        <v>MOV C,A</v>
+      </c>
+      <c r="C162" s="2" t="str">
+        <f aca="false">DEC2BIN(A162,8)</f>
+        <v>10100000</v>
+      </c>
+      <c r="D162" s="2" t="str">
+        <f aca="false">DEC2HEX(A162,2)</f>
+        <v>A0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="6" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D163,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D163,'Instruction Set'!I:I,0)))</f>
+        <v>CALL addr</v>
+      </c>
+      <c r="C163" s="2" t="str">
+        <f aca="false">DEC2BIN(A163,8)</f>
+        <v>10100001</v>
+      </c>
+      <c r="D163" s="2" t="str">
+        <f aca="false">DEC2HEX(A163,2)</f>
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="6" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D164,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D164,'Instruction Set'!I:I,0)))</f>
+        <v>MOV C,B</v>
+      </c>
+      <c r="C164" s="2" t="str">
+        <f aca="false">DEC2BIN(A164,8)</f>
+        <v>10100010</v>
+      </c>
+      <c r="D164" s="2" t="str">
+        <f aca="false">DEC2HEX(A164,2)</f>
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="6" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D165,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D165,'Instruction Set'!I:I,0)))</f>
+        <v>CALL M</v>
+      </c>
+      <c r="C165" s="2" t="str">
+        <f aca="false">DEC2BIN(A165,8)</f>
+        <v>10100011</v>
+      </c>
+      <c r="D165" s="2" t="str">
+        <f aca="false">DEC2HEX(A165,2)</f>
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="6" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D166,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D166,'Instruction Set'!I:I,0)))</f>
+        <v>PUSH C</v>
+      </c>
+      <c r="C166" s="2" t="str">
+        <f aca="false">DEC2BIN(A166,8)</f>
+        <v>10100100</v>
+      </c>
+      <c r="D166" s="2" t="str">
+        <f aca="false">DEC2HEX(A166,2)</f>
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="6" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D167,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D167,'Instruction Set'!I:I,0)))</f>
+        <v>POP C</v>
+      </c>
+      <c r="C167" s="2" t="str">
+        <f aca="false">DEC2BIN(A167,8)</f>
+        <v>10100101</v>
+      </c>
+      <c r="D167" s="2" t="str">
+        <f aca="false">DEC2HEX(A167,2)</f>
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="6" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D168,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D168,'Instruction Set'!I:I,0)))</f>
+        <v>MOV C,D</v>
+      </c>
+      <c r="C168" s="2" t="str">
+        <f aca="false">DEC2BIN(A168,8)</f>
+        <v>10100110</v>
+      </c>
+      <c r="D168" s="2" t="str">
+        <f aca="false">DEC2HEX(A168,2)</f>
+        <v>A6</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="6" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D169,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D169,'Instruction Set'!I:I,0)))</f>
+        <v>CC addr</v>
+      </c>
+      <c r="C169" s="2" t="str">
+        <f aca="false">DEC2BIN(A169,8)</f>
+        <v>10100111</v>
+      </c>
+      <c r="D169" s="2" t="str">
+        <f aca="false">DEC2HEX(A169,2)</f>
+        <v>A7</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="6" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D170,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D170,'Instruction Set'!I:I,0)))</f>
+        <v>MOV C,H</v>
+      </c>
+      <c r="C170" s="2" t="str">
+        <f aca="false">DEC2BIN(A170,8)</f>
+        <v>10101000</v>
+      </c>
+      <c r="D170" s="2" t="str">
+        <f aca="false">DEC2HEX(A170,2)</f>
+        <v>A8</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="6" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D171,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D171,'Instruction Set'!I:I,0)))</f>
+        <v>CC M</v>
+      </c>
+      <c r="C171" s="2" t="str">
+        <f aca="false">DEC2BIN(A171,8)</f>
+        <v>10101001</v>
+      </c>
+      <c r="D171" s="2" t="str">
+        <f aca="false">DEC2HEX(A171,2)</f>
+        <v>A9</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="6" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D172,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D172,'Instruction Set'!I:I,0)))</f>
+        <v>MOV C,L</v>
+      </c>
+      <c r="C172" s="2" t="str">
+        <f aca="false">DEC2BIN(A172,8)</f>
+        <v>10101010</v>
+      </c>
+      <c r="D172" s="2" t="str">
+        <f aca="false">DEC2HEX(A172,2)</f>
+        <v>AA</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="6" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D173,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D173,'Instruction Set'!I:I,0)))</f>
+        <v>CNC addr</v>
+      </c>
+      <c r="C173" s="2" t="str">
+        <f aca="false">DEC2BIN(A173,8)</f>
+        <v>10101011</v>
+      </c>
+      <c r="D173" s="2" t="str">
+        <f aca="false">DEC2HEX(A173,2)</f>
+        <v>AB</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="6" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D174,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D174,'Instruction Set'!I:I,0)))</f>
+        <v>MOV C,M</v>
+      </c>
+      <c r="C174" s="2" t="str">
+        <f aca="false">DEC2BIN(A174,8)</f>
+        <v>10101100</v>
+      </c>
+      <c r="D174" s="2" t="str">
+        <f aca="false">DEC2HEX(A174,2)</f>
+        <v>AC</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="6" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D175,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D175,'Instruction Set'!I:I,0)))</f>
+        <v>LDA C,addr</v>
+      </c>
+      <c r="C175" s="2" t="str">
+        <f aca="false">DEC2BIN(A175,8)</f>
+        <v>10101101</v>
+      </c>
+      <c r="D175" s="2" t="str">
+        <f aca="false">DEC2HEX(A175,2)</f>
+        <v>AD</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="6" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D176,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D176,'Instruction Set'!I:I,0)))</f>
+        <v>MOV C,data</v>
+      </c>
+      <c r="C176" s="2" t="str">
+        <f aca="false">DEC2BIN(A176,8)</f>
+        <v>10101110</v>
+      </c>
+      <c r="D176" s="2" t="str">
+        <f aca="false">DEC2HEX(A176,2)</f>
+        <v>AE</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="6" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D177,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D177,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C177" s="2" t="str">
+        <f aca="false">DEC2BIN(A177,8)</f>
+        <v>10101111</v>
+      </c>
+      <c r="D177" s="2" t="str">
+        <f aca="false">DEC2HEX(A177,2)</f>
+        <v>AF</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="6" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D178,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D178,'Instruction Set'!I:I,0)))</f>
+        <v>MOV D,A</v>
+      </c>
+      <c r="C178" s="2" t="str">
+        <f aca="false">DEC2BIN(A178,8)</f>
+        <v>10110000</v>
+      </c>
+      <c r="D178" s="2" t="str">
+        <f aca="false">DEC2HEX(A178,2)</f>
+        <v>B0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="6" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D179,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D179,'Instruction Set'!I:I,0)))</f>
+        <v>CNC M</v>
+      </c>
+      <c r="C179" s="2" t="str">
+        <f aca="false">DEC2BIN(A179,8)</f>
+        <v>10110001</v>
+      </c>
+      <c r="D179" s="2" t="str">
+        <f aca="false">DEC2HEX(A179,2)</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="6" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D180,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D180,'Instruction Set'!I:I,0)))</f>
+        <v>MOV D,B</v>
+      </c>
+      <c r="C180" s="2" t="str">
+        <f aca="false">DEC2BIN(A180,8)</f>
+        <v>10110010</v>
+      </c>
+      <c r="D180" s="2" t="str">
+        <f aca="false">DEC2HEX(A180,2)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="6" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D181,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D181,'Instruction Set'!I:I,0)))</f>
+        <v>CZ addr</v>
+      </c>
+      <c r="C181" s="2" t="str">
+        <f aca="false">DEC2BIN(A181,8)</f>
+        <v>10110011</v>
+      </c>
+      <c r="D181" s="2" t="str">
+        <f aca="false">DEC2HEX(A181,2)</f>
+        <v>B3</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="6" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D182,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D182,'Instruction Set'!I:I,0)))</f>
+        <v>MOV D,C</v>
+      </c>
+      <c r="C182" s="2" t="str">
+        <f aca="false">DEC2BIN(A182,8)</f>
+        <v>10110100</v>
+      </c>
+      <c r="D182" s="2" t="str">
+        <f aca="false">DEC2HEX(A182,2)</f>
+        <v>B4</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="6" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D183,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D183,'Instruction Set'!I:I,0)))</f>
+        <v>CZ M</v>
+      </c>
+      <c r="C183" s="2" t="str">
+        <f aca="false">DEC2BIN(A183,8)</f>
+        <v>10110101</v>
+      </c>
+      <c r="D183" s="2" t="str">
+        <f aca="false">DEC2HEX(A183,2)</f>
+        <v>B5</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="6" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D184,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D184,'Instruction Set'!I:I,0)))</f>
+        <v>PUSH D</v>
+      </c>
+      <c r="C184" s="2" t="str">
+        <f aca="false">DEC2BIN(A184,8)</f>
+        <v>10110110</v>
+      </c>
+      <c r="D184" s="2" t="str">
+        <f aca="false">DEC2HEX(A184,2)</f>
+        <v>B6</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="6" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D185,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D185,'Instruction Set'!I:I,0)))</f>
+        <v>POP D</v>
+      </c>
+      <c r="C185" s="2" t="str">
+        <f aca="false">DEC2BIN(A185,8)</f>
+        <v>10110111</v>
+      </c>
+      <c r="D185" s="2" t="str">
+        <f aca="false">DEC2HEX(A185,2)</f>
+        <v>B7</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="6" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D186,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D186,'Instruction Set'!I:I,0)))</f>
+        <v>MOV D,H</v>
+      </c>
+      <c r="C186" s="2" t="str">
+        <f aca="false">DEC2BIN(A186,8)</f>
+        <v>10111000</v>
+      </c>
+      <c r="D186" s="2" t="str">
+        <f aca="false">DEC2HEX(A186,2)</f>
+        <v>B8</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="6" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D187,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D187,'Instruction Set'!I:I,0)))</f>
+        <v>CNZ addr</v>
+      </c>
+      <c r="C187" s="2" t="str">
+        <f aca="false">DEC2BIN(A187,8)</f>
+        <v>10111001</v>
+      </c>
+      <c r="D187" s="2" t="str">
+        <f aca="false">DEC2HEX(A187,2)</f>
+        <v>B9</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="6" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D188,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D188,'Instruction Set'!I:I,0)))</f>
+        <v>MOV D,L</v>
+      </c>
+      <c r="C188" s="2" t="str">
+        <f aca="false">DEC2BIN(A188,8)</f>
+        <v>10111010</v>
+      </c>
+      <c r="D188" s="2" t="str">
+        <f aca="false">DEC2HEX(A188,2)</f>
+        <v>BA</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="6" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D189,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D189,'Instruction Set'!I:I,0)))</f>
+        <v>CNZ M</v>
+      </c>
+      <c r="C189" s="2" t="str">
+        <f aca="false">DEC2BIN(A189,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="D189" s="2" t="str">
+        <f aca="false">DEC2HEX(A189,2)</f>
+        <v>BB</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="6" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D190,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D190,'Instruction Set'!I:I,0)))</f>
+        <v>MOV D,M</v>
+      </c>
+      <c r="C190" s="2" t="str">
+        <f aca="false">DEC2BIN(A190,8)</f>
+        <v>10111100</v>
+      </c>
+      <c r="D190" s="2" t="str">
+        <f aca="false">DEC2HEX(A190,2)</f>
+        <v>BC</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="6" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D191,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D191,'Instruction Set'!I:I,0)))</f>
+        <v>LDA D,addr</v>
+      </c>
+      <c r="C191" s="2" t="str">
+        <f aca="false">DEC2BIN(A191,8)</f>
+        <v>10111101</v>
+      </c>
+      <c r="D191" s="2" t="str">
+        <f aca="false">DEC2HEX(A191,2)</f>
+        <v>BD</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="6" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D192,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D192,'Instruction Set'!I:I,0)))</f>
+        <v>MOV D,data</v>
+      </c>
+      <c r="C192" s="2" t="str">
+        <f aca="false">DEC2BIN(A192,8)</f>
+        <v>10111110</v>
+      </c>
+      <c r="D192" s="2" t="str">
+        <f aca="false">DEC2HEX(A192,2)</f>
+        <v>BE</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="6" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D193,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D193,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C193" s="2" t="str">
+        <f aca="false">DEC2BIN(A193,8)</f>
+        <v>10111111</v>
+      </c>
+      <c r="D193" s="2" t="str">
+        <f aca="false">DEC2HEX(A193,2)</f>
+        <v>BF</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="6" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D194,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D194,'Instruction Set'!I:I,0)))</f>
+        <v>MOV H,A</v>
+      </c>
+      <c r="C194" s="2" t="str">
+        <f aca="false">DEC2BIN(A194,8)</f>
+        <v>11000000</v>
+      </c>
+      <c r="D194" s="2" t="str">
+        <f aca="false">DEC2HEX(A194,2)</f>
+        <v>C0</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="6" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D195,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D195,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C195" s="2" t="str">
+        <f aca="false">DEC2BIN(A195,8)</f>
+        <v>11000001</v>
+      </c>
+      <c r="D195" s="2" t="str">
+        <f aca="false">DEC2HEX(A195,2)</f>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="6" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D196,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D196,'Instruction Set'!I:I,0)))</f>
+        <v>MOV H,B</v>
+      </c>
+      <c r="C196" s="2" t="str">
+        <f aca="false">DEC2BIN(A196,8)</f>
+        <v>11000010</v>
+      </c>
+      <c r="D196" s="2" t="str">
+        <f aca="false">DEC2HEX(A196,2)</f>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="6" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D197,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D197,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C197" s="2" t="str">
+        <f aca="false">DEC2BIN(A197,8)</f>
+        <v>11000011</v>
+      </c>
+      <c r="D197" s="2" t="str">
+        <f aca="false">DEC2HEX(A197,2)</f>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="6" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D198,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D198,'Instruction Set'!I:I,0)))</f>
+        <v>MOV H,C</v>
+      </c>
+      <c r="C198" s="2" t="str">
+        <f aca="false">DEC2BIN(A198,8)</f>
+        <v>11000100</v>
+      </c>
+      <c r="D198" s="2" t="str">
+        <f aca="false">DEC2HEX(A198,2)</f>
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="6" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D199,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D199,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C199" s="2" t="str">
+        <f aca="false">DEC2BIN(A199,8)</f>
+        <v>11000101</v>
+      </c>
+      <c r="D199" s="2" t="str">
+        <f aca="false">DEC2HEX(A199,2)</f>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="6" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D200,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D200,'Instruction Set'!I:I,0)))</f>
+        <v>MOV H,D</v>
+      </c>
+      <c r="C200" s="2" t="str">
+        <f aca="false">DEC2BIN(A200,8)</f>
+        <v>11000110</v>
+      </c>
+      <c r="D200" s="2" t="str">
+        <f aca="false">DEC2HEX(A200,2)</f>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="6" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D201,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D201,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C201" s="2" t="str">
+        <f aca="false">DEC2BIN(A201,8)</f>
+        <v>11000111</v>
+      </c>
+      <c r="D201" s="2" t="str">
+        <f aca="false">DEC2HEX(A201,2)</f>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D202,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D202,'Instruction Set'!I:I,0)))</f>
+        <v>PUSH H</v>
+      </c>
+      <c r="C202" s="2" t="str">
+        <f aca="false">DEC2BIN(A202,8)</f>
+        <v>11001000</v>
+      </c>
+      <c r="D202" s="2" t="str">
+        <f aca="false">DEC2HEX(A202,2)</f>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="6" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D203,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D203,'Instruction Set'!I:I,0)))</f>
+        <v>POP H</v>
+      </c>
+      <c r="C203" s="2" t="str">
+        <f aca="false">DEC2BIN(A203,8)</f>
+        <v>11001001</v>
+      </c>
+      <c r="D203" s="2" t="str">
+        <f aca="false">DEC2HEX(A203,2)</f>
+        <v>C9</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="6" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D204,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D204,'Instruction Set'!I:I,0)))</f>
+        <v>MOV H,L</v>
+      </c>
+      <c r="C204" s="2" t="str">
+        <f aca="false">DEC2BIN(A204,8)</f>
+        <v>11001010</v>
+      </c>
+      <c r="D204" s="2" t="str">
+        <f aca="false">DEC2HEX(A204,2)</f>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="6" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D205,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D205,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C205" s="2" t="str">
+        <f aca="false">DEC2BIN(A205,8)</f>
+        <v>11001011</v>
+      </c>
+      <c r="D205" s="2" t="str">
+        <f aca="false">DEC2HEX(A205,2)</f>
+        <v>CB</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="6" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D206,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D206,'Instruction Set'!I:I,0)))</f>
+        <v>MOV H,M</v>
+      </c>
+      <c r="C206" s="2" t="str">
+        <f aca="false">DEC2BIN(A206,8)</f>
+        <v>11001100</v>
+      </c>
+      <c r="D206" s="2" t="str">
+        <f aca="false">DEC2HEX(A206,2)</f>
+        <v>CC</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="6" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D207,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D207,'Instruction Set'!I:I,0)))</f>
+        <v>LDA H,addr</v>
+      </c>
+      <c r="C207" s="2" t="str">
+        <f aca="false">DEC2BIN(A207,8)</f>
+        <v>11001101</v>
+      </c>
+      <c r="D207" s="2" t="str">
+        <f aca="false">DEC2HEX(A207,2)</f>
+        <v>CD</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="6" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D208,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D208,'Instruction Set'!I:I,0)))</f>
+        <v>MOV H,data</v>
+      </c>
+      <c r="C208" s="2" t="str">
+        <f aca="false">DEC2BIN(A208,8)</f>
+        <v>11001110</v>
+      </c>
+      <c r="D208" s="2" t="str">
+        <f aca="false">DEC2HEX(A208,2)</f>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="6" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D209,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D209,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C209" s="2" t="str">
+        <f aca="false">DEC2BIN(A209,8)</f>
+        <v>11001111</v>
+      </c>
+      <c r="D209" s="2" t="str">
+        <f aca="false">DEC2HEX(A209,2)</f>
+        <v>CF</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="6" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D210,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D210,'Instruction Set'!I:I,0)))</f>
+        <v>MOV L,A</v>
+      </c>
+      <c r="C210" s="2" t="str">
+        <f aca="false">DEC2BIN(A210,8)</f>
+        <v>11010000</v>
+      </c>
+      <c r="D210" s="2" t="str">
+        <f aca="false">DEC2HEX(A210,2)</f>
+        <v>D0</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="6" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D211,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D211,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C211" s="2" t="str">
+        <f aca="false">DEC2BIN(A211,8)</f>
+        <v>11010001</v>
+      </c>
+      <c r="D211" s="2" t="str">
+        <f aca="false">DEC2HEX(A211,2)</f>
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="6" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D212,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D212,'Instruction Set'!I:I,0)))</f>
+        <v>MOV L,B</v>
+      </c>
+      <c r="C212" s="2" t="str">
+        <f aca="false">DEC2BIN(A212,8)</f>
+        <v>11010010</v>
+      </c>
+      <c r="D212" s="2" t="str">
+        <f aca="false">DEC2HEX(A212,2)</f>
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="6" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D213,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D213,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C213" s="2" t="str">
+        <f aca="false">DEC2BIN(A213,8)</f>
+        <v>11010011</v>
+      </c>
+      <c r="D213" s="2" t="str">
+        <f aca="false">DEC2HEX(A213,2)</f>
+        <v>D3</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="6" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D214,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D214,'Instruction Set'!I:I,0)))</f>
+        <v>MOV L,C</v>
+      </c>
+      <c r="C214" s="2" t="str">
+        <f aca="false">DEC2BIN(A214,8)</f>
+        <v>11010100</v>
+      </c>
+      <c r="D214" s="2" t="str">
+        <f aca="false">DEC2HEX(A214,2)</f>
+        <v>D4</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="6" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D215,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D215,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C215" s="2" t="str">
+        <f aca="false">DEC2BIN(A215,8)</f>
+        <v>11010101</v>
+      </c>
+      <c r="D215" s="2" t="str">
+        <f aca="false">DEC2HEX(A215,2)</f>
+        <v>D5</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="6" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D216,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D216,'Instruction Set'!I:I,0)))</f>
+        <v>MOV L,D</v>
+      </c>
+      <c r="C216" s="2" t="str">
+        <f aca="false">DEC2BIN(A216,8)</f>
+        <v>11010110</v>
+      </c>
+      <c r="D216" s="2" t="str">
+        <f aca="false">DEC2HEX(A216,2)</f>
+        <v>D6</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="6" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D217,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D217,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C217" s="2" t="str">
+        <f aca="false">DEC2BIN(A217,8)</f>
+        <v>11010111</v>
+      </c>
+      <c r="D217" s="2" t="str">
+        <f aca="false">DEC2HEX(A217,2)</f>
+        <v>D7</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="6" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D218,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D218,'Instruction Set'!I:I,0)))</f>
+        <v>MOV L,H</v>
+      </c>
+      <c r="C218" s="2" t="str">
+        <f aca="false">DEC2BIN(A218,8)</f>
+        <v>11011000</v>
+      </c>
+      <c r="D218" s="2" t="str">
+        <f aca="false">DEC2HEX(A218,2)</f>
+        <v>D8</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="6" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D219,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D219,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C219" s="2" t="str">
+        <f aca="false">DEC2BIN(A219,8)</f>
+        <v>11011001</v>
+      </c>
+      <c r="D219" s="2" t="str">
+        <f aca="false">DEC2HEX(A219,2)</f>
+        <v>D9</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="6" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D220,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D220,'Instruction Set'!I:I,0)))</f>
+        <v>PUSH L</v>
+      </c>
+      <c r="C220" s="2" t="str">
+        <f aca="false">DEC2BIN(A220,8)</f>
+        <v>11011010</v>
+      </c>
+      <c r="D220" s="2" t="str">
+        <f aca="false">DEC2HEX(A220,2)</f>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="6" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D221,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D221,'Instruction Set'!I:I,0)))</f>
+        <v>POP L</v>
+      </c>
+      <c r="C221" s="2" t="str">
+        <f aca="false">DEC2BIN(A221,8)</f>
+        <v>11011011</v>
+      </c>
+      <c r="D221" s="2" t="str">
+        <f aca="false">DEC2HEX(A221,2)</f>
+        <v>DB</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D222,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D222,'Instruction Set'!I:I,0)))</f>
+        <v>MOV L,M</v>
+      </c>
+      <c r="C222" s="2" t="str">
+        <f aca="false">DEC2BIN(A222,8)</f>
+        <v>11011100</v>
+      </c>
+      <c r="D222" s="2" t="str">
+        <f aca="false">DEC2HEX(A222,2)</f>
+        <v>DC</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="6" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D223,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D223,'Instruction Set'!I:I,0)))</f>
+        <v>LDA L,addr</v>
+      </c>
+      <c r="C223" s="2" t="str">
+        <f aca="false">DEC2BIN(A223,8)</f>
+        <v>11011101</v>
+      </c>
+      <c r="D223" s="2" t="str">
+        <f aca="false">DEC2HEX(A223,2)</f>
+        <v>DD</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="6" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D224,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D224,'Instruction Set'!I:I,0)))</f>
+        <v>MOV L,data</v>
+      </c>
+      <c r="C224" s="2" t="str">
+        <f aca="false">DEC2BIN(A224,8)</f>
+        <v>11011110</v>
+      </c>
+      <c r="D224" s="2" t="str">
+        <f aca="false">DEC2HEX(A224,2)</f>
+        <v>DE</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="6" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D225,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D225,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C225" s="2" t="str">
+        <f aca="false">DEC2BIN(A225,8)</f>
+        <v>11011111</v>
+      </c>
+      <c r="D225" s="2" t="str">
+        <f aca="false">DEC2HEX(A225,2)</f>
+        <v>DF</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="6" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D226,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D226,'Instruction Set'!I:I,0)))</f>
+        <v>MOV M,A</v>
+      </c>
+      <c r="C226" s="2" t="str">
+        <f aca="false">DEC2BIN(A226,8)</f>
+        <v>11100000</v>
+      </c>
+      <c r="D226" s="2" t="str">
+        <f aca="false">DEC2HEX(A226,2)</f>
+        <v>E0</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="6" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D227,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D227,'Instruction Set'!I:I,0)))</f>
+        <v>STA addr,A</v>
+      </c>
+      <c r="C227" s="2" t="str">
+        <f aca="false">DEC2BIN(A227,8)</f>
+        <v>11100001</v>
+      </c>
+      <c r="D227" s="2" t="str">
+        <f aca="false">DEC2HEX(A227,2)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="6" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D228,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D228,'Instruction Set'!I:I,0)))</f>
+        <v>MOV M,B</v>
+      </c>
+      <c r="C228" s="2" t="str">
+        <f aca="false">DEC2BIN(A228,8)</f>
+        <v>11100010</v>
+      </c>
+      <c r="D228" s="2" t="str">
+        <f aca="false">DEC2HEX(A228,2)</f>
+        <v>E2</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="6" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D229,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D229,'Instruction Set'!I:I,0)))</f>
+        <v>STA addr,B</v>
+      </c>
+      <c r="C229" s="2" t="str">
+        <f aca="false">DEC2BIN(A229,8)</f>
+        <v>11100011</v>
+      </c>
+      <c r="D229" s="2" t="str">
+        <f aca="false">DEC2HEX(A229,2)</f>
+        <v>E3</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="6" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D230,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D230,'Instruction Set'!I:I,0)))</f>
+        <v>MOV M,C</v>
+      </c>
+      <c r="C230" s="2" t="str">
+        <f aca="false">DEC2BIN(A230,8)</f>
+        <v>11100100</v>
+      </c>
+      <c r="D230" s="2" t="str">
+        <f aca="false">DEC2HEX(A230,2)</f>
+        <v>E4</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="6" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D231,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D231,'Instruction Set'!I:I,0)))</f>
+        <v>STA addr,C</v>
+      </c>
+      <c r="C231" s="2" t="str">
+        <f aca="false">DEC2BIN(A231,8)</f>
+        <v>11100101</v>
+      </c>
+      <c r="D231" s="2" t="str">
+        <f aca="false">DEC2HEX(A231,2)</f>
+        <v>E5</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="6" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D232,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D232,'Instruction Set'!I:I,0)))</f>
+        <v>MOV M,D</v>
+      </c>
+      <c r="C232" s="2" t="str">
+        <f aca="false">DEC2BIN(A232,8)</f>
+        <v>11100110</v>
+      </c>
+      <c r="D232" s="2" t="str">
+        <f aca="false">DEC2HEX(A232,2)</f>
+        <v>E6</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="6" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D233,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D233,'Instruction Set'!I:I,0)))</f>
+        <v>STA addr,D</v>
+      </c>
+      <c r="C233" s="2" t="str">
+        <f aca="false">DEC2BIN(A233,8)</f>
+        <v>11100111</v>
+      </c>
+      <c r="D233" s="2" t="str">
+        <f aca="false">DEC2HEX(A233,2)</f>
+        <v>E7</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="6" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D234,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D234,'Instruction Set'!I:I,0)))</f>
+        <v>MOV M,H</v>
+      </c>
+      <c r="C234" s="2" t="str">
+        <f aca="false">DEC2BIN(A234,8)</f>
+        <v>11101000</v>
+      </c>
+      <c r="D234" s="2" t="str">
+        <f aca="false">DEC2HEX(A234,2)</f>
+        <v>E8</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="6" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D235,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D235,'Instruction Set'!I:I,0)))</f>
+        <v>STA addr,H</v>
+      </c>
+      <c r="C235" s="2" t="str">
+        <f aca="false">DEC2BIN(A235,8)</f>
+        <v>11101001</v>
+      </c>
+      <c r="D235" s="2" t="str">
+        <f aca="false">DEC2HEX(A235,2)</f>
+        <v>E9</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="6" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D236,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D236,'Instruction Set'!I:I,0)))</f>
+        <v>MOV M,L</v>
+      </c>
+      <c r="C236" s="2" t="str">
+        <f aca="false">DEC2BIN(A236,8)</f>
+        <v>11101010</v>
+      </c>
+      <c r="D236" s="2" t="str">
+        <f aca="false">DEC2HEX(A236,2)</f>
+        <v>EA</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="6" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D237,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D237,'Instruction Set'!I:I,0)))</f>
+        <v>STA addr,L</v>
+      </c>
+      <c r="C237" s="2" t="str">
+        <f aca="false">DEC2BIN(A237,8)</f>
+        <v>11101011</v>
+      </c>
+      <c r="D237" s="2" t="str">
+        <f aca="false">DEC2HEX(A237,2)</f>
+        <v>EB</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="6" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D238,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D238,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C238" s="2" t="str">
+        <f aca="false">DEC2BIN(A238,8)</f>
+        <v>11101100</v>
+      </c>
+      <c r="D238" s="2" t="str">
+        <f aca="false">DEC2HEX(A238,2)</f>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="6" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D239,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D239,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C239" s="2" t="str">
+        <f aca="false">DEC2BIN(A239,8)</f>
+        <v>11101101</v>
+      </c>
+      <c r="D239" s="2" t="str">
+        <f aca="false">DEC2HEX(A239,2)</f>
+        <v>ED</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="6" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D240,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D240,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C240" s="2" t="str">
+        <f aca="false">DEC2BIN(A240,8)</f>
+        <v>11101110</v>
+      </c>
+      <c r="D240" s="2" t="str">
+        <f aca="false">DEC2HEX(A240,2)</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="6" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D241,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D241,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C241" s="2" t="str">
+        <f aca="false">DEC2BIN(A241,8)</f>
+        <v>11101111</v>
+      </c>
+      <c r="D241" s="2" t="str">
+        <f aca="false">DEC2HEX(A241,2)</f>
+        <v>EF</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="6" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D242,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D242,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C242" s="2" t="str">
+        <f aca="false">DEC2BIN(A242,8)</f>
+        <v>11110000</v>
+      </c>
+      <c r="D242" s="2" t="str">
+        <f aca="false">DEC2HEX(A242,2)</f>
+        <v>F0</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="6" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D243,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D243,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C243" s="2" t="str">
+        <f aca="false">DEC2BIN(A243,8)</f>
+        <v>11110001</v>
+      </c>
+      <c r="D243" s="2" t="str">
+        <f aca="false">DEC2HEX(A243,2)</f>
+        <v>F1</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="6" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D244,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D244,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C244" s="2" t="str">
+        <f aca="false">DEC2BIN(A244,8)</f>
+        <v>11110010</v>
+      </c>
+      <c r="D244" s="2" t="str">
+        <f aca="false">DEC2HEX(A244,2)</f>
+        <v>F2</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="6" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D245,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D245,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C245" s="2" t="str">
+        <f aca="false">DEC2BIN(A245,8)</f>
+        <v>11110011</v>
+      </c>
+      <c r="D245" s="2" t="str">
+        <f aca="false">DEC2HEX(A245,2)</f>
+        <v>F3</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="6" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D246,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D246,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C246" s="2" t="str">
+        <f aca="false">DEC2BIN(A246,8)</f>
+        <v>11110100</v>
+      </c>
+      <c r="D246" s="2" t="str">
+        <f aca="false">DEC2HEX(A246,2)</f>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="6" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D247,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D247,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C247" s="2" t="str">
+        <f aca="false">DEC2BIN(A247,8)</f>
+        <v>11110101</v>
+      </c>
+      <c r="D247" s="2" t="str">
+        <f aca="false">DEC2HEX(A247,2)</f>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="6" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D248,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D248,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C248" s="2" t="str">
+        <f aca="false">DEC2BIN(A248,8)</f>
+        <v>11110110</v>
+      </c>
+      <c r="D248" s="2" t="str">
+        <f aca="false">DEC2HEX(A248,2)</f>
+        <v>F6</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="6" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D249,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D249,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C249" s="2" t="str">
+        <f aca="false">DEC2BIN(A249,8)</f>
+        <v>11110111</v>
+      </c>
+      <c r="D249" s="2" t="str">
+        <f aca="false">DEC2HEX(A249,2)</f>
+        <v>F7</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="6" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D250,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D250,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C250" s="2" t="str">
+        <f aca="false">DEC2BIN(A250,8)</f>
+        <v>11111000</v>
+      </c>
+      <c r="D250" s="2" t="str">
+        <f aca="false">DEC2HEX(A250,2)</f>
+        <v>F8</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="6" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D251,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D251,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C251" s="2" t="str">
+        <f aca="false">DEC2BIN(A251,8)</f>
+        <v>11111001</v>
+      </c>
+      <c r="D251" s="2" t="str">
+        <f aca="false">DEC2HEX(A251,2)</f>
+        <v>F9</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="6" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D252,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D252,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C252" s="2" t="str">
+        <f aca="false">DEC2BIN(A252,8)</f>
+        <v>11111010</v>
+      </c>
+      <c r="D252" s="2" t="str">
+        <f aca="false">DEC2HEX(A252,2)</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="6" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D253,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D253,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C253" s="2" t="str">
+        <f aca="false">DEC2BIN(A253,8)</f>
+        <v>11111011</v>
+      </c>
+      <c r="D253" s="2" t="str">
+        <f aca="false">DEC2HEX(A253,2)</f>
+        <v>FB</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="6" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D254,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D254,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C254" s="2" t="str">
+        <f aca="false">DEC2BIN(A254,8)</f>
+        <v>11111100</v>
+      </c>
+      <c r="D254" s="2" t="str">
+        <f aca="false">DEC2HEX(A254,2)</f>
+        <v>FC</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="6" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D255,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D255,'Instruction Set'!I:I,0)))</f>
+        <v/>
+      </c>
+      <c r="C255" s="2" t="str">
+        <f aca="false">DEC2BIN(A255,8)</f>
+        <v>11111101</v>
+      </c>
+      <c r="D255" s="2" t="str">
+        <f aca="false">DEC2HEX(A255,2)</f>
+        <v>FD</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="6" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D256,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D256,'Instruction Set'!I:I,0)))</f>
+        <v>RST</v>
+      </c>
+      <c r="C256" s="2" t="str">
+        <f aca="false">DEC2BIN(A256,8)</f>
+        <v>11111110</v>
+      </c>
+      <c r="D256" s="2" t="str">
+        <f aca="false">DEC2HEX(A256,2)</f>
+        <v>FE</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="6" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" s="0" t="str">
+        <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D257,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D257,'Instruction Set'!I:I,0)))</f>
+        <v>HLT</v>
+      </c>
+      <c r="C257" s="2" t="str">
+        <f aca="false">DEC2BIN(A257,8)</f>
+        <v>11111111</v>
+      </c>
+      <c r="D257" s="2" t="str">
+        <f aca="false">DEC2HEX(A257,2)</f>
+        <v>FF</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -773,184 +773,184 @@
     <t xml:space="preserve">Compare accumulator (A register) with given data</t>
   </si>
   <si>
+    <t xml:space="preserve">JMP M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump unconditionally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to memory address in H and L registers</t>
+  </si>
+  <si>
     <t xml:space="preserve">JMP addr</t>
   </si>
   <si>
-    <t xml:space="preserve">Jump unconditionally</t>
-  </si>
-  <si>
     <t xml:space="preserve">JMP FFF0h</t>
   </si>
   <si>
     <t xml:space="preserve">Jump to given address</t>
   </si>
   <si>
-    <t xml:space="preserve">JMP M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to memory address in H and L registers</t>
+    <t xml:space="preserve">JC M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump on carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to memory address in H and L registers if carry flag is set</t>
   </si>
   <si>
     <t xml:space="preserve">JC addr</t>
   </si>
   <si>
-    <t xml:space="preserve">Jump on carry</t>
-  </si>
-  <si>
     <t xml:space="preserve">JC FFF0h</t>
   </si>
   <si>
     <t xml:space="preserve">Jump to given address if carry flag is set</t>
   </si>
   <si>
-    <t xml:space="preserve">JC M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to memory address in H and L registers if carry flag is set</t>
+    <t xml:space="preserve">JNC M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump on no carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to memory address in H and L registers if carry flag is clear</t>
   </si>
   <si>
     <t xml:space="preserve">JNC addr</t>
   </si>
   <si>
-    <t xml:space="preserve">Jump on no carry</t>
-  </si>
-  <si>
     <t xml:space="preserve">JNC FFF0h</t>
   </si>
   <si>
     <t xml:space="preserve">Jump to given address if carry flag is clear</t>
   </si>
   <si>
-    <t xml:space="preserve">JNC M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to memory address in H and L registers if carry flag is clear</t>
+    <t xml:space="preserve">JZ M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump on zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to memory address in H and L registers if zero flag is set</t>
   </si>
   <si>
     <t xml:space="preserve">JZ addr</t>
   </si>
   <si>
-    <t xml:space="preserve">Jump on zero</t>
-  </si>
-  <si>
     <t xml:space="preserve">JZ FFF0h</t>
   </si>
   <si>
     <t xml:space="preserve">Jump to given address if zero flag is set</t>
   </si>
   <si>
-    <t xml:space="preserve">JZ M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to memory address in H and L registers if zero flag is set</t>
+    <t xml:space="preserve">JNZ M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump on no zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to memory address in H and L registers if zero flag is clear</t>
   </si>
   <si>
     <t xml:space="preserve">JNZ addr</t>
   </si>
   <si>
-    <t xml:space="preserve">Jump on no zero</t>
-  </si>
-  <si>
     <t xml:space="preserve">JNZ FFF0h</t>
   </si>
   <si>
     <t xml:space="preserve">Jump to given address if zero flag is clear</t>
   </si>
   <si>
-    <t xml:space="preserve">JNZ M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to memory address in H and L registers if zero flag is clear</t>
+    <t xml:space="preserve">CALL M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call unconditionally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call memory address in H and L registers</t>
   </si>
   <si>
     <t xml:space="preserve">CALL addr</t>
   </si>
   <si>
-    <t xml:space="preserve">Call unconditionally</t>
-  </si>
-  <si>
     <t xml:space="preserve">CALL FFF0h</t>
   </si>
   <si>
     <t xml:space="preserve">Call given address</t>
   </si>
   <si>
-    <t xml:space="preserve">CALL M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call memory address in H and L registers</t>
+    <t xml:space="preserve">CC M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call on carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call memory address in H and L registers if carry flag is set</t>
   </si>
   <si>
     <t xml:space="preserve">CC addr</t>
   </si>
   <si>
-    <t xml:space="preserve">Call on carry</t>
-  </si>
-  <si>
     <t xml:space="preserve">CC FFF0h</t>
   </si>
   <si>
     <t xml:space="preserve">Call given address if carry flag is set</t>
   </si>
   <si>
-    <t xml:space="preserve">CC M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call memory address in H and L registers if carry flag is set</t>
+    <t xml:space="preserve">CNC M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call on no carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call memory address in H and L registers if carry flag is clear</t>
   </si>
   <si>
     <t xml:space="preserve">CNC addr</t>
   </si>
   <si>
-    <t xml:space="preserve">Call on no carry</t>
-  </si>
-  <si>
     <t xml:space="preserve">CNC FFF0h</t>
   </si>
   <si>
     <t xml:space="preserve">Call given address if carry flag is clear</t>
   </si>
   <si>
-    <t xml:space="preserve">CNC M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call memory address in H and L registers if carry flag is clear</t>
+    <t xml:space="preserve">CZ M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call on zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call memory address in H and L registers if zero flag is set</t>
   </si>
   <si>
     <t xml:space="preserve">CZ addr</t>
   </si>
   <si>
-    <t xml:space="preserve">Call on zero</t>
-  </si>
-  <si>
     <t xml:space="preserve">CZ FFF0h</t>
   </si>
   <si>
     <t xml:space="preserve">Call given address if zero flag is set</t>
   </si>
   <si>
-    <t xml:space="preserve">CZ M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call memory address in H and L registers if zero flag is set</t>
+    <t xml:space="preserve">CNZ M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call on no zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call memory address in H and L registers if zero flag is clear</t>
   </si>
   <si>
     <t xml:space="preserve">CNZ addr</t>
   </si>
   <si>
-    <t xml:space="preserve">Call on no zero</t>
-  </si>
-  <si>
     <t xml:space="preserve">CNZ FFF0h</t>
   </si>
   <si>
     <t xml:space="preserve">Call given address if zero flag is clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNZ M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call memory address in H and L registers if zero flag is clear</t>
   </si>
   <si>
     <t xml:space="preserve">RET</t>
@@ -3489,10 +3489,10 @@
         <v>251</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>250</v>
@@ -3504,14 +3504,8 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H110),2)</f>
         <v>83</v>
       </c>
-      <c r="J110" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K110" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="L110" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3519,16 +3513,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>254</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H111" s="1" t="n">
         <v>10000101</v>
@@ -3537,6 +3531,12 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H111),2)</f>
         <v>85</v>
       </c>
+      <c r="J111" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="L111" s="0" t="s">
         <v>255</v>
       </c>
@@ -3552,10 +3552,10 @@
         <v>257</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>256</v>
@@ -3567,14 +3567,8 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H112),2)</f>
         <v>87</v>
       </c>
-      <c r="J112" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K112" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="L112" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3582,16 +3576,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>260</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H113" s="1" t="n">
         <v>10001001</v>
@@ -3600,6 +3594,12 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H113),2)</f>
         <v>89</v>
       </c>
+      <c r="J113" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="L113" s="0" t="s">
         <v>261</v>
       </c>
@@ -3615,10 +3615,10 @@
         <v>263</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>262</v>
@@ -3630,14 +3630,8 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H114),2)</f>
         <v>8B</v>
       </c>
-      <c r="J114" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K114" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="L114" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,16 +3639,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="F115" s="0" t="s">
         <v>266</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H115" s="1" t="n">
         <v>10010001</v>
@@ -3663,6 +3657,12 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H115),2)</f>
         <v>91</v>
       </c>
+      <c r="J115" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="L115" s="0" t="s">
         <v>267</v>
       </c>
@@ -3678,10 +3678,10 @@
         <v>269</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>268</v>
@@ -3693,14 +3693,8 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H116),2)</f>
         <v>95</v>
       </c>
-      <c r="J116" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K116" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="L116" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,16 +3702,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>272</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H117" s="1" t="n">
         <v>10010111</v>
@@ -3726,6 +3720,12 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H117),2)</f>
         <v>97</v>
       </c>
+      <c r="J117" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="L117" s="0" t="s">
         <v>273</v>
       </c>
@@ -3741,10 +3741,10 @@
         <v>275</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>274</v>
@@ -3756,14 +3756,8 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H118),2)</f>
         <v>99</v>
       </c>
-      <c r="J118" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K118" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="L118" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,16 +3765,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>278</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H119" s="1" t="n">
         <v>10011011</v>
@@ -3789,6 +3783,12 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H119),2)</f>
         <v>9B</v>
       </c>
+      <c r="J119" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="L119" s="0" t="s">
         <v>279</v>
       </c>
@@ -3804,10 +3804,10 @@
         <v>281</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>280</v>
@@ -3819,14 +3819,8 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H120),2)</f>
         <v>A1</v>
       </c>
-      <c r="J120" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K120" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="L120" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3834,16 +3828,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>284</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H121" s="1" t="n">
         <v>10100011</v>
@@ -3852,6 +3846,12 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H121),2)</f>
         <v>A3</v>
       </c>
+      <c r="J121" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="L121" s="0" t="s">
         <v>285</v>
       </c>
@@ -3867,10 +3867,10 @@
         <v>287</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>286</v>
@@ -3882,14 +3882,8 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H122),2)</f>
         <v>A7</v>
       </c>
-      <c r="J122" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K122" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="L122" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3897,16 +3891,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>290</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H123" s="1" t="n">
         <v>10101001</v>
@@ -3915,6 +3909,12 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H123),2)</f>
         <v>A9</v>
       </c>
+      <c r="J123" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="L123" s="0" t="s">
         <v>291</v>
       </c>
@@ -3930,10 +3930,10 @@
         <v>293</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G124" s="6" t="s">
         <v>292</v>
@@ -3945,14 +3945,8 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H124),2)</f>
         <v>AB</v>
       </c>
-      <c r="J124" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K124" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="L124" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,16 +3954,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>296</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H125" s="1" t="n">
         <v>10110001</v>
@@ -3978,6 +3972,12 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H125),2)</f>
         <v>B1</v>
       </c>
+      <c r="J125" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K125" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="L125" s="0" t="s">
         <v>297</v>
       </c>
@@ -3993,10 +3993,10 @@
         <v>299</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>298</v>
@@ -4008,14 +4008,8 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H126),2)</f>
         <v>B3</v>
       </c>
-      <c r="J126" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K126" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="L126" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4023,16 +4017,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>302</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H127" s="1" t="n">
         <v>10110101</v>
@@ -4041,6 +4035,12 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H127),2)</f>
         <v>B5</v>
       </c>
+      <c r="J127" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="L127" s="0" t="s">
         <v>303</v>
       </c>
@@ -4056,10 +4056,10 @@
         <v>305</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G128" s="6" t="s">
         <v>304</v>
@@ -4071,14 +4071,8 @@
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H128),2)</f>
         <v>B9</v>
       </c>
-      <c r="J128" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K128" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="L128" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,16 +4080,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="F129" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H129" s="1" t="n">
         <v>10111011</v>
@@ -4103,6 +4097,12 @@
       <c r="I129" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H129),2)</f>
         <v>BB</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="L129" s="0" t="s">
         <v>309</v>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="B133" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D133,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D133,'Instruction Set'!I:I,0)))</f>
-        <v>JMP addr</v>
+        <v>JMP M</v>
       </c>
       <c r="C133" s="2" t="str">
         <f aca="false">DEC2BIN(A133,8)</f>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="B135" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D135,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D135,'Instruction Set'!I:I,0)))</f>
-        <v>JMP M</v>
+        <v>JMP addr</v>
       </c>
       <c r="C135" s="2" t="str">
         <f aca="false">DEC2BIN(A135,8)</f>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="B137" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D137,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D137,'Instruction Set'!I:I,0)))</f>
-        <v>JC addr</v>
+        <v>JC M</v>
       </c>
       <c r="C137" s="2" t="str">
         <f aca="false">DEC2BIN(A137,8)</f>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="B139" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D139,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D139,'Instruction Set'!I:I,0)))</f>
-        <v>JC M</v>
+        <v>JC addr</v>
       </c>
       <c r="C139" s="2" t="str">
         <f aca="false">DEC2BIN(A139,8)</f>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="B141" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D141,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D141,'Instruction Set'!I:I,0)))</f>
-        <v>JNC addr</v>
+        <v>JNC M</v>
       </c>
       <c r="C141" s="2" t="str">
         <f aca="false">DEC2BIN(A141,8)</f>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="B147" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D147,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D147,'Instruction Set'!I:I,0)))</f>
-        <v>JNC M</v>
+        <v>JNC addr</v>
       </c>
       <c r="C147" s="2" t="str">
         <f aca="false">DEC2BIN(A147,8)</f>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="B151" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D151,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D151,'Instruction Set'!I:I,0)))</f>
-        <v>JZ addr</v>
+        <v>JZ M</v>
       </c>
       <c r="C151" s="2" t="str">
         <f aca="false">DEC2BIN(A151,8)</f>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="B153" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D153,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D153,'Instruction Set'!I:I,0)))</f>
-        <v>JZ M</v>
+        <v>JZ addr</v>
       </c>
       <c r="C153" s="2" t="str">
         <f aca="false">DEC2BIN(A153,8)</f>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="B155" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D155,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D155,'Instruction Set'!I:I,0)))</f>
-        <v>JNZ addr</v>
+        <v>JNZ M</v>
       </c>
       <c r="C155" s="2" t="str">
         <f aca="false">DEC2BIN(A155,8)</f>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B157" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D157,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D157,'Instruction Set'!I:I,0)))</f>
-        <v>JNZ M</v>
+        <v>JNZ addr</v>
       </c>
       <c r="C157" s="2" t="str">
         <f aca="false">DEC2BIN(A157,8)</f>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="B163" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D163,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D163,'Instruction Set'!I:I,0)))</f>
-        <v>CALL addr</v>
+        <v>CALL M</v>
       </c>
       <c r="C163" s="2" t="str">
         <f aca="false">DEC2BIN(A163,8)</f>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="B165" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D165,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D165,'Instruction Set'!I:I,0)))</f>
-        <v>CALL M</v>
+        <v>CALL addr</v>
       </c>
       <c r="C165" s="2" t="str">
         <f aca="false">DEC2BIN(A165,8)</f>
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B169" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D169,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D169,'Instruction Set'!I:I,0)))</f>
-        <v>CC addr</v>
+        <v>CC M</v>
       </c>
       <c r="C169" s="2" t="str">
         <f aca="false">DEC2BIN(A169,8)</f>
@@ -7178,7 +7178,7 @@
       </c>
       <c r="B171" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D171,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D171,'Instruction Set'!I:I,0)))</f>
-        <v>CC M</v>
+        <v>CC addr</v>
       </c>
       <c r="C171" s="2" t="str">
         <f aca="false">DEC2BIN(A171,8)</f>
@@ -7212,7 +7212,7 @@
       </c>
       <c r="B173" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D173,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D173,'Instruction Set'!I:I,0)))</f>
-        <v>CNC addr</v>
+        <v>CNC M</v>
       </c>
       <c r="C173" s="2" t="str">
         <f aca="false">DEC2BIN(A173,8)</f>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="B179" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D179,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D179,'Instruction Set'!I:I,0)))</f>
-        <v>CNC M</v>
+        <v>CNC addr</v>
       </c>
       <c r="C179" s="2" t="str">
         <f aca="false">DEC2BIN(A179,8)</f>
@@ -7348,7 +7348,7 @@
       </c>
       <c r="B181" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D181,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D181,'Instruction Set'!I:I,0)))</f>
-        <v>CZ addr</v>
+        <v>CZ M</v>
       </c>
       <c r="C181" s="2" t="str">
         <f aca="false">DEC2BIN(A181,8)</f>
@@ -7382,7 +7382,7 @@
       </c>
       <c r="B183" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D183,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D183,'Instruction Set'!I:I,0)))</f>
-        <v>CZ M</v>
+        <v>CZ addr</v>
       </c>
       <c r="C183" s="2" t="str">
         <f aca="false">DEC2BIN(A183,8)</f>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="B187" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D187,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D187,'Instruction Set'!I:I,0)))</f>
-        <v>CNZ addr</v>
+        <v>CNZ M</v>
       </c>
       <c r="C187" s="2" t="str">
         <f aca="false">DEC2BIN(A187,8)</f>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="B189" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D189,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D189,'Instruction Set'!I:I,0)))</f>
-        <v>CNZ M</v>
+        <v>CNZ addr</v>
       </c>
       <c r="C189" s="2" t="str">
         <f aca="false">DEC2BIN(A189,8)</f>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="350">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -779,6 +779,9 @@
     <t xml:space="preserve">Jump unconditionally</t>
   </si>
   <si>
+    <t xml:space="preserve">01110101</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jump to memory address in H and L registers</t>
   </si>
   <si>
@@ -788,6 +791,9 @@
     <t xml:space="preserve">JMP FFF0h</t>
   </si>
   <si>
+    <t xml:space="preserve">01110111</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jump to given address</t>
   </si>
   <si>
@@ -797,6 +803,9 @@
     <t xml:space="preserve">Jump on carry</t>
   </si>
   <si>
+    <t xml:space="preserve">01111001</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jump to memory address in H and L registers if carry flag is set</t>
   </si>
   <si>
@@ -806,6 +815,9 @@
     <t xml:space="preserve">JC FFF0h</t>
   </si>
   <si>
+    <t xml:space="preserve">01111011</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jump to given address if carry flag is set</t>
   </si>
   <si>
@@ -815,6 +827,9 @@
     <t xml:space="preserve">Jump on no carry</t>
   </si>
   <si>
+    <t xml:space="preserve">01111101</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jump to memory address in H and L registers if carry flag is clear</t>
   </si>
   <si>
@@ -824,6 +839,9 @@
     <t xml:space="preserve">JNC FFF0h</t>
   </si>
   <si>
+    <t xml:space="preserve">01111111</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jump to given address if carry flag is clear</t>
   </si>
   <si>
@@ -833,6 +851,9 @@
     <t xml:space="preserve">Jump on zero</t>
   </si>
   <si>
+    <t xml:space="preserve">10001111</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jump to memory address in H and L registers if zero flag is set</t>
   </si>
   <si>
@@ -842,6 +863,9 @@
     <t xml:space="preserve">JZ FFF0h</t>
   </si>
   <si>
+    <t xml:space="preserve">10011111</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jump to given address if zero flag is set</t>
   </si>
   <si>
@@ -851,6 +875,9 @@
     <t xml:space="preserve">Jump on no zero</t>
   </si>
   <si>
+    <t xml:space="preserve">10101111</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jump to memory address in H and L registers if zero flag is clear</t>
   </si>
   <si>
@@ -860,6 +887,9 @@
     <t xml:space="preserve">JNZ FFF0h</t>
   </si>
   <si>
+    <t xml:space="preserve">10111111</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jump to given address if zero flag is clear</t>
   </si>
   <si>
@@ -869,6 +899,9 @@
     <t xml:space="preserve">Call unconditionally</t>
   </si>
   <si>
+    <t xml:space="preserve">11000001</t>
+  </si>
+  <si>
     <t xml:space="preserve">Call memory address in H and L registers</t>
   </si>
   <si>
@@ -878,6 +911,9 @@
     <t xml:space="preserve">CALL FFF0h</t>
   </si>
   <si>
+    <t xml:space="preserve">11000011</t>
+  </si>
+  <si>
     <t xml:space="preserve">Call given address</t>
   </si>
   <si>
@@ -887,6 +923,9 @@
     <t xml:space="preserve">Call on carry</t>
   </si>
   <si>
+    <t xml:space="preserve">11000101</t>
+  </si>
+  <si>
     <t xml:space="preserve">Call memory address in H and L registers if carry flag is set</t>
   </si>
   <si>
@@ -896,6 +935,9 @@
     <t xml:space="preserve">CC FFF0h</t>
   </si>
   <si>
+    <t xml:space="preserve">11000111</t>
+  </si>
+  <si>
     <t xml:space="preserve">Call given address if carry flag is set</t>
   </si>
   <si>
@@ -905,6 +947,9 @@
     <t xml:space="preserve">Call on no carry</t>
   </si>
   <si>
+    <t xml:space="preserve">11001011</t>
+  </si>
+  <si>
     <t xml:space="preserve">Call memory address in H and L registers if carry flag is clear</t>
   </si>
   <si>
@@ -914,6 +959,9 @@
     <t xml:space="preserve">CNC FFF0h</t>
   </si>
   <si>
+    <t xml:space="preserve">11001111</t>
+  </si>
+  <si>
     <t xml:space="preserve">Call given address if carry flag is clear</t>
   </si>
   <si>
@@ -923,6 +971,9 @@
     <t xml:space="preserve">Call on zero</t>
   </si>
   <si>
+    <t xml:space="preserve">11010001</t>
+  </si>
+  <si>
     <t xml:space="preserve">Call memory address in H and L registers if zero flag is set</t>
   </si>
   <si>
@@ -932,6 +983,9 @@
     <t xml:space="preserve">CZ FFF0h</t>
   </si>
   <si>
+    <t xml:space="preserve">11010011</t>
+  </si>
+  <si>
     <t xml:space="preserve">Call given address if zero flag is set</t>
   </si>
   <si>
@@ -941,6 +995,9 @@
     <t xml:space="preserve">Call on no zero</t>
   </si>
   <si>
+    <t xml:space="preserve">11010101</t>
+  </si>
+  <si>
     <t xml:space="preserve">Call memory address in H and L registers if zero flag is clear</t>
   </si>
   <si>
@@ -948,6 +1005,9 @@
   </si>
   <si>
     <t xml:space="preserve">CNZ FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11010111</t>
   </si>
   <si>
     <t xml:space="preserve">Call given address if zero flag is clear</t>
@@ -3497,15 +3557,15 @@
       <c r="G110" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="H110" s="7" t="n">
-        <v>10000011</v>
+      <c r="H110" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="I110" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H110),2)</f>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,23 +3573,23 @@
         <v>110</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F111" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G111" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="G111" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="H111" s="1" t="n">
-        <v>10000101</v>
+      <c r="H111" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="I111" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H111),2)</f>
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J111" s="0" t="s">
         <v>123</v>
@@ -3538,7 +3598,7 @@
         <v>124</v>
       </c>
       <c r="L111" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,29 +3606,29 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="H112" s="7" t="n">
-        <v>10000111</v>
+        <v>258</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="I112" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H112),2)</f>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,23 +3636,23 @@
         <v>112</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="H113" s="1" t="n">
-        <v>10001001</v>
+        <v>262</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="I113" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H113),2)</f>
-        <v>89</v>
+        <v>7B</v>
       </c>
       <c r="J113" s="0" t="s">
         <v>123</v>
@@ -3601,7 +3661,7 @@
         <v>124</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,29 +3669,29 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H114" s="7" t="n">
-        <v>10001011</v>
+        <v>266</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="I114" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H114),2)</f>
-        <v>8B</v>
+        <v>7D</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,23 +3699,23 @@
         <v>114</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="H115" s="1" t="n">
-        <v>10010001</v>
+        <v>270</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="I115" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H115),2)</f>
-        <v>91</v>
+        <v>7F</v>
       </c>
       <c r="J115" s="0" t="s">
         <v>123</v>
@@ -3664,7 +3724,7 @@
         <v>124</v>
       </c>
       <c r="L115" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,29 +3732,29 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="H116" s="7" t="n">
-        <v>10010101</v>
+        <v>274</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="I116" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H116),2)</f>
-        <v>95</v>
+        <v>8F</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3702,23 +3762,23 @@
         <v>116</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="H117" s="1" t="n">
-        <v>10010111</v>
+        <v>278</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="I117" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H117),2)</f>
-        <v>97</v>
+        <v>9F</v>
       </c>
       <c r="J117" s="0" t="s">
         <v>123</v>
@@ -3727,7 +3787,7 @@
         <v>124</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="118" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,29 +3795,29 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="H118" s="7" t="n">
-        <v>10011001</v>
+        <v>282</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="I118" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H118),2)</f>
-        <v>99</v>
+        <v>AF</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,23 +3825,23 @@
         <v>118</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="H119" s="1" t="n">
-        <v>10011011</v>
+        <v>286</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="I119" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H119),2)</f>
-        <v>9B</v>
+        <v>BF</v>
       </c>
       <c r="J119" s="0" t="s">
         <v>123</v>
@@ -3790,7 +3850,7 @@
         <v>124</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="120" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,29 +3858,29 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="H120" s="7" t="n">
-        <v>10100001</v>
+        <v>290</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="I120" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H120),2)</f>
-        <v>A1</v>
+        <v>C1</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3828,23 +3888,23 @@
         <v>120</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H121" s="1" t="n">
-        <v>10100011</v>
+        <v>294</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="I121" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H121),2)</f>
-        <v>A3</v>
+        <v>C3</v>
       </c>
       <c r="J121" s="0" t="s">
         <v>123</v>
@@ -3853,7 +3913,7 @@
         <v>124</v>
       </c>
       <c r="L121" s="0" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="122" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3861,29 +3921,29 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="H122" s="7" t="n">
-        <v>10100111</v>
+        <v>298</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="I122" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H122),2)</f>
-        <v>A7</v>
+        <v>C5</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,23 +3951,23 @@
         <v>122</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="H123" s="1" t="n">
-        <v>10101001</v>
+        <v>302</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="I123" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H123),2)</f>
-        <v>A9</v>
+        <v>C7</v>
       </c>
       <c r="J123" s="0" t="s">
         <v>123</v>
@@ -3916,7 +3976,7 @@
         <v>124</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3924,29 +3984,29 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="H124" s="7" t="n">
-        <v>10101011</v>
+        <v>306</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="I124" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H124),2)</f>
-        <v>AB</v>
+        <v>CB</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3954,23 +4014,23 @@
         <v>124</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="H125" s="1" t="n">
-        <v>10110001</v>
+        <v>310</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="I125" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H125),2)</f>
-        <v>B1</v>
+        <v>CF</v>
       </c>
       <c r="J125" s="0" t="s">
         <v>123</v>
@@ -3979,7 +4039,7 @@
         <v>124</v>
       </c>
       <c r="L125" s="0" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3987,29 +4047,29 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H126" s="7" t="n">
-        <v>10110011</v>
+        <v>314</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="I126" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H126),2)</f>
-        <v>B3</v>
+        <v>D1</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4017,23 +4077,23 @@
         <v>126</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="H127" s="1" t="n">
-        <v>10110101</v>
+        <v>318</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="I127" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H127),2)</f>
-        <v>B5</v>
+        <v>D3</v>
       </c>
       <c r="J127" s="0" t="s">
         <v>123</v>
@@ -4042,7 +4102,7 @@
         <v>124</v>
       </c>
       <c r="L127" s="0" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4050,29 +4110,29 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="H128" s="7" t="n">
-        <v>10111001</v>
+        <v>322</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="I128" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H128),2)</f>
-        <v>B9</v>
+        <v>D5</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,23 +4140,23 @@
         <v>128</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="H129" s="1" t="n">
-        <v>10111011</v>
+        <v>326</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="I129" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H129),2)</f>
-        <v>BB</v>
+        <v>D7</v>
       </c>
       <c r="J129" s="0" t="s">
         <v>123</v>
@@ -4105,7 +4165,7 @@
         <v>124</v>
       </c>
       <c r="L129" s="0" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4113,26 +4173,26 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="I130" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H130),2)</f>
         <v>05</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
     </row>
     <row r="131" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4140,26 +4200,26 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="I131" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H131),2)</f>
         <v>0F</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
     </row>
     <row r="132" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4167,26 +4227,26 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="I132" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H132),2)</f>
         <v>11</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="133" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,26 +4254,26 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="I133" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H133),2)</f>
         <v>15</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
     </row>
     <row r="134" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4221,26 +4281,26 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="I134" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H134),2)</f>
         <v>1F</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6294,7 +6354,7 @@
       </c>
       <c r="B119" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D119,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D119,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>JMP M</v>
       </c>
       <c r="C119" s="2" t="str">
         <f aca="false">DEC2BIN(A119,8)</f>
@@ -6328,7 +6388,7 @@
       </c>
       <c r="B121" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D121,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D121,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>JMP addr</v>
       </c>
       <c r="C121" s="2" t="str">
         <f aca="false">DEC2BIN(A121,8)</f>
@@ -6362,7 +6422,7 @@
       </c>
       <c r="B123" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D123,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D123,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>JC M</v>
       </c>
       <c r="C123" s="2" t="str">
         <f aca="false">DEC2BIN(A123,8)</f>
@@ -6396,7 +6456,7 @@
       </c>
       <c r="B125" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D125,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D125,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>JC addr</v>
       </c>
       <c r="C125" s="2" t="str">
         <f aca="false">DEC2BIN(A125,8)</f>
@@ -6430,7 +6490,7 @@
       </c>
       <c r="B127" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D127,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D127,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>JNC M</v>
       </c>
       <c r="C127" s="2" t="str">
         <f aca="false">DEC2BIN(A127,8)</f>
@@ -6464,7 +6524,7 @@
       </c>
       <c r="B129" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D129,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D129,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>JNC addr</v>
       </c>
       <c r="C129" s="2" t="str">
         <f aca="false">DEC2BIN(A129,8)</f>
@@ -6532,7 +6592,7 @@
       </c>
       <c r="B133" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D133,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D133,'Instruction Set'!I:I,0)))</f>
-        <v>JMP M</v>
+        <v/>
       </c>
       <c r="C133" s="2" t="str">
         <f aca="false">DEC2BIN(A133,8)</f>
@@ -6566,7 +6626,7 @@
       </c>
       <c r="B135" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D135,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D135,'Instruction Set'!I:I,0)))</f>
-        <v>JMP addr</v>
+        <v/>
       </c>
       <c r="C135" s="2" t="str">
         <f aca="false">DEC2BIN(A135,8)</f>
@@ -6600,7 +6660,7 @@
       </c>
       <c r="B137" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D137,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D137,'Instruction Set'!I:I,0)))</f>
-        <v>JC M</v>
+        <v/>
       </c>
       <c r="C137" s="2" t="str">
         <f aca="false">DEC2BIN(A137,8)</f>
@@ -6634,7 +6694,7 @@
       </c>
       <c r="B139" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D139,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D139,'Instruction Set'!I:I,0)))</f>
-        <v>JC addr</v>
+        <v/>
       </c>
       <c r="C139" s="2" t="str">
         <f aca="false">DEC2BIN(A139,8)</f>
@@ -6668,7 +6728,7 @@
       </c>
       <c r="B141" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D141,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D141,'Instruction Set'!I:I,0)))</f>
-        <v>JNC M</v>
+        <v/>
       </c>
       <c r="C141" s="2" t="str">
         <f aca="false">DEC2BIN(A141,8)</f>
@@ -6736,7 +6796,7 @@
       </c>
       <c r="B145" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D145,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D145,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>JZ M</v>
       </c>
       <c r="C145" s="2" t="str">
         <f aca="false">DEC2BIN(A145,8)</f>
@@ -6770,7 +6830,7 @@
       </c>
       <c r="B147" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D147,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D147,'Instruction Set'!I:I,0)))</f>
-        <v>JNC addr</v>
+        <v/>
       </c>
       <c r="C147" s="2" t="str">
         <f aca="false">DEC2BIN(A147,8)</f>
@@ -6838,7 +6898,7 @@
       </c>
       <c r="B151" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D151,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D151,'Instruction Set'!I:I,0)))</f>
-        <v>JZ M</v>
+        <v/>
       </c>
       <c r="C151" s="2" t="str">
         <f aca="false">DEC2BIN(A151,8)</f>
@@ -6872,7 +6932,7 @@
       </c>
       <c r="B153" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D153,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D153,'Instruction Set'!I:I,0)))</f>
-        <v>JZ addr</v>
+        <v/>
       </c>
       <c r="C153" s="2" t="str">
         <f aca="false">DEC2BIN(A153,8)</f>
@@ -6906,7 +6966,7 @@
       </c>
       <c r="B155" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D155,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D155,'Instruction Set'!I:I,0)))</f>
-        <v>JNZ M</v>
+        <v/>
       </c>
       <c r="C155" s="2" t="str">
         <f aca="false">DEC2BIN(A155,8)</f>
@@ -6940,7 +7000,7 @@
       </c>
       <c r="B157" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D157,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D157,'Instruction Set'!I:I,0)))</f>
-        <v>JNZ addr</v>
+        <v/>
       </c>
       <c r="C157" s="2" t="str">
         <f aca="false">DEC2BIN(A157,8)</f>
@@ -7008,7 +7068,7 @@
       </c>
       <c r="B161" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D161,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D161,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>JZ addr</v>
       </c>
       <c r="C161" s="2" t="str">
         <f aca="false">DEC2BIN(A161,8)</f>
@@ -7042,7 +7102,7 @@
       </c>
       <c r="B163" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D163,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D163,'Instruction Set'!I:I,0)))</f>
-        <v>CALL M</v>
+        <v/>
       </c>
       <c r="C163" s="2" t="str">
         <f aca="false">DEC2BIN(A163,8)</f>
@@ -7076,7 +7136,7 @@
       </c>
       <c r="B165" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D165,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D165,'Instruction Set'!I:I,0)))</f>
-        <v>CALL addr</v>
+        <v/>
       </c>
       <c r="C165" s="2" t="str">
         <f aca="false">DEC2BIN(A165,8)</f>
@@ -7144,7 +7204,7 @@
       </c>
       <c r="B169" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D169,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D169,'Instruction Set'!I:I,0)))</f>
-        <v>CC M</v>
+        <v/>
       </c>
       <c r="C169" s="2" t="str">
         <f aca="false">DEC2BIN(A169,8)</f>
@@ -7178,7 +7238,7 @@
       </c>
       <c r="B171" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D171,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D171,'Instruction Set'!I:I,0)))</f>
-        <v>CC addr</v>
+        <v/>
       </c>
       <c r="C171" s="2" t="str">
         <f aca="false">DEC2BIN(A171,8)</f>
@@ -7212,7 +7272,7 @@
       </c>
       <c r="B173" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D173,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D173,'Instruction Set'!I:I,0)))</f>
-        <v>CNC M</v>
+        <v/>
       </c>
       <c r="C173" s="2" t="str">
         <f aca="false">DEC2BIN(A173,8)</f>
@@ -7280,7 +7340,7 @@
       </c>
       <c r="B177" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D177,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D177,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>JNZ M</v>
       </c>
       <c r="C177" s="2" t="str">
         <f aca="false">DEC2BIN(A177,8)</f>
@@ -7314,7 +7374,7 @@
       </c>
       <c r="B179" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D179,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D179,'Instruction Set'!I:I,0)))</f>
-        <v>CNC addr</v>
+        <v/>
       </c>
       <c r="C179" s="2" t="str">
         <f aca="false">DEC2BIN(A179,8)</f>
@@ -7348,7 +7408,7 @@
       </c>
       <c r="B181" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D181,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D181,'Instruction Set'!I:I,0)))</f>
-        <v>CZ M</v>
+        <v/>
       </c>
       <c r="C181" s="2" t="str">
         <f aca="false">DEC2BIN(A181,8)</f>
@@ -7382,7 +7442,7 @@
       </c>
       <c r="B183" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D183,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D183,'Instruction Set'!I:I,0)))</f>
-        <v>CZ addr</v>
+        <v/>
       </c>
       <c r="C183" s="2" t="str">
         <f aca="false">DEC2BIN(A183,8)</f>
@@ -7450,7 +7510,7 @@
       </c>
       <c r="B187" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D187,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D187,'Instruction Set'!I:I,0)))</f>
-        <v>CNZ M</v>
+        <v/>
       </c>
       <c r="C187" s="2" t="str">
         <f aca="false">DEC2BIN(A187,8)</f>
@@ -7484,7 +7544,7 @@
       </c>
       <c r="B189" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D189,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D189,'Instruction Set'!I:I,0)))</f>
-        <v>CNZ addr</v>
+        <v/>
       </c>
       <c r="C189" s="2" t="str">
         <f aca="false">DEC2BIN(A189,8)</f>
@@ -7552,7 +7612,7 @@
       </c>
       <c r="B193" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D193,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D193,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>JNZ addr</v>
       </c>
       <c r="C193" s="2" t="str">
         <f aca="false">DEC2BIN(A193,8)</f>
@@ -7586,7 +7646,7 @@
       </c>
       <c r="B195" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D195,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D195,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>CALL M</v>
       </c>
       <c r="C195" s="2" t="str">
         <f aca="false">DEC2BIN(A195,8)</f>
@@ -7620,7 +7680,7 @@
       </c>
       <c r="B197" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D197,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D197,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>CALL addr</v>
       </c>
       <c r="C197" s="2" t="str">
         <f aca="false">DEC2BIN(A197,8)</f>
@@ -7654,7 +7714,7 @@
       </c>
       <c r="B199" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D199,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D199,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>CC M</v>
       </c>
       <c r="C199" s="2" t="str">
         <f aca="false">DEC2BIN(A199,8)</f>
@@ -7688,7 +7748,7 @@
       </c>
       <c r="B201" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D201,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D201,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>CC addr</v>
       </c>
       <c r="C201" s="2" t="str">
         <f aca="false">DEC2BIN(A201,8)</f>
@@ -7756,7 +7816,7 @@
       </c>
       <c r="B205" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D205,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D205,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>CNC M</v>
       </c>
       <c r="C205" s="2" t="str">
         <f aca="false">DEC2BIN(A205,8)</f>
@@ -7824,7 +7884,7 @@
       </c>
       <c r="B209" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D209,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D209,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>CNC addr</v>
       </c>
       <c r="C209" s="2" t="str">
         <f aca="false">DEC2BIN(A209,8)</f>
@@ -7858,7 +7918,7 @@
       </c>
       <c r="B211" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D211,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D211,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>CZ M</v>
       </c>
       <c r="C211" s="2" t="str">
         <f aca="false">DEC2BIN(A211,8)</f>
@@ -7892,7 +7952,7 @@
       </c>
       <c r="B213" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D213,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D213,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>CZ addr</v>
       </c>
       <c r="C213" s="2" t="str">
         <f aca="false">DEC2BIN(A213,8)</f>
@@ -7926,7 +7986,7 @@
       </c>
       <c r="B215" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D215,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D215,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>CNZ M</v>
       </c>
       <c r="C215" s="2" t="str">
         <f aca="false">DEC2BIN(A215,8)</f>
@@ -7960,7 +8020,7 @@
       </c>
       <c r="B217" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D217,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D217,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>CNZ addr</v>
       </c>
       <c r="C217" s="2" t="str">
         <f aca="false">DEC2BIN(A217,8)</f>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="360">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -788,6 +788,9 @@
     <t xml:space="preserve">JMP addr</t>
   </si>
   <si>
+    <t xml:space="preserve">011101&lt;x&gt;1</t>
+  </si>
+  <si>
     <t xml:space="preserve">JMP FFF0h</t>
   </si>
   <si>
@@ -812,6 +815,9 @@
     <t xml:space="preserve">JC addr</t>
   </si>
   <si>
+    <t xml:space="preserve">011110&lt;x&gt;1</t>
+  </si>
+  <si>
     <t xml:space="preserve">JC FFF0h</t>
   </si>
   <si>
@@ -836,6 +842,9 @@
     <t xml:space="preserve">JNC addr</t>
   </si>
   <si>
+    <t xml:space="preserve">011111&lt;x&gt;1</t>
+  </si>
+  <si>
     <t xml:space="preserve">JNC FFF0h</t>
   </si>
   <si>
@@ -860,6 +869,9 @@
     <t xml:space="preserve">JZ addr</t>
   </si>
   <si>
+    <t xml:space="preserve">100&lt;x&gt;1111</t>
+  </si>
+  <si>
     <t xml:space="preserve">JZ FFF0h</t>
   </si>
   <si>
@@ -884,6 +896,9 @@
     <t xml:space="preserve">JNZ addr</t>
   </si>
   <si>
+    <t xml:space="preserve">101&lt;x&gt;1111</t>
+  </si>
+  <si>
     <t xml:space="preserve">JNZ FFF0h</t>
   </si>
   <si>
@@ -908,6 +923,9 @@
     <t xml:space="preserve">CALL addr</t>
   </si>
   <si>
+    <t xml:space="preserve">110000&lt;x&gt;1</t>
+  </si>
+  <si>
     <t xml:space="preserve">CALL FFF0h</t>
   </si>
   <si>
@@ -932,6 +950,9 @@
     <t xml:space="preserve">CC addr</t>
   </si>
   <si>
+    <t xml:space="preserve">110001&lt;x&gt;1</t>
+  </si>
+  <si>
     <t xml:space="preserve">CC FFF0h</t>
   </si>
   <si>
@@ -956,6 +977,9 @@
     <t xml:space="preserve">CNC addr</t>
   </si>
   <si>
+    <t xml:space="preserve">11001&lt;x&gt;11</t>
+  </si>
+  <si>
     <t xml:space="preserve">CNC FFF0h</t>
   </si>
   <si>
@@ -980,6 +1004,9 @@
     <t xml:space="preserve">CZ addr</t>
   </si>
   <si>
+    <t xml:space="preserve">110100&lt;x&gt;1</t>
+  </si>
+  <si>
     <t xml:space="preserve">CZ FFF0h</t>
   </si>
   <si>
@@ -1002,6 +1029,9 @@
   </si>
   <si>
     <t xml:space="preserve">CNZ addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110101&lt;x&gt;1</t>
   </si>
   <si>
     <t xml:space="preserve">CNZ FFF0h</t>
@@ -3575,17 +3605,20 @@
       <c r="B111" s="0" t="s">
         <v>254</v>
       </c>
+      <c r="C111" s="9" t="s">
+        <v>255</v>
+      </c>
       <c r="D111" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>254</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I111" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H111),2)</f>
@@ -3598,7 +3631,7 @@
         <v>124</v>
       </c>
       <c r="L111" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,29 +3639,29 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I112" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H112),2)</f>
         <v>79</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,19 +3669,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>264</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F113" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="G113" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="G113" s="0" t="s">
-        <v>262</v>
-      </c>
       <c r="H113" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I113" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H113),2)</f>
@@ -3661,7 +3697,7 @@
         <v>124</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,29 +3705,29 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I114" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H114),2)</f>
         <v>7D</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3699,19 +3735,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I115" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H115),2)</f>
@@ -3724,7 +3763,7 @@
         <v>124</v>
       </c>
       <c r="L115" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3732,29 +3771,29 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I116" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H116),2)</f>
         <v>8F</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3762,19 +3801,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>282</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I117" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H117),2)</f>
@@ -3787,7 +3829,7 @@
         <v>124</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,29 +3837,29 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="I118" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H118),2)</f>
         <v>AF</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,19 +3867,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>291</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="I119" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H119),2)</f>
@@ -3850,7 +3895,7 @@
         <v>124</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3858,29 +3903,29 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="I120" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H120),2)</f>
         <v>C1</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3888,19 +3933,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>300</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I121" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H121),2)</f>
@@ -3913,7 +3961,7 @@
         <v>124</v>
       </c>
       <c r="L121" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3921,29 +3969,29 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="I122" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H122),2)</f>
         <v>C5</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,19 +3999,22 @@
         <v>122</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="I123" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H123),2)</f>
@@ -3976,7 +4027,7 @@
         <v>124</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,29 +4035,29 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="I124" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H124),2)</f>
         <v>CB</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4014,19 +4065,22 @@
         <v>124</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>310</v>
+        <v>317</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>318</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I125" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H125),2)</f>
@@ -4039,7 +4093,7 @@
         <v>124</v>
       </c>
       <c r="L125" s="0" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="126" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,29 +4101,29 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="I126" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H126),2)</f>
         <v>D1</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,19 +4131,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="I127" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H127),2)</f>
@@ -4102,7 +4159,7 @@
         <v>124</v>
       </c>
       <c r="L127" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,29 +4167,29 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="I128" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H128),2)</f>
         <v>D5</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4140,19 +4197,22 @@
         <v>128</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>326</v>
+        <v>335</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>336</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>136</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="I129" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H129),2)</f>
@@ -4165,7 +4225,7 @@
         <v>124</v>
       </c>
       <c r="L129" s="0" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="130" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,26 +4233,26 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="I130" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H130),2)</f>
         <v>05</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="131" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,26 +4260,26 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="I131" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H131),2)</f>
         <v>0F</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="132" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4227,26 +4287,26 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="I132" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H132),2)</f>
         <v>11</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="133" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,26 +4314,26 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="I133" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H133),2)</f>
         <v>15</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="134" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4281,26 +4341,26 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="I134" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H134),2)</f>
         <v>1F</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="364">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -377,13 +377,19 @@
     <t xml:space="preserve">MOV SP,IP</t>
   </si>
   <si>
+    <t xml:space="preserve">111 = addr/data</t>
+  </si>
+  <si>
     <t xml:space="preserve">00100010</t>
   </si>
   <si>
     <t xml:space="preserve">Move value of Instruction Pointer into Stack Pointer</t>
   </si>
   <si>
-    <t xml:space="preserve">MOV HL,data</t>
+    <t xml:space="preserve">MOV HL,addr/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address/Data</t>
   </si>
   <si>
     <t xml:space="preserve">MOV HL,FFF0h</t>
@@ -392,52 +398,58 @@
     <t xml:space="preserve">00001110</t>
   </si>
   <si>
+    <t xml:space="preserve">Low-order byte of address/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-order byte of address/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move given address/data into H and L registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV IP,addr/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV IP,FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00011110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move given address/data into Instruction Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV SP,addr/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV SP,FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00101110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move given address/data into Stack Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDA rd,addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load from address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDA A,FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDA A,addr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Low-order byte of address</t>
   </si>
   <si>
     <t xml:space="preserve">High-order byte of address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move given data into H and L registers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV IP,data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV IP,FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00011110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move given data into Instruction Pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV SP,data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV SP,FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00101110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move given data into Stack Pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA rd,addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load from address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA A,FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA A,addr</t>
   </si>
   <si>
     <t xml:space="preserve">Load value at given address into destination register</t>
@@ -1358,16 +1370,16 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="69.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
@@ -2474,7 +2486,7 @@
         <v>117</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>102</v>
@@ -2489,14 +2501,14 @@
         <v>117</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I58" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H58),2)</f>
         <v>22</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,35 +2516,35 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>97</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F59" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="G59" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I59" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H59),2)</f>
         <v>0E</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,35 +2552,35 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>98</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I60" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H60),2)</f>
         <v>1E</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,35 +2588,35 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>102</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I61" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H61),2)</f>
         <v>2E</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2612,22 +2624,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H62" s="7" t="n">
         <v>10001101</v>
@@ -2637,13 +2649,13 @@
         <v>8D</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,10 +2663,10 @@
         <v>62</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H63" s="1" t="n">
         <v>10011101</v>
@@ -2669,7 +2681,7 @@
         <v>63</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H64" s="1" t="n">
         <v>10101101</v>
@@ -2684,7 +2696,7 @@
         <v>64</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H65" s="1" t="n">
         <v>10111101</v>
@@ -2699,7 +2711,7 @@
         <v>65</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H66" s="1" t="n">
         <v>11001101</v>
@@ -2714,7 +2726,7 @@
         <v>66</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H67" s="1" t="n">
         <v>11011101</v>
@@ -2729,22 +2741,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H68" s="7" t="n">
         <v>11100001</v>
@@ -2754,13 +2766,13 @@
         <v>E1</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,10 +2780,10 @@
         <v>68</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H69" s="1" t="n">
         <v>11100011</v>
@@ -2786,7 +2798,7 @@
         <v>69</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H70" s="1" t="n">
         <v>11100101</v>
@@ -2801,7 +2813,7 @@
         <v>70</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H71" s="1" t="n">
         <v>11100111</v>
@@ -2816,7 +2828,7 @@
         <v>71</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H72" s="1" t="n">
         <v>11101001</v>
@@ -2831,7 +2843,7 @@
         <v>72</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H73" s="1" t="n">
         <v>11101011</v>
@@ -2846,19 +2858,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H74" s="7" t="n">
         <v>10000000</v>
@@ -2868,7 +2880,7 @@
         <v>80</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2876,10 +2888,10 @@
         <v>74</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H75" s="1" t="n">
         <v>10010010</v>
@@ -2894,7 +2906,7 @@
         <v>75</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H76" s="1" t="n">
         <v>10100100</v>
@@ -2909,7 +2921,7 @@
         <v>76</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H77" s="1" t="n">
         <v>10110110</v>
@@ -2924,7 +2936,7 @@
         <v>77</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H78" s="1" t="n">
         <v>11001000</v>
@@ -2939,7 +2951,7 @@
         <v>78</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H79" s="1" t="n">
         <v>11011010</v>
@@ -2954,19 +2966,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H80" s="7" t="n">
         <v>10000001</v>
@@ -2976,7 +2988,7 @@
         <v>81</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,10 +2996,10 @@
         <v>80</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H81" s="1" t="n">
         <v>10010011</v>
@@ -3002,7 +3014,7 @@
         <v>81</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H82" s="1" t="n">
         <v>10100101</v>
@@ -3017,7 +3029,7 @@
         <v>82</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H83" s="1" t="n">
         <v>10110111</v>
@@ -3032,7 +3044,7 @@
         <v>83</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H84" s="1" t="n">
         <v>11001001</v>
@@ -3047,7 +3059,7 @@
         <v>84</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H85" s="1" t="n">
         <v>11011011</v>
@@ -3062,29 +3074,29 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I86" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H86),2)</f>
         <v>60</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,13 +3104,13 @@
         <v>86</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I87" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H87),2)</f>
@@ -3111,10 +3123,10 @@
       </c>
       <c r="C88" s="9"/>
       <c r="G88" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I88" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H88),2)</f>
@@ -3126,10 +3138,10 @@
         <v>88</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I89" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H89),2)</f>
@@ -3141,10 +3153,10 @@
         <v>89</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I90" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H90),2)</f>
@@ -3156,10 +3168,10 @@
         <v>90</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I91" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H91),2)</f>
@@ -3171,26 +3183,26 @@
         <v>91</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I92" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H92),2)</f>
         <v>6C</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3198,22 +3210,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>85</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I93" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H93),2)</f>
@@ -3223,7 +3235,7 @@
         <v>88</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,29 +3243,29 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I94" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H94),2)</f>
         <v>61</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,13 +3273,13 @@
         <v>94</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I95" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H95),2)</f>
@@ -3280,10 +3292,10 @@
       </c>
       <c r="C96" s="9"/>
       <c r="G96" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I96" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H96),2)</f>
@@ -3295,10 +3307,10 @@
         <v>96</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I97" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H97),2)</f>
@@ -3310,10 +3322,10 @@
         <v>97</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I98" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H98),2)</f>
@@ -3325,10 +3337,10 @@
         <v>98</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I99" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H99),2)</f>
@@ -3340,26 +3352,26 @@
         <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I100" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H100),2)</f>
         <v>6D</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,22 +3379,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>85</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I101" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H101),2)</f>
@@ -3392,7 +3404,7 @@
         <v>88</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,22 +3412,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I102" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H102),2)</f>
@@ -3427,20 +3439,20 @@
         <v>102</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I103" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H103),2)</f>
         <v>72</v>
       </c>
       <c r="L103" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,10 +3461,10 @@
       </c>
       <c r="C104" s="11"/>
       <c r="G104" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="I104" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H104),2)</f>
@@ -3465,10 +3477,10 @@
       </c>
       <c r="C105" s="11"/>
       <c r="G105" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I105" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H105),2)</f>
@@ -3481,10 +3493,10 @@
       </c>
       <c r="C106" s="11"/>
       <c r="G106" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I106" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H106),2)</f>
@@ -3497,10 +3509,10 @@
       </c>
       <c r="C107" s="11"/>
       <c r="G107" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I107" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H107),2)</f>
@@ -3512,27 +3524,27 @@
         <v>107</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I108" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H108),2)</f>
         <v>7C</v>
       </c>
       <c r="L108" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3540,22 +3552,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>85</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I109" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H109),2)</f>
@@ -3565,7 +3577,7 @@
         <v>88</v>
       </c>
       <c r="L109" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3573,29 +3585,29 @@
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I110" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H110),2)</f>
         <v>75</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3603,35 +3615,35 @@
         <v>110</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I111" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H111),2)</f>
         <v>77</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L111" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,29 +3651,29 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I112" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H112),2)</f>
         <v>79</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,35 +3681,35 @@
         <v>112</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I113" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H113),2)</f>
         <v>7B</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,29 +3717,29 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="I114" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H114),2)</f>
         <v>7D</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,35 +3747,35 @@
         <v>114</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="I115" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H115),2)</f>
         <v>7F</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K115" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L115" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,29 +3783,29 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I116" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H116),2)</f>
         <v>8F</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,35 +3813,35 @@
         <v>116</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="I117" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H117),2)</f>
         <v>9F</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,29 +3849,29 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I118" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H118),2)</f>
         <v>AF</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,35 +3879,35 @@
         <v>118</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I119" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H119),2)</f>
         <v>BF</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,29 +3915,29 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I120" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H120),2)</f>
         <v>C1</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,35 +3945,35 @@
         <v>120</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I121" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H121),2)</f>
         <v>C3</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L121" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="122" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3969,29 +3981,29 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I122" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H122),2)</f>
         <v>C5</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,35 +4011,35 @@
         <v>122</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I123" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H123),2)</f>
         <v>C7</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K123" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4035,29 +4047,29 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I124" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H124),2)</f>
         <v>CB</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4065,35 +4077,35 @@
         <v>124</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I125" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H125),2)</f>
         <v>CF</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K125" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L125" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="126" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4101,29 +4113,29 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I126" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H126),2)</f>
         <v>D1</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,35 +4143,35 @@
         <v>126</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I127" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H127),2)</f>
         <v>D3</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K127" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L127" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="128" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4167,29 +4179,29 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I128" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H128),2)</f>
         <v>D5</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4197,35 +4209,35 @@
         <v>128</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I129" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H129),2)</f>
         <v>D7</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K129" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L129" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="130" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4233,26 +4245,26 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I130" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H130),2)</f>
         <v>05</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="131" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4260,26 +4272,26 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I131" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H131),2)</f>
         <v>0F</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="132" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,26 +4299,26 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I132" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H132),2)</f>
         <v>11</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="133" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,26 +4326,26 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I133" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H133),2)</f>
         <v>15</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="134" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4341,26 +4353,26 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I134" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H134),2)</f>
         <v>1F</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4663,7 +4675,7 @@
       </c>
       <c r="B16" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D16,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D16,'Instruction Set'!I:I,0)))</f>
-        <v>MOV HL,data</v>
+        <v>MOV HL,addr/data</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">DEC2BIN(A16,8)</f>
@@ -4935,7 +4947,7 @@
       </c>
       <c r="B32" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D32,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D32,'Instruction Set'!I:I,0)))</f>
-        <v>MOV IP,data</v>
+        <v>MOV IP,addr/data</v>
       </c>
       <c r="C32" s="2" t="str">
         <f aca="false">DEC2BIN(A32,8)</f>
@@ -5207,7 +5219,7 @@
       </c>
       <c r="B48" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D48,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D48,'Instruction Set'!I:I,0)))</f>
-        <v>MOV SP,data</v>
+        <v>MOV SP,addr/data</v>
       </c>
       <c r="C48" s="2" t="str">
         <f aca="false">DEC2BIN(A48,8)</f>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -1370,12 +1370,12 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.44"/>
@@ -4411,7 +4411,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="410">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">01101100</t>
   </si>
   <si>
-    <t xml:space="preserve">Increment accumulator (A register) by value at memory address in H and L registers </t>
+    <t xml:space="preserve">Increment accumulator (A register) by value at memory address in H and L registers</t>
   </si>
   <si>
     <t xml:space="preserve">ADD data</t>
@@ -713,6 +713,144 @@
     <t xml:space="preserve">Decrement accumulator (A register) by given data</t>
   </si>
   <si>
+    <t xml:space="preserve">ADC r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add with Carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment accumulator (A register) by value of register with carry if set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010&lt;x&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment accumulator (A register) by value at memory address in H and L registers with carry if set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC 10h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment accumulator (A register) by given data with carry if set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtract with Borrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement accumulator (A register) by value of register with borrow if set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011&lt;x&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement accumulator (A register) by value at memory address in H and L registers with borrow if set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB 10h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement accumulator (A register) by given data with borrow if set</t>
+  </si>
+  <si>
     <t xml:space="preserve">CMP r</t>
   </si>
   <si>
@@ -725,6 +863,9 @@
     <t xml:space="preserve">01110000</t>
   </si>
   <si>
+    <t xml:space="preserve">Compare accumulator (A register) with value of register</t>
+  </si>
+  <si>
     <t xml:space="preserve">0&lt;data&gt;&lt;r&gt;0</t>
   </si>
   <si>
@@ -732,9 +873,6 @@
   </si>
   <si>
     <t xml:space="preserve">01110010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare accumulator (A register) with value of register</t>
   </si>
   <si>
     <t xml:space="preserve">CMP C</t>
@@ -1119,9 +1257,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1248,7 +1387,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1359,28 +1498,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="69.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="82.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -3431,7 +3570,10 @@
       </c>
       <c r="I102" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H102),2)</f>
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3439,20 +3581,17 @@
         <v>102</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I103" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H103),2)</f>
-        <v>72</v>
-      </c>
-      <c r="L103" s="0" t="s">
-        <v>237</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3468,7 +3607,7 @@
       </c>
       <c r="I104" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H104),2)</f>
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3484,7 +3623,7 @@
       </c>
       <c r="I105" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H105),2)</f>
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,7 +3639,7 @@
       </c>
       <c r="I106" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H106),2)</f>
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3516,7 +3655,7 @@
       </c>
       <c r="I107" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H107),2)</f>
-        <v>7A</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3527,9 +3666,6 @@
         <v>246</v>
       </c>
       <c r="C108" s="11"/>
-      <c r="D108" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="F108" s="0" t="s">
         <v>246</v>
       </c>
@@ -3541,7 +3677,7 @@
       </c>
       <c r="I108" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H108),2)</f>
-        <v>7C</v>
+        <v>56</v>
       </c>
       <c r="L108" s="0" t="s">
         <v>248</v>
@@ -3554,30 +3690,25 @@
       <c r="B109" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="11"/>
+      <c r="F109" s="0" t="s">
         <v>250</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F109" s="0" t="s">
-        <v>251</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>249</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I109" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H109),2)</f>
-        <v>7E</v>
+        <v>57</v>
       </c>
       <c r="J109" s="0" t="s">
         <v>88</v>
       </c>
       <c r="L109" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3585,26 +3716,26 @@
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C110" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="D110" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F110" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D110" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="G110" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>256</v>
       </c>
       <c r="I110" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H110),2)</f>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="L110" s="6" t="s">
         <v>257</v>
@@ -3614,198 +3745,107 @@
       <c r="A111" s="6" t="n">
         <v>110</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="C111" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="G111" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="D111" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F111" s="0" t="s">
+      <c r="H111" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="G111" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="I111" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H111),2)</f>
-        <v>77</v>
-      </c>
-      <c r="J111" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K111" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L111" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="112" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>265</v>
+      <c r="C112" s="11"/>
+      <c r="G112" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="I112" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H112),2)</f>
-        <v>79</v>
-      </c>
-      <c r="L112" s="6" t="s">
-        <v>266</v>
+        <v>5A</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
         <v>112</v>
       </c>
-      <c r="B113" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F113" s="0" t="s">
-        <v>269</v>
-      </c>
+      <c r="C113" s="11"/>
       <c r="G113" s="0" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I113" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H113),2)</f>
-        <v>7B</v>
-      </c>
-      <c r="J113" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K113" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L113" s="0" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="114" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5B</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
         <v>113</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>274</v>
+      <c r="C114" s="11"/>
+      <c r="G114" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="I114" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H114),2)</f>
-        <v>7D</v>
-      </c>
-      <c r="L114" s="6" t="s">
-        <v>275</v>
+        <v>5C</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F115" s="0" t="s">
-        <v>278</v>
-      </c>
+      <c r="C115" s="11"/>
       <c r="G115" s="0" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="I115" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H115),2)</f>
-        <v>7F</v>
-      </c>
-      <c r="J115" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K115" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L115" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="116" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5D</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>115</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>283</v>
+      <c r="B116" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="F116" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="I116" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H116),2)</f>
-        <v>8F</v>
-      </c>
-      <c r="L116" s="6" t="s">
-        <v>284</v>
+        <v>5E</v>
+      </c>
+      <c r="L116" s="0" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,35 +3853,27 @@
         <v>116</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>138</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C117" s="11"/>
       <c r="F117" s="0" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="I117" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H117),2)</f>
-        <v>9F</v>
+        <v>5F</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K117" s="0" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3849,227 +3881,139 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>291</v>
+        <v>276</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I118" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H118),2)</f>
-        <v>AF</v>
+        <v>70</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
         <v>118</v>
       </c>
-      <c r="B119" s="0" t="s">
-        <v>294</v>
-      </c>
       <c r="C119" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="I119" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H119),2)</f>
-        <v>BF</v>
-      </c>
-      <c r="J119" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K119" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L119" s="0" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="120" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="n">
         <v>119</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>301</v>
+      <c r="C120" s="11"/>
+      <c r="G120" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="I120" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H120),2)</f>
-        <v>C1</v>
-      </c>
-      <c r="L120" s="6" t="s">
-        <v>302</v>
+        <v>74</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
         <v>120</v>
       </c>
-      <c r="B121" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>305</v>
-      </c>
+      <c r="C121" s="11"/>
       <c r="G121" s="0" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="I121" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H121),2)</f>
-        <v>C3</v>
-      </c>
-      <c r="J121" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K121" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L121" s="0" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="122" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
         <v>121</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>310</v>
+      <c r="C122" s="11"/>
+      <c r="G122" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="I122" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H122),2)</f>
-        <v>C5</v>
-      </c>
-      <c r="L122" s="6" t="s">
-        <v>311</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
         <v>122</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F123" s="0" t="s">
-        <v>314</v>
-      </c>
+      <c r="C123" s="11"/>
       <c r="G123" s="0" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="I123" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H123),2)</f>
-        <v>C7</v>
-      </c>
-      <c r="J123" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K123" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L123" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="124" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7A</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
         <v>123</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D124" s="6" t="s">
+      <c r="B124" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="11"/>
+      <c r="D124" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F124" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>319</v>
+      <c r="F124" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="I124" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H124),2)</f>
-        <v>CB</v>
-      </c>
-      <c r="L124" s="6" t="s">
-        <v>320</v>
+        <v>7C</v>
+      </c>
+      <c r="L124" s="0" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,35 +4021,32 @@
         <v>124</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="I125" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H125),2)</f>
-        <v>CF</v>
+        <v>7E</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K125" s="0" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="L125" s="0" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
     </row>
     <row r="126" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4113,29 +4054,29 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="I126" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H126),2)</f>
-        <v>D1</v>
+        <v>75</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,26 +4084,26 @@
         <v>126</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>138</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="I127" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H127),2)</f>
-        <v>D3</v>
+        <v>77</v>
       </c>
       <c r="J127" s="0" t="s">
         <v>141</v>
@@ -4171,7 +4112,7 @@
         <v>142</v>
       </c>
       <c r="L127" s="0" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4179,29 +4120,29 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="I128" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H128),2)</f>
-        <v>D5</v>
+        <v>79</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4209,26 +4150,26 @@
         <v>128</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>138</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="I129" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H129),2)</f>
-        <v>D7</v>
+        <v>7B</v>
       </c>
       <c r="J129" s="0" t="s">
         <v>141</v>
@@ -4237,7 +4178,7 @@
         <v>142</v>
       </c>
       <c r="L129" s="0" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
     </row>
     <row r="130" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4245,53 +4186,65 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>345</v>
+        <v>319</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="I130" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H130),2)</f>
-        <v>05</v>
+        <v>7D</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="131" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
         <v>130</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>350</v>
+      <c r="B131" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="I131" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H131),2)</f>
-        <v>0F</v>
-      </c>
-      <c r="L131" s="6" t="s">
-        <v>351</v>
+        <v>7F</v>
+      </c>
+      <c r="J131" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K131" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="L131" s="0" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="132" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,53 +4252,65 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>353</v>
+        <v>328</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="I132" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H132),2)</f>
-        <v>11</v>
+        <v>8F</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="133" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
         <v>132</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>358</v>
+      <c r="B133" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="G133" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="I133" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H133),2)</f>
-        <v>15</v>
-      </c>
-      <c r="L133" s="6" t="s">
-        <v>359</v>
+        <v>9F</v>
+      </c>
+      <c r="J133" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K133" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="L133" s="0" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="134" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,37 +4318,539 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="I134" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H134),2)</f>
+        <v>AF</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="G135" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I135" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H135),2)</f>
+        <v>BF</v>
+      </c>
+      <c r="J135" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K135" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="L135" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="136" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I136" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H136),2)</f>
+        <v>C1</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="G137" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I137" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H137),2)</f>
+        <v>C3</v>
+      </c>
+      <c r="J137" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K137" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="L137" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="138" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="I138" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H138),2)</f>
+        <v>C5</v>
+      </c>
+      <c r="L138" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="G139" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I139" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H139),2)</f>
+        <v>C7</v>
+      </c>
+      <c r="J139" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K139" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="L139" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="140" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I140" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H140),2)</f>
+        <v>CB</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="6" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I141" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H141),2)</f>
+        <v>CF</v>
+      </c>
+      <c r="J141" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K141" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="L141" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="142" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="6" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="I142" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H142),2)</f>
+        <v>D1</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="6" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I143" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H143),2)</f>
+        <v>D3</v>
+      </c>
+      <c r="J143" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K143" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="L143" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="144" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="6" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="I144" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H144),2)</f>
+        <v>D5</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="6" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="G145" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I145" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H145),2)</f>
+        <v>D7</v>
+      </c>
+      <c r="J145" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K145" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="L145" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="146" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="6" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="I146" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H146),2)</f>
+        <v>05</v>
+      </c>
+      <c r="L146" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="147" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="6" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I147" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H147),2)</f>
+        <v>0F</v>
+      </c>
+      <c r="L147" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="148" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="6" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I148" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H148),2)</f>
+        <v>11</v>
+      </c>
+      <c r="L148" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="149" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="6" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I149" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H149),2)</f>
+        <v>15</v>
+      </c>
+      <c r="L149" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="150" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="6" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="I150" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H150),2)</f>
         <v>1F</v>
       </c>
-      <c r="L134" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H135" s="0"/>
-      <c r="I135" s="0"/>
+      <c r="L150" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H151" s="0"/>
+      <c r="I151" s="0"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.39375" top="0.659027777777778" bottom="0.659027777777778" header="0.39375" footer="0.39375"/>
@@ -4411,7 +4878,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
@@ -5797,7 +6264,7 @@
       </c>
       <c r="B82" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D82,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D82,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>ADC A</v>
       </c>
       <c r="C82" s="2" t="str">
         <f aca="false">DEC2BIN(A82,8)</f>
@@ -5814,7 +6281,7 @@
       </c>
       <c r="B83" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D83,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D83,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>ADC B</v>
       </c>
       <c r="C83" s="2" t="str">
         <f aca="false">DEC2BIN(A83,8)</f>
@@ -5831,7 +6298,7 @@
       </c>
       <c r="B84" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D84,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D84,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>ADC C</v>
       </c>
       <c r="C84" s="2" t="str">
         <f aca="false">DEC2BIN(A84,8)</f>
@@ -5848,7 +6315,7 @@
       </c>
       <c r="B85" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D85,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D85,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>ADC D</v>
       </c>
       <c r="C85" s="2" t="str">
         <f aca="false">DEC2BIN(A85,8)</f>
@@ -5865,7 +6332,7 @@
       </c>
       <c r="B86" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D86,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D86,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>ADC H</v>
       </c>
       <c r="C86" s="2" t="str">
         <f aca="false">DEC2BIN(A86,8)</f>
@@ -5882,7 +6349,7 @@
       </c>
       <c r="B87" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D87,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D87,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>ADC L</v>
       </c>
       <c r="C87" s="2" t="str">
         <f aca="false">DEC2BIN(A87,8)</f>
@@ -5899,7 +6366,7 @@
       </c>
       <c r="B88" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D88,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D88,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>ADC M</v>
       </c>
       <c r="C88" s="2" t="str">
         <f aca="false">DEC2BIN(A88,8)</f>
@@ -5916,7 +6383,7 @@
       </c>
       <c r="B89" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D89,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D89,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>ADC data</v>
       </c>
       <c r="C89" s="2" t="str">
         <f aca="false">DEC2BIN(A89,8)</f>
@@ -5933,7 +6400,7 @@
       </c>
       <c r="B90" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D90,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D90,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>SBB A</v>
       </c>
       <c r="C90" s="2" t="str">
         <f aca="false">DEC2BIN(A90,8)</f>
@@ -5950,7 +6417,7 @@
       </c>
       <c r="B91" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D91,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D91,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>SBB B</v>
       </c>
       <c r="C91" s="2" t="str">
         <f aca="false">DEC2BIN(A91,8)</f>
@@ -5967,7 +6434,7 @@
       </c>
       <c r="B92" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D92,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D92,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>SBB C</v>
       </c>
       <c r="C92" s="2" t="str">
         <f aca="false">DEC2BIN(A92,8)</f>
@@ -5984,7 +6451,7 @@
       </c>
       <c r="B93" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D93,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D93,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>SBB D</v>
       </c>
       <c r="C93" s="2" t="str">
         <f aca="false">DEC2BIN(A93,8)</f>
@@ -6001,7 +6468,7 @@
       </c>
       <c r="B94" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D94,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D94,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>SBB H</v>
       </c>
       <c r="C94" s="2" t="str">
         <f aca="false">DEC2BIN(A94,8)</f>
@@ -6018,7 +6485,7 @@
       </c>
       <c r="B95" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D95,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D95,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>SBB L</v>
       </c>
       <c r="C95" s="2" t="str">
         <f aca="false">DEC2BIN(A95,8)</f>
@@ -6035,7 +6502,7 @@
       </c>
       <c r="B96" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D96,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D96,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>SBB M</v>
       </c>
       <c r="C96" s="2" t="str">
         <f aca="false">DEC2BIN(A96,8)</f>
@@ -6052,7 +6519,7 @@
       </c>
       <c r="B97" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D97,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D97,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>SBB data</v>
       </c>
       <c r="C97" s="2" t="str">
         <f aca="false">DEC2BIN(A97,8)</f>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -713,6 +713,78 @@
     <t xml:space="preserve">Decrement accumulator (A register) by given data</t>
   </si>
   <si>
+    <t xml:space="preserve">CMP r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01110000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare accumulator (A register) with value of register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0&lt;data&gt;&lt;r&gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01110010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01110100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01110110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01111000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01111010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01111100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare accumulator (A register) with value at memory address in H and L registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0&lt;data&gt;&lt;data&gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP 10h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01111110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare accumulator (A register) with given data</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADC r</t>
   </si>
   <si>
@@ -849,78 +921,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decrement accumulator (A register) by given data with borrow if set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01110000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare accumulator (A register) with value of register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0&lt;data&gt;&lt;r&gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01110010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01110100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01110110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01111000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01111010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01111100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare accumulator (A register) with value at memory address in H and L registers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0&lt;data&gt;&lt;data&gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP 10h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01111110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare accumulator (A register) with given data</t>
   </si>
   <si>
     <t xml:space="preserve">JMP M</t>
@@ -1519,7 +1519,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="82.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="82.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="I102" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H102),2)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L102" s="6" t="s">
         <v>234</v>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="I103" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H103),2)</f>
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="I104" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H104),2)</f>
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="I105" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H105),2)</f>
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I106" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H106),2)</f>
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="I107" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H107),2)</f>
-        <v>55</v>
+        <v>7A</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,6 +3666,9 @@
         <v>246</v>
       </c>
       <c r="C108" s="11"/>
+      <c r="D108" s="0" t="s">
+        <v>68</v>
+      </c>
       <c r="F108" s="0" t="s">
         <v>246</v>
       </c>
@@ -3677,7 +3680,7 @@
       </c>
       <c r="I108" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H108),2)</f>
-        <v>56</v>
+        <v>7C</v>
       </c>
       <c r="L108" s="0" t="s">
         <v>248</v>
@@ -3690,25 +3693,30 @@
       <c r="B109" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="C109" s="11"/>
+      <c r="C109" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>85</v>
+      </c>
       <c r="F109" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>249</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I109" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H109),2)</f>
-        <v>57</v>
+        <v>7E</v>
       </c>
       <c r="J109" s="0" t="s">
         <v>88</v>
       </c>
       <c r="L109" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,29 +3724,29 @@
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>163</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I110" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H110),2)</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,17 +3754,17 @@
         <v>110</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I111" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H111),2)</f>
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,14 +3773,14 @@
       </c>
       <c r="C112" s="11"/>
       <c r="G112" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I112" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H112),2)</f>
-        <v>5A</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,14 +3789,14 @@
       </c>
       <c r="C113" s="11"/>
       <c r="G113" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I113" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H113),2)</f>
-        <v>5B</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,14 +3805,14 @@
       </c>
       <c r="C114" s="11"/>
       <c r="G114" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I114" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H114),2)</f>
-        <v>5C</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,14 +3821,14 @@
       </c>
       <c r="C115" s="11"/>
       <c r="G115" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I115" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H115),2)</f>
-        <v>5D</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3828,24 +3836,24 @@
         <v>115</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C116" s="11"/>
       <c r="F116" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I116" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H116),2)</f>
-        <v>5E</v>
+        <v>56</v>
       </c>
       <c r="L116" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3853,27 +3861,27 @@
         <v>116</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C117" s="11"/>
       <c r="F117" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="G117" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="G117" s="0" t="s">
-        <v>272</v>
-      </c>
       <c r="H117" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I117" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H117),2)</f>
-        <v>5F</v>
+        <v>57</v>
       </c>
       <c r="J117" s="0" t="s">
         <v>88</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,29 +3889,29 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>163</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I118" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H118),2)</f>
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,17 +3919,17 @@
         <v>118</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I119" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H119),2)</f>
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3930,14 +3938,14 @@
       </c>
       <c r="C120" s="11"/>
       <c r="G120" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I120" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H120),2)</f>
-        <v>74</v>
+        <v>5A</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3946,14 +3954,14 @@
       </c>
       <c r="C121" s="11"/>
       <c r="G121" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I121" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H121),2)</f>
-        <v>76</v>
+        <v>5B</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,14 +3970,14 @@
       </c>
       <c r="C122" s="11"/>
       <c r="G122" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I122" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H122),2)</f>
-        <v>78</v>
+        <v>5C</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3978,14 +3986,14 @@
       </c>
       <c r="C123" s="11"/>
       <c r="G123" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I123" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H123),2)</f>
-        <v>7A</v>
+        <v>5D</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,27 +4001,24 @@
         <v>123</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C124" s="11"/>
-      <c r="D124" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="F124" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I124" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H124),2)</f>
-        <v>7C</v>
+        <v>5E</v>
       </c>
       <c r="L124" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4021,26 +4026,21 @@
         <v>124</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="C125" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D125" s="0" t="s">
-        <v>85</v>
-      </c>
+      <c r="C125" s="11"/>
       <c r="F125" s="0" t="s">
         <v>297</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>298</v>
       </c>
       <c r="I125" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H125),2)</f>
-        <v>7E</v>
+        <v>5F</v>
       </c>
       <c r="J125" s="0" t="s">
         <v>88</v>
@@ -4878,7 +4878,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="417">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -1251,6 +1251,27 @@
   </si>
   <si>
     <t xml:space="preserve">Return if zero flag is clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call Interrupt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interrupt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT 10h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interrupt number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call given interrupt</t>
   </si>
 </sst>
 </file>
@@ -4844,9 +4865,38 @@
         <v>409</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H151" s="0"/>
-      <c r="I151" s="0"/>
+    <row r="151" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H151" s="6" t="n">
+        <v>11011111</v>
+      </c>
+      <c r="I151" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H151),2)</f>
+        <v>DF</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="L151" s="6" t="s">
+        <v>416</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
@@ -8695,7 +8745,7 @@
       </c>
       <c r="B225" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D225,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D225,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>INT int</v>
       </c>
       <c r="C225" s="2" t="str">
         <f aca="false">DEC2BIN(A225,8)</f>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="455">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -86,1192 +86,1306 @@
     <t xml:space="preserve">Reset</t>
   </si>
   <si>
+    <t xml:space="preserve">11110111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reset CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV rd,rs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destination register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV A,B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move value of source register into destination register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1&lt;rd&gt;&lt;rs&gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV A,C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV A,D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000 = A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV A,H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001 = B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV A,L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010 = C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV B,A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011 = D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV B,C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 = H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV B,D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 = L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV B,H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110 = M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV B,L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111 = data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV C,A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV C,B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV C,D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV C,H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV C,L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV D,A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV D,B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV D,C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV D,H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV D,L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV H,A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV H,B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV H,C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV H,D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV H,L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV L,A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV L,B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV L,C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV L,D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV L,H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV rd,M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV A,M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move value at memory address in H and L registers into destination register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV B,M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV C,M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV D,M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV H,M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV L,M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV M,rs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV M,A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move value of source register into memory address in H and L registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV M,B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV M,C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV M,D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV M,H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV M,L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV rd,data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV A,10h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV A,data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte of data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move given data into destination register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV B,data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV C,data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV D,data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV H,data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV L,data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV HL,IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0&lt;rd&gt;&lt;rs&gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H and L registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instruction Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move value of Instruction Pointer into H and L registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV HL,SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move value of Stack Pointer into H and L registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV IP,HL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000 = HL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move value of H and L registers into Instruction Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV IP,SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001 = IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00010100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move value of Stack Pointer into Instruction Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV SP,HL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010 = SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move value of H and L registers into Stack Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV SP,IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111 = addr/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00100010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move value of Instruction Pointer into Stack Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV HL,addr/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address/Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV HL,FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00001110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low-order byte of address/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-order byte of address/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move given address/data into H and L registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV IP,addr/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV IP,FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00011110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move given address/data into Instruction Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV SP,addr/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV SP,FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00101110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move given address/data into Stack Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDA rd,addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load from address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDA A,FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDA A,addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low-order byte of address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-order byte of address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load value at given address into destination register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1&lt;r&gt;&lt;M&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDA B,addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDA C,addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDA D,addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDA H,addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDA L,addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STA addr,rs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store to address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STA FFF0h,A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STA addr,A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store value of source register into given address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1&lt;M&gt;&lt;r&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STA addr,B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STA addr,C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STA addr,D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STA addr,H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STA addr,L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSH r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSH A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push value of register to stack and decrease stack pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1&lt;r&gt;&lt;r&gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSH B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSH C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSH D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSH H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSH L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop value from stack into register and increase stack pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1&lt;r&gt;&lt;r&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment accumulator (A register) by value of register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0&lt;M&gt;&lt;r&gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01100010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01100100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01100110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01101000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01101010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01101100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment accumulator (A register) by value at memory address in H and L registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0&lt;M&gt;&lt;data&gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD 10h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01101110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment accumulator (A register) by given data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01100001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement accumulator (A register) by value of register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0&lt;M&gt;&lt;r&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01100011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01100101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01100111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01101001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01101011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01101101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement accumulator (A register) by value at memory address in H and L registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0&lt;M&gt;&lt;data&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB 10h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01101111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement accumulator (A register) by given data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01110000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare accumulator (A register) with value of register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0&lt;data&gt;&lt;r&gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01110010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01110100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01110110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01111000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01111010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01111100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare accumulator (A register) with value at memory address in H and L registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0&lt;data&gt;&lt;data&gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP 10h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01111110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare accumulator (A register) with given data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add with Carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment accumulator (A register) by value of register with carry if set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010&lt;x&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment accumulator (A register) by value at memory address in H and L registers with carry if set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC 10h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01010111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment accumulator (A register) by given data with carry if set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtract with Borrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement accumulator (A register) by value of register with borrow if set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011&lt;x&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement accumulator (A register) by value at memory address in H and L registers with borrow if set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB 10h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01011111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement accumulator (A register) by given data with borrow if set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMP M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump unconditionally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01110101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to memory address in H and L registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMP addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011101&lt;x&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMP FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01110111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to given address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JC M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump on carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01111001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to memory address in H and L registers if carry flag is set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JC addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011110&lt;x&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JC FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01111011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to given address if carry flag is set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNC M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump on no carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01111101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to memory address in H and L registers if carry flag is clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNC addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011111&lt;x&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNC FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to given address if carry flag is clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JZ M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump on zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10001111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to memory address in H and L registers if zero flag is set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JZ addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100&lt;x&gt;1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JZ FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10011111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to given address if zero flag is set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNZ M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump on no zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10101111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to memory address in H and L registers if zero flag is clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNZ addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101&lt;x&gt;1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNZ FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump to given address if zero flag is clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALL M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call unconditionally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call memory address in H and L registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALL addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110000&lt;x&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALL FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call given address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call on carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11000101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call memory address in H and L registers if carry flag is set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110001&lt;x&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11000111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call given address if carry flag is set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNC M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call on no carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11001011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call memory address in H and L registers if carry flag is clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNC addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11001&lt;x&gt;11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNC FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11001111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call given address if carry flag is clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call on zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11010001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call memory address in H and L registers if zero flag is set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110100&lt;x&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11010011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call given address if zero flag is set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNZ M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call on no zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11010101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call memory address in H and L registers if zero flag is clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNZ addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110101&lt;x&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNZ FFF0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11010111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call given address if zero flag is clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return unconditionally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return on carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00001111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return if carry flag is set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return on no carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00010001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return if carry flag is clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return on zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00010101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return if zero flag is set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return on no zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00011111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return if zero flag is clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call Interrupt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interrupt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT 10h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interrupt number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call given interrupt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11110000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment register by 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11110&lt;r&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11110001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11110010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11110011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11110100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11110101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11110110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment value at memory address in H and L registers by 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement register by 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111&lt;r&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC M</t>
+  </si>
+  <si>
     <t xml:space="preserve">11111110</t>
   </si>
   <si>
-    <t xml:space="preserve">Reset CPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV rd,rs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destination register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV A,B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move value of source register into destination register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1&lt;rd&gt;&lt;rs&gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV A,C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV A,D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000 = A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV A,H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001 = B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV A,L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010 = C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV B,A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011 = D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV B,C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 = H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV B,D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101 = L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV B,H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110 = M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV B,L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111 = data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV C,A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV C,B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV C,D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV C,H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV C,L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV D,A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV D,B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV D,C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV D,H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV D,L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV H,A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV H,B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV H,C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV H,D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV H,L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV L,A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV L,B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV L,C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV L,D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV L,H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV rd,M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV A,M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move value at memory address in H and L registers into destination register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV B,M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV C,M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV D,M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV H,M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV L,M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV M,rs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV M,A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move value of source register into memory address in H and L registers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV M,B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV M,C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV M,D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV M,H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV M,L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV rd,data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV A,10h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV A,data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byte of data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move given data into destination register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV B,data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV C,data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV D,data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV H,data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV L,data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV HL,IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0&lt;rd&gt;&lt;rs&gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H and L registers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instruction Pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move value of Instruction Pointer into H and L registers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV HL,SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stack Pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move value of Stack Pointer into H and L registers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV IP,HL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000 = HL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move value of H and L registers into Instruction Pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV IP,SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001 = IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00010100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move value of Stack Pointer into Instruction Pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV SP,HL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010 = SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move value of H and L registers into Stack Pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV SP,IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111 = addr/data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00100010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move value of Instruction Pointer into Stack Pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV HL,addr/data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address/Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV HL,FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00001110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low-order byte of address/data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-order byte of address/data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move given address/data into H and L registers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV IP,addr/data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV IP,FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00011110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move given address/data into Instruction Pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV SP,addr/data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOV SP,FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00101110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move given address/data into Stack Pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA rd,addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load from address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA A,FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA A,addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low-order byte of address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-order byte of address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load value at given address into destination register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1&lt;r&gt;&lt;M&gt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA B,addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA C,addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA D,addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA H,addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA L,addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA addr,rs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store to address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA FFF0h,A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA addr,A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store value of source register into given address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1&lt;M&gt;&lt;r&gt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA addr,B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA addr,C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA addr,D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA addr,H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA addr,L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUSH r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Push</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUSH A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Push value of register to stack and decrease stack pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1&lt;r&gt;&lt;r&gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUSH B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUSH C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUSH D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUSH H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUSH L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POP r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POP A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop value from stack into register and increase stack pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1&lt;r&gt;&lt;r&gt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POP B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POP C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POP D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POP H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POP L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increment accumulator (A register) by value of register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0&lt;M&gt;&lt;r&gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01100010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01100100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01100110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01101000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01101010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01101100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increment accumulator (A register) by value at memory address in H and L registers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0&lt;M&gt;&lt;data&gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD 10h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01101110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increment accumulator (A register) by given data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUB r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUB A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01100001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decrement accumulator (A register) by value of register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0&lt;M&gt;&lt;r&gt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUB B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01100011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUB C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01100101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUB D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01100111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUB H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01101001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUB L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01101011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUB M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01101101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decrement accumulator (A register) by value at memory address in H and L registers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUB data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0&lt;M&gt;&lt;data&gt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUB 10h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01101111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decrement accumulator (A register) by given data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01110000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare accumulator (A register) with value of register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0&lt;data&gt;&lt;r&gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01110010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01110100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01110110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01111000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01111010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01111100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare accumulator (A register) with value at memory address in H and L registers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0&lt;data&gt;&lt;data&gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP 10h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01111110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare accumulator (A register) with given data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add with Carry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increment accumulator (A register) by value of register with carry if set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01010&lt;x&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01010001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01010010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01010011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01010100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01010101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01010110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increment accumulator (A register) by value at memory address in H and L registers with carry if set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC 10h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01010111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increment accumulator (A register) by given data with carry if set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBB r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtract with Borrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBB A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01011000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decrement accumulator (A register) by value of register with borrow if set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01011&lt;x&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBB B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01011001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBB C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01011010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBB D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01011011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBB H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01011100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBB L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01011101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBB M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01011110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decrement accumulator (A register) by value at memory address in H and L registers with borrow if set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBB data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBB 10h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01011111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decrement accumulator (A register) by given data with borrow if set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMP M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump unconditionally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01110101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to memory address in H and L registers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMP addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011101&lt;x&gt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMP FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01110111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to given address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JC M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump on carry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01111001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to memory address in H and L registers if carry flag is set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JC addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011110&lt;x&gt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JC FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01111011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to given address if carry flag is set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JNC M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump on no carry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01111101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to memory address in H and L registers if carry flag is clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JNC addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011111&lt;x&gt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JNC FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to given address if carry flag is clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JZ M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump on zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10001111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to memory address in H and L registers if zero flag is set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JZ addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100&lt;x&gt;1111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JZ FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10011111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to given address if zero flag is set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JNZ M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump on no zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10101111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to memory address in H and L registers if zero flag is clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JNZ addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101&lt;x&gt;1111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JNZ FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump to given address if zero flag is clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALL M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call unconditionally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call memory address in H and L registers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALL addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110000&lt;x&gt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALL FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11000011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call given address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call on carry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11000101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call memory address in H and L registers if carry flag is set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110001&lt;x&gt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11000111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call given address if carry flag is set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNC M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call on no carry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11001011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call memory address in H and L registers if carry flag is clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNC addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11001&lt;x&gt;11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNC FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11001111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call given address if carry flag is clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call on zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11010001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call memory address in H and L registers if zero flag is set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110100&lt;x&gt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11010011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call given address if zero flag is set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNZ M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call on no zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11010101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call memory address in H and L registers if zero flag is clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNZ addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110101&lt;x&gt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNZ FFF0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11010111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call given address if zero flag is clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return unconditionally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return on carry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00001111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return if carry flag is set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return on no carry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00010001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return if carry flag is clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return on zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00010101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return if zero flag is set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return on no zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00011111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return if zero flag is clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call Interrupt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interrupt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT 10h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interrupt number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call given interrupt</t>
+    <t xml:space="preserve">Decrement value at memory address in H and L registers by 1</t>
   </si>
 </sst>
 </file>
@@ -1519,12 +1633,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="I2" activeCellId="0" sqref="I:I"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1657,7 +1771,7 @@
       </c>
       <c r="I4" s="8" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H4),2)</f>
-        <v>FE</v>
+        <v>F7</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>22</v>
@@ -4896,6 +5010,264 @@
       </c>
       <c r="L151" s="6" t="s">
         <v>416</v>
+      </c>
+    </row>
+    <row r="152" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="6" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="I152" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H152),2)</f>
+        <v>F0</v>
+      </c>
+      <c r="L152" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="6" t="n">
+        <v>152</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G153" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I153" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H153),2)</f>
+        <v>F1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="6" t="n">
+        <v>153</v>
+      </c>
+      <c r="G154" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I154" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H154),2)</f>
+        <v>F2</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="6" t="n">
+        <v>154</v>
+      </c>
+      <c r="G155" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I155" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H155),2)</f>
+        <v>F3</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="6" t="n">
+        <v>155</v>
+      </c>
+      <c r="G156" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I156" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H156),2)</f>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="6" t="n">
+        <v>156</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I157" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H157),2)</f>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="6" t="n">
+        <v>157</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G158" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I158" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H158),2)</f>
+        <v>F6</v>
+      </c>
+      <c r="L158" s="0" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="159" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="6" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="I159" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H159),2)</f>
+        <v>F8</v>
+      </c>
+      <c r="L159" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="6" t="n">
+        <v>159</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I160" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H160),2)</f>
+        <v>F9</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="6" t="n">
+        <v>160</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I161" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H161),2)</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="6" t="n">
+        <v>161</v>
+      </c>
+      <c r="G162" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I162" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H162),2)</f>
+        <v>FB</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="6" t="n">
+        <v>162</v>
+      </c>
+      <c r="G163" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I163" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H163),2)</f>
+        <v>FC</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="6" t="n">
+        <v>163</v>
+      </c>
+      <c r="G164" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I164" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H164),2)</f>
+        <v>FD</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="6" t="n">
+        <v>164</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G165" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I165" s="8" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H165),2)</f>
+        <v>FE</v>
+      </c>
+      <c r="L165" s="0" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -4922,7 +5294,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C249" activeCellId="1" sqref="I:I C249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9034,7 +9406,7 @@
       </c>
       <c r="B242" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D242,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D242,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>INC A</v>
       </c>
       <c r="C242" s="2" t="str">
         <f aca="false">DEC2BIN(A242,8)</f>
@@ -9051,7 +9423,7 @@
       </c>
       <c r="B243" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D243,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D243,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>INC B</v>
       </c>
       <c r="C243" s="2" t="str">
         <f aca="false">DEC2BIN(A243,8)</f>
@@ -9068,7 +9440,7 @@
       </c>
       <c r="B244" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D244,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D244,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>INC C</v>
       </c>
       <c r="C244" s="2" t="str">
         <f aca="false">DEC2BIN(A244,8)</f>
@@ -9085,7 +9457,7 @@
       </c>
       <c r="B245" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D245,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D245,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>INC D</v>
       </c>
       <c r="C245" s="2" t="str">
         <f aca="false">DEC2BIN(A245,8)</f>
@@ -9102,7 +9474,7 @@
       </c>
       <c r="B246" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D246,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D246,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>INC H</v>
       </c>
       <c r="C246" s="2" t="str">
         <f aca="false">DEC2BIN(A246,8)</f>
@@ -9119,7 +9491,7 @@
       </c>
       <c r="B247" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D247,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D247,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>INC L</v>
       </c>
       <c r="C247" s="2" t="str">
         <f aca="false">DEC2BIN(A247,8)</f>
@@ -9136,7 +9508,7 @@
       </c>
       <c r="B248" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D248,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D248,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>INC M</v>
       </c>
       <c r="C248" s="2" t="str">
         <f aca="false">DEC2BIN(A248,8)</f>
@@ -9153,7 +9525,7 @@
       </c>
       <c r="B249" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D249,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D249,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>RST</v>
       </c>
       <c r="C249" s="2" t="str">
         <f aca="false">DEC2BIN(A249,8)</f>
@@ -9170,7 +9542,7 @@
       </c>
       <c r="B250" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D250,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D250,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>DEC A</v>
       </c>
       <c r="C250" s="2" t="str">
         <f aca="false">DEC2BIN(A250,8)</f>
@@ -9187,7 +9559,7 @@
       </c>
       <c r="B251" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D251,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D251,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>DEC B</v>
       </c>
       <c r="C251" s="2" t="str">
         <f aca="false">DEC2BIN(A251,8)</f>
@@ -9204,7 +9576,7 @@
       </c>
       <c r="B252" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D252,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D252,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>DEC C</v>
       </c>
       <c r="C252" s="2" t="str">
         <f aca="false">DEC2BIN(A252,8)</f>
@@ -9221,7 +9593,7 @@
       </c>
       <c r="B253" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D253,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D253,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>DEC D</v>
       </c>
       <c r="C253" s="2" t="str">
         <f aca="false">DEC2BIN(A253,8)</f>
@@ -9238,7 +9610,7 @@
       </c>
       <c r="B254" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D254,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D254,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>DEC H</v>
       </c>
       <c r="C254" s="2" t="str">
         <f aca="false">DEC2BIN(A254,8)</f>
@@ -9255,7 +9627,7 @@
       </c>
       <c r="B255" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D255,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D255,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>DEC L</v>
       </c>
       <c r="C255" s="2" t="str">
         <f aca="false">DEC2BIN(A255,8)</f>
@@ -9272,7 +9644,7 @@
       </c>
       <c r="B256" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D256,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D256,'Instruction Set'!I:I,0)))</f>
-        <v>RST</v>
+        <v>DEC M</v>
       </c>
       <c r="C256" s="2" t="str">
         <f aca="false">DEC2BIN(A256,8)</f>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="690">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">Load value at given address into destination register</t>
   </si>
   <si>
-    <t xml:space="preserve">1&lt;r&gt;&lt;M&gt;1</t>
+    <t xml:space="preserve">1&lt;r&gt;1101</t>
   </si>
   <si>
     <t xml:space="preserve">LDA B,addr</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">Store value of source register into given address</t>
   </si>
   <si>
-    <t xml:space="preserve">1&lt;M&gt;&lt;r&gt;1</t>
+    <t xml:space="preserve">1110&lt;r&gt;1</t>
   </si>
   <si>
     <t xml:space="preserve">STA addr,B</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">Add value of register to accumulator (A register)</t>
   </si>
   <si>
-    <t xml:space="preserve">0&lt;M&gt;&lt;r&gt;0</t>
+    <t xml:space="preserve">0110&lt;r&gt;0</t>
   </si>
   <si>
     <t xml:space="preserve">ADD B</t>
@@ -629,9 +629,6 @@
     <t xml:space="preserve">ADD data</t>
   </si>
   <si>
-    <t xml:space="preserve">0&lt;M&gt;&lt;data&gt;0</t>
-  </si>
-  <si>
     <t xml:space="preserve">ADD 10h</t>
   </si>
   <si>
@@ -656,7 +653,7 @@
     <t xml:space="preserve">Subtract value of register from accumulator (A register)</t>
   </si>
   <si>
-    <t xml:space="preserve">0&lt;M&gt;&lt;r&gt;1</t>
+    <t xml:space="preserve">0110&lt;r&gt;1</t>
   </si>
   <si>
     <t xml:space="preserve">SUB B</t>
@@ -701,9 +698,6 @@
     <t xml:space="preserve">SUB data</t>
   </si>
   <si>
-    <t xml:space="preserve">0&lt;M&gt;&lt;data&gt;1</t>
-  </si>
-  <si>
     <t xml:space="preserve">SUB 10h</t>
   </si>
   <si>
@@ -728,7 +722,7 @@
     <t xml:space="preserve">Compare accumulator (A register) with value of register</t>
   </si>
   <si>
-    <t xml:space="preserve">0&lt;data&gt;&lt;r&gt;0</t>
+    <t xml:space="preserve">0111&lt;r&gt;0</t>
   </si>
   <si>
     <t xml:space="preserve">CMP B</t>
@@ -773,9 +767,6 @@
     <t xml:space="preserve">CMP data</t>
   </si>
   <si>
-    <t xml:space="preserve">0&lt;data&gt;&lt;data&gt;0</t>
-  </si>
-  <si>
     <t xml:space="preserve">CMP 10h</t>
   </si>
   <si>
@@ -1070,6 +1061,9 @@
     <t xml:space="preserve">Invert all bits in value of register (ones‘ complement)</t>
   </si>
   <si>
+    <t xml:space="preserve">00001&lt;r&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOT B</t>
   </si>
   <si>
@@ -1115,6 +1109,9 @@
     <t xml:space="preserve">Shift all bits in value of register by 1 position to left, move MSB into CF</t>
   </si>
   <si>
+    <t xml:space="preserve">00011&lt;r&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHL B</t>
   </si>
   <si>
@@ -1160,6 +1157,9 @@
     <t xml:space="preserve">Shift all bits in value of register by 1 position to right, move LSB into CF</t>
   </si>
   <si>
+    <t xml:space="preserve">00101&lt;r&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHR B</t>
   </si>
   <si>
@@ -2000,6 +2000,9 @@
     <t xml:space="preserve">Move value from port number in H and L registers into destination register</t>
   </si>
   <si>
+    <t xml:space="preserve">01000&lt;r&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">IN B</t>
   </si>
   <si>
@@ -2043,6 +2046,9 @@
   </si>
   <si>
     <t xml:space="preserve">Move value from source register into port number in H and L registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01001&lt;r&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">OUT B</t>
@@ -4198,20 +4204,17 @@
       <c r="B93" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="D93" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>201</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I93" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H93),2)</f>
@@ -4221,7 +4224,7 @@
         <v>88</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,29 +4232,29 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F94" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H94" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="I94" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H94),2)</f>
         <v>61</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4259,13 +4262,13 @@
         <v>94</v>
       </c>
       <c r="C95" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="H95" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="I95" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H95),2)</f>
@@ -4277,10 +4280,10 @@
         <v>95</v>
       </c>
       <c r="G96" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="I96" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H96),2)</f>
@@ -4292,10 +4295,10 @@
         <v>96</v>
       </c>
       <c r="G97" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H97" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="I97" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H97),2)</f>
@@ -4307,10 +4310,10 @@
         <v>97</v>
       </c>
       <c r="G98" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="I98" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H98),2)</f>
@@ -4322,10 +4325,10 @@
         <v>98</v>
       </c>
       <c r="G99" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="I99" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H99),2)</f>
@@ -4337,26 +4340,26 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F100" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H100" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="I100" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H100),2)</f>
         <v>6D</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4364,22 +4367,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I101" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H101),2)</f>
@@ -4389,7 +4389,7 @@
         <v>88</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4397,29 +4397,29 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I102" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H102),2)</f>
         <v>70</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4427,13 +4427,13 @@
         <v>102</v>
       </c>
       <c r="C103" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="I103" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H103),2)</f>
@@ -4445,10 +4445,10 @@
         <v>103</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I104" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H104),2)</f>
@@ -4460,10 +4460,10 @@
         <v>104</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I105" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H105),2)</f>
@@ -4475,10 +4475,10 @@
         <v>105</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I106" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H106),2)</f>
@@ -4490,10 +4490,10 @@
         <v>106</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I107" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H107),2)</f>
@@ -4505,26 +4505,26 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I108" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H108),2)</f>
         <v>7C</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4532,22 +4532,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G109" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="I109" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H109),2)</f>
@@ -4557,7 +4554,7 @@
         <v>88</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4565,29 +4562,29 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I110" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H110),2)</f>
         <v>50</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4595,13 +4592,13 @@
         <v>110</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I111" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H111),2)</f>
@@ -4613,10 +4610,10 @@
         <v>111</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I112" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H112),2)</f>
@@ -4628,10 +4625,10 @@
         <v>112</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I113" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H113),2)</f>
@@ -4643,10 +4640,10 @@
         <v>113</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I114" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H114),2)</f>
@@ -4658,10 +4655,10 @@
         <v>114</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I115" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H115),2)</f>
@@ -4673,23 +4670,23 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I116" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H116),2)</f>
         <v>56</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4697,16 +4694,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I117" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H117),2)</f>
@@ -4716,7 +4713,7 @@
         <v>88</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,29 +4721,29 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I118" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H118),2)</f>
         <v>58</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4754,13 +4751,13 @@
         <v>118</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I119" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H119),2)</f>
@@ -4772,10 +4769,10 @@
         <v>119</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I120" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H120),2)</f>
@@ -4787,10 +4784,10 @@
         <v>120</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I121" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H121),2)</f>
@@ -4802,10 +4799,10 @@
         <v>121</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I122" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H122),2)</f>
@@ -4817,10 +4814,10 @@
         <v>122</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I123" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H123),2)</f>
@@ -4832,23 +4829,23 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I124" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H124),2)</f>
         <v>5E</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,16 +4853,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I125" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H125),2)</f>
@@ -4875,7 +4872,7 @@
         <v>88</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="126" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,29 +4880,29 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I126" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H126),2)</f>
         <v>30</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,13 +4910,13 @@
         <v>126</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I127" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H127),2)</f>
@@ -4931,10 +4928,10 @@
         <v>127</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I128" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H128),2)</f>
@@ -4946,10 +4943,10 @@
         <v>128</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I129" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H129),2)</f>
@@ -4961,10 +4958,10 @@
         <v>129</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I130" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H130),2)</f>
@@ -4976,10 +4973,10 @@
         <v>130</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I131" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H131),2)</f>
@@ -4991,19 +4988,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I132" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H132),2)</f>
@@ -5015,19 +5012,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I133" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H133),2)</f>
@@ -5037,7 +5034,7 @@
         <v>88</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5045,29 +5042,29 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I134" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H134),2)</f>
         <v>38</v>
       </c>
       <c r="L134" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5075,13 +5072,13 @@
         <v>134</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I135" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H135),2)</f>
@@ -5093,10 +5090,10 @@
         <v>135</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I136" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H136),2)</f>
@@ -5108,10 +5105,10 @@
         <v>136</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I137" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H137),2)</f>
@@ -5123,10 +5120,10 @@
         <v>137</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I138" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H138),2)</f>
@@ -5138,10 +5135,10 @@
         <v>138</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I139" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H139),2)</f>
@@ -5153,19 +5150,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I140" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H140),2)</f>
@@ -5177,19 +5174,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I141" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H141),2)</f>
@@ -5199,7 +5196,7 @@
         <v>88</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="142" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5207,40 +5204,43 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I142" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H142),2)</f>
         <v>08</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="n">
         <v>142</v>
       </c>
+      <c r="C143" s="10" t="s">
+        <v>346</v>
+      </c>
       <c r="G143" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I143" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H143),2)</f>
@@ -5252,10 +5252,10 @@
         <v>143</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I144" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H144),2)</f>
@@ -5267,10 +5267,10 @@
         <v>144</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I145" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H145),2)</f>
@@ -5282,10 +5282,10 @@
         <v>145</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I146" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H146),2)</f>
@@ -5297,10 +5297,10 @@
         <v>146</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I147" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H147),2)</f>
@@ -5312,40 +5312,43 @@
         <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I148" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H148),2)</f>
         <v>18</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="n">
         <v>148</v>
       </c>
+      <c r="C149" s="10" t="s">
+        <v>362</v>
+      </c>
       <c r="G149" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H149" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="I149" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H149),2)</f>
@@ -5357,10 +5360,10 @@
         <v>149</v>
       </c>
       <c r="G150" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="I150" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H150),2)</f>
@@ -5372,10 +5375,10 @@
         <v>150</v>
       </c>
       <c r="G151" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H151" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="I151" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H151),2)</f>
@@ -5387,10 +5390,10 @@
         <v>151</v>
       </c>
       <c r="G152" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H152" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="I152" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H152),2)</f>
@@ -5402,10 +5405,10 @@
         <v>152</v>
       </c>
       <c r="G153" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H153" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="I153" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H153),2)</f>
@@ -5417,35 +5420,38 @@
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C154" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F154" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H154" s="8" t="s">
         <v>376</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H154" s="8" t="s">
-        <v>377</v>
       </c>
       <c r="I154" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H154),2)</f>
         <v>28</v>
       </c>
       <c r="L154" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="n">
         <v>154</v>
       </c>
+      <c r="C155" s="10" t="s">
+        <v>378</v>
+      </c>
       <c r="G155" s="1" t="s">
         <v>379</v>
       </c>
@@ -7162,7 +7168,7 @@
       <c r="A228" s="7" t="n">
         <v>227</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" s="10" t="s">
         <v>640</v>
       </c>
       <c r="G228" s="1" t="s">
@@ -7291,11 +7297,14 @@
       <c r="A235" s="7" t="n">
         <v>234</v>
       </c>
+      <c r="C235" s="10" t="s">
+        <v>659</v>
+      </c>
       <c r="G235" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I235" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H235),2)</f>
@@ -7307,10 +7316,10 @@
         <v>235</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I236" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H236),2)</f>
@@ -7322,10 +7331,10 @@
         <v>236</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="I237" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H237),2)</f>
@@ -7337,10 +7346,10 @@
         <v>237</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="I238" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H238),2)</f>
@@ -7352,10 +7361,10 @@
         <v>238</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I239" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H239),2)</f>
@@ -7367,40 +7376,43 @@
         <v>239</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D240" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H240" s="8" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="I240" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H240),2)</f>
         <v>48</v>
       </c>
       <c r="L240" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="n">
         <v>240</v>
       </c>
+      <c r="C241" s="10" t="s">
+        <v>675</v>
+      </c>
       <c r="G241" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="I241" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H241),2)</f>
@@ -7412,10 +7424,10 @@
         <v>241</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="I242" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H242),2)</f>
@@ -7427,10 +7439,10 @@
         <v>242</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="I243" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H243),2)</f>
@@ -7442,10 +7454,10 @@
         <v>243</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="I244" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H244),2)</f>
@@ -7457,10 +7469,10 @@
         <v>244</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="I245" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H245),2)</f>
@@ -7472,19 +7484,19 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="I246" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H246),2)</f>
@@ -7494,7 +7506,7 @@
         <v>88</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -7519,9 +7531,9 @@
   <dimension ref="A1:D257"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="686">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -2079,18 +2079,6 @@
   </si>
   <si>
     <t xml:space="preserve">01001101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUT data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUT 10h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01001111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move given data into port number in H and L registers</t>
   </si>
 </sst>
 </file>
@@ -2352,12 +2340,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:L246"/>
+  <dimension ref="A1:L245"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A246" activeCellId="0" sqref="A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7479,38 +7467,8 @@
         <v>4D</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="7" t="n">
-        <v>245</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="H246" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="I246" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H246),2)</f>
-        <v>4F</v>
-      </c>
-      <c r="J246" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L246" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I173 I182:I195 I204:I210 I219:I246">
+  <conditionalFormatting sqref="I2:I173 I182:I195 I204:I210 I219:I245">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8908,7 +8866,7 @@
       </c>
       <c r="B81" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D81,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D81,'Instruction Set'!I:I,0)))</f>
-        <v>OUT data</v>
+        <v/>
       </c>
       <c r="C81" s="12" t="str">
         <f aca="false">DEC2BIN(A81,8)</f>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">Return if carry</t>
   </si>
   <si>
-    <t xml:space="preserve">00001111</t>
+    <t xml:space="preserve">00010001</t>
   </si>
   <si>
     <t xml:space="preserve">Return if CF=1</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">Return if not carry</t>
   </si>
   <si>
-    <t xml:space="preserve">00010001</t>
+    <t xml:space="preserve">00010101</t>
   </si>
   <si>
     <t xml:space="preserve">Return if CF=0</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">Return if zero</t>
   </si>
   <si>
-    <t xml:space="preserve">00010101</t>
+    <t xml:space="preserve">00100001</t>
   </si>
   <si>
     <t xml:space="preserve">Return if ZF=1</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">Return if not zero</t>
   </si>
   <si>
-    <t xml:space="preserve">00011111</t>
+    <t xml:space="preserve">00100011</t>
   </si>
   <si>
     <t xml:space="preserve">Return if ZF=0</t>
@@ -2343,9 +2343,9 @@
   <dimension ref="A1:L245"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A246" activeCellId="0" sqref="A246"/>
+      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="I205" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H205),2)</f>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="L205" s="7" t="s">
         <v>566</v>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="I206" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H206),2)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L206" s="7" t="s">
         <v>570</v>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="I207" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H207),2)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L207" s="7" t="s">
         <v>574</v>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="I208" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H208),2)</f>
-        <v>1F</v>
+        <v>23</v>
       </c>
       <c r="L208" s="7" t="s">
         <v>578</v>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="B17" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D17,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D17,'Instruction Set'!I:I,0)))</f>
-        <v>RC</v>
+        <v/>
       </c>
       <c r="C17" s="12" t="str">
         <f aca="false">DEC2BIN(A17,8)</f>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B19" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D19,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D19,'Instruction Set'!I:I,0)))</f>
-        <v>RNC</v>
+        <v>RC</v>
       </c>
       <c r="C19" s="12" t="str">
         <f aca="false">DEC2BIN(A19,8)</f>
@@ -7880,7 +7880,7 @@
       </c>
       <c r="B23" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D23,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D23,'Instruction Set'!I:I,0)))</f>
-        <v>RZ</v>
+        <v>RNC</v>
       </c>
       <c r="C23" s="12" t="str">
         <f aca="false">DEC2BIN(A23,8)</f>
@@ -8050,7 +8050,7 @@
       </c>
       <c r="B33" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D33,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D33,'Instruction Set'!I:I,0)))</f>
-        <v>RNZ</v>
+        <v/>
       </c>
       <c r="C33" s="12" t="str">
         <f aca="false">DEC2BIN(A33,8)</f>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="B35" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D35,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D35,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>RZ</v>
       </c>
       <c r="C35" s="12" t="str">
         <f aca="false">DEC2BIN(A35,8)</f>
@@ -8118,7 +8118,7 @@
       </c>
       <c r="B37" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D37,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D37,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>RNZ</v>
       </c>
       <c r="C37" s="12" t="str">
         <f aca="false">DEC2BIN(A37,8)</f>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="695">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -1094,6 +1094,18 @@
     <t xml:space="preserve">00001101</t>
   </si>
   <si>
+    <t xml:space="preserve">NOT M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;r&gt; = 111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00001111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invert all bits in value at memory address in H and L registers (ones‘ complement)</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHL r</t>
   </si>
   <si>
@@ -1142,6 +1154,15 @@
     <t xml:space="preserve">00011101</t>
   </si>
   <si>
+    <t xml:space="preserve">SHL M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00011111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift all bits in value at memory address in H and L registers by 1 position to left, move MSB into CF</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHR r</t>
   </si>
   <si>
@@ -1188,6 +1209,12 @@
   </si>
   <si>
     <t xml:space="preserve">00101101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHR M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00101111</t>
   </si>
   <si>
     <t xml:space="preserve">JMP M</t>
@@ -2340,7 +2367,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:L245"/>
+  <dimension ref="A1:L248"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5295,67 +5322,82 @@
         <v>0D</v>
       </c>
     </row>
-    <row r="148" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="n">
         <v>147</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D148" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F148" s="7" t="s">
+      <c r="D148" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>360</v>
       </c>
       <c r="I148" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H148),2)</f>
-        <v>18</v>
-      </c>
-      <c r="L148" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0F</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="149" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="n">
         <v>148</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="B149" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C149" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="D149" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F149" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H149" s="2" t="s">
+      <c r="G149" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H149" s="8" t="s">
         <v>364</v>
       </c>
       <c r="I149" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H149),2)</f>
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="L149" s="7" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="n">
         <v>149</v>
       </c>
+      <c r="C150" s="10" t="s">
+        <v>366</v>
+      </c>
       <c r="G150" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I150" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H150),2)</f>
-        <v>1A</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5363,14 +5405,14 @@
         <v>150</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I151" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H151),2)</f>
-        <v>1B</v>
+        <v>1A</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5378,14 +5420,14 @@
         <v>151</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I152" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H152),2)</f>
-        <v>1C</v>
+        <v>1B</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5393,92 +5435,107 @@
         <v>152</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I153" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H153),2)</f>
-        <v>1D</v>
-      </c>
-    </row>
-    <row r="154" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="n">
         <v>153</v>
       </c>
-      <c r="B154" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F154" s="7" t="s">
+      <c r="G154" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G154" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="H154" s="8" t="s">
+      <c r="H154" s="2" t="s">
         <v>376</v>
       </c>
       <c r="I154" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H154),2)</f>
-        <v>28</v>
-      </c>
-      <c r="L154" s="7" t="s">
-        <v>377</v>
+        <v>1D</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="n">
         <v>154</v>
       </c>
+      <c r="B155" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="C155" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="I155" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H155),2)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1F</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="156" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="n">
         <v>155</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="B156" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C156" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="H156" s="2" t="s">
+      <c r="D156" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F156" s="7" t="s">
         <v>382</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>383</v>
       </c>
       <c r="I156" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H156),2)</f>
-        <v>2A</v>
+        <v>28</v>
+      </c>
+      <c r="L156" s="7" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="n">
         <v>156</v>
       </c>
+      <c r="C157" s="10" t="s">
+        <v>385</v>
+      </c>
       <c r="G157" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I157" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H157),2)</f>
-        <v>2B</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5486,14 +5543,14 @@
         <v>157</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I158" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H158),2)</f>
-        <v>2C</v>
+        <v>2A</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5501,517 +5558,535 @@
         <v>158</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="I159" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H159),2)</f>
-        <v>2D</v>
-      </c>
-    </row>
-    <row r="160" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2B</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="n">
         <v>159</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H160" s="8" t="s">
-        <v>391</v>
+      <c r="G160" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="I160" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H160),2)</f>
-        <v>75</v>
-      </c>
-      <c r="L160" s="7" t="s">
-        <v>392</v>
+        <v>2C</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="n">
         <v>160</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C161" s="10" t="s">
+      <c r="G161" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F161" s="1" t="s">
+      <c r="H161" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="I161" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H161),2)</f>
-        <v>77</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K161" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="162" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2D</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="n">
         <v>161</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D162" s="7" t="s">
+      <c r="B162" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F162" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H162" s="8" t="s">
-        <v>400</v>
+      <c r="F162" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="I162" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H162),2)</f>
-        <v>79</v>
-      </c>
-      <c r="L162" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2F</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="163" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="n">
         <v>162</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>405</v>
+      <c r="B163" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H163" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="I163" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H163),2)</f>
-        <v>7B</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K163" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L163" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="164" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="L163" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="n">
         <v>163</v>
       </c>
-      <c r="B164" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H164" s="8" t="s">
-        <v>409</v>
+      <c r="B164" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="I164" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H164),2)</f>
-        <v>7D</v>
-      </c>
-      <c r="L164" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="165" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="n">
         <v>164</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>414</v>
+      <c r="B165" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="I165" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H165),2)</f>
-        <v>7F</v>
-      </c>
-      <c r="J165" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K165" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L165" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="166" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="L165" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="n">
         <v>165</v>
       </c>
-      <c r="B166" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="H166" s="8" t="s">
-        <v>418</v>
+      <c r="B166" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="I166" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H166),2)</f>
-        <v>8F</v>
-      </c>
-      <c r="L166" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7B</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="167" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="n">
         <v>166</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>423</v>
+      <c r="B167" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H167" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="I167" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H167),2)</f>
-        <v>9F</v>
-      </c>
-      <c r="J167" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K167" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L167" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="168" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7D</v>
+      </c>
+      <c r="L167" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="n">
         <v>167</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="H168" s="8" t="s">
-        <v>427</v>
+      <c r="B168" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="I168" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H168),2)</f>
-        <v>AF</v>
-      </c>
-      <c r="L168" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7F</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="169" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="n">
         <v>168</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>432</v>
+      <c r="B169" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H169" s="8" t="s">
+        <v>427</v>
       </c>
       <c r="I169" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H169),2)</f>
-        <v>BF</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K169" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L169" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="170" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8F</v>
+      </c>
+      <c r="L169" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="n">
         <v>169</v>
       </c>
-      <c r="B170" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G170" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H170" s="8" t="s">
-        <v>436</v>
+      <c r="B170" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="I170" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H170),2)</f>
-        <v>01</v>
-      </c>
-      <c r="L170" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9F</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="171" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="n">
         <v>170</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>441</v>
+      <c r="B171" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H171" s="8" t="s">
+        <v>436</v>
       </c>
       <c r="I171" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H171),2)</f>
-        <v>03</v>
-      </c>
-      <c r="J171" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K171" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L171" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="172" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>AF</v>
+      </c>
+      <c r="L171" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="n">
         <v>171</v>
       </c>
-      <c r="B172" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G172" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="H172" s="8" t="s">
-        <v>445</v>
+      <c r="B172" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="I172" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H172),2)</f>
-        <v>06</v>
-      </c>
-      <c r="L172" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>BF</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="173" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="n">
         <v>172</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>450</v>
+      <c r="B173" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H173" s="8" t="s">
+        <v>445</v>
       </c>
       <c r="I173" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H173),2)</f>
-        <v>07</v>
-      </c>
-      <c r="J173" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K173" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>451</v>
+        <v>01</v>
+      </c>
+      <c r="L173" s="7" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="n">
         <v>173</v>
       </c>
-      <c r="B174" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I174" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H174),2)</f>
+        <v>03</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="175" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="7" t="n">
         <v>174</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B175" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="I175" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H175),2)</f>
+        <v>06</v>
+      </c>
+      <c r="L175" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="7" t="n">
         <v>175</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B176" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="G176" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H176" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D176" s="11" t="s">
+      <c r="I176" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H176),2)</f>
+        <v>07</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6040,7 +6115,7 @@
         <v>465</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,13 +6123,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6062,13 +6137,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6076,516 +6151,516 @@
         <v>180</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="182" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="n">
         <v>181</v>
       </c>
-      <c r="B182" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="C182" s="7" t="s">
+      <c r="B182" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="D182" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G182" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="H182" s="8" t="s">
+      <c r="C182" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="I182" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H182),2)</f>
-        <v>C1</v>
-      </c>
-      <c r="L182" s="7" t="s">
-        <v>477</v>
+      <c r="D182" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="n">
         <v>182</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C183" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="C183" s="10" t="s">
+      <c r="D183" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I183" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H183),2)</f>
-        <v>C3</v>
-      </c>
-      <c r="J183" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K183" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L183" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="184" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="n">
         <v>183</v>
       </c>
-      <c r="B184" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="H184" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="I184" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H184),2)</f>
-        <v>C5</v>
-      </c>
-      <c r="L184" s="7" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="185" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="n">
         <v>184</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>490</v>
+      <c r="B185" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>485</v>
       </c>
       <c r="I185" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H185),2)</f>
-        <v>C7</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K185" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L185" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="186" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>C1</v>
+      </c>
+      <c r="L185" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="n">
         <v>185</v>
       </c>
-      <c r="B186" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="G186" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="H186" s="8" t="s">
-        <v>494</v>
+      <c r="B186" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="I186" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H186),2)</f>
-        <v>CB</v>
-      </c>
-      <c r="L186" s="7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>C3</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="187" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="n">
         <v>186</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>499</v>
+      <c r="B187" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>494</v>
       </c>
       <c r="I187" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H187),2)</f>
-        <v>CF</v>
-      </c>
-      <c r="J187" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K187" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L187" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="188" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>C5</v>
+      </c>
+      <c r="L187" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="n">
         <v>187</v>
       </c>
-      <c r="B188" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="G188" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="H188" s="8" t="s">
-        <v>503</v>
+      <c r="B188" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="I188" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H188),2)</f>
-        <v>D1</v>
-      </c>
-      <c r="L188" s="7" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>C7</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="189" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="n">
         <v>188</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>508</v>
+      <c r="B189" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>503</v>
       </c>
       <c r="I189" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H189),2)</f>
-        <v>D3</v>
-      </c>
-      <c r="J189" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K189" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L189" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="190" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>CB</v>
+      </c>
+      <c r="L189" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="n">
         <v>189</v>
       </c>
-      <c r="B190" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F190" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="H190" s="8" t="s">
-        <v>512</v>
+      <c r="B190" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>508</v>
       </c>
       <c r="I190" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H190),2)</f>
-        <v>D5</v>
-      </c>
-      <c r="L190" s="7" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>CF</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="191" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="n">
         <v>190</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>517</v>
+      <c r="B191" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>512</v>
       </c>
       <c r="I191" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H191),2)</f>
-        <v>D7</v>
-      </c>
-      <c r="J191" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K191" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L191" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="192" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>D1</v>
+      </c>
+      <c r="L191" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="n">
         <v>191</v>
       </c>
-      <c r="B192" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="H192" s="8" t="s">
-        <v>521</v>
+      <c r="B192" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="I192" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H192),2)</f>
-        <v>12</v>
-      </c>
-      <c r="L192" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>D3</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="193" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="n">
         <v>192</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>526</v>
+      <c r="B193" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="H193" s="8" t="s">
+        <v>521</v>
       </c>
       <c r="I193" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H193),2)</f>
-        <v>13</v>
-      </c>
-      <c r="J193" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K193" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L193" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="194" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>D5</v>
+      </c>
+      <c r="L193" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="n">
         <v>193</v>
       </c>
-      <c r="B194" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G194" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="H194" s="8" t="s">
-        <v>530</v>
+      <c r="B194" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="I194" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H194),2)</f>
-        <v>16</v>
-      </c>
-      <c r="L194" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>D7</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="195" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="n">
         <v>194</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>535</v>
+      <c r="B195" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F195" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>530</v>
       </c>
       <c r="I195" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H195),2)</f>
-        <v>17</v>
-      </c>
-      <c r="J195" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K195" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L195" s="1" t="s">
-        <v>536</v>
+        <v>12</v>
+      </c>
+      <c r="L195" s="7" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="n">
         <v>195</v>
       </c>
-      <c r="B196" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="I196" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H196),2)</f>
+        <v>13</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="197" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="n">
         <v>196</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B197" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F197" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="I197" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H197),2)</f>
+        <v>16</v>
+      </c>
+      <c r="L197" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="D197" s="11" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="n">
         <v>197</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B198" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="G198" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H198" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D198" s="11" t="s">
+      <c r="I198" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H198),2)</f>
+        <v>17</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>545</v>
       </c>
     </row>
@@ -6614,7 +6689,7 @@
         <v>550</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6622,13 +6697,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6636,13 +6711,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6650,94 +6725,55 @@
         <v>202</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="204" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="n">
         <v>203</v>
       </c>
-      <c r="B204" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="C204" s="7" t="s">
+      <c r="B204" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="F204" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="G204" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="H204" s="8" t="s">
+      <c r="C204" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="I204" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H204),2)</f>
-        <v>05</v>
-      </c>
-      <c r="L204" s="7" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="205" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D204" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="n">
         <v>204</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C205" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="D205" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="F205" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="G205" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="H205" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="I205" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H205),2)</f>
-        <v>11</v>
-      </c>
-      <c r="L205" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="206" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="n">
         <v>205</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="D206" s="11" t="s">
         <v>567</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="F206" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="G206" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="H206" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="I206" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H206),2)</f>
-        <v>15</v>
-      </c>
-      <c r="L206" s="7" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="207" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6745,26 +6781,26 @@
         <v>206</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H207" s="8" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I207" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H207),2)</f>
-        <v>21</v>
+        <v>05</v>
       </c>
       <c r="L207" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="208" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6772,26 +6808,26 @@
         <v>207</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I208" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H208),2)</f>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L208" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="209" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6799,26 +6835,26 @@
         <v>208</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I209" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H209),2)</f>
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="L209" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6826,67 +6862,106 @@
         <v>209</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I210" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H210),2)</f>
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="L210" s="7" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="211" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="n">
         <v>210</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B211" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="H211" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="I211" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H211),2)</f>
+        <v>23</v>
+      </c>
+      <c r="L211" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="C211" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="D211" s="11" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="212" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="7" t="n">
         <v>211</v>
       </c>
-      <c r="B212" s="11" t="s">
+      <c r="B212" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G212" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="H212" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="C212" s="11" t="s">
+      <c r="I212" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H212),2)</f>
+        <v>83</v>
+      </c>
+      <c r="L212" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="D212" s="11" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="213" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="7" t="n">
         <v>212</v>
       </c>
-      <c r="B213" s="11" t="s">
+      <c r="B213" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C213" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="C213" s="11" t="s">
+      <c r="F213" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G213" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="H213" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="D213" s="11" t="s">
+      <c r="I213" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H213),2)</f>
+        <v>85</v>
+      </c>
+      <c r="L213" s="7" t="s">
         <v>595</v>
       </c>
     </row>
@@ -6915,7 +6990,7 @@
         <v>600</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6923,13 +6998,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6937,13 +7012,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6951,139 +7026,136 @@
         <v>217</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="219" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="n">
         <v>218</v>
       </c>
-      <c r="B219" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="C219" s="7" t="s">
+      <c r="B219" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="D219" s="7" t="s">
+      <c r="C219" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="F219" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="G219" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="H219" s="7" t="n">
-        <v>11011111</v>
-      </c>
-      <c r="I219" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H219),2)</f>
-        <v>DF</v>
-      </c>
-      <c r="J219" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="L219" s="7" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="220" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D219" s="11" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="n">
         <v>219</v>
       </c>
-      <c r="B220" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="D220" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F220" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="G220" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="H220" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="I220" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H220),2)</f>
-        <v>F0</v>
-      </c>
-      <c r="L220" s="7" t="s">
-        <v>620</v>
+      <c r="B220" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="n">
         <v>220</v>
       </c>
-      <c r="C221" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="H221" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="I221" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H221),2)</f>
-        <v>F1</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="222" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="n">
         <v>221</v>
       </c>
-      <c r="G222" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="H222" s="2" t="s">
-        <v>625</v>
+      <c r="B222" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="H222" s="7" t="n">
+        <v>11011111</v>
       </c>
       <c r="I222" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H222),2)</f>
-        <v>F2</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>DF</v>
+      </c>
+      <c r="J222" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L222" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="223" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="n">
         <v>222</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="B223" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C223" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="H223" s="2" t="s">
+      <c r="D223" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F223" s="7" t="s">
         <v>627</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="H223" s="8" t="s">
+        <v>628</v>
       </c>
       <c r="I223" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H223),2)</f>
-        <v>F3</v>
+        <v>F0</v>
+      </c>
+      <c r="L223" s="7" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="n">
         <v>223</v>
       </c>
+      <c r="C224" s="10" t="s">
+        <v>630</v>
+      </c>
       <c r="G224" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="I224" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H224),2)</f>
-        <v>F4</v>
+        <v>F1</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7091,128 +7163,128 @@
         <v>224</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="I225" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H225),2)</f>
-        <v>F5</v>
+        <v>F2</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="n">
         <v>225</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G226" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="I226" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H226),2)</f>
-        <v>F6</v>
-      </c>
-      <c r="L226" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="227" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>F3</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="n">
         <v>226</v>
       </c>
-      <c r="B227" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F227" s="7" t="s">
+      <c r="G227" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="G227" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="H227" s="8" t="s">
+      <c r="H227" s="2" t="s">
         <v>638</v>
       </c>
       <c r="I227" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H227),2)</f>
-        <v>F8</v>
-      </c>
-      <c r="L227" s="7" t="s">
-        <v>639</v>
+        <v>F4</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="n">
         <v>227</v>
       </c>
-      <c r="C228" s="10" t="s">
+      <c r="G228" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="H228" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="I228" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H228),2)</f>
-        <v>F9</v>
+        <v>F5</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="n">
         <v>228</v>
       </c>
+      <c r="D229" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G229" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I229" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H229),2)</f>
-        <v>FA</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>F6</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="230" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="n">
         <v>229</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="B230" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C230" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="H230" s="2" t="s">
+      <c r="D230" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F230" s="7" t="s">
         <v>646</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="H230" s="8" t="s">
+        <v>647</v>
       </c>
       <c r="I230" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H230),2)</f>
-        <v>FB</v>
+        <v>F8</v>
+      </c>
+      <c r="L230" s="7" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="n">
         <v>230</v>
       </c>
+      <c r="C231" s="10" t="s">
+        <v>649</v>
+      </c>
       <c r="G231" s="1" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="I231" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H231),2)</f>
-        <v>FC</v>
+        <v>F9</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7220,128 +7292,128 @@
         <v>231</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="I232" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H232),2)</f>
-        <v>FD</v>
+        <v>FA</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="n">
         <v>232</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G233" s="1" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="I233" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H233),2)</f>
-        <v>FE</v>
-      </c>
-      <c r="L233" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="234" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>FB</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="n">
         <v>233</v>
       </c>
-      <c r="B234" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="D234" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F234" s="7" t="s">
+      <c r="G234" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="G234" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="H234" s="8" t="s">
+      <c r="H234" s="2" t="s">
         <v>657</v>
       </c>
       <c r="I234" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H234),2)</f>
-        <v>40</v>
-      </c>
-      <c r="L234" s="7" t="s">
-        <v>658</v>
+        <v>FC</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="n">
         <v>234</v>
       </c>
-      <c r="C235" s="10" t="s">
+      <c r="G235" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="H235" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="H235" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="I235" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H235),2)</f>
-        <v>41</v>
+        <v>FD</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="7" t="n">
         <v>235</v>
       </c>
+      <c r="D236" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G236" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I236" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H236),2)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>FE</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="237" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="7" t="n">
         <v>236</v>
       </c>
-      <c r="G237" s="1" t="s">
+      <c r="B237" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="C237" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="H237" s="2" t="s">
+      <c r="D237" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F237" s="7" t="s">
         <v>665</v>
+      </c>
+      <c r="G237" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="H237" s="8" t="s">
+        <v>666</v>
       </c>
       <c r="I237" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H237),2)</f>
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="L237" s="7" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="n">
         <v>237</v>
       </c>
+      <c r="C238" s="10" t="s">
+        <v>668</v>
+      </c>
       <c r="G238" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="I238" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H238),2)</f>
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7349,62 +7421,44 @@
         <v>238</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="I239" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H239),2)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="240" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="n">
         <v>239</v>
       </c>
-      <c r="B240" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="D240" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F240" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="G240" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="H240" s="8" t="s">
+      <c r="G240" s="1" t="s">
         <v>673</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>674</v>
       </c>
       <c r="I240" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H240),2)</f>
-        <v>48</v>
-      </c>
-      <c r="L240" s="7" t="s">
-        <v>674</v>
+        <v>43</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="n">
         <v>240</v>
       </c>
-      <c r="C241" s="10" t="s">
+      <c r="G241" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="G241" s="1" t="s">
+      <c r="H241" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="H241" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="I241" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H241),2)</f>
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7412,44 +7466,62 @@
         <v>241</v>
       </c>
       <c r="G242" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="H242" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="H242" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="I242" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H242),2)</f>
-        <v>4A</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="243" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="n">
         <v>242</v>
       </c>
-      <c r="G243" s="1" t="s">
+      <c r="B243" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="C243" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="H243" s="2" t="s">
+      <c r="D243" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F243" s="7" t="s">
         <v>681</v>
+      </c>
+      <c r="G243" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="H243" s="8" t="s">
+        <v>682</v>
       </c>
       <c r="I243" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H243),2)</f>
-        <v>4B</v>
+        <v>48</v>
+      </c>
+      <c r="L243" s="7" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="n">
         <v>243</v>
       </c>
+      <c r="C244" s="10" t="s">
+        <v>684</v>
+      </c>
       <c r="G244" s="1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="I244" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H244),2)</f>
-        <v>4C</v>
+        <v>49</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7457,18 +7529,63 @@
         <v>244</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="I245" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H245),2)</f>
+        <v>4A</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="7" t="n">
+        <v>245</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="I246" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H246),2)</f>
+        <v>4B</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="7" t="n">
+        <v>246</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="I247" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H247),2)</f>
+        <v>4C</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="7" t="n">
+        <v>247</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="I248" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H248),2)</f>
         <v>4D</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I173 I182:I195 I204:I210 I219:I245">
+  <conditionalFormatting sqref="I2:I176 I185:I198 I207:I213 I222:I248">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7489,7 +7606,7 @@
   <dimension ref="A1:D257"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
     </sheetView>
@@ -7778,7 +7895,7 @@
       </c>
       <c r="B17" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D17,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D17,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>NOT M</v>
       </c>
       <c r="C17" s="12" t="str">
         <f aca="false">DEC2BIN(A17,8)</f>
@@ -8050,7 +8167,7 @@
       </c>
       <c r="B33" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D33,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D33,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>SHL M</v>
       </c>
       <c r="C33" s="12" t="str">
         <f aca="false">DEC2BIN(A33,8)</f>
@@ -8322,7 +8439,7 @@
       </c>
       <c r="B49" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D49,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D49,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>SHR M</v>
       </c>
       <c r="C49" s="12" t="str">
         <f aca="false">DEC2BIN(A49,8)</f>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -281,7 +281,7 @@
     <t xml:space="preserve">Data</t>
   </si>
   <si>
-    <t xml:space="preserve">MOV A,10h</t>
+    <t xml:space="preserve">MOV A,0x10</t>
   </si>
   <si>
     <t xml:space="preserve">MOV A,data</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">Address/Data</t>
   </si>
   <si>
-    <t xml:space="preserve">MOV HL,FFF0h</t>
+    <t xml:space="preserve">MOV HL,0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">00001110</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">MOV IP,addr/data</t>
   </si>
   <si>
-    <t xml:space="preserve">MOV IP,FFF0h</t>
+    <t xml:space="preserve">MOV IP,0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">00011110</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">MOV SP,addr/data</t>
   </si>
   <si>
-    <t xml:space="preserve">MOV SP,FFF0h</t>
+    <t xml:space="preserve">MOV SP,0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">00101110</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">Address</t>
   </si>
   <si>
-    <t xml:space="preserve">LDA A,FFF0h</t>
+    <t xml:space="preserve">LDA A,0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">LDA A,addr</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">Store to address</t>
   </si>
   <si>
-    <t xml:space="preserve">STA FFF0h,A</t>
+    <t xml:space="preserve">STA 0xFFF0,A</t>
   </si>
   <si>
     <t xml:space="preserve">STA addr,A</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">ADD data</t>
   </si>
   <si>
-    <t xml:space="preserve">ADD 10h</t>
+    <t xml:space="preserve">ADD 0x10</t>
   </si>
   <si>
     <t xml:space="preserve">01101110</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">SUB data</t>
   </si>
   <si>
-    <t xml:space="preserve">SUB 10h</t>
+    <t xml:space="preserve">SUB 0x10</t>
   </si>
   <si>
     <t xml:space="preserve">01101111</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">CMP data</t>
   </si>
   <si>
-    <t xml:space="preserve">CMP 10h</t>
+    <t xml:space="preserve">CMP 0x10</t>
   </si>
   <si>
     <t xml:space="preserve">01111110</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">ADC data</t>
   </si>
   <si>
-    <t xml:space="preserve">ADC 10h</t>
+    <t xml:space="preserve">ADC 0x10</t>
   </si>
   <si>
     <t xml:space="preserve">01010111</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">SBB data</t>
   </si>
   <si>
-    <t xml:space="preserve">SBB 10h</t>
+    <t xml:space="preserve">SBB 0x10</t>
   </si>
   <si>
     <t xml:space="preserve">01011111</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">AND data</t>
   </si>
   <si>
-    <t xml:space="preserve">AND 10h</t>
+    <t xml:space="preserve">AND 0x10</t>
   </si>
   <si>
     <t xml:space="preserve">00110111</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">OR data</t>
   </si>
   <si>
-    <t xml:space="preserve">OR 10h</t>
+    <t xml:space="preserve">OR 0x10</t>
   </si>
   <si>
     <t xml:space="preserve">00111111</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">011101&lt;x&gt;1</t>
   </si>
   <si>
-    <t xml:space="preserve">JMP FFF0h</t>
+    <t xml:space="preserve">JMP 0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">01110111</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">011110&lt;x&gt;1</t>
   </si>
   <si>
-    <t xml:space="preserve">JC FFF0h</t>
+    <t xml:space="preserve">JC 0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">01111011</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">011111&lt;x&gt;1</t>
   </si>
   <si>
-    <t xml:space="preserve">JNC FFF0h</t>
+    <t xml:space="preserve">JNC 0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">01111111</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">100&lt;x&gt;1111</t>
   </si>
   <si>
-    <t xml:space="preserve">JZ FFF0h</t>
+    <t xml:space="preserve">JZ 0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">10011111</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">101&lt;x&gt;1111</t>
   </si>
   <si>
-    <t xml:space="preserve">JNZ FFF0h</t>
+    <t xml:space="preserve">JNZ 0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">10111111</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">000000&lt;x&gt;1</t>
   </si>
   <si>
-    <t xml:space="preserve">JA FFF0h</t>
+    <t xml:space="preserve">JA 0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">00000011</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">0000011&lt;x&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">JNA FFF0h</t>
+    <t xml:space="preserve">JNA 0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">00000111</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">110000&lt;x&gt;1</t>
   </si>
   <si>
-    <t xml:space="preserve">CALL FFF0h</t>
+    <t xml:space="preserve">CALL 0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">11000011</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">110001&lt;x&gt;1</t>
   </si>
   <si>
-    <t xml:space="preserve">CC FFF0h</t>
+    <t xml:space="preserve">CC 0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">11000111</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">11001&lt;x&gt;11</t>
   </si>
   <si>
-    <t xml:space="preserve">CNC FFF0h</t>
+    <t xml:space="preserve">CNC 0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">11001111</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">110100&lt;x&gt;1</t>
   </si>
   <si>
-    <t xml:space="preserve">CZ FFF0h</t>
+    <t xml:space="preserve">CZ 0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">11010011</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">110101&lt;x&gt;1</t>
   </si>
   <si>
-    <t xml:space="preserve">CNZ FFF0h</t>
+    <t xml:space="preserve">CNZ 0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">11010111</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">0001001&lt;x&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">CA FFF0h</t>
+    <t xml:space="preserve">CA 0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">00010011</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">0001011&lt;x&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">CNA FFF0h</t>
+    <t xml:space="preserve">CNA 0xFFF0</t>
   </si>
   <si>
     <t xml:space="preserve">00010111</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">Interrupt</t>
   </si>
   <si>
-    <t xml:space="preserve">INT 10h</t>
+    <t xml:space="preserve">INT 0x10</t>
   </si>
   <si>
     <t xml:space="preserve">INT int</t>
@@ -2378,12 +2378,12 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.44"/>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="663">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -2010,102 +2010,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decrement value at memory address in H and L registers by 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input from I/O port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move value from port number in H and L registers into destination register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01000&lt;r&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01000010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01000011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01000100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01000101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUT r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output to I/O port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUT A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01001000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move value from source register into port number in H and L registers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01001&lt;r&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUT B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01001001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUT C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01001010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUT D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01001011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUT H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01001100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUT L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01001101</t>
   </si>
 </sst>
 </file>
@@ -2367,7 +2271,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:L248"/>
+  <dimension ref="A1:L236"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2375,15 +2279,15 @@
       <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.44"/>
@@ -7368,224 +7272,8 @@
         <v>662</v>
       </c>
     </row>
-    <row r="237" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="7" t="n">
-        <v>236</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="D237" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F237" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="G237" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="H237" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="I237" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H237),2)</f>
-        <v>40</v>
-      </c>
-      <c r="L237" s="7" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="7" t="n">
-        <v>237</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="H238" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="I238" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H238),2)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="7" t="n">
-        <v>238</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="H239" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="I239" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H239),2)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="7" t="n">
-        <v>239</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="H240" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="I240" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H240),2)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="7" t="n">
-        <v>240</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="H241" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="I241" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H241),2)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="7" t="n">
-        <v>241</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="H242" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I242" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H242),2)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="243" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="7" t="n">
-        <v>242</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="C243" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="D243" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F243" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="G243" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="H243" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="I243" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H243),2)</f>
-        <v>48</v>
-      </c>
-      <c r="L243" s="7" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="7" t="n">
-        <v>243</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="H244" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="I244" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H244),2)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="7" t="n">
-        <v>244</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="H245" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="I245" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H245),2)</f>
-        <v>4A</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="7" t="n">
-        <v>245</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="H246" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="I246" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H246),2)</f>
-        <v>4B</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="7" t="n">
-        <v>246</v>
-      </c>
-      <c r="G247" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="H247" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="I247" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H247),2)</f>
-        <v>4C</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="7" t="n">
-        <v>247</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="H248" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="I248" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H248),2)</f>
-        <v>4D</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I176 I185:I198 I207:I213 I222:I248">
+  <conditionalFormatting sqref="I2:I176 I185:I198 I207:I213 I222:I236">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7611,13 +7299,12 @@
       <selection pane="bottomLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="12.96"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8728,7 +8415,7 @@
       </c>
       <c r="B66" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D66,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D66,'Instruction Set'!I:I,0)))</f>
-        <v>IN A</v>
+        <v/>
       </c>
       <c r="C66" s="12" t="str">
         <f aca="false">DEC2BIN(A66,8)</f>
@@ -8745,7 +8432,7 @@
       </c>
       <c r="B67" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D67,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D67,'Instruction Set'!I:I,0)))</f>
-        <v>IN B</v>
+        <v/>
       </c>
       <c r="C67" s="12" t="str">
         <f aca="false">DEC2BIN(A67,8)</f>
@@ -8762,7 +8449,7 @@
       </c>
       <c r="B68" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D68,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D68,'Instruction Set'!I:I,0)))</f>
-        <v>IN C</v>
+        <v/>
       </c>
       <c r="C68" s="12" t="str">
         <f aca="false">DEC2BIN(A68,8)</f>
@@ -8779,7 +8466,7 @@
       </c>
       <c r="B69" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D69,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D69,'Instruction Set'!I:I,0)))</f>
-        <v>IN D</v>
+        <v/>
       </c>
       <c r="C69" s="12" t="str">
         <f aca="false">DEC2BIN(A69,8)</f>
@@ -8796,7 +8483,7 @@
       </c>
       <c r="B70" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D70,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D70,'Instruction Set'!I:I,0)))</f>
-        <v>IN H</v>
+        <v/>
       </c>
       <c r="C70" s="12" t="str">
         <f aca="false">DEC2BIN(A70,8)</f>
@@ -8813,7 +8500,7 @@
       </c>
       <c r="B71" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D71,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D71,'Instruction Set'!I:I,0)))</f>
-        <v>IN L</v>
+        <v/>
       </c>
       <c r="C71" s="12" t="str">
         <f aca="false">DEC2BIN(A71,8)</f>
@@ -8864,7 +8551,7 @@
       </c>
       <c r="B74" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D74,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D74,'Instruction Set'!I:I,0)))</f>
-        <v>OUT A</v>
+        <v/>
       </c>
       <c r="C74" s="12" t="str">
         <f aca="false">DEC2BIN(A74,8)</f>
@@ -8881,7 +8568,7 @@
       </c>
       <c r="B75" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D75,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D75,'Instruction Set'!I:I,0)))</f>
-        <v>OUT B</v>
+        <v/>
       </c>
       <c r="C75" s="12" t="str">
         <f aca="false">DEC2BIN(A75,8)</f>
@@ -8898,7 +8585,7 @@
       </c>
       <c r="B76" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D76,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D76,'Instruction Set'!I:I,0)))</f>
-        <v>OUT C</v>
+        <v/>
       </c>
       <c r="C76" s="12" t="str">
         <f aca="false">DEC2BIN(A76,8)</f>
@@ -8915,7 +8602,7 @@
       </c>
       <c r="B77" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D77,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D77,'Instruction Set'!I:I,0)))</f>
-        <v>OUT D</v>
+        <v/>
       </c>
       <c r="C77" s="12" t="str">
         <f aca="false">DEC2BIN(A77,8)</f>
@@ -8932,7 +8619,7 @@
       </c>
       <c r="B78" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D78,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D78,'Instruction Set'!I:I,0)))</f>
-        <v>OUT H</v>
+        <v/>
       </c>
       <c r="C78" s="12" t="str">
         <f aca="false">DEC2BIN(A78,8)</f>
@@ -8949,7 +8636,7 @@
       </c>
       <c r="B79" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D79,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D79,'Instruction Set'!I:I,0)))</f>
-        <v>OUT L</v>
+        <v/>
       </c>
       <c r="C79" s="12" t="str">
         <f aca="false">DEC2BIN(A79,8)</f>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="685">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -1044,6 +1044,72 @@
   </si>
   <si>
     <t xml:space="preserve">Combine accumulator (A register) with given data using logical OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOR r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical XOR (Exclusive OR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOR A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine accumulator (A register) with value of register using logical XOR (Exclusive OR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01000&lt;x&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOR B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOR C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOR D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOR H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01000100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOR L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01000101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOR M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01000110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOR data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOR 0x10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01000111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine accumulator (A register) with given data using logical XOR (Exclusive OR)</t>
   </si>
   <si>
     <t xml:space="preserve">NOT r</t>
@@ -2271,7 +2337,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:L236"/>
+  <dimension ref="A1:L244"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2283,11 +2349,11 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.44"/>
@@ -5142,7 +5208,7 @@
       </c>
       <c r="I142" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H142),2)</f>
-        <v>08</v>
+        <v>40</v>
       </c>
       <c r="L142" s="7" t="s">
         <v>345</v>
@@ -5163,7 +5229,7 @@
       </c>
       <c r="I143" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H143),2)</f>
-        <v>09</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5178,7 +5244,7 @@
       </c>
       <c r="I144" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H144),2)</f>
-        <v>0A</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5193,7 +5259,7 @@
       </c>
       <c r="I145" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H145),2)</f>
-        <v>0B</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5208,7 +5274,7 @@
       </c>
       <c r="I146" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H146),2)</f>
-        <v>0C</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5223,7 +5289,7 @@
       </c>
       <c r="I147" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H147),2)</f>
-        <v>0D</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,9 +5299,6 @@
       <c r="B148" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C148" s="10" t="s">
-        <v>358</v>
-      </c>
       <c r="D148" s="1" t="s">
         <v>68</v>
       </c>
@@ -5246,68 +5309,80 @@
         <v>357</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I148" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H148),2)</f>
-        <v>0F</v>
-      </c>
-      <c r="L148" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="149" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="n">
         <v>148</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H149" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H149" s="8" t="s">
-        <v>364</v>
       </c>
       <c r="I149" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H149),2)</f>
-        <v>18</v>
-      </c>
-      <c r="L149" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="150" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="n">
         <v>149</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="B150" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H150" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="I150" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H150),2)</f>
-        <v>19</v>
+        <v>08</v>
+      </c>
+      <c r="L150" s="7" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="n">
         <v>150</v>
       </c>
+      <c r="C151" s="10" t="s">
+        <v>368</v>
+      </c>
       <c r="G151" s="1" t="s">
         <v>369</v>
       </c>
@@ -5316,7 +5391,7 @@
       </c>
       <c r="I151" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H151),2)</f>
-        <v>1A</v>
+        <v>09</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,7 +5406,7 @@
       </c>
       <c r="I152" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H152),2)</f>
-        <v>1B</v>
+        <v>0A</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5346,7 +5421,7 @@
       </c>
       <c r="I153" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H153),2)</f>
-        <v>1C</v>
+        <v>0B</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5361,25 +5436,13 @@
       </c>
       <c r="I154" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H154),2)</f>
-        <v>1D</v>
+        <v>0C</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="n">
         <v>154</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="G155" s="1" t="s">
         <v>377</v>
       </c>
@@ -5388,73 +5451,85 @@
       </c>
       <c r="I155" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H155),2)</f>
-        <v>1F</v>
-      </c>
-      <c r="L155" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="156" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0D</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="n">
         <v>155</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C156" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="D156" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H156" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H156" s="8" t="s">
-        <v>383</v>
       </c>
       <c r="I156" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H156),2)</f>
-        <v>28</v>
-      </c>
-      <c r="L156" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0F</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="157" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="n">
         <v>156</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="B157" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F157" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G157" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H157" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="I157" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H157),2)</f>
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="L157" s="7" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="n">
         <v>157</v>
       </c>
+      <c r="C158" s="10" t="s">
+        <v>388</v>
+      </c>
       <c r="G158" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I158" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H158),2)</f>
-        <v>2A</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5462,14 +5537,14 @@
         <v>158</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I159" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H159),2)</f>
-        <v>2B</v>
+        <v>1A</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5477,14 +5552,14 @@
         <v>159</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I160" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H160),2)</f>
-        <v>2C</v>
+        <v>1B</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5492,272 +5567,167 @@
         <v>160</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I161" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H161),2)</f>
-        <v>2D</v>
+        <v>1C</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="n">
         <v>161</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="G162" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I162" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H162),2)</f>
-        <v>2F</v>
-      </c>
-      <c r="L162" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="163" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1D</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="n">
         <v>162</v>
       </c>
-      <c r="B163" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C163" s="7" t="s">
+      <c r="B163" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="C163" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F163" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H163" s="8" t="s">
+      <c r="F163" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H163" s="2" t="s">
         <v>400</v>
       </c>
       <c r="I163" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H163),2)</f>
-        <v>75</v>
-      </c>
-      <c r="L163" s="7" t="s">
+        <v>1F</v>
+      </c>
+      <c r="L163" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="n">
         <v>163</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C164" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F164" s="1" t="s">
+      <c r="D164" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F164" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H164" s="2" t="s">
+      <c r="G164" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H164" s="8" t="s">
         <v>405</v>
       </c>
       <c r="I164" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H164),2)</f>
-        <v>77</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K164" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L164" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L164" s="7" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="165" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="n">
         <v>164</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="C165" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="G165" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D165" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H165" s="8" t="s">
+      <c r="H165" s="2" t="s">
         <v>409</v>
       </c>
       <c r="I165" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H165),2)</f>
-        <v>79</v>
-      </c>
-      <c r="L165" s="7" t="s">
-        <v>410</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="n">
         <v>165</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="G166" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H166" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="I166" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H166),2)</f>
-        <v>7B</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K166" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L166" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="167" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2A</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="n">
         <v>166</v>
       </c>
-      <c r="B167" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="H167" s="8" t="s">
-        <v>418</v>
+      <c r="G167" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="I167" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H167),2)</f>
-        <v>7D</v>
-      </c>
-      <c r="L167" s="7" t="s">
-        <v>419</v>
+        <v>2B</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="n">
         <v>167</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="G168" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I168" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H168),2)</f>
-        <v>7F</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K168" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L168" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="169" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2C</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="n">
         <v>168</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="H169" s="8" t="s">
-        <v>427</v>
+      <c r="G169" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="I169" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H169),2)</f>
-        <v>8F</v>
-      </c>
-      <c r="L169" s="7" t="s">
-        <v>428</v>
+        <v>2D</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5765,35 +5735,29 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="I170" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H170),2)</f>
-        <v>9F</v>
-      </c>
-      <c r="J170" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K170" s="1" t="s">
-        <v>142</v>
+        <v>2F</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
     </row>
     <row r="171" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5801,29 +5765,29 @@
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="I171" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H171),2)</f>
-        <v>AF</v>
+        <v>75</v>
       </c>
       <c r="L171" s="7" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5831,26 +5795,26 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="I172" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H172),2)</f>
-        <v>BF</v>
+        <v>77</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>141</v>
@@ -5859,7 +5823,7 @@
         <v>142</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="173" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5867,29 +5831,29 @@
         <v>172</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="I173" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H173),2)</f>
-        <v>01</v>
+        <v>79</v>
       </c>
       <c r="L173" s="7" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5897,26 +5861,26 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="I174" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H174),2)</f>
-        <v>03</v>
+        <v>7B</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>141</v>
@@ -5925,7 +5889,7 @@
         <v>142</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="175" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5933,29 +5897,29 @@
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="I175" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H175),2)</f>
-        <v>06</v>
+        <v>7D</v>
       </c>
       <c r="L175" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5963,26 +5927,26 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="I176" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H176),2)</f>
-        <v>07</v>
+        <v>7F</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>141</v>
@@ -5991,383 +5955,383 @@
         <v>142</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="177" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="n">
         <v>176</v>
       </c>
-      <c r="B177" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>463</v>
+      <c r="B177" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="I177" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H177),2)</f>
+        <v>8F</v>
+      </c>
+      <c r="L177" s="7" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="n">
         <v>177</v>
       </c>
-      <c r="B178" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="I178" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H178),2)</f>
+        <v>9F</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="179" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="n">
         <v>178</v>
       </c>
-      <c r="B179" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>469</v>
+      <c r="B179" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="I179" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H179),2)</f>
+        <v>AF</v>
+      </c>
+      <c r="L179" s="7" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="n">
         <v>179</v>
       </c>
-      <c r="B180" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="D180" s="11" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I180" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H180),2)</f>
+        <v>BF</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="181" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="n">
         <v>180</v>
       </c>
-      <c r="B181" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D181" s="11" t="s">
+      <c r="B181" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>466</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H181" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="I181" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H181),2)</f>
+        <v>01</v>
+      </c>
+      <c r="L181" s="7" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="n">
         <v>181</v>
       </c>
-      <c r="B182" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="D182" s="11" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="I182" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H182),2)</f>
+        <v>03</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="183" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="n">
         <v>182</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="I183" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H183),2)</f>
+        <v>06</v>
+      </c>
+      <c r="L183" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="n">
         <v>183</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="G184" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H184" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D184" s="11" t="s">
+      <c r="I184" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H184),2)</f>
+        <v>07</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="185" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="n">
         <v>184</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="C185" s="7" t="s">
+      <c r="C185" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="D185" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G185" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="H185" s="8" t="s">
+      <c r="D185" s="11" t="s">
         <v>485</v>
-      </c>
-      <c r="I185" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H185),2)</f>
-        <v>C1</v>
-      </c>
-      <c r="L185" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="n">
         <v>185</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C186" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="D186" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="I186" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H186),2)</f>
-        <v>C3</v>
-      </c>
-      <c r="J186" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K186" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L186" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="187" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="n">
         <v>186</v>
       </c>
-      <c r="B187" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="G187" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="H187" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="I187" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H187),2)</f>
-        <v>C5</v>
-      </c>
-      <c r="L187" s="7" t="s">
-        <v>495</v>
+      <c r="B187" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="n">
         <v>187</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I188" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H188),2)</f>
-        <v>C7</v>
-      </c>
-      <c r="J188" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K188" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L188" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="189" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="n">
         <v>188</v>
       </c>
-      <c r="B189" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="H189" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="I189" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H189),2)</f>
-        <v>CB</v>
-      </c>
-      <c r="L189" s="7" t="s">
-        <v>504</v>
+      <c r="B189" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="n">
         <v>189</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="I190" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H190),2)</f>
-        <v>CF</v>
-      </c>
-      <c r="J190" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K190" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L190" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="191" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="n">
         <v>190</v>
       </c>
-      <c r="B191" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="G191" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="H191" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="I191" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H191),2)</f>
-        <v>D1</v>
-      </c>
-      <c r="L191" s="7" t="s">
-        <v>513</v>
+      <c r="B191" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="n">
         <v>191</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I192" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H192),2)</f>
-        <v>D3</v>
-      </c>
-      <c r="J192" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K192" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L192" s="1" t="s">
-        <v>518</v>
+      <c r="B192" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="193" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6375,29 +6339,29 @@
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="H193" s="8" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="I193" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H193),2)</f>
-        <v>D5</v>
+        <v>C1</v>
       </c>
       <c r="L193" s="7" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6405,26 +6369,26 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="I194" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H194),2)</f>
-        <v>D7</v>
+        <v>C3</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>141</v>
@@ -6433,7 +6397,7 @@
         <v>142</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
     </row>
     <row r="195" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6441,29 +6405,29 @@
         <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="H195" s="8" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="I195" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H195),2)</f>
-        <v>12</v>
+        <v>C5</v>
       </c>
       <c r="L195" s="7" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6471,26 +6435,26 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="I196" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H196),2)</f>
-        <v>13</v>
+        <v>C7</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>141</v>
@@ -6499,7 +6463,7 @@
         <v>142</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="197" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6507,29 +6471,29 @@
         <v>196</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="D197" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="H197" s="8" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="I197" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H197),2)</f>
-        <v>16</v>
+        <v>CB</v>
       </c>
       <c r="L197" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6537,26 +6501,26 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="I198" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H198),2)</f>
-        <v>17</v>
+        <v>CF</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>141</v>
@@ -6565,308 +6529,369 @@
         <v>142</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="199" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="n">
         <v>198</v>
       </c>
-      <c r="B199" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="C199" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="D199" s="11" t="s">
-        <v>548</v>
+      <c r="B199" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="H199" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="I199" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H199),2)</f>
+        <v>D1</v>
+      </c>
+      <c r="L199" s="7" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="n">
         <v>199</v>
       </c>
-      <c r="B200" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="C200" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="D200" s="11" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="I200" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H200),2)</f>
+        <v>D3</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="201" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="n">
         <v>200</v>
       </c>
-      <c r="B201" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="C201" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="D201" s="11" t="s">
-        <v>554</v>
+      <c r="B201" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="H201" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="I201" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H201),2)</f>
+        <v>D5</v>
+      </c>
+      <c r="L201" s="7" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="n">
         <v>201</v>
       </c>
-      <c r="B202" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="I202" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H202),2)</f>
+        <v>D7</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="203" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="n">
         <v>202</v>
       </c>
-      <c r="B203" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D203" s="11" t="s">
+      <c r="B203" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C203" s="7" t="s">
         <v>551</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="I203" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H203),2)</f>
+        <v>12</v>
+      </c>
+      <c r="L203" s="7" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="n">
         <v>203</v>
       </c>
-      <c r="B204" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="C204" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="I204" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H204),2)</f>
+        <v>13</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="205" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="n">
         <v>204</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B205" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="H205" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="I205" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H205),2)</f>
+        <v>16</v>
+      </c>
+      <c r="L205" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C205" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="D205" s="11" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="n">
         <v>205</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B206" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F206" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C206" s="11" t="s">
+      <c r="G206" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H206" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D206" s="11" t="s">
+      <c r="I206" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H206),2)</f>
+        <v>17</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="207" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="n">
         <v>206</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="C207" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="F207" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="G207" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="H207" s="8" t="s">
+      <c r="D207" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="I207" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H207),2)</f>
-        <v>05</v>
-      </c>
-      <c r="L207" s="7" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="208" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="n">
         <v>207</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C208" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="D208" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="F208" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="G208" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="H208" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="I208" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H208),2)</f>
-        <v>11</v>
-      </c>
-      <c r="L208" s="7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="209" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="n">
         <v>208</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B209" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="D209" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="C209" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="G209" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="H209" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="I209" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H209),2)</f>
-        <v>15</v>
-      </c>
-      <c r="L209" s="7" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="210" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="n">
         <v>209</v>
       </c>
-      <c r="B210" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="F210" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="G210" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="H210" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="I210" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H210),2)</f>
-        <v>21</v>
-      </c>
-      <c r="L210" s="7" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="211" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="n">
         <v>210</v>
       </c>
-      <c r="B211" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="F211" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="G211" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="H211" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="I211" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H211),2)</f>
-        <v>23</v>
-      </c>
-      <c r="L211" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="212" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="7" t="n">
         <v>211</v>
       </c>
-      <c r="B212" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="F212" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G212" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="H212" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="I212" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H212),2)</f>
-        <v>83</v>
-      </c>
-      <c r="L212" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="213" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="D212" s="11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="7" t="n">
         <v>212</v>
       </c>
-      <c r="B213" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="F213" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="G213" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="H213" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="I213" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H213),2)</f>
-        <v>85</v>
-      </c>
-      <c r="L213" s="7" t="s">
-        <v>595</v>
+      <c r="B213" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6874,273 +6899,314 @@
         <v>213</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="215" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="n">
         <v>214</v>
       </c>
-      <c r="B215" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="C215" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="D215" s="11" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="H215" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="I215" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H215),2)</f>
+        <v>05</v>
+      </c>
+      <c r="L215" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="216" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="n">
         <v>215</v>
       </c>
-      <c r="B216" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="C216" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="D216" s="11" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="H216" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="I216" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H216),2)</f>
+        <v>11</v>
+      </c>
+      <c r="L216" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="217" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="n">
         <v>216</v>
       </c>
-      <c r="B217" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="C217" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="D217" s="11" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="F217" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H217" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="I217" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H217),2)</f>
+        <v>15</v>
+      </c>
+      <c r="L217" s="7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="218" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="n">
         <v>217</v>
       </c>
-      <c r="B218" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="C218" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="D218" s="11" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="F218" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G218" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H218" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="I218" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H218),2)</f>
+        <v>21</v>
+      </c>
+      <c r="L218" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="219" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="n">
         <v>218</v>
       </c>
-      <c r="B219" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="D219" s="11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F219" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="I219" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H219),2)</f>
+        <v>23</v>
+      </c>
+      <c r="L219" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="220" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="n">
         <v>219</v>
       </c>
-      <c r="B220" s="11" t="s">
+      <c r="B220" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H220" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="C220" s="11" t="s">
+      <c r="I220" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H220),2)</f>
+        <v>83</v>
+      </c>
+      <c r="L220" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="D220" s="11" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="221" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="n">
         <v>220</v>
       </c>
-      <c r="B221" s="11" t="s">
+      <c r="B221" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C221" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="C221" s="11" t="s">
+      <c r="F221" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="H221" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="D221" s="11" t="s">
+      <c r="I221" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H221),2)</f>
+        <v>85</v>
+      </c>
+      <c r="L221" s="7" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="222" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="n">
         <v>221</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B222" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C222" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="D222" s="7" t="s">
+      <c r="D222" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="F222" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="G222" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="H222" s="7" t="n">
-        <v>11011111</v>
-      </c>
-      <c r="I222" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H222),2)</f>
-        <v>DF</v>
-      </c>
-      <c r="J222" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="L222" s="7" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="223" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="n">
         <v>222</v>
       </c>
-      <c r="B223" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F223" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="G223" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="H223" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="I223" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H223),2)</f>
-        <v>F0</v>
-      </c>
-      <c r="L223" s="7" t="s">
-        <v>629</v>
+      <c r="B223" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="D223" s="11" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="n">
         <v>223</v>
       </c>
-      <c r="C224" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="H224" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="I224" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H224),2)</f>
-        <v>F1</v>
+      <c r="B224" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="n">
         <v>224</v>
       </c>
-      <c r="G225" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="H225" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="I225" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H225),2)</f>
-        <v>F2</v>
+      <c r="B225" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="n">
         <v>225</v>
       </c>
-      <c r="G226" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="H226" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="I226" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H226),2)</f>
-        <v>F3</v>
+      <c r="B226" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D226" s="11" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="n">
         <v>226</v>
       </c>
-      <c r="G227" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="H227" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="I227" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H227),2)</f>
-        <v>F4</v>
+      <c r="B227" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="D227" s="11" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="n">
         <v>227</v>
       </c>
-      <c r="G228" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="I228" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H228),2)</f>
-        <v>F5</v>
+      <c r="B228" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="D228" s="11" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="n">
         <v>228</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="H229" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="I229" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H229),2)</f>
-        <v>F6</v>
-      </c>
-      <c r="L229" s="1" t="s">
-        <v>643</v>
+      <c r="B229" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="D229" s="11" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="230" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7148,62 +7214,80 @@
         <v>229</v>
       </c>
       <c r="B230" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="G230" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="C230" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="D230" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F230" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="G230" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="H230" s="8" t="s">
-        <v>647</v>
+      <c r="H230" s="7" t="n">
+        <v>11011111</v>
       </c>
       <c r="I230" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H230),2)</f>
-        <v>F8</v>
+        <v>DF</v>
+      </c>
+      <c r="J230" s="7" t="s">
+        <v>645</v>
       </c>
       <c r="L230" s="7" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="231" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="n">
         <v>230</v>
       </c>
-      <c r="C231" s="10" t="s">
+      <c r="B231" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F231" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="G231" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="H231" s="8" t="s">
         <v>650</v>
-      </c>
-      <c r="H231" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="I231" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H231),2)</f>
-        <v>F9</v>
+        <v>F0</v>
+      </c>
+      <c r="L231" s="7" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="n">
         <v>231</v>
       </c>
+      <c r="C232" s="10" t="s">
+        <v>652</v>
+      </c>
       <c r="G232" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I232" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H232),2)</f>
-        <v>FA</v>
+        <v>F1</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7211,14 +7295,14 @@
         <v>232</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I233" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H233),2)</f>
-        <v>FB</v>
+        <v>F2</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7226,14 +7310,14 @@
         <v>233</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="I234" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H234),2)</f>
-        <v>FC</v>
+        <v>F3</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7241,39 +7325,183 @@
         <v>234</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="I235" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H235),2)</f>
-        <v>FD</v>
+        <v>F4</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="7" t="n">
         <v>235</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G236" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="I236" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H236),2)</f>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="7" t="n">
+        <v>236</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H237" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="I237" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H237),2)</f>
+        <v>F6</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="238" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="7" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="H238" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="I238" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H238),2)</f>
+        <v>F8</v>
+      </c>
+      <c r="L238" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="I239" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H239),2)</f>
+        <v>F9</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="7" t="n">
+        <v>239</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="I240" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H240),2)</f>
+        <v>FA</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="7" t="n">
+        <v>240</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="I241" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H241),2)</f>
+        <v>FB</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="7" t="n">
+        <v>241</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="I242" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H242),2)</f>
+        <v>FC</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="7" t="n">
+        <v>242</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="I243" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H243),2)</f>
+        <v>FD</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="7" t="n">
+        <v>243</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I244" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H244),2)</f>
         <v>FE</v>
       </c>
-      <c r="L236" s="1" t="s">
-        <v>662</v>
+      <c r="L244" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I176 I185:I198 I207:I213 I222:I236">
+  <conditionalFormatting sqref="I2:I184 I193:I206 I215:I221 I230:I244">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7296,10 +7524,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
+      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -8415,7 +8643,7 @@
       </c>
       <c r="B66" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D66,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D66,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>XOR A</v>
       </c>
       <c r="C66" s="12" t="str">
         <f aca="false">DEC2BIN(A66,8)</f>
@@ -8432,7 +8660,7 @@
       </c>
       <c r="B67" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D67,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D67,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>XOR B</v>
       </c>
       <c r="C67" s="12" t="str">
         <f aca="false">DEC2BIN(A67,8)</f>
@@ -8449,7 +8677,7 @@
       </c>
       <c r="B68" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D68,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D68,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>XOR C</v>
       </c>
       <c r="C68" s="12" t="str">
         <f aca="false">DEC2BIN(A68,8)</f>
@@ -8466,7 +8694,7 @@
       </c>
       <c r="B69" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D69,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D69,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>XOR D</v>
       </c>
       <c r="C69" s="12" t="str">
         <f aca="false">DEC2BIN(A69,8)</f>
@@ -8483,7 +8711,7 @@
       </c>
       <c r="B70" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D70,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D70,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>XOR H</v>
       </c>
       <c r="C70" s="12" t="str">
         <f aca="false">DEC2BIN(A70,8)</f>
@@ -8500,7 +8728,7 @@
       </c>
       <c r="B71" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D71,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D71,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>XOR L</v>
       </c>
       <c r="C71" s="12" t="str">
         <f aca="false">DEC2BIN(A71,8)</f>
@@ -8517,7 +8745,7 @@
       </c>
       <c r="B72" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D72,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D72,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>XOR M</v>
       </c>
       <c r="C72" s="12" t="str">
         <f aca="false">DEC2BIN(A72,8)</f>
@@ -8534,7 +8762,7 @@
       </c>
       <c r="B73" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D73,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D73,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>XOR data</v>
       </c>
       <c r="C73" s="12" t="str">
         <f aca="false">DEC2BIN(A73,8)</f>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="693">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -2076,6 +2076,30 @@
   </si>
   <si>
     <t xml:space="preserve">Decrement value at memory address in H and L registers by 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSHF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push flags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push flags to stack and decrease stack pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop flags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11011001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop flags from stack and increase stack pointer</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2361,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:L244"/>
+  <dimension ref="A1:L246"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2348,7 +2372,7 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.3"/>
@@ -7500,8 +7524,62 @@
         <v>684</v>
       </c>
     </row>
+    <row r="245" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="7" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="H245" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="I245" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H245),2)</f>
+        <v>87</v>
+      </c>
+      <c r="L245" s="7" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="246" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="7" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="F246" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="G246" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="H246" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="I246" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H246),2)</f>
+        <v>D9</v>
+      </c>
+      <c r="L246" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I184 I193:I206 I215:I221 I230:I244">
+  <conditionalFormatting sqref="I2:I184 I193:I206 I215:I221 I230:I246">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7527,11 +7605,11 @@
       <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="12.96"/>
   </cols>
   <sheetData>
@@ -9850,7 +9928,7 @@
       </c>
       <c r="B137" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D137,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D137,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>PUSHF</v>
       </c>
       <c r="C137" s="12" t="str">
         <f aca="false">DEC2BIN(A137,8)</f>
@@ -11244,7 +11322,7 @@
       </c>
       <c r="B219" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D219,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D219,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>POPF</v>
       </c>
       <c r="C219" s="12" t="str">
         <f aca="false">DEC2BIN(A219,8)</f>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="697">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -1941,6 +1941,18 @@
   </si>
   <si>
     <t xml:space="preserve">see RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interrupt return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10110101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return from interrupt</t>
   </si>
   <si>
     <t xml:space="preserve">INT #</t>
@@ -2209,7 +2221,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2256,6 +2268,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2361,7 +2377,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:L246"/>
+  <dimension ref="A1:L247"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7243,27 +7259,21 @@
       <c r="C230" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="D230" s="7" t="s">
+      <c r="F230" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="H230" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="F230" s="7" t="s">
+      <c r="I230" s="12" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H230),2)</f>
+        <v>B5</v>
+      </c>
+      <c r="L230" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="G230" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="H230" s="7" t="n">
-        <v>11011111</v>
-      </c>
-      <c r="I230" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H230),2)</f>
-        <v>DF</v>
-      </c>
-      <c r="J230" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="L230" s="7" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="231" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7271,62 +7281,80 @@
         <v>230</v>
       </c>
       <c r="B231" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="F231" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="G231" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="D231" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F231" s="7" t="s">
+      <c r="H231" s="7" t="n">
+        <v>11011111</v>
+      </c>
+      <c r="I231" s="12" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H231),2)</f>
+        <v>DF</v>
+      </c>
+      <c r="J231" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G231" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="H231" s="8" t="s">
+      <c r="L231" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="I231" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H231),2)</f>
-        <v>F0</v>
-      </c>
-      <c r="L231" s="7" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="232" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="n">
         <v>231</v>
       </c>
-      <c r="C232" s="10" t="s">
+      <c r="B232" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C232" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="D232" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F232" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="H232" s="2" t="s">
+      <c r="G232" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="H232" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="I232" s="9" t="str">
+      <c r="I232" s="12" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H232),2)</f>
-        <v>F1</v>
+        <v>F0</v>
+      </c>
+      <c r="L232" s="7" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="n">
         <v>232</v>
       </c>
+      <c r="C233" s="10" t="s">
+        <v>656</v>
+      </c>
       <c r="G233" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="I233" s="9" t="str">
+        <v>658</v>
+      </c>
+      <c r="I233" s="12" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H233),2)</f>
-        <v>F2</v>
+        <v>F1</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7334,14 +7362,14 @@
         <v>233</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="I234" s="9" t="str">
+        <v>660</v>
+      </c>
+      <c r="I234" s="12" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H234),2)</f>
-        <v>F3</v>
+        <v>F2</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7349,14 +7377,14 @@
         <v>234</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="I235" s="9" t="str">
+        <v>662</v>
+      </c>
+      <c r="I235" s="12" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H235),2)</f>
-        <v>F4</v>
+        <v>F3</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7364,98 +7392,98 @@
         <v>235</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="I236" s="9" t="str">
+        <v>664</v>
+      </c>
+      <c r="I236" s="12" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H236),2)</f>
-        <v>F5</v>
+        <v>F4</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="7" t="n">
         <v>236</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G237" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="I237" s="9" t="str">
+        <v>666</v>
+      </c>
+      <c r="I237" s="12" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H237),2)</f>
-        <v>F6</v>
-      </c>
-      <c r="L237" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="238" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="n">
         <v>237</v>
       </c>
-      <c r="B238" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="C238" s="7" t="s">
+      <c r="D238" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G238" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D238" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F238" s="7" t="s">
+      <c r="H238" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="G238" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="H238" s="8" t="s">
+      <c r="I238" s="12" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H238),2)</f>
+        <v>F6</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="I238" s="9" t="str">
-        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H238),2)</f>
-        <v>F8</v>
-      </c>
-      <c r="L238" s="7" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="239" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="n">
         <v>238</v>
       </c>
-      <c r="C239" s="10" t="s">
+      <c r="B239" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C239" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="G239" s="1" t="s">
+      <c r="D239" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F239" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="H239" s="2" t="s">
+      <c r="G239" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="H239" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="I239" s="9" t="str">
+      <c r="I239" s="12" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H239),2)</f>
-        <v>F9</v>
+        <v>F8</v>
+      </c>
+      <c r="L239" s="7" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="n">
         <v>239</v>
       </c>
+      <c r="C240" s="10" t="s">
+        <v>675</v>
+      </c>
       <c r="G240" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="I240" s="9" t="str">
+        <v>677</v>
+      </c>
+      <c r="I240" s="12" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H240),2)</f>
-        <v>FA</v>
+        <v>F9</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7463,14 +7491,14 @@
         <v>240</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="I241" s="9" t="str">
+        <v>679</v>
+      </c>
+      <c r="I241" s="12" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H241),2)</f>
-        <v>FB</v>
+        <v>FA</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7478,14 +7506,14 @@
         <v>241</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="I242" s="9" t="str">
+        <v>681</v>
+      </c>
+      <c r="I242" s="12" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H242),2)</f>
-        <v>FC</v>
+        <v>FB</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7493,61 +7521,49 @@
         <v>242</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="I243" s="9" t="str">
+        <v>683</v>
+      </c>
+      <c r="I243" s="12" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H243),2)</f>
-        <v>FD</v>
+        <v>FC</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="n">
         <v>243</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G244" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="I244" s="9" t="str">
+        <v>685</v>
+      </c>
+      <c r="I244" s="12" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H244),2)</f>
-        <v>FE</v>
-      </c>
-      <c r="L244" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="245" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>FD</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="n">
         <v>244</v>
       </c>
-      <c r="B245" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="C245" s="7" t="s">
+      <c r="D245" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G245" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="F245" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="G245" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="H245" s="8" t="s">
+      <c r="H245" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="I245" s="9" t="str">
+      <c r="I245" s="12" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H245),2)</f>
-        <v>87</v>
-      </c>
-      <c r="L245" s="7" t="s">
+        <v>FE</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>688</v>
       </c>
     </row>
@@ -7570,16 +7586,43 @@
       <c r="H246" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="I246" s="9" t="str">
+      <c r="I246" s="12" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H246),2)</f>
-        <v>D9</v>
+        <v>87</v>
       </c>
       <c r="L246" s="7" t="s">
         <v>692</v>
       </c>
     </row>
+    <row r="247" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="7" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F247" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="G247" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="H247" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="I247" s="12" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H247),2)</f>
+        <v>D9</v>
+      </c>
+      <c r="L247" s="7" t="s">
+        <v>696</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I184 I193:I206 I215:I221 I230:I246">
+  <conditionalFormatting sqref="I2:I184 I193:I206 I215:I221 I230:I247">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7605,12 +7648,12 @@
       <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="12.96"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7628,4353 +7671,4353 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="14" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D2,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D2,'Instruction Set'!I:I,0)))</f>
         <v>NOP</v>
       </c>
-      <c r="C2" s="12" t="str">
+      <c r="C2" s="13" t="str">
         <f aca="false">DEC2BIN(A2,8)</f>
         <v>00000000</v>
       </c>
-      <c r="D2" s="12" t="str">
+      <c r="D2" s="13" t="str">
         <f aca="false">DEC2HEX(A2,2)</f>
         <v>00</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="14" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D3,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D3,'Instruction Set'!I:I,0)))</f>
         <v>JA M</v>
       </c>
-      <c r="C3" s="12" t="str">
+      <c r="C3" s="13" t="str">
         <f aca="false">DEC2BIN(A3,8)</f>
         <v>00000001</v>
       </c>
-      <c r="D3" s="12" t="str">
+      <c r="D3" s="13" t="str">
         <f aca="false">DEC2HEX(A3,2)</f>
         <v>01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D4,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D4,'Instruction Set'!I:I,0)))</f>
         <v>MOV HL,IP</v>
       </c>
-      <c r="C4" s="12" t="str">
+      <c r="C4" s="13" t="str">
         <f aca="false">DEC2BIN(A4,8)</f>
         <v>00000010</v>
       </c>
-      <c r="D4" s="12" t="str">
+      <c r="D4" s="13" t="str">
         <f aca="false">DEC2HEX(A4,2)</f>
         <v>02</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="14" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D5,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D5,'Instruction Set'!I:I,0)))</f>
         <v>JA addr</v>
       </c>
-      <c r="C5" s="12" t="str">
+      <c r="C5" s="13" t="str">
         <f aca="false">DEC2BIN(A5,8)</f>
         <v>00000011</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="D5" s="13" t="str">
         <f aca="false">DEC2HEX(A5,2)</f>
         <v>03</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D6,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D6,'Instruction Set'!I:I,0)))</f>
         <v>MOV HL,SP</v>
       </c>
-      <c r="C6" s="12" t="str">
+      <c r="C6" s="13" t="str">
         <f aca="false">DEC2BIN(A6,8)</f>
         <v>00000100</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="13" t="str">
         <f aca="false">DEC2HEX(A6,2)</f>
         <v>04</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="14" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D7,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D7,'Instruction Set'!I:I,0)))</f>
         <v>RET</v>
       </c>
-      <c r="C7" s="12" t="str">
+      <c r="C7" s="13" t="str">
         <f aca="false">DEC2BIN(A7,8)</f>
         <v>00000101</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D7" s="13" t="str">
         <f aca="false">DEC2HEX(A7,2)</f>
         <v>05</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="14" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D8,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D8,'Instruction Set'!I:I,0)))</f>
         <v>JNA M</v>
       </c>
-      <c r="C8" s="12" t="str">
+      <c r="C8" s="13" t="str">
         <f aca="false">DEC2BIN(A8,8)</f>
         <v>00000110</v>
       </c>
-      <c r="D8" s="12" t="str">
+      <c r="D8" s="13" t="str">
         <f aca="false">DEC2HEX(A8,2)</f>
         <v>06</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="14" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D9,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D9,'Instruction Set'!I:I,0)))</f>
         <v>JNA addr</v>
       </c>
-      <c r="C9" s="12" t="str">
+      <c r="C9" s="13" t="str">
         <f aca="false">DEC2BIN(A9,8)</f>
         <v>00000111</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D9" s="13" t="str">
         <f aca="false">DEC2HEX(A9,2)</f>
         <v>07</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D10,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D10,'Instruction Set'!I:I,0)))</f>
         <v>NOT A</v>
       </c>
-      <c r="C10" s="12" t="str">
+      <c r="C10" s="13" t="str">
         <f aca="false">DEC2BIN(A10,8)</f>
         <v>00001000</v>
       </c>
-      <c r="D10" s="12" t="str">
+      <c r="D10" s="13" t="str">
         <f aca="false">DEC2HEX(A10,2)</f>
         <v>08</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="14" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D11,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D11,'Instruction Set'!I:I,0)))</f>
         <v>NOT B</v>
       </c>
-      <c r="C11" s="12" t="str">
+      <c r="C11" s="13" t="str">
         <f aca="false">DEC2BIN(A11,8)</f>
         <v>00001001</v>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D11" s="13" t="str">
         <f aca="false">DEC2HEX(A11,2)</f>
         <v>09</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="14" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D12,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D12,'Instruction Set'!I:I,0)))</f>
         <v>NOT C</v>
       </c>
-      <c r="C12" s="12" t="str">
+      <c r="C12" s="13" t="str">
         <f aca="false">DEC2BIN(A12,8)</f>
         <v>00001010</v>
       </c>
-      <c r="D12" s="12" t="str">
+      <c r="D12" s="13" t="str">
         <f aca="false">DEC2HEX(A12,2)</f>
         <v>0A</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="14" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D13,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D13,'Instruction Set'!I:I,0)))</f>
         <v>NOT D</v>
       </c>
-      <c r="C13" s="12" t="str">
+      <c r="C13" s="13" t="str">
         <f aca="false">DEC2BIN(A13,8)</f>
         <v>00001011</v>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D13" s="13" t="str">
         <f aca="false">DEC2HEX(A13,2)</f>
         <v>0B</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
+      <c r="A14" s="14" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D14,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D14,'Instruction Set'!I:I,0)))</f>
         <v>NOT H</v>
       </c>
-      <c r="C14" s="12" t="str">
+      <c r="C14" s="13" t="str">
         <f aca="false">DEC2BIN(A14,8)</f>
         <v>00001100</v>
       </c>
-      <c r="D14" s="12" t="str">
+      <c r="D14" s="13" t="str">
         <f aca="false">DEC2HEX(A14,2)</f>
         <v>0C</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="n">
+      <c r="A15" s="14" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D15,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D15,'Instruction Set'!I:I,0)))</f>
         <v>NOT L</v>
       </c>
-      <c r="C15" s="12" t="str">
+      <c r="C15" s="13" t="str">
         <f aca="false">DEC2BIN(A15,8)</f>
         <v>00001101</v>
       </c>
-      <c r="D15" s="12" t="str">
+      <c r="D15" s="13" t="str">
         <f aca="false">DEC2HEX(A15,2)</f>
         <v>0D</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
+      <c r="A16" s="14" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D16,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D16,'Instruction Set'!I:I,0)))</f>
         <v>MOV HL,addr/data</v>
       </c>
-      <c r="C16" s="12" t="str">
+      <c r="C16" s="13" t="str">
         <f aca="false">DEC2BIN(A16,8)</f>
         <v>00001110</v>
       </c>
-      <c r="D16" s="12" t="str">
+      <c r="D16" s="13" t="str">
         <f aca="false">DEC2HEX(A16,2)</f>
         <v>0E</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="n">
+      <c r="A17" s="14" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D17,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D17,'Instruction Set'!I:I,0)))</f>
         <v>NOT M</v>
       </c>
-      <c r="C17" s="12" t="str">
+      <c r="C17" s="13" t="str">
         <f aca="false">DEC2BIN(A17,8)</f>
         <v>00001111</v>
       </c>
-      <c r="D17" s="12" t="str">
+      <c r="D17" s="13" t="str">
         <f aca="false">DEC2HEX(A17,2)</f>
         <v>0F</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
+      <c r="A18" s="14" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D18,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D18,'Instruction Set'!I:I,0)))</f>
         <v>MOV IP,HL</v>
       </c>
-      <c r="C18" s="12" t="str">
+      <c r="C18" s="13" t="str">
         <f aca="false">DEC2BIN(A18,8)</f>
         <v>00010000</v>
       </c>
-      <c r="D18" s="12" t="str">
+      <c r="D18" s="13" t="str">
         <f aca="false">DEC2HEX(A18,2)</f>
         <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
+      <c r="A19" s="14" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D19,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D19,'Instruction Set'!I:I,0)))</f>
         <v>RC</v>
       </c>
-      <c r="C19" s="12" t="str">
+      <c r="C19" s="13" t="str">
         <f aca="false">DEC2BIN(A19,8)</f>
         <v>00010001</v>
       </c>
-      <c r="D19" s="12" t="str">
+      <c r="D19" s="13" t="str">
         <f aca="false">DEC2HEX(A19,2)</f>
         <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
+      <c r="A20" s="14" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D20,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D20,'Instruction Set'!I:I,0)))</f>
         <v>CA M</v>
       </c>
-      <c r="C20" s="12" t="str">
+      <c r="C20" s="13" t="str">
         <f aca="false">DEC2BIN(A20,8)</f>
         <v>00010010</v>
       </c>
-      <c r="D20" s="12" t="str">
+      <c r="D20" s="13" t="str">
         <f aca="false">DEC2HEX(A20,2)</f>
         <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
+      <c r="A21" s="14" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D21,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D21,'Instruction Set'!I:I,0)))</f>
         <v>CA addr</v>
       </c>
-      <c r="C21" s="12" t="str">
+      <c r="C21" s="13" t="str">
         <f aca="false">DEC2BIN(A21,8)</f>
         <v>00010011</v>
       </c>
-      <c r="D21" s="12" t="str">
+      <c r="D21" s="13" t="str">
         <f aca="false">DEC2HEX(A21,2)</f>
         <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="n">
+      <c r="A22" s="14" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D22,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D22,'Instruction Set'!I:I,0)))</f>
         <v>MOV IP,SP</v>
       </c>
-      <c r="C22" s="12" t="str">
+      <c r="C22" s="13" t="str">
         <f aca="false">DEC2BIN(A22,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D22" s="12" t="str">
+      <c r="D22" s="13" t="str">
         <f aca="false">DEC2HEX(A22,2)</f>
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="n">
+      <c r="A23" s="14" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D23,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D23,'Instruction Set'!I:I,0)))</f>
         <v>RNC</v>
       </c>
-      <c r="C23" s="12" t="str">
+      <c r="C23" s="13" t="str">
         <f aca="false">DEC2BIN(A23,8)</f>
         <v>00010101</v>
       </c>
-      <c r="D23" s="12" t="str">
+      <c r="D23" s="13" t="str">
         <f aca="false">DEC2HEX(A23,2)</f>
         <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="n">
+      <c r="A24" s="14" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D24,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D24,'Instruction Set'!I:I,0)))</f>
         <v>CNA M</v>
       </c>
-      <c r="C24" s="12" t="str">
+      <c r="C24" s="13" t="str">
         <f aca="false">DEC2BIN(A24,8)</f>
         <v>00010110</v>
       </c>
-      <c r="D24" s="12" t="str">
+      <c r="D24" s="13" t="str">
         <f aca="false">DEC2HEX(A24,2)</f>
         <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="n">
+      <c r="A25" s="14" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D25,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D25,'Instruction Set'!I:I,0)))</f>
         <v>CNA addr</v>
       </c>
-      <c r="C25" s="12" t="str">
+      <c r="C25" s="13" t="str">
         <f aca="false">DEC2BIN(A25,8)</f>
         <v>00010111</v>
       </c>
-      <c r="D25" s="12" t="str">
+      <c r="D25" s="13" t="str">
         <f aca="false">DEC2HEX(A25,2)</f>
         <v>17</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="n">
+      <c r="A26" s="14" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D26,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D26,'Instruction Set'!I:I,0)))</f>
         <v>SHL A</v>
       </c>
-      <c r="C26" s="12" t="str">
+      <c r="C26" s="13" t="str">
         <f aca="false">DEC2BIN(A26,8)</f>
         <v>00011000</v>
       </c>
-      <c r="D26" s="12" t="str">
+      <c r="D26" s="13" t="str">
         <f aca="false">DEC2HEX(A26,2)</f>
         <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="n">
+      <c r="A27" s="14" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D27,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D27,'Instruction Set'!I:I,0)))</f>
         <v>SHL B</v>
       </c>
-      <c r="C27" s="12" t="str">
+      <c r="C27" s="13" t="str">
         <f aca="false">DEC2BIN(A27,8)</f>
         <v>00011001</v>
       </c>
-      <c r="D27" s="12" t="str">
+      <c r="D27" s="13" t="str">
         <f aca="false">DEC2HEX(A27,2)</f>
         <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="n">
+      <c r="A28" s="14" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D28,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D28,'Instruction Set'!I:I,0)))</f>
         <v>SHL C</v>
       </c>
-      <c r="C28" s="12" t="str">
+      <c r="C28" s="13" t="str">
         <f aca="false">DEC2BIN(A28,8)</f>
         <v>00011010</v>
       </c>
-      <c r="D28" s="12" t="str">
+      <c r="D28" s="13" t="str">
         <f aca="false">DEC2HEX(A28,2)</f>
         <v>1A</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="n">
+      <c r="A29" s="14" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D29,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D29,'Instruction Set'!I:I,0)))</f>
         <v>SHL D</v>
       </c>
-      <c r="C29" s="12" t="str">
+      <c r="C29" s="13" t="str">
         <f aca="false">DEC2BIN(A29,8)</f>
         <v>00011011</v>
       </c>
-      <c r="D29" s="12" t="str">
+      <c r="D29" s="13" t="str">
         <f aca="false">DEC2HEX(A29,2)</f>
         <v>1B</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
+      <c r="A30" s="14" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D30,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D30,'Instruction Set'!I:I,0)))</f>
         <v>SHL H</v>
       </c>
-      <c r="C30" s="12" t="str">
+      <c r="C30" s="13" t="str">
         <f aca="false">DEC2BIN(A30,8)</f>
         <v>00011100</v>
       </c>
-      <c r="D30" s="12" t="str">
+      <c r="D30" s="13" t="str">
         <f aca="false">DEC2HEX(A30,2)</f>
         <v>1C</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="n">
+      <c r="A31" s="14" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D31,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D31,'Instruction Set'!I:I,0)))</f>
         <v>SHL L</v>
       </c>
-      <c r="C31" s="12" t="str">
+      <c r="C31" s="13" t="str">
         <f aca="false">DEC2BIN(A31,8)</f>
         <v>00011101</v>
       </c>
-      <c r="D31" s="12" t="str">
+      <c r="D31" s="13" t="str">
         <f aca="false">DEC2HEX(A31,2)</f>
         <v>1D</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="n">
+      <c r="A32" s="14" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D32,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D32,'Instruction Set'!I:I,0)))</f>
         <v>MOV IP,addr/data</v>
       </c>
-      <c r="C32" s="12" t="str">
+      <c r="C32" s="13" t="str">
         <f aca="false">DEC2BIN(A32,8)</f>
         <v>00011110</v>
       </c>
-      <c r="D32" s="12" t="str">
+      <c r="D32" s="13" t="str">
         <f aca="false">DEC2HEX(A32,2)</f>
         <v>1E</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="n">
+      <c r="A33" s="14" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D33,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D33,'Instruction Set'!I:I,0)))</f>
         <v>SHL M</v>
       </c>
-      <c r="C33" s="12" t="str">
+      <c r="C33" s="13" t="str">
         <f aca="false">DEC2BIN(A33,8)</f>
         <v>00011111</v>
       </c>
-      <c r="D33" s="12" t="str">
+      <c r="D33" s="13" t="str">
         <f aca="false">DEC2HEX(A33,2)</f>
         <v>1F</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="n">
+      <c r="A34" s="14" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D34,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D34,'Instruction Set'!I:I,0)))</f>
         <v>MOV SP,HL</v>
       </c>
-      <c r="C34" s="12" t="str">
+      <c r="C34" s="13" t="str">
         <f aca="false">DEC2BIN(A34,8)</f>
         <v>00100000</v>
       </c>
-      <c r="D34" s="12" t="str">
+      <c r="D34" s="13" t="str">
         <f aca="false">DEC2HEX(A34,2)</f>
         <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="n">
+      <c r="A35" s="14" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D35,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D35,'Instruction Set'!I:I,0)))</f>
         <v>RZ</v>
       </c>
-      <c r="C35" s="12" t="str">
+      <c r="C35" s="13" t="str">
         <f aca="false">DEC2BIN(A35,8)</f>
         <v>00100001</v>
       </c>
-      <c r="D35" s="12" t="str">
+      <c r="D35" s="13" t="str">
         <f aca="false">DEC2HEX(A35,2)</f>
         <v>21</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="n">
+      <c r="A36" s="14" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D36,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D36,'Instruction Set'!I:I,0)))</f>
         <v>MOV SP,IP</v>
       </c>
-      <c r="C36" s="12" t="str">
+      <c r="C36" s="13" t="str">
         <f aca="false">DEC2BIN(A36,8)</f>
         <v>00100010</v>
       </c>
-      <c r="D36" s="12" t="str">
+      <c r="D36" s="13" t="str">
         <f aca="false">DEC2HEX(A36,2)</f>
         <v>22</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="n">
+      <c r="A37" s="14" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D37,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D37,'Instruction Set'!I:I,0)))</f>
         <v>RNZ</v>
       </c>
-      <c r="C37" s="12" t="str">
+      <c r="C37" s="13" t="str">
         <f aca="false">DEC2BIN(A37,8)</f>
         <v>00100011</v>
       </c>
-      <c r="D37" s="12" t="str">
+      <c r="D37" s="13" t="str">
         <f aca="false">DEC2HEX(A37,2)</f>
         <v>23</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="n">
+      <c r="A38" s="14" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D38,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D38,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C38" s="12" t="str">
+      <c r="C38" s="13" t="str">
         <f aca="false">DEC2BIN(A38,8)</f>
         <v>00100100</v>
       </c>
-      <c r="D38" s="12" t="str">
+      <c r="D38" s="13" t="str">
         <f aca="false">DEC2HEX(A38,2)</f>
         <v>24</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="n">
+      <c r="A39" s="14" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D39,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D39,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C39" s="12" t="str">
+      <c r="C39" s="13" t="str">
         <f aca="false">DEC2BIN(A39,8)</f>
         <v>00100101</v>
       </c>
-      <c r="D39" s="12" t="str">
+      <c r="D39" s="13" t="str">
         <f aca="false">DEC2HEX(A39,2)</f>
         <v>25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
+      <c r="A40" s="14" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D40,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D40,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C40" s="12" t="str">
+      <c r="C40" s="13" t="str">
         <f aca="false">DEC2BIN(A40,8)</f>
         <v>00100110</v>
       </c>
-      <c r="D40" s="12" t="str">
+      <c r="D40" s="13" t="str">
         <f aca="false">DEC2HEX(A40,2)</f>
         <v>26</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="n">
+      <c r="A41" s="14" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D41,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D41,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C41" s="12" t="str">
+      <c r="C41" s="13" t="str">
         <f aca="false">DEC2BIN(A41,8)</f>
         <v>00100111</v>
       </c>
-      <c r="D41" s="12" t="str">
+      <c r="D41" s="13" t="str">
         <f aca="false">DEC2HEX(A41,2)</f>
         <v>27</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="n">
+      <c r="A42" s="14" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D42,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D42,'Instruction Set'!I:I,0)))</f>
         <v>SHR A</v>
       </c>
-      <c r="C42" s="12" t="str">
+      <c r="C42" s="13" t="str">
         <f aca="false">DEC2BIN(A42,8)</f>
         <v>00101000</v>
       </c>
-      <c r="D42" s="12" t="str">
+      <c r="D42" s="13" t="str">
         <f aca="false">DEC2HEX(A42,2)</f>
         <v>28</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="n">
+      <c r="A43" s="14" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D43,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D43,'Instruction Set'!I:I,0)))</f>
         <v>SHR B</v>
       </c>
-      <c r="C43" s="12" t="str">
+      <c r="C43" s="13" t="str">
         <f aca="false">DEC2BIN(A43,8)</f>
         <v>00101001</v>
       </c>
-      <c r="D43" s="12" t="str">
+      <c r="D43" s="13" t="str">
         <f aca="false">DEC2HEX(A43,2)</f>
         <v>29</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="n">
+      <c r="A44" s="14" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D44,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D44,'Instruction Set'!I:I,0)))</f>
         <v>SHR C</v>
       </c>
-      <c r="C44" s="12" t="str">
+      <c r="C44" s="13" t="str">
         <f aca="false">DEC2BIN(A44,8)</f>
         <v>00101010</v>
       </c>
-      <c r="D44" s="12" t="str">
+      <c r="D44" s="13" t="str">
         <f aca="false">DEC2HEX(A44,2)</f>
         <v>2A</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="n">
+      <c r="A45" s="14" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D45,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D45,'Instruction Set'!I:I,0)))</f>
         <v>SHR D</v>
       </c>
-      <c r="C45" s="12" t="str">
+      <c r="C45" s="13" t="str">
         <f aca="false">DEC2BIN(A45,8)</f>
         <v>00101011</v>
       </c>
-      <c r="D45" s="12" t="str">
+      <c r="D45" s="13" t="str">
         <f aca="false">DEC2HEX(A45,2)</f>
         <v>2B</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="n">
+      <c r="A46" s="14" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D46,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D46,'Instruction Set'!I:I,0)))</f>
         <v>SHR H</v>
       </c>
-      <c r="C46" s="12" t="str">
+      <c r="C46" s="13" t="str">
         <f aca="false">DEC2BIN(A46,8)</f>
         <v>00101100</v>
       </c>
-      <c r="D46" s="12" t="str">
+      <c r="D46" s="13" t="str">
         <f aca="false">DEC2HEX(A46,2)</f>
         <v>2C</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="n">
+      <c r="A47" s="14" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D47,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D47,'Instruction Set'!I:I,0)))</f>
         <v>SHR L</v>
       </c>
-      <c r="C47" s="12" t="str">
+      <c r="C47" s="13" t="str">
         <f aca="false">DEC2BIN(A47,8)</f>
         <v>00101101</v>
       </c>
-      <c r="D47" s="12" t="str">
+      <c r="D47" s="13" t="str">
         <f aca="false">DEC2HEX(A47,2)</f>
         <v>2D</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="n">
+      <c r="A48" s="14" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D48,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D48,'Instruction Set'!I:I,0)))</f>
         <v>MOV SP,addr/data</v>
       </c>
-      <c r="C48" s="12" t="str">
+      <c r="C48" s="13" t="str">
         <f aca="false">DEC2BIN(A48,8)</f>
         <v>00101110</v>
       </c>
-      <c r="D48" s="12" t="str">
+      <c r="D48" s="13" t="str">
         <f aca="false">DEC2HEX(A48,2)</f>
         <v>2E</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="n">
+      <c r="A49" s="14" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D49,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D49,'Instruction Set'!I:I,0)))</f>
         <v>SHR M</v>
       </c>
-      <c r="C49" s="12" t="str">
+      <c r="C49" s="13" t="str">
         <f aca="false">DEC2BIN(A49,8)</f>
         <v>00101111</v>
       </c>
-      <c r="D49" s="12" t="str">
+      <c r="D49" s="13" t="str">
         <f aca="false">DEC2HEX(A49,2)</f>
         <v>2F</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="n">
+      <c r="A50" s="14" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D50,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D50,'Instruction Set'!I:I,0)))</f>
         <v>AND A</v>
       </c>
-      <c r="C50" s="12" t="str">
+      <c r="C50" s="13" t="str">
         <f aca="false">DEC2BIN(A50,8)</f>
         <v>00110000</v>
       </c>
-      <c r="D50" s="12" t="str">
+      <c r="D50" s="13" t="str">
         <f aca="false">DEC2HEX(A50,2)</f>
         <v>30</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="n">
+      <c r="A51" s="14" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D51,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D51,'Instruction Set'!I:I,0)))</f>
         <v>AND B</v>
       </c>
-      <c r="C51" s="12" t="str">
+      <c r="C51" s="13" t="str">
         <f aca="false">DEC2BIN(A51,8)</f>
         <v>00110001</v>
       </c>
-      <c r="D51" s="12" t="str">
+      <c r="D51" s="13" t="str">
         <f aca="false">DEC2HEX(A51,2)</f>
         <v>31</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="n">
+      <c r="A52" s="14" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D52,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D52,'Instruction Set'!I:I,0)))</f>
         <v>AND C</v>
       </c>
-      <c r="C52" s="12" t="str">
+      <c r="C52" s="13" t="str">
         <f aca="false">DEC2BIN(A52,8)</f>
         <v>00110010</v>
       </c>
-      <c r="D52" s="12" t="str">
+      <c r="D52" s="13" t="str">
         <f aca="false">DEC2HEX(A52,2)</f>
         <v>32</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="n">
+      <c r="A53" s="14" t="n">
         <v>51</v>
       </c>
       <c r="B53" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D53,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D53,'Instruction Set'!I:I,0)))</f>
         <v>AND D</v>
       </c>
-      <c r="C53" s="12" t="str">
+      <c r="C53" s="13" t="str">
         <f aca="false">DEC2BIN(A53,8)</f>
         <v>00110011</v>
       </c>
-      <c r="D53" s="12" t="str">
+      <c r="D53" s="13" t="str">
         <f aca="false">DEC2HEX(A53,2)</f>
         <v>33</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="n">
+      <c r="A54" s="14" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D54,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D54,'Instruction Set'!I:I,0)))</f>
         <v>AND H</v>
       </c>
-      <c r="C54" s="12" t="str">
+      <c r="C54" s="13" t="str">
         <f aca="false">DEC2BIN(A54,8)</f>
         <v>00110100</v>
       </c>
-      <c r="D54" s="12" t="str">
+      <c r="D54" s="13" t="str">
         <f aca="false">DEC2HEX(A54,2)</f>
         <v>34</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="n">
+      <c r="A55" s="14" t="n">
         <v>53</v>
       </c>
       <c r="B55" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D55,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D55,'Instruction Set'!I:I,0)))</f>
         <v>AND L</v>
       </c>
-      <c r="C55" s="12" t="str">
+      <c r="C55" s="13" t="str">
         <f aca="false">DEC2BIN(A55,8)</f>
         <v>00110101</v>
       </c>
-      <c r="D55" s="12" t="str">
+      <c r="D55" s="13" t="str">
         <f aca="false">DEC2HEX(A55,2)</f>
         <v>35</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="n">
+      <c r="A56" s="14" t="n">
         <v>54</v>
       </c>
       <c r="B56" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D56,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D56,'Instruction Set'!I:I,0)))</f>
         <v>AND M</v>
       </c>
-      <c r="C56" s="12" t="str">
+      <c r="C56" s="13" t="str">
         <f aca="false">DEC2BIN(A56,8)</f>
         <v>00110110</v>
       </c>
-      <c r="D56" s="12" t="str">
+      <c r="D56" s="13" t="str">
         <f aca="false">DEC2HEX(A56,2)</f>
         <v>36</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="n">
+      <c r="A57" s="14" t="n">
         <v>55</v>
       </c>
       <c r="B57" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D57,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D57,'Instruction Set'!I:I,0)))</f>
         <v>AND data</v>
       </c>
-      <c r="C57" s="12" t="str">
+      <c r="C57" s="13" t="str">
         <f aca="false">DEC2BIN(A57,8)</f>
         <v>00110111</v>
       </c>
-      <c r="D57" s="12" t="str">
+      <c r="D57" s="13" t="str">
         <f aca="false">DEC2HEX(A57,2)</f>
         <v>37</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13" t="n">
+      <c r="A58" s="14" t="n">
         <v>56</v>
       </c>
       <c r="B58" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D58,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D58,'Instruction Set'!I:I,0)))</f>
         <v>OR A</v>
       </c>
-      <c r="C58" s="12" t="str">
+      <c r="C58" s="13" t="str">
         <f aca="false">DEC2BIN(A58,8)</f>
         <v>00111000</v>
       </c>
-      <c r="D58" s="12" t="str">
+      <c r="D58" s="13" t="str">
         <f aca="false">DEC2HEX(A58,2)</f>
         <v>38</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13" t="n">
+      <c r="A59" s="14" t="n">
         <v>57</v>
       </c>
       <c r="B59" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D59,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D59,'Instruction Set'!I:I,0)))</f>
         <v>OR B</v>
       </c>
-      <c r="C59" s="12" t="str">
+      <c r="C59" s="13" t="str">
         <f aca="false">DEC2BIN(A59,8)</f>
         <v>00111001</v>
       </c>
-      <c r="D59" s="12" t="str">
+      <c r="D59" s="13" t="str">
         <f aca="false">DEC2HEX(A59,2)</f>
         <v>39</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13" t="n">
+      <c r="A60" s="14" t="n">
         <v>58</v>
       </c>
       <c r="B60" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D60,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D60,'Instruction Set'!I:I,0)))</f>
         <v>OR C</v>
       </c>
-      <c r="C60" s="12" t="str">
+      <c r="C60" s="13" t="str">
         <f aca="false">DEC2BIN(A60,8)</f>
         <v>00111010</v>
       </c>
-      <c r="D60" s="12" t="str">
+      <c r="D60" s="13" t="str">
         <f aca="false">DEC2HEX(A60,2)</f>
         <v>3A</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13" t="n">
+      <c r="A61" s="14" t="n">
         <v>59</v>
       </c>
       <c r="B61" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D61,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D61,'Instruction Set'!I:I,0)))</f>
         <v>OR D</v>
       </c>
-      <c r="C61" s="12" t="str">
+      <c r="C61" s="13" t="str">
         <f aca="false">DEC2BIN(A61,8)</f>
         <v>00111011</v>
       </c>
-      <c r="D61" s="12" t="str">
+      <c r="D61" s="13" t="str">
         <f aca="false">DEC2HEX(A61,2)</f>
         <v>3B</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13" t="n">
+      <c r="A62" s="14" t="n">
         <v>60</v>
       </c>
       <c r="B62" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D62,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D62,'Instruction Set'!I:I,0)))</f>
         <v>OR H</v>
       </c>
-      <c r="C62" s="12" t="str">
+      <c r="C62" s="13" t="str">
         <f aca="false">DEC2BIN(A62,8)</f>
         <v>00111100</v>
       </c>
-      <c r="D62" s="12" t="str">
+      <c r="D62" s="13" t="str">
         <f aca="false">DEC2HEX(A62,2)</f>
         <v>3C</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="n">
+      <c r="A63" s="14" t="n">
         <v>61</v>
       </c>
       <c r="B63" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D63,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D63,'Instruction Set'!I:I,0)))</f>
         <v>OR L</v>
       </c>
-      <c r="C63" s="12" t="str">
+      <c r="C63" s="13" t="str">
         <f aca="false">DEC2BIN(A63,8)</f>
         <v>00111101</v>
       </c>
-      <c r="D63" s="12" t="str">
+      <c r="D63" s="13" t="str">
         <f aca="false">DEC2HEX(A63,2)</f>
         <v>3D</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="n">
+      <c r="A64" s="14" t="n">
         <v>62</v>
       </c>
       <c r="B64" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D64,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D64,'Instruction Set'!I:I,0)))</f>
         <v>OR M</v>
       </c>
-      <c r="C64" s="12" t="str">
+      <c r="C64" s="13" t="str">
         <f aca="false">DEC2BIN(A64,8)</f>
         <v>00111110</v>
       </c>
-      <c r="D64" s="12" t="str">
+      <c r="D64" s="13" t="str">
         <f aca="false">DEC2HEX(A64,2)</f>
         <v>3E</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="n">
+      <c r="A65" s="14" t="n">
         <v>63</v>
       </c>
       <c r="B65" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D65,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D65,'Instruction Set'!I:I,0)))</f>
         <v>OR data</v>
       </c>
-      <c r="C65" s="12" t="str">
+      <c r="C65" s="13" t="str">
         <f aca="false">DEC2BIN(A65,8)</f>
         <v>00111111</v>
       </c>
-      <c r="D65" s="12" t="str">
+      <c r="D65" s="13" t="str">
         <f aca="false">DEC2HEX(A65,2)</f>
         <v>3F</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="n">
+      <c r="A66" s="14" t="n">
         <v>64</v>
       </c>
       <c r="B66" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D66,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D66,'Instruction Set'!I:I,0)))</f>
         <v>XOR A</v>
       </c>
-      <c r="C66" s="12" t="str">
+      <c r="C66" s="13" t="str">
         <f aca="false">DEC2BIN(A66,8)</f>
         <v>01000000</v>
       </c>
-      <c r="D66" s="12" t="str">
+      <c r="D66" s="13" t="str">
         <f aca="false">DEC2HEX(A66,2)</f>
         <v>40</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13" t="n">
+      <c r="A67" s="14" t="n">
         <v>65</v>
       </c>
       <c r="B67" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D67,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D67,'Instruction Set'!I:I,0)))</f>
         <v>XOR B</v>
       </c>
-      <c r="C67" s="12" t="str">
+      <c r="C67" s="13" t="str">
         <f aca="false">DEC2BIN(A67,8)</f>
         <v>01000001</v>
       </c>
-      <c r="D67" s="12" t="str">
+      <c r="D67" s="13" t="str">
         <f aca="false">DEC2HEX(A67,2)</f>
         <v>41</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="n">
+      <c r="A68" s="14" t="n">
         <v>66</v>
       </c>
       <c r="B68" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D68,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D68,'Instruction Set'!I:I,0)))</f>
         <v>XOR C</v>
       </c>
-      <c r="C68" s="12" t="str">
+      <c r="C68" s="13" t="str">
         <f aca="false">DEC2BIN(A68,8)</f>
         <v>01000010</v>
       </c>
-      <c r="D68" s="12" t="str">
+      <c r="D68" s="13" t="str">
         <f aca="false">DEC2HEX(A68,2)</f>
         <v>42</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13" t="n">
+      <c r="A69" s="14" t="n">
         <v>67</v>
       </c>
       <c r="B69" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D69,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D69,'Instruction Set'!I:I,0)))</f>
         <v>XOR D</v>
       </c>
-      <c r="C69" s="12" t="str">
+      <c r="C69" s="13" t="str">
         <f aca="false">DEC2BIN(A69,8)</f>
         <v>01000011</v>
       </c>
-      <c r="D69" s="12" t="str">
+      <c r="D69" s="13" t="str">
         <f aca="false">DEC2HEX(A69,2)</f>
         <v>43</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13" t="n">
+      <c r="A70" s="14" t="n">
         <v>68</v>
       </c>
       <c r="B70" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D70,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D70,'Instruction Set'!I:I,0)))</f>
         <v>XOR H</v>
       </c>
-      <c r="C70" s="12" t="str">
+      <c r="C70" s="13" t="str">
         <f aca="false">DEC2BIN(A70,8)</f>
         <v>01000100</v>
       </c>
-      <c r="D70" s="12" t="str">
+      <c r="D70" s="13" t="str">
         <f aca="false">DEC2HEX(A70,2)</f>
         <v>44</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="n">
+      <c r="A71" s="14" t="n">
         <v>69</v>
       </c>
       <c r="B71" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D71,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D71,'Instruction Set'!I:I,0)))</f>
         <v>XOR L</v>
       </c>
-      <c r="C71" s="12" t="str">
+      <c r="C71" s="13" t="str">
         <f aca="false">DEC2BIN(A71,8)</f>
         <v>01000101</v>
       </c>
-      <c r="D71" s="12" t="str">
+      <c r="D71" s="13" t="str">
         <f aca="false">DEC2HEX(A71,2)</f>
         <v>45</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13" t="n">
+      <c r="A72" s="14" t="n">
         <v>70</v>
       </c>
       <c r="B72" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D72,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D72,'Instruction Set'!I:I,0)))</f>
         <v>XOR M</v>
       </c>
-      <c r="C72" s="12" t="str">
+      <c r="C72" s="13" t="str">
         <f aca="false">DEC2BIN(A72,8)</f>
         <v>01000110</v>
       </c>
-      <c r="D72" s="12" t="str">
+      <c r="D72" s="13" t="str">
         <f aca="false">DEC2HEX(A72,2)</f>
         <v>46</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="n">
+      <c r="A73" s="14" t="n">
         <v>71</v>
       </c>
       <c r="B73" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D73,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D73,'Instruction Set'!I:I,0)))</f>
         <v>XOR data</v>
       </c>
-      <c r="C73" s="12" t="str">
+      <c r="C73" s="13" t="str">
         <f aca="false">DEC2BIN(A73,8)</f>
         <v>01000111</v>
       </c>
-      <c r="D73" s="12" t="str">
+      <c r="D73" s="13" t="str">
         <f aca="false">DEC2HEX(A73,2)</f>
         <v>47</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13" t="n">
+      <c r="A74" s="14" t="n">
         <v>72</v>
       </c>
       <c r="B74" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D74,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D74,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C74" s="12" t="str">
+      <c r="C74" s="13" t="str">
         <f aca="false">DEC2BIN(A74,8)</f>
         <v>01001000</v>
       </c>
-      <c r="D74" s="12" t="str">
+      <c r="D74" s="13" t="str">
         <f aca="false">DEC2HEX(A74,2)</f>
         <v>48</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="13" t="n">
+      <c r="A75" s="14" t="n">
         <v>73</v>
       </c>
       <c r="B75" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D75,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D75,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C75" s="12" t="str">
+      <c r="C75" s="13" t="str">
         <f aca="false">DEC2BIN(A75,8)</f>
         <v>01001001</v>
       </c>
-      <c r="D75" s="12" t="str">
+      <c r="D75" s="13" t="str">
         <f aca="false">DEC2HEX(A75,2)</f>
         <v>49</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="n">
+      <c r="A76" s="14" t="n">
         <v>74</v>
       </c>
       <c r="B76" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D76,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D76,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C76" s="12" t="str">
+      <c r="C76" s="13" t="str">
         <f aca="false">DEC2BIN(A76,8)</f>
         <v>01001010</v>
       </c>
-      <c r="D76" s="12" t="str">
+      <c r="D76" s="13" t="str">
         <f aca="false">DEC2HEX(A76,2)</f>
         <v>4A</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="13" t="n">
+      <c r="A77" s="14" t="n">
         <v>75</v>
       </c>
       <c r="B77" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D77,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D77,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C77" s="12" t="str">
+      <c r="C77" s="13" t="str">
         <f aca="false">DEC2BIN(A77,8)</f>
         <v>01001011</v>
       </c>
-      <c r="D77" s="12" t="str">
+      <c r="D77" s="13" t="str">
         <f aca="false">DEC2HEX(A77,2)</f>
         <v>4B</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="13" t="n">
+      <c r="A78" s="14" t="n">
         <v>76</v>
       </c>
       <c r="B78" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D78,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D78,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C78" s="12" t="str">
+      <c r="C78" s="13" t="str">
         <f aca="false">DEC2BIN(A78,8)</f>
         <v>01001100</v>
       </c>
-      <c r="D78" s="12" t="str">
+      <c r="D78" s="13" t="str">
         <f aca="false">DEC2HEX(A78,2)</f>
         <v>4C</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13" t="n">
+      <c r="A79" s="14" t="n">
         <v>77</v>
       </c>
       <c r="B79" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D79,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D79,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C79" s="12" t="str">
+      <c r="C79" s="13" t="str">
         <f aca="false">DEC2BIN(A79,8)</f>
         <v>01001101</v>
       </c>
-      <c r="D79" s="12" t="str">
+      <c r="D79" s="13" t="str">
         <f aca="false">DEC2HEX(A79,2)</f>
         <v>4D</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="13" t="n">
+      <c r="A80" s="14" t="n">
         <v>78</v>
       </c>
       <c r="B80" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D80,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D80,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C80" s="12" t="str">
+      <c r="C80" s="13" t="str">
         <f aca="false">DEC2BIN(A80,8)</f>
         <v>01001110</v>
       </c>
-      <c r="D80" s="12" t="str">
+      <c r="D80" s="13" t="str">
         <f aca="false">DEC2HEX(A80,2)</f>
         <v>4E</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="13" t="n">
+      <c r="A81" s="14" t="n">
         <v>79</v>
       </c>
       <c r="B81" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D81,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D81,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C81" s="12" t="str">
+      <c r="C81" s="13" t="str">
         <f aca="false">DEC2BIN(A81,8)</f>
         <v>01001111</v>
       </c>
-      <c r="D81" s="12" t="str">
+      <c r="D81" s="13" t="str">
         <f aca="false">DEC2HEX(A81,2)</f>
         <v>4F</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="13" t="n">
+      <c r="A82" s="14" t="n">
         <v>80</v>
       </c>
       <c r="B82" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D82,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D82,'Instruction Set'!I:I,0)))</f>
         <v>ADC A</v>
       </c>
-      <c r="C82" s="12" t="str">
+      <c r="C82" s="13" t="str">
         <f aca="false">DEC2BIN(A82,8)</f>
         <v>01010000</v>
       </c>
-      <c r="D82" s="12" t="str">
+      <c r="D82" s="13" t="str">
         <f aca="false">DEC2HEX(A82,2)</f>
         <v>50</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="13" t="n">
+      <c r="A83" s="14" t="n">
         <v>81</v>
       </c>
       <c r="B83" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D83,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D83,'Instruction Set'!I:I,0)))</f>
         <v>ADC B</v>
       </c>
-      <c r="C83" s="12" t="str">
+      <c r="C83" s="13" t="str">
         <f aca="false">DEC2BIN(A83,8)</f>
         <v>01010001</v>
       </c>
-      <c r="D83" s="12" t="str">
+      <c r="D83" s="13" t="str">
         <f aca="false">DEC2HEX(A83,2)</f>
         <v>51</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="13" t="n">
+      <c r="A84" s="14" t="n">
         <v>82</v>
       </c>
       <c r="B84" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D84,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D84,'Instruction Set'!I:I,0)))</f>
         <v>ADC C</v>
       </c>
-      <c r="C84" s="12" t="str">
+      <c r="C84" s="13" t="str">
         <f aca="false">DEC2BIN(A84,8)</f>
         <v>01010010</v>
       </c>
-      <c r="D84" s="12" t="str">
+      <c r="D84" s="13" t="str">
         <f aca="false">DEC2HEX(A84,2)</f>
         <v>52</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="13" t="n">
+      <c r="A85" s="14" t="n">
         <v>83</v>
       </c>
       <c r="B85" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D85,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D85,'Instruction Set'!I:I,0)))</f>
         <v>ADC D</v>
       </c>
-      <c r="C85" s="12" t="str">
+      <c r="C85" s="13" t="str">
         <f aca="false">DEC2BIN(A85,8)</f>
         <v>01010011</v>
       </c>
-      <c r="D85" s="12" t="str">
+      <c r="D85" s="13" t="str">
         <f aca="false">DEC2HEX(A85,2)</f>
         <v>53</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="13" t="n">
+      <c r="A86" s="14" t="n">
         <v>84</v>
       </c>
       <c r="B86" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D86,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D86,'Instruction Set'!I:I,0)))</f>
         <v>ADC H</v>
       </c>
-      <c r="C86" s="12" t="str">
+      <c r="C86" s="13" t="str">
         <f aca="false">DEC2BIN(A86,8)</f>
         <v>01010100</v>
       </c>
-      <c r="D86" s="12" t="str">
+      <c r="D86" s="13" t="str">
         <f aca="false">DEC2HEX(A86,2)</f>
         <v>54</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="13" t="n">
+      <c r="A87" s="14" t="n">
         <v>85</v>
       </c>
       <c r="B87" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D87,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D87,'Instruction Set'!I:I,0)))</f>
         <v>ADC L</v>
       </c>
-      <c r="C87" s="12" t="str">
+      <c r="C87" s="13" t="str">
         <f aca="false">DEC2BIN(A87,8)</f>
         <v>01010101</v>
       </c>
-      <c r="D87" s="12" t="str">
+      <c r="D87" s="13" t="str">
         <f aca="false">DEC2HEX(A87,2)</f>
         <v>55</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13" t="n">
+      <c r="A88" s="14" t="n">
         <v>86</v>
       </c>
       <c r="B88" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D88,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D88,'Instruction Set'!I:I,0)))</f>
         <v>ADC M</v>
       </c>
-      <c r="C88" s="12" t="str">
+      <c r="C88" s="13" t="str">
         <f aca="false">DEC2BIN(A88,8)</f>
         <v>01010110</v>
       </c>
-      <c r="D88" s="12" t="str">
+      <c r="D88" s="13" t="str">
         <f aca="false">DEC2HEX(A88,2)</f>
         <v>56</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="13" t="n">
+      <c r="A89" s="14" t="n">
         <v>87</v>
       </c>
       <c r="B89" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D89,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D89,'Instruction Set'!I:I,0)))</f>
         <v>ADC data</v>
       </c>
-      <c r="C89" s="12" t="str">
+      <c r="C89" s="13" t="str">
         <f aca="false">DEC2BIN(A89,8)</f>
         <v>01010111</v>
       </c>
-      <c r="D89" s="12" t="str">
+      <c r="D89" s="13" t="str">
         <f aca="false">DEC2HEX(A89,2)</f>
         <v>57</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="13" t="n">
+      <c r="A90" s="14" t="n">
         <v>88</v>
       </c>
       <c r="B90" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D90,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D90,'Instruction Set'!I:I,0)))</f>
         <v>SBB A</v>
       </c>
-      <c r="C90" s="12" t="str">
+      <c r="C90" s="13" t="str">
         <f aca="false">DEC2BIN(A90,8)</f>
         <v>01011000</v>
       </c>
-      <c r="D90" s="12" t="str">
+      <c r="D90" s="13" t="str">
         <f aca="false">DEC2HEX(A90,2)</f>
         <v>58</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="13" t="n">
+      <c r="A91" s="14" t="n">
         <v>89</v>
       </c>
       <c r="B91" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D91,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D91,'Instruction Set'!I:I,0)))</f>
         <v>SBB B</v>
       </c>
-      <c r="C91" s="12" t="str">
+      <c r="C91" s="13" t="str">
         <f aca="false">DEC2BIN(A91,8)</f>
         <v>01011001</v>
       </c>
-      <c r="D91" s="12" t="str">
+      <c r="D91" s="13" t="str">
         <f aca="false">DEC2HEX(A91,2)</f>
         <v>59</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="13" t="n">
+      <c r="A92" s="14" t="n">
         <v>90</v>
       </c>
       <c r="B92" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D92,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D92,'Instruction Set'!I:I,0)))</f>
         <v>SBB C</v>
       </c>
-      <c r="C92" s="12" t="str">
+      <c r="C92" s="13" t="str">
         <f aca="false">DEC2BIN(A92,8)</f>
         <v>01011010</v>
       </c>
-      <c r="D92" s="12" t="str">
+      <c r="D92" s="13" t="str">
         <f aca="false">DEC2HEX(A92,2)</f>
         <v>5A</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="13" t="n">
+      <c r="A93" s="14" t="n">
         <v>91</v>
       </c>
       <c r="B93" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D93,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D93,'Instruction Set'!I:I,0)))</f>
         <v>SBB D</v>
       </c>
-      <c r="C93" s="12" t="str">
+      <c r="C93" s="13" t="str">
         <f aca="false">DEC2BIN(A93,8)</f>
         <v>01011011</v>
       </c>
-      <c r="D93" s="12" t="str">
+      <c r="D93" s="13" t="str">
         <f aca="false">DEC2HEX(A93,2)</f>
         <v>5B</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="13" t="n">
+      <c r="A94" s="14" t="n">
         <v>92</v>
       </c>
       <c r="B94" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D94,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D94,'Instruction Set'!I:I,0)))</f>
         <v>SBB H</v>
       </c>
-      <c r="C94" s="12" t="str">
+      <c r="C94" s="13" t="str">
         <f aca="false">DEC2BIN(A94,8)</f>
         <v>01011100</v>
       </c>
-      <c r="D94" s="12" t="str">
+      <c r="D94" s="13" t="str">
         <f aca="false">DEC2HEX(A94,2)</f>
         <v>5C</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="13" t="n">
+      <c r="A95" s="14" t="n">
         <v>93</v>
       </c>
       <c r="B95" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D95,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D95,'Instruction Set'!I:I,0)))</f>
         <v>SBB L</v>
       </c>
-      <c r="C95" s="12" t="str">
+      <c r="C95" s="13" t="str">
         <f aca="false">DEC2BIN(A95,8)</f>
         <v>01011101</v>
       </c>
-      <c r="D95" s="12" t="str">
+      <c r="D95" s="13" t="str">
         <f aca="false">DEC2HEX(A95,2)</f>
         <v>5D</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="13" t="n">
+      <c r="A96" s="14" t="n">
         <v>94</v>
       </c>
       <c r="B96" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D96,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D96,'Instruction Set'!I:I,0)))</f>
         <v>SBB M</v>
       </c>
-      <c r="C96" s="12" t="str">
+      <c r="C96" s="13" t="str">
         <f aca="false">DEC2BIN(A96,8)</f>
         <v>01011110</v>
       </c>
-      <c r="D96" s="12" t="str">
+      <c r="D96" s="13" t="str">
         <f aca="false">DEC2HEX(A96,2)</f>
         <v>5E</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="13" t="n">
+      <c r="A97" s="14" t="n">
         <v>95</v>
       </c>
       <c r="B97" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D97,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D97,'Instruction Set'!I:I,0)))</f>
         <v>SBB data</v>
       </c>
-      <c r="C97" s="12" t="str">
+      <c r="C97" s="13" t="str">
         <f aca="false">DEC2BIN(A97,8)</f>
         <v>01011111</v>
       </c>
-      <c r="D97" s="12" t="str">
+      <c r="D97" s="13" t="str">
         <f aca="false">DEC2HEX(A97,2)</f>
         <v>5F</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="13" t="n">
+      <c r="A98" s="14" t="n">
         <v>96</v>
       </c>
       <c r="B98" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D98,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D98,'Instruction Set'!I:I,0)))</f>
         <v>ADD A</v>
       </c>
-      <c r="C98" s="12" t="str">
+      <c r="C98" s="13" t="str">
         <f aca="false">DEC2BIN(A98,8)</f>
         <v>01100000</v>
       </c>
-      <c r="D98" s="12" t="str">
+      <c r="D98" s="13" t="str">
         <f aca="false">DEC2HEX(A98,2)</f>
         <v>60</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="13" t="n">
+      <c r="A99" s="14" t="n">
         <v>97</v>
       </c>
       <c r="B99" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D99,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D99,'Instruction Set'!I:I,0)))</f>
         <v>SUB A</v>
       </c>
-      <c r="C99" s="12" t="str">
+      <c r="C99" s="13" t="str">
         <f aca="false">DEC2BIN(A99,8)</f>
         <v>01100001</v>
       </c>
-      <c r="D99" s="12" t="str">
+      <c r="D99" s="13" t="str">
         <f aca="false">DEC2HEX(A99,2)</f>
         <v>61</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="13" t="n">
+      <c r="A100" s="14" t="n">
         <v>98</v>
       </c>
       <c r="B100" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D100,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D100,'Instruction Set'!I:I,0)))</f>
         <v>ADD B</v>
       </c>
-      <c r="C100" s="12" t="str">
+      <c r="C100" s="13" t="str">
         <f aca="false">DEC2BIN(A100,8)</f>
         <v>01100010</v>
       </c>
-      <c r="D100" s="12" t="str">
+      <c r="D100" s="13" t="str">
         <f aca="false">DEC2HEX(A100,2)</f>
         <v>62</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="13" t="n">
+      <c r="A101" s="14" t="n">
         <v>99</v>
       </c>
       <c r="B101" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D101,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D101,'Instruction Set'!I:I,0)))</f>
         <v>SUB B</v>
       </c>
-      <c r="C101" s="12" t="str">
+      <c r="C101" s="13" t="str">
         <f aca="false">DEC2BIN(A101,8)</f>
         <v>01100011</v>
       </c>
-      <c r="D101" s="12" t="str">
+      <c r="D101" s="13" t="str">
         <f aca="false">DEC2HEX(A101,2)</f>
         <v>63</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="13" t="n">
+      <c r="A102" s="14" t="n">
         <v>100</v>
       </c>
       <c r="B102" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D102,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D102,'Instruction Set'!I:I,0)))</f>
         <v>ADD C</v>
       </c>
-      <c r="C102" s="12" t="str">
+      <c r="C102" s="13" t="str">
         <f aca="false">DEC2BIN(A102,8)</f>
         <v>01100100</v>
       </c>
-      <c r="D102" s="12" t="str">
+      <c r="D102" s="13" t="str">
         <f aca="false">DEC2HEX(A102,2)</f>
         <v>64</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="13" t="n">
+      <c r="A103" s="14" t="n">
         <v>101</v>
       </c>
       <c r="B103" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D103,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D103,'Instruction Set'!I:I,0)))</f>
         <v>SUB C</v>
       </c>
-      <c r="C103" s="12" t="str">
+      <c r="C103" s="13" t="str">
         <f aca="false">DEC2BIN(A103,8)</f>
         <v>01100101</v>
       </c>
-      <c r="D103" s="12" t="str">
+      <c r="D103" s="13" t="str">
         <f aca="false">DEC2HEX(A103,2)</f>
         <v>65</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="13" t="n">
+      <c r="A104" s="14" t="n">
         <v>102</v>
       </c>
       <c r="B104" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D104,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D104,'Instruction Set'!I:I,0)))</f>
         <v>ADD D</v>
       </c>
-      <c r="C104" s="12" t="str">
+      <c r="C104" s="13" t="str">
         <f aca="false">DEC2BIN(A104,8)</f>
         <v>01100110</v>
       </c>
-      <c r="D104" s="12" t="str">
+      <c r="D104" s="13" t="str">
         <f aca="false">DEC2HEX(A104,2)</f>
         <v>66</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="13" t="n">
+      <c r="A105" s="14" t="n">
         <v>103</v>
       </c>
       <c r="B105" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D105,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D105,'Instruction Set'!I:I,0)))</f>
         <v>SUB D</v>
       </c>
-      <c r="C105" s="12" t="str">
+      <c r="C105" s="13" t="str">
         <f aca="false">DEC2BIN(A105,8)</f>
         <v>01100111</v>
       </c>
-      <c r="D105" s="12" t="str">
+      <c r="D105" s="13" t="str">
         <f aca="false">DEC2HEX(A105,2)</f>
         <v>67</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="13" t="n">
+      <c r="A106" s="14" t="n">
         <v>104</v>
       </c>
       <c r="B106" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D106,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D106,'Instruction Set'!I:I,0)))</f>
         <v>ADD H</v>
       </c>
-      <c r="C106" s="12" t="str">
+      <c r="C106" s="13" t="str">
         <f aca="false">DEC2BIN(A106,8)</f>
         <v>01101000</v>
       </c>
-      <c r="D106" s="12" t="str">
+      <c r="D106" s="13" t="str">
         <f aca="false">DEC2HEX(A106,2)</f>
         <v>68</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="13" t="n">
+      <c r="A107" s="14" t="n">
         <v>105</v>
       </c>
       <c r="B107" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D107,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D107,'Instruction Set'!I:I,0)))</f>
         <v>SUB H</v>
       </c>
-      <c r="C107" s="12" t="str">
+      <c r="C107" s="13" t="str">
         <f aca="false">DEC2BIN(A107,8)</f>
         <v>01101001</v>
       </c>
-      <c r="D107" s="12" t="str">
+      <c r="D107" s="13" t="str">
         <f aca="false">DEC2HEX(A107,2)</f>
         <v>69</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="13" t="n">
+      <c r="A108" s="14" t="n">
         <v>106</v>
       </c>
       <c r="B108" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D108,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D108,'Instruction Set'!I:I,0)))</f>
         <v>ADD L</v>
       </c>
-      <c r="C108" s="12" t="str">
+      <c r="C108" s="13" t="str">
         <f aca="false">DEC2BIN(A108,8)</f>
         <v>01101010</v>
       </c>
-      <c r="D108" s="12" t="str">
+      <c r="D108" s="13" t="str">
         <f aca="false">DEC2HEX(A108,2)</f>
         <v>6A</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="13" t="n">
+      <c r="A109" s="14" t="n">
         <v>107</v>
       </c>
       <c r="B109" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D109,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D109,'Instruction Set'!I:I,0)))</f>
         <v>SUB L</v>
       </c>
-      <c r="C109" s="12" t="str">
+      <c r="C109" s="13" t="str">
         <f aca="false">DEC2BIN(A109,8)</f>
         <v>01101011</v>
       </c>
-      <c r="D109" s="12" t="str">
+      <c r="D109" s="13" t="str">
         <f aca="false">DEC2HEX(A109,2)</f>
         <v>6B</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="13" t="n">
+      <c r="A110" s="14" t="n">
         <v>108</v>
       </c>
       <c r="B110" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D110,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D110,'Instruction Set'!I:I,0)))</f>
         <v>ADD M</v>
       </c>
-      <c r="C110" s="12" t="str">
+      <c r="C110" s="13" t="str">
         <f aca="false">DEC2BIN(A110,8)</f>
         <v>01101100</v>
       </c>
-      <c r="D110" s="12" t="str">
+      <c r="D110" s="13" t="str">
         <f aca="false">DEC2HEX(A110,2)</f>
         <v>6C</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="13" t="n">
+      <c r="A111" s="14" t="n">
         <v>109</v>
       </c>
       <c r="B111" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D111,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D111,'Instruction Set'!I:I,0)))</f>
         <v>SUB M</v>
       </c>
-      <c r="C111" s="12" t="str">
+      <c r="C111" s="13" t="str">
         <f aca="false">DEC2BIN(A111,8)</f>
         <v>01101101</v>
       </c>
-      <c r="D111" s="12" t="str">
+      <c r="D111" s="13" t="str">
         <f aca="false">DEC2HEX(A111,2)</f>
         <v>6D</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="13" t="n">
+      <c r="A112" s="14" t="n">
         <v>110</v>
       </c>
       <c r="B112" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D112,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D112,'Instruction Set'!I:I,0)))</f>
         <v>ADD data</v>
       </c>
-      <c r="C112" s="12" t="str">
+      <c r="C112" s="13" t="str">
         <f aca="false">DEC2BIN(A112,8)</f>
         <v>01101110</v>
       </c>
-      <c r="D112" s="12" t="str">
+      <c r="D112" s="13" t="str">
         <f aca="false">DEC2HEX(A112,2)</f>
         <v>6E</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="13" t="n">
+      <c r="A113" s="14" t="n">
         <v>111</v>
       </c>
       <c r="B113" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D113,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D113,'Instruction Set'!I:I,0)))</f>
         <v>SUB data</v>
       </c>
-      <c r="C113" s="12" t="str">
+      <c r="C113" s="13" t="str">
         <f aca="false">DEC2BIN(A113,8)</f>
         <v>01101111</v>
       </c>
-      <c r="D113" s="12" t="str">
+      <c r="D113" s="13" t="str">
         <f aca="false">DEC2HEX(A113,2)</f>
         <v>6F</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="13" t="n">
+      <c r="A114" s="14" t="n">
         <v>112</v>
       </c>
       <c r="B114" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D114,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D114,'Instruction Set'!I:I,0)))</f>
         <v>CMP A</v>
       </c>
-      <c r="C114" s="12" t="str">
+      <c r="C114" s="13" t="str">
         <f aca="false">DEC2BIN(A114,8)</f>
         <v>01110000</v>
       </c>
-      <c r="D114" s="12" t="str">
+      <c r="D114" s="13" t="str">
         <f aca="false">DEC2HEX(A114,2)</f>
         <v>70</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="13" t="n">
+      <c r="A115" s="14" t="n">
         <v>113</v>
       </c>
       <c r="B115" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D115,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D115,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C115" s="12" t="str">
+      <c r="C115" s="13" t="str">
         <f aca="false">DEC2BIN(A115,8)</f>
         <v>01110001</v>
       </c>
-      <c r="D115" s="12" t="str">
+      <c r="D115" s="13" t="str">
         <f aca="false">DEC2HEX(A115,2)</f>
         <v>71</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="13" t="n">
+      <c r="A116" s="14" t="n">
         <v>114</v>
       </c>
       <c r="B116" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D116,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D116,'Instruction Set'!I:I,0)))</f>
         <v>CMP B</v>
       </c>
-      <c r="C116" s="12" t="str">
+      <c r="C116" s="13" t="str">
         <f aca="false">DEC2BIN(A116,8)</f>
         <v>01110010</v>
       </c>
-      <c r="D116" s="12" t="str">
+      <c r="D116" s="13" t="str">
         <f aca="false">DEC2HEX(A116,2)</f>
         <v>72</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="13" t="n">
+      <c r="A117" s="14" t="n">
         <v>115</v>
       </c>
       <c r="B117" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D117,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D117,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C117" s="12" t="str">
+      <c r="C117" s="13" t="str">
         <f aca="false">DEC2BIN(A117,8)</f>
         <v>01110011</v>
       </c>
-      <c r="D117" s="12" t="str">
+      <c r="D117" s="13" t="str">
         <f aca="false">DEC2HEX(A117,2)</f>
         <v>73</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="13" t="n">
+      <c r="A118" s="14" t="n">
         <v>116</v>
       </c>
       <c r="B118" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D118,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D118,'Instruction Set'!I:I,0)))</f>
         <v>CMP C</v>
       </c>
-      <c r="C118" s="12" t="str">
+      <c r="C118" s="13" t="str">
         <f aca="false">DEC2BIN(A118,8)</f>
         <v>01110100</v>
       </c>
-      <c r="D118" s="12" t="str">
+      <c r="D118" s="13" t="str">
         <f aca="false">DEC2HEX(A118,2)</f>
         <v>74</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="13" t="n">
+      <c r="A119" s="14" t="n">
         <v>117</v>
       </c>
       <c r="B119" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D119,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D119,'Instruction Set'!I:I,0)))</f>
         <v>JMP M</v>
       </c>
-      <c r="C119" s="12" t="str">
+      <c r="C119" s="13" t="str">
         <f aca="false">DEC2BIN(A119,8)</f>
         <v>01110101</v>
       </c>
-      <c r="D119" s="12" t="str">
+      <c r="D119" s="13" t="str">
         <f aca="false">DEC2HEX(A119,2)</f>
         <v>75</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="13" t="n">
+      <c r="A120" s="14" t="n">
         <v>118</v>
       </c>
       <c r="B120" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D120,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D120,'Instruction Set'!I:I,0)))</f>
         <v>CMP D</v>
       </c>
-      <c r="C120" s="12" t="str">
+      <c r="C120" s="13" t="str">
         <f aca="false">DEC2BIN(A120,8)</f>
         <v>01110110</v>
       </c>
-      <c r="D120" s="12" t="str">
+      <c r="D120" s="13" t="str">
         <f aca="false">DEC2HEX(A120,2)</f>
         <v>76</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="13" t="n">
+      <c r="A121" s="14" t="n">
         <v>119</v>
       </c>
       <c r="B121" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D121,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D121,'Instruction Set'!I:I,0)))</f>
         <v>JMP addr</v>
       </c>
-      <c r="C121" s="12" t="str">
+      <c r="C121" s="13" t="str">
         <f aca="false">DEC2BIN(A121,8)</f>
         <v>01110111</v>
       </c>
-      <c r="D121" s="12" t="str">
+      <c r="D121" s="13" t="str">
         <f aca="false">DEC2HEX(A121,2)</f>
         <v>77</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="13" t="n">
+      <c r="A122" s="14" t="n">
         <v>120</v>
       </c>
       <c r="B122" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D122,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D122,'Instruction Set'!I:I,0)))</f>
         <v>CMP H</v>
       </c>
-      <c r="C122" s="12" t="str">
+      <c r="C122" s="13" t="str">
         <f aca="false">DEC2BIN(A122,8)</f>
         <v>01111000</v>
       </c>
-      <c r="D122" s="12" t="str">
+      <c r="D122" s="13" t="str">
         <f aca="false">DEC2HEX(A122,2)</f>
         <v>78</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="13" t="n">
+      <c r="A123" s="14" t="n">
         <v>121</v>
       </c>
       <c r="B123" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D123,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D123,'Instruction Set'!I:I,0)))</f>
         <v>JC M</v>
       </c>
-      <c r="C123" s="12" t="str">
+      <c r="C123" s="13" t="str">
         <f aca="false">DEC2BIN(A123,8)</f>
         <v>01111001</v>
       </c>
-      <c r="D123" s="12" t="str">
+      <c r="D123" s="13" t="str">
         <f aca="false">DEC2HEX(A123,2)</f>
         <v>79</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="13" t="n">
+      <c r="A124" s="14" t="n">
         <v>122</v>
       </c>
       <c r="B124" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D124,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D124,'Instruction Set'!I:I,0)))</f>
         <v>CMP L</v>
       </c>
-      <c r="C124" s="12" t="str">
+      <c r="C124" s="13" t="str">
         <f aca="false">DEC2BIN(A124,8)</f>
         <v>01111010</v>
       </c>
-      <c r="D124" s="12" t="str">
+      <c r="D124" s="13" t="str">
         <f aca="false">DEC2HEX(A124,2)</f>
         <v>7A</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="13" t="n">
+      <c r="A125" s="14" t="n">
         <v>123</v>
       </c>
       <c r="B125" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D125,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D125,'Instruction Set'!I:I,0)))</f>
         <v>JC addr</v>
       </c>
-      <c r="C125" s="12" t="str">
+      <c r="C125" s="13" t="str">
         <f aca="false">DEC2BIN(A125,8)</f>
         <v>01111011</v>
       </c>
-      <c r="D125" s="12" t="str">
+      <c r="D125" s="13" t="str">
         <f aca="false">DEC2HEX(A125,2)</f>
         <v>7B</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="13" t="n">
+      <c r="A126" s="14" t="n">
         <v>124</v>
       </c>
       <c r="B126" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D126,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D126,'Instruction Set'!I:I,0)))</f>
         <v>CMP M</v>
       </c>
-      <c r="C126" s="12" t="str">
+      <c r="C126" s="13" t="str">
         <f aca="false">DEC2BIN(A126,8)</f>
         <v>01111100</v>
       </c>
-      <c r="D126" s="12" t="str">
+      <c r="D126" s="13" t="str">
         <f aca="false">DEC2HEX(A126,2)</f>
         <v>7C</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="13" t="n">
+      <c r="A127" s="14" t="n">
         <v>125</v>
       </c>
       <c r="B127" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D127,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D127,'Instruction Set'!I:I,0)))</f>
         <v>JNC M</v>
       </c>
-      <c r="C127" s="12" t="str">
+      <c r="C127" s="13" t="str">
         <f aca="false">DEC2BIN(A127,8)</f>
         <v>01111101</v>
       </c>
-      <c r="D127" s="12" t="str">
+      <c r="D127" s="13" t="str">
         <f aca="false">DEC2HEX(A127,2)</f>
         <v>7D</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="13" t="n">
+      <c r="A128" s="14" t="n">
         <v>126</v>
       </c>
       <c r="B128" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D128,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D128,'Instruction Set'!I:I,0)))</f>
         <v>CMP data</v>
       </c>
-      <c r="C128" s="12" t="str">
+      <c r="C128" s="13" t="str">
         <f aca="false">DEC2BIN(A128,8)</f>
         <v>01111110</v>
       </c>
-      <c r="D128" s="12" t="str">
+      <c r="D128" s="13" t="str">
         <f aca="false">DEC2HEX(A128,2)</f>
         <v>7E</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="13" t="n">
+      <c r="A129" s="14" t="n">
         <v>127</v>
       </c>
       <c r="B129" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D129,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D129,'Instruction Set'!I:I,0)))</f>
         <v>JNC addr</v>
       </c>
-      <c r="C129" s="12" t="str">
+      <c r="C129" s="13" t="str">
         <f aca="false">DEC2BIN(A129,8)</f>
         <v>01111111</v>
       </c>
-      <c r="D129" s="12" t="str">
+      <c r="D129" s="13" t="str">
         <f aca="false">DEC2HEX(A129,2)</f>
         <v>7F</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="13" t="n">
+      <c r="A130" s="14" t="n">
         <v>128</v>
       </c>
       <c r="B130" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D130,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D130,'Instruction Set'!I:I,0)))</f>
         <v>PUSH A</v>
       </c>
-      <c r="C130" s="12" t="str">
+      <c r="C130" s="13" t="str">
         <f aca="false">DEC2BIN(A130,8)</f>
         <v>10000000</v>
       </c>
-      <c r="D130" s="12" t="str">
+      <c r="D130" s="13" t="str">
         <f aca="false">DEC2HEX(A130,2)</f>
         <v>80</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="13" t="n">
+      <c r="A131" s="14" t="n">
         <v>129</v>
       </c>
       <c r="B131" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D131,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D131,'Instruction Set'!I:I,0)))</f>
         <v>POP A</v>
       </c>
-      <c r="C131" s="12" t="str">
+      <c r="C131" s="13" t="str">
         <f aca="false">DEC2BIN(A131,8)</f>
         <v>10000001</v>
       </c>
-      <c r="D131" s="12" t="str">
+      <c r="D131" s="13" t="str">
         <f aca="false">DEC2HEX(A131,2)</f>
         <v>81</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="13" t="n">
+      <c r="A132" s="14" t="n">
         <v>130</v>
       </c>
       <c r="B132" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D132,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D132,'Instruction Set'!I:I,0)))</f>
         <v>MOV A,B</v>
       </c>
-      <c r="C132" s="12" t="str">
+      <c r="C132" s="13" t="str">
         <f aca="false">DEC2BIN(A132,8)</f>
         <v>10000010</v>
       </c>
-      <c r="D132" s="12" t="str">
+      <c r="D132" s="13" t="str">
         <f aca="false">DEC2HEX(A132,2)</f>
         <v>82</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="13" t="n">
+      <c r="A133" s="14" t="n">
         <v>131</v>
       </c>
       <c r="B133" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D133,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D133,'Instruction Set'!I:I,0)))</f>
         <v>RA</v>
       </c>
-      <c r="C133" s="12" t="str">
+      <c r="C133" s="13" t="str">
         <f aca="false">DEC2BIN(A133,8)</f>
         <v>10000011</v>
       </c>
-      <c r="D133" s="12" t="str">
+      <c r="D133" s="13" t="str">
         <f aca="false">DEC2HEX(A133,2)</f>
         <v>83</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="13" t="n">
+      <c r="A134" s="14" t="n">
         <v>132</v>
       </c>
       <c r="B134" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D134,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D134,'Instruction Set'!I:I,0)))</f>
         <v>MOV A,C</v>
       </c>
-      <c r="C134" s="12" t="str">
+      <c r="C134" s="13" t="str">
         <f aca="false">DEC2BIN(A134,8)</f>
         <v>10000100</v>
       </c>
-      <c r="D134" s="12" t="str">
+      <c r="D134" s="13" t="str">
         <f aca="false">DEC2HEX(A134,2)</f>
         <v>84</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="13" t="n">
+      <c r="A135" s="14" t="n">
         <v>133</v>
       </c>
       <c r="B135" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D135,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D135,'Instruction Set'!I:I,0)))</f>
         <v>RNA</v>
       </c>
-      <c r="C135" s="12" t="str">
+      <c r="C135" s="13" t="str">
         <f aca="false">DEC2BIN(A135,8)</f>
         <v>10000101</v>
       </c>
-      <c r="D135" s="12" t="str">
+      <c r="D135" s="13" t="str">
         <f aca="false">DEC2HEX(A135,2)</f>
         <v>85</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="13" t="n">
+      <c r="A136" s="14" t="n">
         <v>134</v>
       </c>
       <c r="B136" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D136,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D136,'Instruction Set'!I:I,0)))</f>
         <v>MOV A,D</v>
       </c>
-      <c r="C136" s="12" t="str">
+      <c r="C136" s="13" t="str">
         <f aca="false">DEC2BIN(A136,8)</f>
         <v>10000110</v>
       </c>
-      <c r="D136" s="12" t="str">
+      <c r="D136" s="13" t="str">
         <f aca="false">DEC2HEX(A136,2)</f>
         <v>86</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="13" t="n">
+      <c r="A137" s="14" t="n">
         <v>135</v>
       </c>
       <c r="B137" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D137,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D137,'Instruction Set'!I:I,0)))</f>
         <v>PUSHF</v>
       </c>
-      <c r="C137" s="12" t="str">
+      <c r="C137" s="13" t="str">
         <f aca="false">DEC2BIN(A137,8)</f>
         <v>10000111</v>
       </c>
-      <c r="D137" s="12" t="str">
+      <c r="D137" s="13" t="str">
         <f aca="false">DEC2HEX(A137,2)</f>
         <v>87</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="13" t="n">
+      <c r="A138" s="14" t="n">
         <v>136</v>
       </c>
       <c r="B138" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D138,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D138,'Instruction Set'!I:I,0)))</f>
         <v>MOV A,H</v>
       </c>
-      <c r="C138" s="12" t="str">
+      <c r="C138" s="13" t="str">
         <f aca="false">DEC2BIN(A138,8)</f>
         <v>10001000</v>
       </c>
-      <c r="D138" s="12" t="str">
+      <c r="D138" s="13" t="str">
         <f aca="false">DEC2HEX(A138,2)</f>
         <v>88</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="13" t="n">
+      <c r="A139" s="14" t="n">
         <v>137</v>
       </c>
       <c r="B139" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D139,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D139,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C139" s="12" t="str">
+      <c r="C139" s="13" t="str">
         <f aca="false">DEC2BIN(A139,8)</f>
         <v>10001001</v>
       </c>
-      <c r="D139" s="12" t="str">
+      <c r="D139" s="13" t="str">
         <f aca="false">DEC2HEX(A139,2)</f>
         <v>89</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="13" t="n">
+      <c r="A140" s="14" t="n">
         <v>138</v>
       </c>
       <c r="B140" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D140,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D140,'Instruction Set'!I:I,0)))</f>
         <v>MOV A,L</v>
       </c>
-      <c r="C140" s="12" t="str">
+      <c r="C140" s="13" t="str">
         <f aca="false">DEC2BIN(A140,8)</f>
         <v>10001010</v>
       </c>
-      <c r="D140" s="12" t="str">
+      <c r="D140" s="13" t="str">
         <f aca="false">DEC2HEX(A140,2)</f>
         <v>8A</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="13" t="n">
+      <c r="A141" s="14" t="n">
         <v>139</v>
       </c>
       <c r="B141" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D141,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D141,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C141" s="12" t="str">
+      <c r="C141" s="13" t="str">
         <f aca="false">DEC2BIN(A141,8)</f>
         <v>10001011</v>
       </c>
-      <c r="D141" s="12" t="str">
+      <c r="D141" s="13" t="str">
         <f aca="false">DEC2HEX(A141,2)</f>
         <v>8B</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="13" t="n">
+      <c r="A142" s="14" t="n">
         <v>140</v>
       </c>
       <c r="B142" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D142,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D142,'Instruction Set'!I:I,0)))</f>
         <v>MOV A,M</v>
       </c>
-      <c r="C142" s="12" t="str">
+      <c r="C142" s="13" t="str">
         <f aca="false">DEC2BIN(A142,8)</f>
         <v>10001100</v>
       </c>
-      <c r="D142" s="12" t="str">
+      <c r="D142" s="13" t="str">
         <f aca="false">DEC2HEX(A142,2)</f>
         <v>8C</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="13" t="n">
+      <c r="A143" s="14" t="n">
         <v>141</v>
       </c>
       <c r="B143" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D143,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D143,'Instruction Set'!I:I,0)))</f>
         <v>LDA A,addr</v>
       </c>
-      <c r="C143" s="12" t="str">
+      <c r="C143" s="13" t="str">
         <f aca="false">DEC2BIN(A143,8)</f>
         <v>10001101</v>
       </c>
-      <c r="D143" s="12" t="str">
+      <c r="D143" s="13" t="str">
         <f aca="false">DEC2HEX(A143,2)</f>
         <v>8D</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="13" t="n">
+      <c r="A144" s="14" t="n">
         <v>142</v>
       </c>
       <c r="B144" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D144,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D144,'Instruction Set'!I:I,0)))</f>
         <v>MOV A,data</v>
       </c>
-      <c r="C144" s="12" t="str">
+      <c r="C144" s="13" t="str">
         <f aca="false">DEC2BIN(A144,8)</f>
         <v>10001110</v>
       </c>
-      <c r="D144" s="12" t="str">
+      <c r="D144" s="13" t="str">
         <f aca="false">DEC2HEX(A144,2)</f>
         <v>8E</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="13" t="n">
+      <c r="A145" s="14" t="n">
         <v>143</v>
       </c>
       <c r="B145" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D145,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D145,'Instruction Set'!I:I,0)))</f>
         <v>JZ M</v>
       </c>
-      <c r="C145" s="12" t="str">
+      <c r="C145" s="13" t="str">
         <f aca="false">DEC2BIN(A145,8)</f>
         <v>10001111</v>
       </c>
-      <c r="D145" s="12" t="str">
+      <c r="D145" s="13" t="str">
         <f aca="false">DEC2HEX(A145,2)</f>
         <v>8F</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="13" t="n">
+      <c r="A146" s="14" t="n">
         <v>144</v>
       </c>
       <c r="B146" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D146,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D146,'Instruction Set'!I:I,0)))</f>
         <v>MOV B,A</v>
       </c>
-      <c r="C146" s="12" t="str">
+      <c r="C146" s="13" t="str">
         <f aca="false">DEC2BIN(A146,8)</f>
         <v>10010000</v>
       </c>
-      <c r="D146" s="12" t="str">
+      <c r="D146" s="13" t="str">
         <f aca="false">DEC2HEX(A146,2)</f>
         <v>90</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="13" t="n">
+      <c r="A147" s="14" t="n">
         <v>145</v>
       </c>
       <c r="B147" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D147,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D147,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C147" s="12" t="str">
+      <c r="C147" s="13" t="str">
         <f aca="false">DEC2BIN(A147,8)</f>
         <v>10010001</v>
       </c>
-      <c r="D147" s="12" t="str">
+      <c r="D147" s="13" t="str">
         <f aca="false">DEC2HEX(A147,2)</f>
         <v>91</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="13" t="n">
+      <c r="A148" s="14" t="n">
         <v>146</v>
       </c>
       <c r="B148" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D148,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D148,'Instruction Set'!I:I,0)))</f>
         <v>PUSH B</v>
       </c>
-      <c r="C148" s="12" t="str">
+      <c r="C148" s="13" t="str">
         <f aca="false">DEC2BIN(A148,8)</f>
         <v>10010010</v>
       </c>
-      <c r="D148" s="12" t="str">
+      <c r="D148" s="13" t="str">
         <f aca="false">DEC2HEX(A148,2)</f>
         <v>92</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="13" t="n">
+      <c r="A149" s="14" t="n">
         <v>147</v>
       </c>
       <c r="B149" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D149,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D149,'Instruction Set'!I:I,0)))</f>
         <v>POP B</v>
       </c>
-      <c r="C149" s="12" t="str">
+      <c r="C149" s="13" t="str">
         <f aca="false">DEC2BIN(A149,8)</f>
         <v>10010011</v>
       </c>
-      <c r="D149" s="12" t="str">
+      <c r="D149" s="13" t="str">
         <f aca="false">DEC2HEX(A149,2)</f>
         <v>93</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="13" t="n">
+      <c r="A150" s="14" t="n">
         <v>148</v>
       </c>
       <c r="B150" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D150,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D150,'Instruction Set'!I:I,0)))</f>
         <v>MOV B,C</v>
       </c>
-      <c r="C150" s="12" t="str">
+      <c r="C150" s="13" t="str">
         <f aca="false">DEC2BIN(A150,8)</f>
         <v>10010100</v>
       </c>
-      <c r="D150" s="12" t="str">
+      <c r="D150" s="13" t="str">
         <f aca="false">DEC2HEX(A150,2)</f>
         <v>94</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="13" t="n">
+      <c r="A151" s="14" t="n">
         <v>149</v>
       </c>
       <c r="B151" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D151,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D151,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C151" s="12" t="str">
+      <c r="C151" s="13" t="str">
         <f aca="false">DEC2BIN(A151,8)</f>
         <v>10010101</v>
       </c>
-      <c r="D151" s="12" t="str">
+      <c r="D151" s="13" t="str">
         <f aca="false">DEC2HEX(A151,2)</f>
         <v>95</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="13" t="n">
+      <c r="A152" s="14" t="n">
         <v>150</v>
       </c>
       <c r="B152" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D152,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D152,'Instruction Set'!I:I,0)))</f>
         <v>MOV B,D</v>
       </c>
-      <c r="C152" s="12" t="str">
+      <c r="C152" s="13" t="str">
         <f aca="false">DEC2BIN(A152,8)</f>
         <v>10010110</v>
       </c>
-      <c r="D152" s="12" t="str">
+      <c r="D152" s="13" t="str">
         <f aca="false">DEC2HEX(A152,2)</f>
         <v>96</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="13" t="n">
+      <c r="A153" s="14" t="n">
         <v>151</v>
       </c>
       <c r="B153" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D153,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D153,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C153" s="12" t="str">
+      <c r="C153" s="13" t="str">
         <f aca="false">DEC2BIN(A153,8)</f>
         <v>10010111</v>
       </c>
-      <c r="D153" s="12" t="str">
+      <c r="D153" s="13" t="str">
         <f aca="false">DEC2HEX(A153,2)</f>
         <v>97</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="13" t="n">
+      <c r="A154" s="14" t="n">
         <v>152</v>
       </c>
       <c r="B154" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D154,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D154,'Instruction Set'!I:I,0)))</f>
         <v>MOV B,H</v>
       </c>
-      <c r="C154" s="12" t="str">
+      <c r="C154" s="13" t="str">
         <f aca="false">DEC2BIN(A154,8)</f>
         <v>10011000</v>
       </c>
-      <c r="D154" s="12" t="str">
+      <c r="D154" s="13" t="str">
         <f aca="false">DEC2HEX(A154,2)</f>
         <v>98</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="13" t="n">
+      <c r="A155" s="14" t="n">
         <v>153</v>
       </c>
       <c r="B155" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D155,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D155,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C155" s="12" t="str">
+      <c r="C155" s="13" t="str">
         <f aca="false">DEC2BIN(A155,8)</f>
         <v>10011001</v>
       </c>
-      <c r="D155" s="12" t="str">
+      <c r="D155" s="13" t="str">
         <f aca="false">DEC2HEX(A155,2)</f>
         <v>99</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="13" t="n">
+      <c r="A156" s="14" t="n">
         <v>154</v>
       </c>
       <c r="B156" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D156,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D156,'Instruction Set'!I:I,0)))</f>
         <v>MOV B,L</v>
       </c>
-      <c r="C156" s="12" t="str">
+      <c r="C156" s="13" t="str">
         <f aca="false">DEC2BIN(A156,8)</f>
         <v>10011010</v>
       </c>
-      <c r="D156" s="12" t="str">
+      <c r="D156" s="13" t="str">
         <f aca="false">DEC2HEX(A156,2)</f>
         <v>9A</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="13" t="n">
+      <c r="A157" s="14" t="n">
         <v>155</v>
       </c>
       <c r="B157" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D157,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D157,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C157" s="12" t="str">
+      <c r="C157" s="13" t="str">
         <f aca="false">DEC2BIN(A157,8)</f>
         <v>10011011</v>
       </c>
-      <c r="D157" s="12" t="str">
+      <c r="D157" s="13" t="str">
         <f aca="false">DEC2HEX(A157,2)</f>
         <v>9B</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="13" t="n">
+      <c r="A158" s="14" t="n">
         <v>156</v>
       </c>
       <c r="B158" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D158,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D158,'Instruction Set'!I:I,0)))</f>
         <v>MOV B,M</v>
       </c>
-      <c r="C158" s="12" t="str">
+      <c r="C158" s="13" t="str">
         <f aca="false">DEC2BIN(A158,8)</f>
         <v>10011100</v>
       </c>
-      <c r="D158" s="12" t="str">
+      <c r="D158" s="13" t="str">
         <f aca="false">DEC2HEX(A158,2)</f>
         <v>9C</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="13" t="n">
+      <c r="A159" s="14" t="n">
         <v>157</v>
       </c>
       <c r="B159" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D159,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D159,'Instruction Set'!I:I,0)))</f>
         <v>LDA B,addr</v>
       </c>
-      <c r="C159" s="12" t="str">
+      <c r="C159" s="13" t="str">
         <f aca="false">DEC2BIN(A159,8)</f>
         <v>10011101</v>
       </c>
-      <c r="D159" s="12" t="str">
+      <c r="D159" s="13" t="str">
         <f aca="false">DEC2HEX(A159,2)</f>
         <v>9D</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="13" t="n">
+      <c r="A160" s="14" t="n">
         <v>158</v>
       </c>
       <c r="B160" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D160,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D160,'Instruction Set'!I:I,0)))</f>
         <v>MOV B,data</v>
       </c>
-      <c r="C160" s="12" t="str">
+      <c r="C160" s="13" t="str">
         <f aca="false">DEC2BIN(A160,8)</f>
         <v>10011110</v>
       </c>
-      <c r="D160" s="12" t="str">
+      <c r="D160" s="13" t="str">
         <f aca="false">DEC2HEX(A160,2)</f>
         <v>9E</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="13" t="n">
+      <c r="A161" s="14" t="n">
         <v>159</v>
       </c>
       <c r="B161" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D161,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D161,'Instruction Set'!I:I,0)))</f>
         <v>JZ addr</v>
       </c>
-      <c r="C161" s="12" t="str">
+      <c r="C161" s="13" t="str">
         <f aca="false">DEC2BIN(A161,8)</f>
         <v>10011111</v>
       </c>
-      <c r="D161" s="12" t="str">
+      <c r="D161" s="13" t="str">
         <f aca="false">DEC2HEX(A161,2)</f>
         <v>9F</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="13" t="n">
+      <c r="A162" s="14" t="n">
         <v>160</v>
       </c>
       <c r="B162" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D162,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D162,'Instruction Set'!I:I,0)))</f>
         <v>MOV C,A</v>
       </c>
-      <c r="C162" s="12" t="str">
+      <c r="C162" s="13" t="str">
         <f aca="false">DEC2BIN(A162,8)</f>
         <v>10100000</v>
       </c>
-      <c r="D162" s="12" t="str">
+      <c r="D162" s="13" t="str">
         <f aca="false">DEC2HEX(A162,2)</f>
         <v>A0</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="13" t="n">
+      <c r="A163" s="14" t="n">
         <v>161</v>
       </c>
       <c r="B163" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D163,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D163,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C163" s="12" t="str">
+      <c r="C163" s="13" t="str">
         <f aca="false">DEC2BIN(A163,8)</f>
         <v>10100001</v>
       </c>
-      <c r="D163" s="12" t="str">
+      <c r="D163" s="13" t="str">
         <f aca="false">DEC2HEX(A163,2)</f>
         <v>A1</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="13" t="n">
+      <c r="A164" s="14" t="n">
         <v>162</v>
       </c>
       <c r="B164" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D164,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D164,'Instruction Set'!I:I,0)))</f>
         <v>MOV C,B</v>
       </c>
-      <c r="C164" s="12" t="str">
+      <c r="C164" s="13" t="str">
         <f aca="false">DEC2BIN(A164,8)</f>
         <v>10100010</v>
       </c>
-      <c r="D164" s="12" t="str">
+      <c r="D164" s="13" t="str">
         <f aca="false">DEC2HEX(A164,2)</f>
         <v>A2</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="13" t="n">
+      <c r="A165" s="14" t="n">
         <v>163</v>
       </c>
       <c r="B165" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D165,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D165,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C165" s="12" t="str">
+      <c r="C165" s="13" t="str">
         <f aca="false">DEC2BIN(A165,8)</f>
         <v>10100011</v>
       </c>
-      <c r="D165" s="12" t="str">
+      <c r="D165" s="13" t="str">
         <f aca="false">DEC2HEX(A165,2)</f>
         <v>A3</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="13" t="n">
+      <c r="A166" s="14" t="n">
         <v>164</v>
       </c>
       <c r="B166" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D166,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D166,'Instruction Set'!I:I,0)))</f>
         <v>PUSH C</v>
       </c>
-      <c r="C166" s="12" t="str">
+      <c r="C166" s="13" t="str">
         <f aca="false">DEC2BIN(A166,8)</f>
         <v>10100100</v>
       </c>
-      <c r="D166" s="12" t="str">
+      <c r="D166" s="13" t="str">
         <f aca="false">DEC2HEX(A166,2)</f>
         <v>A4</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="13" t="n">
+      <c r="A167" s="14" t="n">
         <v>165</v>
       </c>
       <c r="B167" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D167,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D167,'Instruction Set'!I:I,0)))</f>
         <v>POP C</v>
       </c>
-      <c r="C167" s="12" t="str">
+      <c r="C167" s="13" t="str">
         <f aca="false">DEC2BIN(A167,8)</f>
         <v>10100101</v>
       </c>
-      <c r="D167" s="12" t="str">
+      <c r="D167" s="13" t="str">
         <f aca="false">DEC2HEX(A167,2)</f>
         <v>A5</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="13" t="n">
+      <c r="A168" s="14" t="n">
         <v>166</v>
       </c>
       <c r="B168" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D168,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D168,'Instruction Set'!I:I,0)))</f>
         <v>MOV C,D</v>
       </c>
-      <c r="C168" s="12" t="str">
+      <c r="C168" s="13" t="str">
         <f aca="false">DEC2BIN(A168,8)</f>
         <v>10100110</v>
       </c>
-      <c r="D168" s="12" t="str">
+      <c r="D168" s="13" t="str">
         <f aca="false">DEC2HEX(A168,2)</f>
         <v>A6</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="13" t="n">
+      <c r="A169" s="14" t="n">
         <v>167</v>
       </c>
       <c r="B169" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D169,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D169,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C169" s="12" t="str">
+      <c r="C169" s="13" t="str">
         <f aca="false">DEC2BIN(A169,8)</f>
         <v>10100111</v>
       </c>
-      <c r="D169" s="12" t="str">
+      <c r="D169" s="13" t="str">
         <f aca="false">DEC2HEX(A169,2)</f>
         <v>A7</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="13" t="n">
+      <c r="A170" s="14" t="n">
         <v>168</v>
       </c>
       <c r="B170" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D170,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D170,'Instruction Set'!I:I,0)))</f>
         <v>MOV C,H</v>
       </c>
-      <c r="C170" s="12" t="str">
+      <c r="C170" s="13" t="str">
         <f aca="false">DEC2BIN(A170,8)</f>
         <v>10101000</v>
       </c>
-      <c r="D170" s="12" t="str">
+      <c r="D170" s="13" t="str">
         <f aca="false">DEC2HEX(A170,2)</f>
         <v>A8</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="13" t="n">
+      <c r="A171" s="14" t="n">
         <v>169</v>
       </c>
       <c r="B171" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D171,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D171,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C171" s="12" t="str">
+      <c r="C171" s="13" t="str">
         <f aca="false">DEC2BIN(A171,8)</f>
         <v>10101001</v>
       </c>
-      <c r="D171" s="12" t="str">
+      <c r="D171" s="13" t="str">
         <f aca="false">DEC2HEX(A171,2)</f>
         <v>A9</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="13" t="n">
+      <c r="A172" s="14" t="n">
         <v>170</v>
       </c>
       <c r="B172" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D172,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D172,'Instruction Set'!I:I,0)))</f>
         <v>MOV C,L</v>
       </c>
-      <c r="C172" s="12" t="str">
+      <c r="C172" s="13" t="str">
         <f aca="false">DEC2BIN(A172,8)</f>
         <v>10101010</v>
       </c>
-      <c r="D172" s="12" t="str">
+      <c r="D172" s="13" t="str">
         <f aca="false">DEC2HEX(A172,2)</f>
         <v>AA</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="13" t="n">
+      <c r="A173" s="14" t="n">
         <v>171</v>
       </c>
       <c r="B173" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D173,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D173,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C173" s="12" t="str">
+      <c r="C173" s="13" t="str">
         <f aca="false">DEC2BIN(A173,8)</f>
         <v>10101011</v>
       </c>
-      <c r="D173" s="12" t="str">
+      <c r="D173" s="13" t="str">
         <f aca="false">DEC2HEX(A173,2)</f>
         <v>AB</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="13" t="n">
+      <c r="A174" s="14" t="n">
         <v>172</v>
       </c>
       <c r="B174" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D174,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D174,'Instruction Set'!I:I,0)))</f>
         <v>MOV C,M</v>
       </c>
-      <c r="C174" s="12" t="str">
+      <c r="C174" s="13" t="str">
         <f aca="false">DEC2BIN(A174,8)</f>
         <v>10101100</v>
       </c>
-      <c r="D174" s="12" t="str">
+      <c r="D174" s="13" t="str">
         <f aca="false">DEC2HEX(A174,2)</f>
         <v>AC</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="13" t="n">
+      <c r="A175" s="14" t="n">
         <v>173</v>
       </c>
       <c r="B175" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D175,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D175,'Instruction Set'!I:I,0)))</f>
         <v>LDA C,addr</v>
       </c>
-      <c r="C175" s="12" t="str">
+      <c r="C175" s="13" t="str">
         <f aca="false">DEC2BIN(A175,8)</f>
         <v>10101101</v>
       </c>
-      <c r="D175" s="12" t="str">
+      <c r="D175" s="13" t="str">
         <f aca="false">DEC2HEX(A175,2)</f>
         <v>AD</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="13" t="n">
+      <c r="A176" s="14" t="n">
         <v>174</v>
       </c>
       <c r="B176" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D176,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D176,'Instruction Set'!I:I,0)))</f>
         <v>MOV C,data</v>
       </c>
-      <c r="C176" s="12" t="str">
+      <c r="C176" s="13" t="str">
         <f aca="false">DEC2BIN(A176,8)</f>
         <v>10101110</v>
       </c>
-      <c r="D176" s="12" t="str">
+      <c r="D176" s="13" t="str">
         <f aca="false">DEC2HEX(A176,2)</f>
         <v>AE</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="13" t="n">
+      <c r="A177" s="14" t="n">
         <v>175</v>
       </c>
       <c r="B177" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D177,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D177,'Instruction Set'!I:I,0)))</f>
         <v>JNZ M</v>
       </c>
-      <c r="C177" s="12" t="str">
+      <c r="C177" s="13" t="str">
         <f aca="false">DEC2BIN(A177,8)</f>
         <v>10101111</v>
       </c>
-      <c r="D177" s="12" t="str">
+      <c r="D177" s="13" t="str">
         <f aca="false">DEC2HEX(A177,2)</f>
         <v>AF</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="13" t="n">
+      <c r="A178" s="14" t="n">
         <v>176</v>
       </c>
       <c r="B178" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D178,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D178,'Instruction Set'!I:I,0)))</f>
         <v>MOV D,A</v>
       </c>
-      <c r="C178" s="12" t="str">
+      <c r="C178" s="13" t="str">
         <f aca="false">DEC2BIN(A178,8)</f>
         <v>10110000</v>
       </c>
-      <c r="D178" s="12" t="str">
+      <c r="D178" s="13" t="str">
         <f aca="false">DEC2HEX(A178,2)</f>
         <v>B0</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="13" t="n">
+      <c r="A179" s="14" t="n">
         <v>177</v>
       </c>
       <c r="B179" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D179,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D179,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C179" s="12" t="str">
+      <c r="C179" s="13" t="str">
         <f aca="false">DEC2BIN(A179,8)</f>
         <v>10110001</v>
       </c>
-      <c r="D179" s="12" t="str">
+      <c r="D179" s="13" t="str">
         <f aca="false">DEC2HEX(A179,2)</f>
         <v>B1</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="13" t="n">
+      <c r="A180" s="14" t="n">
         <v>178</v>
       </c>
       <c r="B180" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D180,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D180,'Instruction Set'!I:I,0)))</f>
         <v>MOV D,B</v>
       </c>
-      <c r="C180" s="12" t="str">
+      <c r="C180" s="13" t="str">
         <f aca="false">DEC2BIN(A180,8)</f>
         <v>10110010</v>
       </c>
-      <c r="D180" s="12" t="str">
+      <c r="D180" s="13" t="str">
         <f aca="false">DEC2HEX(A180,2)</f>
         <v>B2</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="13" t="n">
+      <c r="A181" s="14" t="n">
         <v>179</v>
       </c>
       <c r="B181" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D181,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D181,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C181" s="12" t="str">
+      <c r="C181" s="13" t="str">
         <f aca="false">DEC2BIN(A181,8)</f>
         <v>10110011</v>
       </c>
-      <c r="D181" s="12" t="str">
+      <c r="D181" s="13" t="str">
         <f aca="false">DEC2HEX(A181,2)</f>
         <v>B3</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="13" t="n">
+      <c r="A182" s="14" t="n">
         <v>180</v>
       </c>
       <c r="B182" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D182,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D182,'Instruction Set'!I:I,0)))</f>
         <v>MOV D,C</v>
       </c>
-      <c r="C182" s="12" t="str">
+      <c r="C182" s="13" t="str">
         <f aca="false">DEC2BIN(A182,8)</f>
         <v>10110100</v>
       </c>
-      <c r="D182" s="12" t="str">
+      <c r="D182" s="13" t="str">
         <f aca="false">DEC2HEX(A182,2)</f>
         <v>B4</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="13" t="n">
+      <c r="A183" s="14" t="n">
         <v>181</v>
       </c>
       <c r="B183" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D183,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D183,'Instruction Set'!I:I,0)))</f>
-        <v/>
-      </c>
-      <c r="C183" s="12" t="str">
+        <v>IRET</v>
+      </c>
+      <c r="C183" s="13" t="str">
         <f aca="false">DEC2BIN(A183,8)</f>
         <v>10110101</v>
       </c>
-      <c r="D183" s="12" t="str">
+      <c r="D183" s="13" t="str">
         <f aca="false">DEC2HEX(A183,2)</f>
         <v>B5</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="13" t="n">
+      <c r="A184" s="14" t="n">
         <v>182</v>
       </c>
       <c r="B184" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D184,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D184,'Instruction Set'!I:I,0)))</f>
         <v>PUSH D</v>
       </c>
-      <c r="C184" s="12" t="str">
+      <c r="C184" s="13" t="str">
         <f aca="false">DEC2BIN(A184,8)</f>
         <v>10110110</v>
       </c>
-      <c r="D184" s="12" t="str">
+      <c r="D184" s="13" t="str">
         <f aca="false">DEC2HEX(A184,2)</f>
         <v>B6</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="13" t="n">
+      <c r="A185" s="14" t="n">
         <v>183</v>
       </c>
       <c r="B185" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D185,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D185,'Instruction Set'!I:I,0)))</f>
         <v>POP D</v>
       </c>
-      <c r="C185" s="12" t="str">
+      <c r="C185" s="13" t="str">
         <f aca="false">DEC2BIN(A185,8)</f>
         <v>10110111</v>
       </c>
-      <c r="D185" s="12" t="str">
+      <c r="D185" s="13" t="str">
         <f aca="false">DEC2HEX(A185,2)</f>
         <v>B7</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="13" t="n">
+      <c r="A186" s="14" t="n">
         <v>184</v>
       </c>
       <c r="B186" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D186,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D186,'Instruction Set'!I:I,0)))</f>
         <v>MOV D,H</v>
       </c>
-      <c r="C186" s="12" t="str">
+      <c r="C186" s="13" t="str">
         <f aca="false">DEC2BIN(A186,8)</f>
         <v>10111000</v>
       </c>
-      <c r="D186" s="12" t="str">
+      <c r="D186" s="13" t="str">
         <f aca="false">DEC2HEX(A186,2)</f>
         <v>B8</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="13" t="n">
+      <c r="A187" s="14" t="n">
         <v>185</v>
       </c>
       <c r="B187" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D187,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D187,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C187" s="12" t="str">
+      <c r="C187" s="13" t="str">
         <f aca="false">DEC2BIN(A187,8)</f>
         <v>10111001</v>
       </c>
-      <c r="D187" s="12" t="str">
+      <c r="D187" s="13" t="str">
         <f aca="false">DEC2HEX(A187,2)</f>
         <v>B9</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="13" t="n">
+      <c r="A188" s="14" t="n">
         <v>186</v>
       </c>
       <c r="B188" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D188,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D188,'Instruction Set'!I:I,0)))</f>
         <v>MOV D,L</v>
       </c>
-      <c r="C188" s="12" t="str">
+      <c r="C188" s="13" t="str">
         <f aca="false">DEC2BIN(A188,8)</f>
         <v>10111010</v>
       </c>
-      <c r="D188" s="12" t="str">
+      <c r="D188" s="13" t="str">
         <f aca="false">DEC2HEX(A188,2)</f>
         <v>BA</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="13" t="n">
+      <c r="A189" s="14" t="n">
         <v>187</v>
       </c>
       <c r="B189" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D189,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D189,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C189" s="12" t="str">
+      <c r="C189" s="13" t="str">
         <f aca="false">DEC2BIN(A189,8)</f>
         <v>10111011</v>
       </c>
-      <c r="D189" s="12" t="str">
+      <c r="D189" s="13" t="str">
         <f aca="false">DEC2HEX(A189,2)</f>
         <v>BB</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="13" t="n">
+      <c r="A190" s="14" t="n">
         <v>188</v>
       </c>
       <c r="B190" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D190,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D190,'Instruction Set'!I:I,0)))</f>
         <v>MOV D,M</v>
       </c>
-      <c r="C190" s="12" t="str">
+      <c r="C190" s="13" t="str">
         <f aca="false">DEC2BIN(A190,8)</f>
         <v>10111100</v>
       </c>
-      <c r="D190" s="12" t="str">
+      <c r="D190" s="13" t="str">
         <f aca="false">DEC2HEX(A190,2)</f>
         <v>BC</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="13" t="n">
+      <c r="A191" s="14" t="n">
         <v>189</v>
       </c>
       <c r="B191" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D191,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D191,'Instruction Set'!I:I,0)))</f>
         <v>LDA D,addr</v>
       </c>
-      <c r="C191" s="12" t="str">
+      <c r="C191" s="13" t="str">
         <f aca="false">DEC2BIN(A191,8)</f>
         <v>10111101</v>
       </c>
-      <c r="D191" s="12" t="str">
+      <c r="D191" s="13" t="str">
         <f aca="false">DEC2HEX(A191,2)</f>
         <v>BD</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="13" t="n">
+      <c r="A192" s="14" t="n">
         <v>190</v>
       </c>
       <c r="B192" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D192,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D192,'Instruction Set'!I:I,0)))</f>
         <v>MOV D,data</v>
       </c>
-      <c r="C192" s="12" t="str">
+      <c r="C192" s="13" t="str">
         <f aca="false">DEC2BIN(A192,8)</f>
         <v>10111110</v>
       </c>
-      <c r="D192" s="12" t="str">
+      <c r="D192" s="13" t="str">
         <f aca="false">DEC2HEX(A192,2)</f>
         <v>BE</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="13" t="n">
+      <c r="A193" s="14" t="n">
         <v>191</v>
       </c>
       <c r="B193" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D193,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D193,'Instruction Set'!I:I,0)))</f>
         <v>JNZ addr</v>
       </c>
-      <c r="C193" s="12" t="str">
+      <c r="C193" s="13" t="str">
         <f aca="false">DEC2BIN(A193,8)</f>
         <v>10111111</v>
       </c>
-      <c r="D193" s="12" t="str">
+      <c r="D193" s="13" t="str">
         <f aca="false">DEC2HEX(A193,2)</f>
         <v>BF</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="13" t="n">
+      <c r="A194" s="14" t="n">
         <v>192</v>
       </c>
       <c r="B194" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D194,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D194,'Instruction Set'!I:I,0)))</f>
         <v>MOV H,A</v>
       </c>
-      <c r="C194" s="12" t="str">
+      <c r="C194" s="13" t="str">
         <f aca="false">DEC2BIN(A194,8)</f>
         <v>11000000</v>
       </c>
-      <c r="D194" s="12" t="str">
+      <c r="D194" s="13" t="str">
         <f aca="false">DEC2HEX(A194,2)</f>
         <v>C0</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="13" t="n">
+      <c r="A195" s="14" t="n">
         <v>193</v>
       </c>
       <c r="B195" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D195,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D195,'Instruction Set'!I:I,0)))</f>
         <v>CALL M</v>
       </c>
-      <c r="C195" s="12" t="str">
+      <c r="C195" s="13" t="str">
         <f aca="false">DEC2BIN(A195,8)</f>
         <v>11000001</v>
       </c>
-      <c r="D195" s="12" t="str">
+      <c r="D195" s="13" t="str">
         <f aca="false">DEC2HEX(A195,2)</f>
         <v>C1</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="13" t="n">
+      <c r="A196" s="14" t="n">
         <v>194</v>
       </c>
       <c r="B196" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D196,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D196,'Instruction Set'!I:I,0)))</f>
         <v>MOV H,B</v>
       </c>
-      <c r="C196" s="12" t="str">
+      <c r="C196" s="13" t="str">
         <f aca="false">DEC2BIN(A196,8)</f>
         <v>11000010</v>
       </c>
-      <c r="D196" s="12" t="str">
+      <c r="D196" s="13" t="str">
         <f aca="false">DEC2HEX(A196,2)</f>
         <v>C2</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="13" t="n">
+      <c r="A197" s="14" t="n">
         <v>195</v>
       </c>
       <c r="B197" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D197,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D197,'Instruction Set'!I:I,0)))</f>
         <v>CALL addr</v>
       </c>
-      <c r="C197" s="12" t="str">
+      <c r="C197" s="13" t="str">
         <f aca="false">DEC2BIN(A197,8)</f>
         <v>11000011</v>
       </c>
-      <c r="D197" s="12" t="str">
+      <c r="D197" s="13" t="str">
         <f aca="false">DEC2HEX(A197,2)</f>
         <v>C3</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="13" t="n">
+      <c r="A198" s="14" t="n">
         <v>196</v>
       </c>
       <c r="B198" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D198,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D198,'Instruction Set'!I:I,0)))</f>
         <v>MOV H,C</v>
       </c>
-      <c r="C198" s="12" t="str">
+      <c r="C198" s="13" t="str">
         <f aca="false">DEC2BIN(A198,8)</f>
         <v>11000100</v>
       </c>
-      <c r="D198" s="12" t="str">
+      <c r="D198" s="13" t="str">
         <f aca="false">DEC2HEX(A198,2)</f>
         <v>C4</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="13" t="n">
+      <c r="A199" s="14" t="n">
         <v>197</v>
       </c>
       <c r="B199" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D199,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D199,'Instruction Set'!I:I,0)))</f>
         <v>CC M</v>
       </c>
-      <c r="C199" s="12" t="str">
+      <c r="C199" s="13" t="str">
         <f aca="false">DEC2BIN(A199,8)</f>
         <v>11000101</v>
       </c>
-      <c r="D199" s="12" t="str">
+      <c r="D199" s="13" t="str">
         <f aca="false">DEC2HEX(A199,2)</f>
         <v>C5</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="13" t="n">
+      <c r="A200" s="14" t="n">
         <v>198</v>
       </c>
       <c r="B200" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D200,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D200,'Instruction Set'!I:I,0)))</f>
         <v>MOV H,D</v>
       </c>
-      <c r="C200" s="12" t="str">
+      <c r="C200" s="13" t="str">
         <f aca="false">DEC2BIN(A200,8)</f>
         <v>11000110</v>
       </c>
-      <c r="D200" s="12" t="str">
+      <c r="D200" s="13" t="str">
         <f aca="false">DEC2HEX(A200,2)</f>
         <v>C6</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="13" t="n">
+      <c r="A201" s="14" t="n">
         <v>199</v>
       </c>
       <c r="B201" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D201,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D201,'Instruction Set'!I:I,0)))</f>
         <v>CC addr</v>
       </c>
-      <c r="C201" s="12" t="str">
+      <c r="C201" s="13" t="str">
         <f aca="false">DEC2BIN(A201,8)</f>
         <v>11000111</v>
       </c>
-      <c r="D201" s="12" t="str">
+      <c r="D201" s="13" t="str">
         <f aca="false">DEC2HEX(A201,2)</f>
         <v>C7</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="13" t="n">
+      <c r="A202" s="14" t="n">
         <v>200</v>
       </c>
       <c r="B202" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D202,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D202,'Instruction Set'!I:I,0)))</f>
         <v>PUSH H</v>
       </c>
-      <c r="C202" s="12" t="str">
+      <c r="C202" s="13" t="str">
         <f aca="false">DEC2BIN(A202,8)</f>
         <v>11001000</v>
       </c>
-      <c r="D202" s="12" t="str">
+      <c r="D202" s="13" t="str">
         <f aca="false">DEC2HEX(A202,2)</f>
         <v>C8</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="13" t="n">
+      <c r="A203" s="14" t="n">
         <v>201</v>
       </c>
       <c r="B203" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D203,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D203,'Instruction Set'!I:I,0)))</f>
         <v>POP H</v>
       </c>
-      <c r="C203" s="12" t="str">
+      <c r="C203" s="13" t="str">
         <f aca="false">DEC2BIN(A203,8)</f>
         <v>11001001</v>
       </c>
-      <c r="D203" s="12" t="str">
+      <c r="D203" s="13" t="str">
         <f aca="false">DEC2HEX(A203,2)</f>
         <v>C9</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="13" t="n">
+      <c r="A204" s="14" t="n">
         <v>202</v>
       </c>
       <c r="B204" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D204,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D204,'Instruction Set'!I:I,0)))</f>
         <v>MOV H,L</v>
       </c>
-      <c r="C204" s="12" t="str">
+      <c r="C204" s="13" t="str">
         <f aca="false">DEC2BIN(A204,8)</f>
         <v>11001010</v>
       </c>
-      <c r="D204" s="12" t="str">
+      <c r="D204" s="13" t="str">
         <f aca="false">DEC2HEX(A204,2)</f>
         <v>CA</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="13" t="n">
+      <c r="A205" s="14" t="n">
         <v>203</v>
       </c>
       <c r="B205" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D205,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D205,'Instruction Set'!I:I,0)))</f>
         <v>CNC M</v>
       </c>
-      <c r="C205" s="12" t="str">
+      <c r="C205" s="13" t="str">
         <f aca="false">DEC2BIN(A205,8)</f>
         <v>11001011</v>
       </c>
-      <c r="D205" s="12" t="str">
+      <c r="D205" s="13" t="str">
         <f aca="false">DEC2HEX(A205,2)</f>
         <v>CB</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="13" t="n">
+      <c r="A206" s="14" t="n">
         <v>204</v>
       </c>
       <c r="B206" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D206,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D206,'Instruction Set'!I:I,0)))</f>
         <v>MOV H,M</v>
       </c>
-      <c r="C206" s="12" t="str">
+      <c r="C206" s="13" t="str">
         <f aca="false">DEC2BIN(A206,8)</f>
         <v>11001100</v>
       </c>
-      <c r="D206" s="12" t="str">
+      <c r="D206" s="13" t="str">
         <f aca="false">DEC2HEX(A206,2)</f>
         <v>CC</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="13" t="n">
+      <c r="A207" s="14" t="n">
         <v>205</v>
       </c>
       <c r="B207" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D207,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D207,'Instruction Set'!I:I,0)))</f>
         <v>LDA H,addr</v>
       </c>
-      <c r="C207" s="12" t="str">
+      <c r="C207" s="13" t="str">
         <f aca="false">DEC2BIN(A207,8)</f>
         <v>11001101</v>
       </c>
-      <c r="D207" s="12" t="str">
+      <c r="D207" s="13" t="str">
         <f aca="false">DEC2HEX(A207,2)</f>
         <v>CD</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="13" t="n">
+      <c r="A208" s="14" t="n">
         <v>206</v>
       </c>
       <c r="B208" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D208,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D208,'Instruction Set'!I:I,0)))</f>
         <v>MOV H,data</v>
       </c>
-      <c r="C208" s="12" t="str">
+      <c r="C208" s="13" t="str">
         <f aca="false">DEC2BIN(A208,8)</f>
         <v>11001110</v>
       </c>
-      <c r="D208" s="12" t="str">
+      <c r="D208" s="13" t="str">
         <f aca="false">DEC2HEX(A208,2)</f>
         <v>CE</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="13" t="n">
+      <c r="A209" s="14" t="n">
         <v>207</v>
       </c>
       <c r="B209" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D209,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D209,'Instruction Set'!I:I,0)))</f>
         <v>CNC addr</v>
       </c>
-      <c r="C209" s="12" t="str">
+      <c r="C209" s="13" t="str">
         <f aca="false">DEC2BIN(A209,8)</f>
         <v>11001111</v>
       </c>
-      <c r="D209" s="12" t="str">
+      <c r="D209" s="13" t="str">
         <f aca="false">DEC2HEX(A209,2)</f>
         <v>CF</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="13" t="n">
+      <c r="A210" s="14" t="n">
         <v>208</v>
       </c>
       <c r="B210" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D210,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D210,'Instruction Set'!I:I,0)))</f>
         <v>MOV L,A</v>
       </c>
-      <c r="C210" s="12" t="str">
+      <c r="C210" s="13" t="str">
         <f aca="false">DEC2BIN(A210,8)</f>
         <v>11010000</v>
       </c>
-      <c r="D210" s="12" t="str">
+      <c r="D210" s="13" t="str">
         <f aca="false">DEC2HEX(A210,2)</f>
         <v>D0</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="13" t="n">
+      <c r="A211" s="14" t="n">
         <v>209</v>
       </c>
       <c r="B211" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D211,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D211,'Instruction Set'!I:I,0)))</f>
         <v>CZ M</v>
       </c>
-      <c r="C211" s="12" t="str">
+      <c r="C211" s="13" t="str">
         <f aca="false">DEC2BIN(A211,8)</f>
         <v>11010001</v>
       </c>
-      <c r="D211" s="12" t="str">
+      <c r="D211" s="13" t="str">
         <f aca="false">DEC2HEX(A211,2)</f>
         <v>D1</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="13" t="n">
+      <c r="A212" s="14" t="n">
         <v>210</v>
       </c>
       <c r="B212" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D212,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D212,'Instruction Set'!I:I,0)))</f>
         <v>MOV L,B</v>
       </c>
-      <c r="C212" s="12" t="str">
+      <c r="C212" s="13" t="str">
         <f aca="false">DEC2BIN(A212,8)</f>
         <v>11010010</v>
       </c>
-      <c r="D212" s="12" t="str">
+      <c r="D212" s="13" t="str">
         <f aca="false">DEC2HEX(A212,2)</f>
         <v>D2</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="13" t="n">
+      <c r="A213" s="14" t="n">
         <v>211</v>
       </c>
       <c r="B213" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D213,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D213,'Instruction Set'!I:I,0)))</f>
         <v>CZ addr</v>
       </c>
-      <c r="C213" s="12" t="str">
+      <c r="C213" s="13" t="str">
         <f aca="false">DEC2BIN(A213,8)</f>
         <v>11010011</v>
       </c>
-      <c r="D213" s="12" t="str">
+      <c r="D213" s="13" t="str">
         <f aca="false">DEC2HEX(A213,2)</f>
         <v>D3</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="13" t="n">
+      <c r="A214" s="14" t="n">
         <v>212</v>
       </c>
       <c r="B214" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D214,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D214,'Instruction Set'!I:I,0)))</f>
         <v>MOV L,C</v>
       </c>
-      <c r="C214" s="12" t="str">
+      <c r="C214" s="13" t="str">
         <f aca="false">DEC2BIN(A214,8)</f>
         <v>11010100</v>
       </c>
-      <c r="D214" s="12" t="str">
+      <c r="D214" s="13" t="str">
         <f aca="false">DEC2HEX(A214,2)</f>
         <v>D4</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="13" t="n">
+      <c r="A215" s="14" t="n">
         <v>213</v>
       </c>
       <c r="B215" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D215,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D215,'Instruction Set'!I:I,0)))</f>
         <v>CNZ M</v>
       </c>
-      <c r="C215" s="12" t="str">
+      <c r="C215" s="13" t="str">
         <f aca="false">DEC2BIN(A215,8)</f>
         <v>11010101</v>
       </c>
-      <c r="D215" s="12" t="str">
+      <c r="D215" s="13" t="str">
         <f aca="false">DEC2HEX(A215,2)</f>
         <v>D5</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="13" t="n">
+      <c r="A216" s="14" t="n">
         <v>214</v>
       </c>
       <c r="B216" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D216,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D216,'Instruction Set'!I:I,0)))</f>
         <v>MOV L,D</v>
       </c>
-      <c r="C216" s="12" t="str">
+      <c r="C216" s="13" t="str">
         <f aca="false">DEC2BIN(A216,8)</f>
         <v>11010110</v>
       </c>
-      <c r="D216" s="12" t="str">
+      <c r="D216" s="13" t="str">
         <f aca="false">DEC2HEX(A216,2)</f>
         <v>D6</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="13" t="n">
+      <c r="A217" s="14" t="n">
         <v>215</v>
       </c>
       <c r="B217" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D217,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D217,'Instruction Set'!I:I,0)))</f>
         <v>CNZ addr</v>
       </c>
-      <c r="C217" s="12" t="str">
+      <c r="C217" s="13" t="str">
         <f aca="false">DEC2BIN(A217,8)</f>
         <v>11010111</v>
       </c>
-      <c r="D217" s="12" t="str">
+      <c r="D217" s="13" t="str">
         <f aca="false">DEC2HEX(A217,2)</f>
         <v>D7</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="13" t="n">
+      <c r="A218" s="14" t="n">
         <v>216</v>
       </c>
       <c r="B218" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D218,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D218,'Instruction Set'!I:I,0)))</f>
         <v>MOV L,H</v>
       </c>
-      <c r="C218" s="12" t="str">
+      <c r="C218" s="13" t="str">
         <f aca="false">DEC2BIN(A218,8)</f>
         <v>11011000</v>
       </c>
-      <c r="D218" s="12" t="str">
+      <c r="D218" s="13" t="str">
         <f aca="false">DEC2HEX(A218,2)</f>
         <v>D8</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="13" t="n">
+      <c r="A219" s="14" t="n">
         <v>217</v>
       </c>
       <c r="B219" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D219,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D219,'Instruction Set'!I:I,0)))</f>
         <v>POPF</v>
       </c>
-      <c r="C219" s="12" t="str">
+      <c r="C219" s="13" t="str">
         <f aca="false">DEC2BIN(A219,8)</f>
         <v>11011001</v>
       </c>
-      <c r="D219" s="12" t="str">
+      <c r="D219" s="13" t="str">
         <f aca="false">DEC2HEX(A219,2)</f>
         <v>D9</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="13" t="n">
+      <c r="A220" s="14" t="n">
         <v>218</v>
       </c>
       <c r="B220" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D220,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D220,'Instruction Set'!I:I,0)))</f>
         <v>PUSH L</v>
       </c>
-      <c r="C220" s="12" t="str">
+      <c r="C220" s="13" t="str">
         <f aca="false">DEC2BIN(A220,8)</f>
         <v>11011010</v>
       </c>
-      <c r="D220" s="12" t="str">
+      <c r="D220" s="13" t="str">
         <f aca="false">DEC2HEX(A220,2)</f>
         <v>DA</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="13" t="n">
+      <c r="A221" s="14" t="n">
         <v>219</v>
       </c>
       <c r="B221" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D221,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D221,'Instruction Set'!I:I,0)))</f>
         <v>POP L</v>
       </c>
-      <c r="C221" s="12" t="str">
+      <c r="C221" s="13" t="str">
         <f aca="false">DEC2BIN(A221,8)</f>
         <v>11011011</v>
       </c>
-      <c r="D221" s="12" t="str">
+      <c r="D221" s="13" t="str">
         <f aca="false">DEC2HEX(A221,2)</f>
         <v>DB</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="13" t="n">
+      <c r="A222" s="14" t="n">
         <v>220</v>
       </c>
       <c r="B222" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D222,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D222,'Instruction Set'!I:I,0)))</f>
         <v>MOV L,M</v>
       </c>
-      <c r="C222" s="12" t="str">
+      <c r="C222" s="13" t="str">
         <f aca="false">DEC2BIN(A222,8)</f>
         <v>11011100</v>
       </c>
-      <c r="D222" s="12" t="str">
+      <c r="D222" s="13" t="str">
         <f aca="false">DEC2HEX(A222,2)</f>
         <v>DC</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="13" t="n">
+      <c r="A223" s="14" t="n">
         <v>221</v>
       </c>
       <c r="B223" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D223,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D223,'Instruction Set'!I:I,0)))</f>
         <v>LDA L,addr</v>
       </c>
-      <c r="C223" s="12" t="str">
+      <c r="C223" s="13" t="str">
         <f aca="false">DEC2BIN(A223,8)</f>
         <v>11011101</v>
       </c>
-      <c r="D223" s="12" t="str">
+      <c r="D223" s="13" t="str">
         <f aca="false">DEC2HEX(A223,2)</f>
         <v>DD</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="13" t="n">
+      <c r="A224" s="14" t="n">
         <v>222</v>
       </c>
       <c r="B224" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D224,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D224,'Instruction Set'!I:I,0)))</f>
         <v>MOV L,data</v>
       </c>
-      <c r="C224" s="12" t="str">
+      <c r="C224" s="13" t="str">
         <f aca="false">DEC2BIN(A224,8)</f>
         <v>11011110</v>
       </c>
-      <c r="D224" s="12" t="str">
+      <c r="D224" s="13" t="str">
         <f aca="false">DEC2HEX(A224,2)</f>
         <v>DE</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="13" t="n">
+      <c r="A225" s="14" t="n">
         <v>223</v>
       </c>
       <c r="B225" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D225,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D225,'Instruction Set'!I:I,0)))</f>
         <v>INT int</v>
       </c>
-      <c r="C225" s="12" t="str">
+      <c r="C225" s="13" t="str">
         <f aca="false">DEC2BIN(A225,8)</f>
         <v>11011111</v>
       </c>
-      <c r="D225" s="12" t="str">
+      <c r="D225" s="13" t="str">
         <f aca="false">DEC2HEX(A225,2)</f>
         <v>DF</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="13" t="n">
+      <c r="A226" s="14" t="n">
         <v>224</v>
       </c>
       <c r="B226" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D226,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D226,'Instruction Set'!I:I,0)))</f>
         <v>MOV M,A</v>
       </c>
-      <c r="C226" s="12" t="str">
+      <c r="C226" s="13" t="str">
         <f aca="false">DEC2BIN(A226,8)</f>
         <v>11100000</v>
       </c>
-      <c r="D226" s="12" t="str">
+      <c r="D226" s="13" t="str">
         <f aca="false">DEC2HEX(A226,2)</f>
         <v>E0</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="13" t="n">
+      <c r="A227" s="14" t="n">
         <v>225</v>
       </c>
       <c r="B227" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D227,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D227,'Instruction Set'!I:I,0)))</f>
         <v>STA addr,A</v>
       </c>
-      <c r="C227" s="12" t="str">
+      <c r="C227" s="13" t="str">
         <f aca="false">DEC2BIN(A227,8)</f>
         <v>11100001</v>
       </c>
-      <c r="D227" s="12" t="str">
+      <c r="D227" s="13" t="str">
         <f aca="false">DEC2HEX(A227,2)</f>
         <v>E1</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="13" t="n">
+      <c r="A228" s="14" t="n">
         <v>226</v>
       </c>
       <c r="B228" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D228,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D228,'Instruction Set'!I:I,0)))</f>
         <v>MOV M,B</v>
       </c>
-      <c r="C228" s="12" t="str">
+      <c r="C228" s="13" t="str">
         <f aca="false">DEC2BIN(A228,8)</f>
         <v>11100010</v>
       </c>
-      <c r="D228" s="12" t="str">
+      <c r="D228" s="13" t="str">
         <f aca="false">DEC2HEX(A228,2)</f>
         <v>E2</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="13" t="n">
+      <c r="A229" s="14" t="n">
         <v>227</v>
       </c>
       <c r="B229" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D229,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D229,'Instruction Set'!I:I,0)))</f>
         <v>STA addr,B</v>
       </c>
-      <c r="C229" s="12" t="str">
+      <c r="C229" s="13" t="str">
         <f aca="false">DEC2BIN(A229,8)</f>
         <v>11100011</v>
       </c>
-      <c r="D229" s="12" t="str">
+      <c r="D229" s="13" t="str">
         <f aca="false">DEC2HEX(A229,2)</f>
         <v>E3</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="13" t="n">
+      <c r="A230" s="14" t="n">
         <v>228</v>
       </c>
       <c r="B230" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D230,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D230,'Instruction Set'!I:I,0)))</f>
         <v>MOV M,C</v>
       </c>
-      <c r="C230" s="12" t="str">
+      <c r="C230" s="13" t="str">
         <f aca="false">DEC2BIN(A230,8)</f>
         <v>11100100</v>
       </c>
-      <c r="D230" s="12" t="str">
+      <c r="D230" s="13" t="str">
         <f aca="false">DEC2HEX(A230,2)</f>
         <v>E4</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="13" t="n">
+      <c r="A231" s="14" t="n">
         <v>229</v>
       </c>
       <c r="B231" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D231,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D231,'Instruction Set'!I:I,0)))</f>
         <v>STA addr,C</v>
       </c>
-      <c r="C231" s="12" t="str">
+      <c r="C231" s="13" t="str">
         <f aca="false">DEC2BIN(A231,8)</f>
         <v>11100101</v>
       </c>
-      <c r="D231" s="12" t="str">
+      <c r="D231" s="13" t="str">
         <f aca="false">DEC2HEX(A231,2)</f>
         <v>E5</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="13" t="n">
+      <c r="A232" s="14" t="n">
         <v>230</v>
       </c>
       <c r="B232" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D232,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D232,'Instruction Set'!I:I,0)))</f>
         <v>MOV M,D</v>
       </c>
-      <c r="C232" s="12" t="str">
+      <c r="C232" s="13" t="str">
         <f aca="false">DEC2BIN(A232,8)</f>
         <v>11100110</v>
       </c>
-      <c r="D232" s="12" t="str">
+      <c r="D232" s="13" t="str">
         <f aca="false">DEC2HEX(A232,2)</f>
         <v>E6</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="13" t="n">
+      <c r="A233" s="14" t="n">
         <v>231</v>
       </c>
       <c r="B233" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D233,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D233,'Instruction Set'!I:I,0)))</f>
         <v>STA addr,D</v>
       </c>
-      <c r="C233" s="12" t="str">
+      <c r="C233" s="13" t="str">
         <f aca="false">DEC2BIN(A233,8)</f>
         <v>11100111</v>
       </c>
-      <c r="D233" s="12" t="str">
+      <c r="D233" s="13" t="str">
         <f aca="false">DEC2HEX(A233,2)</f>
         <v>E7</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="13" t="n">
+      <c r="A234" s="14" t="n">
         <v>232</v>
       </c>
       <c r="B234" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D234,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D234,'Instruction Set'!I:I,0)))</f>
         <v>MOV M,H</v>
       </c>
-      <c r="C234" s="12" t="str">
+      <c r="C234" s="13" t="str">
         <f aca="false">DEC2BIN(A234,8)</f>
         <v>11101000</v>
       </c>
-      <c r="D234" s="12" t="str">
+      <c r="D234" s="13" t="str">
         <f aca="false">DEC2HEX(A234,2)</f>
         <v>E8</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="13" t="n">
+      <c r="A235" s="14" t="n">
         <v>233</v>
       </c>
       <c r="B235" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D235,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D235,'Instruction Set'!I:I,0)))</f>
         <v>STA addr,H</v>
       </c>
-      <c r="C235" s="12" t="str">
+      <c r="C235" s="13" t="str">
         <f aca="false">DEC2BIN(A235,8)</f>
         <v>11101001</v>
       </c>
-      <c r="D235" s="12" t="str">
+      <c r="D235" s="13" t="str">
         <f aca="false">DEC2HEX(A235,2)</f>
         <v>E9</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="13" t="n">
+      <c r="A236" s="14" t="n">
         <v>234</v>
       </c>
       <c r="B236" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D236,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D236,'Instruction Set'!I:I,0)))</f>
         <v>MOV M,L</v>
       </c>
-      <c r="C236" s="12" t="str">
+      <c r="C236" s="13" t="str">
         <f aca="false">DEC2BIN(A236,8)</f>
         <v>11101010</v>
       </c>
-      <c r="D236" s="12" t="str">
+      <c r="D236" s="13" t="str">
         <f aca="false">DEC2HEX(A236,2)</f>
         <v>EA</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="13" t="n">
+      <c r="A237" s="14" t="n">
         <v>235</v>
       </c>
       <c r="B237" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D237,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D237,'Instruction Set'!I:I,0)))</f>
         <v>STA addr,L</v>
       </c>
-      <c r="C237" s="12" t="str">
+      <c r="C237" s="13" t="str">
         <f aca="false">DEC2BIN(A237,8)</f>
         <v>11101011</v>
       </c>
-      <c r="D237" s="12" t="str">
+      <c r="D237" s="13" t="str">
         <f aca="false">DEC2HEX(A237,2)</f>
         <v>EB</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="13" t="n">
+      <c r="A238" s="14" t="n">
         <v>236</v>
       </c>
       <c r="B238" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D238,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D238,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C238" s="12" t="str">
+      <c r="C238" s="13" t="str">
         <f aca="false">DEC2BIN(A238,8)</f>
         <v>11101100</v>
       </c>
-      <c r="D238" s="12" t="str">
+      <c r="D238" s="13" t="str">
         <f aca="false">DEC2HEX(A238,2)</f>
         <v>EC</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="13" t="n">
+      <c r="A239" s="14" t="n">
         <v>237</v>
       </c>
       <c r="B239" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D239,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D239,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C239" s="12" t="str">
+      <c r="C239" s="13" t="str">
         <f aca="false">DEC2BIN(A239,8)</f>
         <v>11101101</v>
       </c>
-      <c r="D239" s="12" t="str">
+      <c r="D239" s="13" t="str">
         <f aca="false">DEC2HEX(A239,2)</f>
         <v>ED</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="13" t="n">
+      <c r="A240" s="14" t="n">
         <v>238</v>
       </c>
       <c r="B240" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D240,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D240,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C240" s="12" t="str">
+      <c r="C240" s="13" t="str">
         <f aca="false">DEC2BIN(A240,8)</f>
         <v>11101110</v>
       </c>
-      <c r="D240" s="12" t="str">
+      <c r="D240" s="13" t="str">
         <f aca="false">DEC2HEX(A240,2)</f>
         <v>EE</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="13" t="n">
+      <c r="A241" s="14" t="n">
         <v>239</v>
       </c>
       <c r="B241" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D241,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D241,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C241" s="12" t="str">
+      <c r="C241" s="13" t="str">
         <f aca="false">DEC2BIN(A241,8)</f>
         <v>11101111</v>
       </c>
-      <c r="D241" s="12" t="str">
+      <c r="D241" s="13" t="str">
         <f aca="false">DEC2HEX(A241,2)</f>
         <v>EF</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="13" t="n">
+      <c r="A242" s="14" t="n">
         <v>240</v>
       </c>
       <c r="B242" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D242,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D242,'Instruction Set'!I:I,0)))</f>
         <v>INC A</v>
       </c>
-      <c r="C242" s="12" t="str">
+      <c r="C242" s="13" t="str">
         <f aca="false">DEC2BIN(A242,8)</f>
         <v>11110000</v>
       </c>
-      <c r="D242" s="12" t="str">
+      <c r="D242" s="13" t="str">
         <f aca="false">DEC2HEX(A242,2)</f>
         <v>F0</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="13" t="n">
+      <c r="A243" s="14" t="n">
         <v>241</v>
       </c>
       <c r="B243" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D243,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D243,'Instruction Set'!I:I,0)))</f>
         <v>INC B</v>
       </c>
-      <c r="C243" s="12" t="str">
+      <c r="C243" s="13" t="str">
         <f aca="false">DEC2BIN(A243,8)</f>
         <v>11110001</v>
       </c>
-      <c r="D243" s="12" t="str">
+      <c r="D243" s="13" t="str">
         <f aca="false">DEC2HEX(A243,2)</f>
         <v>F1</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="13" t="n">
+      <c r="A244" s="14" t="n">
         <v>242</v>
       </c>
       <c r="B244" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D244,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D244,'Instruction Set'!I:I,0)))</f>
         <v>INC C</v>
       </c>
-      <c r="C244" s="12" t="str">
+      <c r="C244" s="13" t="str">
         <f aca="false">DEC2BIN(A244,8)</f>
         <v>11110010</v>
       </c>
-      <c r="D244" s="12" t="str">
+      <c r="D244" s="13" t="str">
         <f aca="false">DEC2HEX(A244,2)</f>
         <v>F2</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="13" t="n">
+      <c r="A245" s="14" t="n">
         <v>243</v>
       </c>
       <c r="B245" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D245,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D245,'Instruction Set'!I:I,0)))</f>
         <v>INC D</v>
       </c>
-      <c r="C245" s="12" t="str">
+      <c r="C245" s="13" t="str">
         <f aca="false">DEC2BIN(A245,8)</f>
         <v>11110011</v>
       </c>
-      <c r="D245" s="12" t="str">
+      <c r="D245" s="13" t="str">
         <f aca="false">DEC2HEX(A245,2)</f>
         <v>F3</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="13" t="n">
+      <c r="A246" s="14" t="n">
         <v>244</v>
       </c>
       <c r="B246" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D246,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D246,'Instruction Set'!I:I,0)))</f>
         <v>INC H</v>
       </c>
-      <c r="C246" s="12" t="str">
+      <c r="C246" s="13" t="str">
         <f aca="false">DEC2BIN(A246,8)</f>
         <v>11110100</v>
       </c>
-      <c r="D246" s="12" t="str">
+      <c r="D246" s="13" t="str">
         <f aca="false">DEC2HEX(A246,2)</f>
         <v>F4</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="13" t="n">
+      <c r="A247" s="14" t="n">
         <v>245</v>
       </c>
       <c r="B247" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D247,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D247,'Instruction Set'!I:I,0)))</f>
         <v>INC L</v>
       </c>
-      <c r="C247" s="12" t="str">
+      <c r="C247" s="13" t="str">
         <f aca="false">DEC2BIN(A247,8)</f>
         <v>11110101</v>
       </c>
-      <c r="D247" s="12" t="str">
+      <c r="D247" s="13" t="str">
         <f aca="false">DEC2HEX(A247,2)</f>
         <v>F5</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="13" t="n">
+      <c r="A248" s="14" t="n">
         <v>246</v>
       </c>
       <c r="B248" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D248,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D248,'Instruction Set'!I:I,0)))</f>
         <v>INC M</v>
       </c>
-      <c r="C248" s="12" t="str">
+      <c r="C248" s="13" t="str">
         <f aca="false">DEC2BIN(A248,8)</f>
         <v>11110110</v>
       </c>
-      <c r="D248" s="12" t="str">
+      <c r="D248" s="13" t="str">
         <f aca="false">DEC2HEX(A248,2)</f>
         <v>F6</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="13" t="n">
+      <c r="A249" s="14" t="n">
         <v>247</v>
       </c>
       <c r="B249" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D249,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D249,'Instruction Set'!I:I,0)))</f>
         <v>RST</v>
       </c>
-      <c r="C249" s="12" t="str">
+      <c r="C249" s="13" t="str">
         <f aca="false">DEC2BIN(A249,8)</f>
         <v>11110111</v>
       </c>
-      <c r="D249" s="12" t="str">
+      <c r="D249" s="13" t="str">
         <f aca="false">DEC2HEX(A249,2)</f>
         <v>F7</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="13" t="n">
+      <c r="A250" s="14" t="n">
         <v>248</v>
       </c>
       <c r="B250" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D250,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D250,'Instruction Set'!I:I,0)))</f>
         <v>DEC A</v>
       </c>
-      <c r="C250" s="12" t="str">
+      <c r="C250" s="13" t="str">
         <f aca="false">DEC2BIN(A250,8)</f>
         <v>11111000</v>
       </c>
-      <c r="D250" s="12" t="str">
+      <c r="D250" s="13" t="str">
         <f aca="false">DEC2HEX(A250,2)</f>
         <v>F8</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="13" t="n">
+      <c r="A251" s="14" t="n">
         <v>249</v>
       </c>
       <c r="B251" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D251,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D251,'Instruction Set'!I:I,0)))</f>
         <v>DEC B</v>
       </c>
-      <c r="C251" s="12" t="str">
+      <c r="C251" s="13" t="str">
         <f aca="false">DEC2BIN(A251,8)</f>
         <v>11111001</v>
       </c>
-      <c r="D251" s="12" t="str">
+      <c r="D251" s="13" t="str">
         <f aca="false">DEC2HEX(A251,2)</f>
         <v>F9</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="13" t="n">
+      <c r="A252" s="14" t="n">
         <v>250</v>
       </c>
       <c r="B252" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D252,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D252,'Instruction Set'!I:I,0)))</f>
         <v>DEC C</v>
       </c>
-      <c r="C252" s="12" t="str">
+      <c r="C252" s="13" t="str">
         <f aca="false">DEC2BIN(A252,8)</f>
         <v>11111010</v>
       </c>
-      <c r="D252" s="12" t="str">
+      <c r="D252" s="13" t="str">
         <f aca="false">DEC2HEX(A252,2)</f>
         <v>FA</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="13" t="n">
+      <c r="A253" s="14" t="n">
         <v>251</v>
       </c>
       <c r="B253" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D253,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D253,'Instruction Set'!I:I,0)))</f>
         <v>DEC D</v>
       </c>
-      <c r="C253" s="12" t="str">
+      <c r="C253" s="13" t="str">
         <f aca="false">DEC2BIN(A253,8)</f>
         <v>11111011</v>
       </c>
-      <c r="D253" s="12" t="str">
+      <c r="D253" s="13" t="str">
         <f aca="false">DEC2HEX(A253,2)</f>
         <v>FB</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="13" t="n">
+      <c r="A254" s="14" t="n">
         <v>252</v>
       </c>
       <c r="B254" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D254,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D254,'Instruction Set'!I:I,0)))</f>
         <v>DEC H</v>
       </c>
-      <c r="C254" s="12" t="str">
+      <c r="C254" s="13" t="str">
         <f aca="false">DEC2BIN(A254,8)</f>
         <v>11111100</v>
       </c>
-      <c r="D254" s="12" t="str">
+      <c r="D254" s="13" t="str">
         <f aca="false">DEC2HEX(A254,2)</f>
         <v>FC</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="13" t="n">
+      <c r="A255" s="14" t="n">
         <v>253</v>
       </c>
       <c r="B255" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D255,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D255,'Instruction Set'!I:I,0)))</f>
         <v>DEC L</v>
       </c>
-      <c r="C255" s="12" t="str">
+      <c r="C255" s="13" t="str">
         <f aca="false">DEC2BIN(A255,8)</f>
         <v>11111101</v>
       </c>
-      <c r="D255" s="12" t="str">
+      <c r="D255" s="13" t="str">
         <f aca="false">DEC2HEX(A255,2)</f>
         <v>FD</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="13" t="n">
+      <c r="A256" s="14" t="n">
         <v>254</v>
       </c>
       <c r="B256" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D256,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D256,'Instruction Set'!I:I,0)))</f>
         <v>DEC M</v>
       </c>
-      <c r="C256" s="12" t="str">
+      <c r="C256" s="13" t="str">
         <f aca="false">DEC2BIN(A256,8)</f>
         <v>11111110</v>
       </c>
-      <c r="D256" s="12" t="str">
+      <c r="D256" s="13" t="str">
         <f aca="false">DEC2HEX(A256,2)</f>
         <v>FE</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="13" t="n">
+      <c r="A257" s="14" t="n">
         <v>255</v>
       </c>
       <c r="B257" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D257,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D257,'Instruction Set'!I:I,0)))</f>
         <v>HLT</v>
       </c>
-      <c r="C257" s="12" t="str">
+      <c r="C257" s="13" t="str">
         <f aca="false">DEC2BIN(A257,8)</f>
         <v>11111111</v>
       </c>
-      <c r="D257" s="12" t="str">
+      <c r="D257" s="13" t="str">
         <f aca="false">DEC2HEX(A257,2)</f>
         <v>FF</v>
       </c>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -431,7 +431,7 @@
     <t xml:space="preserve">Move given address/data into Stack Pointer</t>
   </si>
   <si>
-    <t xml:space="preserve">LDA rd,addr</t>
+    <t xml:space="preserve">LODA rd,addr</t>
   </si>
   <si>
     <t xml:space="preserve">Load from address</t>
@@ -440,10 +440,10 @@
     <t xml:space="preserve">Address</t>
   </si>
   <si>
-    <t xml:space="preserve">LDA A,0xFFF0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA A,addr</t>
+    <t xml:space="preserve">LODA A,0xFFF0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LODA A,addr</t>
   </si>
   <si>
     <t xml:space="preserve">Low-order byte of address</t>
@@ -458,31 +458,31 @@
     <t xml:space="preserve">1&lt;r&gt;1101</t>
   </si>
   <si>
-    <t xml:space="preserve">LDA B,addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA C,addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA D,addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA H,addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA L,addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA addr,rs</t>
+    <t xml:space="preserve">LODA B,addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LODA C,addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LODA D,addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LODA H,addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LODA L,addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOA addr,rs</t>
   </si>
   <si>
     <t xml:space="preserve">Store to address</t>
   </si>
   <si>
-    <t xml:space="preserve">STA 0xFFF0,A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA addr,A</t>
+    <t xml:space="preserve">STOA 0xFFF0,A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOA addr,A</t>
   </si>
   <si>
     <t xml:space="preserve">Store value of source register into given address</t>
@@ -491,19 +491,19 @@
     <t xml:space="preserve">1110&lt;r&gt;1</t>
   </si>
   <si>
-    <t xml:space="preserve">STA addr,B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA addr,C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA addr,D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA addr,H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA addr,L</t>
+    <t xml:space="preserve">STOA addr,B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOA addr,C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOA addr,D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOA addr,H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOA addr,L</t>
   </si>
   <si>
     <t xml:space="preserve">PUSH r</t>
@@ -2221,7 +2221,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2268,10 +2268,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -7268,7 +7264,7 @@
       <c r="H230" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="I230" s="12" t="str">
+      <c r="I230" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H230),2)</f>
         <v>B5</v>
       </c>
@@ -7298,7 +7294,7 @@
       <c r="H231" s="7" t="n">
         <v>11011111</v>
       </c>
-      <c r="I231" s="12" t="str">
+      <c r="I231" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H231),2)</f>
         <v>DF</v>
       </c>
@@ -7331,7 +7327,7 @@
       <c r="H232" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="I232" s="12" t="str">
+      <c r="I232" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H232),2)</f>
         <v>F0</v>
       </c>
@@ -7352,7 +7348,7 @@
       <c r="H233" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="I233" s="12" t="str">
+      <c r="I233" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H233),2)</f>
         <v>F1</v>
       </c>
@@ -7367,7 +7363,7 @@
       <c r="H234" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="I234" s="12" t="str">
+      <c r="I234" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H234),2)</f>
         <v>F2</v>
       </c>
@@ -7382,7 +7378,7 @@
       <c r="H235" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="I235" s="12" t="str">
+      <c r="I235" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H235),2)</f>
         <v>F3</v>
       </c>
@@ -7397,7 +7393,7 @@
       <c r="H236" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="I236" s="12" t="str">
+      <c r="I236" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H236),2)</f>
         <v>F4</v>
       </c>
@@ -7412,7 +7408,7 @@
       <c r="H237" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="I237" s="12" t="str">
+      <c r="I237" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H237),2)</f>
         <v>F5</v>
       </c>
@@ -7430,7 +7426,7 @@
       <c r="H238" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="I238" s="12" t="str">
+      <c r="I238" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H238),2)</f>
         <v>F6</v>
       </c>
@@ -7460,7 +7456,7 @@
       <c r="H239" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="I239" s="12" t="str">
+      <c r="I239" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H239),2)</f>
         <v>F8</v>
       </c>
@@ -7481,7 +7477,7 @@
       <c r="H240" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="I240" s="12" t="str">
+      <c r="I240" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H240),2)</f>
         <v>F9</v>
       </c>
@@ -7496,7 +7492,7 @@
       <c r="H241" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="I241" s="12" t="str">
+      <c r="I241" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H241),2)</f>
         <v>FA</v>
       </c>
@@ -7511,7 +7507,7 @@
       <c r="H242" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="I242" s="12" t="str">
+      <c r="I242" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H242),2)</f>
         <v>FB</v>
       </c>
@@ -7526,7 +7522,7 @@
       <c r="H243" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="I243" s="12" t="str">
+      <c r="I243" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H243),2)</f>
         <v>FC</v>
       </c>
@@ -7541,7 +7537,7 @@
       <c r="H244" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="I244" s="12" t="str">
+      <c r="I244" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H244),2)</f>
         <v>FD</v>
       </c>
@@ -7559,7 +7555,7 @@
       <c r="H245" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="I245" s="12" t="str">
+      <c r="I245" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H245),2)</f>
         <v>FE</v>
       </c>
@@ -7586,7 +7582,7 @@
       <c r="H246" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="I246" s="12" t="str">
+      <c r="I246" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H246),2)</f>
         <v>87</v>
       </c>
@@ -7613,7 +7609,7 @@
       <c r="H247" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="I247" s="12" t="str">
+      <c r="I247" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H247),2)</f>
         <v>D9</v>
       </c>
@@ -7648,12 +7644,12 @@
       <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="12.96"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7671,4353 +7667,4353 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="A2" s="13" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D2,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D2,'Instruction Set'!I:I,0)))</f>
         <v>NOP</v>
       </c>
-      <c r="C2" s="13" t="str">
+      <c r="C2" s="12" t="str">
         <f aca="false">DEC2BIN(A2,8)</f>
         <v>00000000</v>
       </c>
-      <c r="D2" s="13" t="str">
+      <c r="D2" s="12" t="str">
         <f aca="false">DEC2HEX(A2,2)</f>
         <v>00</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="13" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D3,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D3,'Instruction Set'!I:I,0)))</f>
         <v>JA M</v>
       </c>
-      <c r="C3" s="13" t="str">
+      <c r="C3" s="12" t="str">
         <f aca="false">DEC2BIN(A3,8)</f>
         <v>00000001</v>
       </c>
-      <c r="D3" s="13" t="str">
+      <c r="D3" s="12" t="str">
         <f aca="false">DEC2HEX(A3,2)</f>
         <v>01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="13" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D4,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D4,'Instruction Set'!I:I,0)))</f>
         <v>MOV HL,IP</v>
       </c>
-      <c r="C4" s="13" t="str">
+      <c r="C4" s="12" t="str">
         <f aca="false">DEC2BIN(A4,8)</f>
         <v>00000010</v>
       </c>
-      <c r="D4" s="13" t="str">
+      <c r="D4" s="12" t="str">
         <f aca="false">DEC2HEX(A4,2)</f>
         <v>02</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="13" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D5,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D5,'Instruction Set'!I:I,0)))</f>
         <v>JA addr</v>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C5" s="12" t="str">
         <f aca="false">DEC2BIN(A5,8)</f>
         <v>00000011</v>
       </c>
-      <c r="D5" s="13" t="str">
+      <c r="D5" s="12" t="str">
         <f aca="false">DEC2HEX(A5,2)</f>
         <v>03</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="13" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D6,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D6,'Instruction Set'!I:I,0)))</f>
         <v>MOV HL,SP</v>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="12" t="str">
         <f aca="false">DEC2BIN(A6,8)</f>
         <v>00000100</v>
       </c>
-      <c r="D6" s="13" t="str">
+      <c r="D6" s="12" t="str">
         <f aca="false">DEC2HEX(A6,2)</f>
         <v>04</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="13" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D7,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D7,'Instruction Set'!I:I,0)))</f>
         <v>RET</v>
       </c>
-      <c r="C7" s="13" t="str">
+      <c r="C7" s="12" t="str">
         <f aca="false">DEC2BIN(A7,8)</f>
         <v>00000101</v>
       </c>
-      <c r="D7" s="13" t="str">
+      <c r="D7" s="12" t="str">
         <f aca="false">DEC2HEX(A7,2)</f>
         <v>05</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="13" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D8,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D8,'Instruction Set'!I:I,0)))</f>
         <v>JNA M</v>
       </c>
-      <c r="C8" s="13" t="str">
+      <c r="C8" s="12" t="str">
         <f aca="false">DEC2BIN(A8,8)</f>
         <v>00000110</v>
       </c>
-      <c r="D8" s="13" t="str">
+      <c r="D8" s="12" t="str">
         <f aca="false">DEC2HEX(A8,2)</f>
         <v>06</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="13" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D9,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D9,'Instruction Set'!I:I,0)))</f>
         <v>JNA addr</v>
       </c>
-      <c r="C9" s="13" t="str">
+      <c r="C9" s="12" t="str">
         <f aca="false">DEC2BIN(A9,8)</f>
         <v>00000111</v>
       </c>
-      <c r="D9" s="13" t="str">
+      <c r="D9" s="12" t="str">
         <f aca="false">DEC2HEX(A9,2)</f>
         <v>07</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+      <c r="A10" s="13" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D10,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D10,'Instruction Set'!I:I,0)))</f>
         <v>NOT A</v>
       </c>
-      <c r="C10" s="13" t="str">
+      <c r="C10" s="12" t="str">
         <f aca="false">DEC2BIN(A10,8)</f>
         <v>00001000</v>
       </c>
-      <c r="D10" s="13" t="str">
+      <c r="D10" s="12" t="str">
         <f aca="false">DEC2HEX(A10,2)</f>
         <v>08</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="A11" s="13" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D11,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D11,'Instruction Set'!I:I,0)))</f>
         <v>NOT B</v>
       </c>
-      <c r="C11" s="13" t="str">
+      <c r="C11" s="12" t="str">
         <f aca="false">DEC2BIN(A11,8)</f>
         <v>00001001</v>
       </c>
-      <c r="D11" s="13" t="str">
+      <c r="D11" s="12" t="str">
         <f aca="false">DEC2HEX(A11,2)</f>
         <v>09</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
+      <c r="A12" s="13" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D12,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D12,'Instruction Set'!I:I,0)))</f>
         <v>NOT C</v>
       </c>
-      <c r="C12" s="13" t="str">
+      <c r="C12" s="12" t="str">
         <f aca="false">DEC2BIN(A12,8)</f>
         <v>00001010</v>
       </c>
-      <c r="D12" s="13" t="str">
+      <c r="D12" s="12" t="str">
         <f aca="false">DEC2HEX(A12,2)</f>
         <v>0A</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="n">
+      <c r="A13" s="13" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D13,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D13,'Instruction Set'!I:I,0)))</f>
         <v>NOT D</v>
       </c>
-      <c r="C13" s="13" t="str">
+      <c r="C13" s="12" t="str">
         <f aca="false">DEC2BIN(A13,8)</f>
         <v>00001011</v>
       </c>
-      <c r="D13" s="13" t="str">
+      <c r="D13" s="12" t="str">
         <f aca="false">DEC2HEX(A13,2)</f>
         <v>0B</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="n">
+      <c r="A14" s="13" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D14,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D14,'Instruction Set'!I:I,0)))</f>
         <v>NOT H</v>
       </c>
-      <c r="C14" s="13" t="str">
+      <c r="C14" s="12" t="str">
         <f aca="false">DEC2BIN(A14,8)</f>
         <v>00001100</v>
       </c>
-      <c r="D14" s="13" t="str">
+      <c r="D14" s="12" t="str">
         <f aca="false">DEC2HEX(A14,2)</f>
         <v>0C</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="n">
+      <c r="A15" s="13" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D15,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D15,'Instruction Set'!I:I,0)))</f>
         <v>NOT L</v>
       </c>
-      <c r="C15" s="13" t="str">
+      <c r="C15" s="12" t="str">
         <f aca="false">DEC2BIN(A15,8)</f>
         <v>00001101</v>
       </c>
-      <c r="D15" s="13" t="str">
+      <c r="D15" s="12" t="str">
         <f aca="false">DEC2HEX(A15,2)</f>
         <v>0D</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
+      <c r="A16" s="13" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D16,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D16,'Instruction Set'!I:I,0)))</f>
         <v>MOV HL,addr/data</v>
       </c>
-      <c r="C16" s="13" t="str">
+      <c r="C16" s="12" t="str">
         <f aca="false">DEC2BIN(A16,8)</f>
         <v>00001110</v>
       </c>
-      <c r="D16" s="13" t="str">
+      <c r="D16" s="12" t="str">
         <f aca="false">DEC2HEX(A16,2)</f>
         <v>0E</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="n">
+      <c r="A17" s="13" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D17,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D17,'Instruction Set'!I:I,0)))</f>
         <v>NOT M</v>
       </c>
-      <c r="C17" s="13" t="str">
+      <c r="C17" s="12" t="str">
         <f aca="false">DEC2BIN(A17,8)</f>
         <v>00001111</v>
       </c>
-      <c r="D17" s="13" t="str">
+      <c r="D17" s="12" t="str">
         <f aca="false">DEC2HEX(A17,2)</f>
         <v>0F</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="n">
+      <c r="A18" s="13" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D18,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D18,'Instruction Set'!I:I,0)))</f>
         <v>MOV IP,HL</v>
       </c>
-      <c r="C18" s="13" t="str">
+      <c r="C18" s="12" t="str">
         <f aca="false">DEC2BIN(A18,8)</f>
         <v>00010000</v>
       </c>
-      <c r="D18" s="13" t="str">
+      <c r="D18" s="12" t="str">
         <f aca="false">DEC2HEX(A18,2)</f>
         <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
+      <c r="A19" s="13" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D19,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D19,'Instruction Set'!I:I,0)))</f>
         <v>RC</v>
       </c>
-      <c r="C19" s="13" t="str">
+      <c r="C19" s="12" t="str">
         <f aca="false">DEC2BIN(A19,8)</f>
         <v>00010001</v>
       </c>
-      <c r="D19" s="13" t="str">
+      <c r="D19" s="12" t="str">
         <f aca="false">DEC2HEX(A19,2)</f>
         <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="n">
+      <c r="A20" s="13" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D20,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D20,'Instruction Set'!I:I,0)))</f>
         <v>CA M</v>
       </c>
-      <c r="C20" s="13" t="str">
+      <c r="C20" s="12" t="str">
         <f aca="false">DEC2BIN(A20,8)</f>
         <v>00010010</v>
       </c>
-      <c r="D20" s="13" t="str">
+      <c r="D20" s="12" t="str">
         <f aca="false">DEC2HEX(A20,2)</f>
         <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
+      <c r="A21" s="13" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D21,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D21,'Instruction Set'!I:I,0)))</f>
         <v>CA addr</v>
       </c>
-      <c r="C21" s="13" t="str">
+      <c r="C21" s="12" t="str">
         <f aca="false">DEC2BIN(A21,8)</f>
         <v>00010011</v>
       </c>
-      <c r="D21" s="13" t="str">
+      <c r="D21" s="12" t="str">
         <f aca="false">DEC2HEX(A21,2)</f>
         <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
+      <c r="A22" s="13" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D22,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D22,'Instruction Set'!I:I,0)))</f>
         <v>MOV IP,SP</v>
       </c>
-      <c r="C22" s="13" t="str">
+      <c r="C22" s="12" t="str">
         <f aca="false">DEC2BIN(A22,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D22" s="13" t="str">
+      <c r="D22" s="12" t="str">
         <f aca="false">DEC2HEX(A22,2)</f>
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
+      <c r="A23" s="13" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D23,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D23,'Instruction Set'!I:I,0)))</f>
         <v>RNC</v>
       </c>
-      <c r="C23" s="13" t="str">
+      <c r="C23" s="12" t="str">
         <f aca="false">DEC2BIN(A23,8)</f>
         <v>00010101</v>
       </c>
-      <c r="D23" s="13" t="str">
+      <c r="D23" s="12" t="str">
         <f aca="false">DEC2HEX(A23,2)</f>
         <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="n">
+      <c r="A24" s="13" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D24,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D24,'Instruction Set'!I:I,0)))</f>
         <v>CNA M</v>
       </c>
-      <c r="C24" s="13" t="str">
+      <c r="C24" s="12" t="str">
         <f aca="false">DEC2BIN(A24,8)</f>
         <v>00010110</v>
       </c>
-      <c r="D24" s="13" t="str">
+      <c r="D24" s="12" t="str">
         <f aca="false">DEC2HEX(A24,2)</f>
         <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="n">
+      <c r="A25" s="13" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D25,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D25,'Instruction Set'!I:I,0)))</f>
         <v>CNA addr</v>
       </c>
-      <c r="C25" s="13" t="str">
+      <c r="C25" s="12" t="str">
         <f aca="false">DEC2BIN(A25,8)</f>
         <v>00010111</v>
       </c>
-      <c r="D25" s="13" t="str">
+      <c r="D25" s="12" t="str">
         <f aca="false">DEC2HEX(A25,2)</f>
         <v>17</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="n">
+      <c r="A26" s="13" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D26,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D26,'Instruction Set'!I:I,0)))</f>
         <v>SHL A</v>
       </c>
-      <c r="C26" s="13" t="str">
+      <c r="C26" s="12" t="str">
         <f aca="false">DEC2BIN(A26,8)</f>
         <v>00011000</v>
       </c>
-      <c r="D26" s="13" t="str">
+      <c r="D26" s="12" t="str">
         <f aca="false">DEC2HEX(A26,2)</f>
         <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="n">
+      <c r="A27" s="13" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D27,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D27,'Instruction Set'!I:I,0)))</f>
         <v>SHL B</v>
       </c>
-      <c r="C27" s="13" t="str">
+      <c r="C27" s="12" t="str">
         <f aca="false">DEC2BIN(A27,8)</f>
         <v>00011001</v>
       </c>
-      <c r="D27" s="13" t="str">
+      <c r="D27" s="12" t="str">
         <f aca="false">DEC2HEX(A27,2)</f>
         <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="n">
+      <c r="A28" s="13" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D28,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D28,'Instruction Set'!I:I,0)))</f>
         <v>SHL C</v>
       </c>
-      <c r="C28" s="13" t="str">
+      <c r="C28" s="12" t="str">
         <f aca="false">DEC2BIN(A28,8)</f>
         <v>00011010</v>
       </c>
-      <c r="D28" s="13" t="str">
+      <c r="D28" s="12" t="str">
         <f aca="false">DEC2HEX(A28,2)</f>
         <v>1A</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="n">
+      <c r="A29" s="13" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D29,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D29,'Instruction Set'!I:I,0)))</f>
         <v>SHL D</v>
       </c>
-      <c r="C29" s="13" t="str">
+      <c r="C29" s="12" t="str">
         <f aca="false">DEC2BIN(A29,8)</f>
         <v>00011011</v>
       </c>
-      <c r="D29" s="13" t="str">
+      <c r="D29" s="12" t="str">
         <f aca="false">DEC2HEX(A29,2)</f>
         <v>1B</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="n">
+      <c r="A30" s="13" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D30,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D30,'Instruction Set'!I:I,0)))</f>
         <v>SHL H</v>
       </c>
-      <c r="C30" s="13" t="str">
+      <c r="C30" s="12" t="str">
         <f aca="false">DEC2BIN(A30,8)</f>
         <v>00011100</v>
       </c>
-      <c r="D30" s="13" t="str">
+      <c r="D30" s="12" t="str">
         <f aca="false">DEC2HEX(A30,2)</f>
         <v>1C</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="n">
+      <c r="A31" s="13" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D31,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D31,'Instruction Set'!I:I,0)))</f>
         <v>SHL L</v>
       </c>
-      <c r="C31" s="13" t="str">
+      <c r="C31" s="12" t="str">
         <f aca="false">DEC2BIN(A31,8)</f>
         <v>00011101</v>
       </c>
-      <c r="D31" s="13" t="str">
+      <c r="D31" s="12" t="str">
         <f aca="false">DEC2HEX(A31,2)</f>
         <v>1D</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="n">
+      <c r="A32" s="13" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D32,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D32,'Instruction Set'!I:I,0)))</f>
         <v>MOV IP,addr/data</v>
       </c>
-      <c r="C32" s="13" t="str">
+      <c r="C32" s="12" t="str">
         <f aca="false">DEC2BIN(A32,8)</f>
         <v>00011110</v>
       </c>
-      <c r="D32" s="13" t="str">
+      <c r="D32" s="12" t="str">
         <f aca="false">DEC2HEX(A32,2)</f>
         <v>1E</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="n">
+      <c r="A33" s="13" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D33,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D33,'Instruction Set'!I:I,0)))</f>
         <v>SHL M</v>
       </c>
-      <c r="C33" s="13" t="str">
+      <c r="C33" s="12" t="str">
         <f aca="false">DEC2BIN(A33,8)</f>
         <v>00011111</v>
       </c>
-      <c r="D33" s="13" t="str">
+      <c r="D33" s="12" t="str">
         <f aca="false">DEC2HEX(A33,2)</f>
         <v>1F</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="n">
+      <c r="A34" s="13" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D34,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D34,'Instruction Set'!I:I,0)))</f>
         <v>MOV SP,HL</v>
       </c>
-      <c r="C34" s="13" t="str">
+      <c r="C34" s="12" t="str">
         <f aca="false">DEC2BIN(A34,8)</f>
         <v>00100000</v>
       </c>
-      <c r="D34" s="13" t="str">
+      <c r="D34" s="12" t="str">
         <f aca="false">DEC2HEX(A34,2)</f>
         <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="n">
+      <c r="A35" s="13" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D35,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D35,'Instruction Set'!I:I,0)))</f>
         <v>RZ</v>
       </c>
-      <c r="C35" s="13" t="str">
+      <c r="C35" s="12" t="str">
         <f aca="false">DEC2BIN(A35,8)</f>
         <v>00100001</v>
       </c>
-      <c r="D35" s="13" t="str">
+      <c r="D35" s="12" t="str">
         <f aca="false">DEC2HEX(A35,2)</f>
         <v>21</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="n">
+      <c r="A36" s="13" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D36,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D36,'Instruction Set'!I:I,0)))</f>
         <v>MOV SP,IP</v>
       </c>
-      <c r="C36" s="13" t="str">
+      <c r="C36" s="12" t="str">
         <f aca="false">DEC2BIN(A36,8)</f>
         <v>00100010</v>
       </c>
-      <c r="D36" s="13" t="str">
+      <c r="D36" s="12" t="str">
         <f aca="false">DEC2HEX(A36,2)</f>
         <v>22</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="n">
+      <c r="A37" s="13" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D37,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D37,'Instruction Set'!I:I,0)))</f>
         <v>RNZ</v>
       </c>
-      <c r="C37" s="13" t="str">
+      <c r="C37" s="12" t="str">
         <f aca="false">DEC2BIN(A37,8)</f>
         <v>00100011</v>
       </c>
-      <c r="D37" s="13" t="str">
+      <c r="D37" s="12" t="str">
         <f aca="false">DEC2HEX(A37,2)</f>
         <v>23</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="n">
+      <c r="A38" s="13" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D38,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D38,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C38" s="13" t="str">
+      <c r="C38" s="12" t="str">
         <f aca="false">DEC2BIN(A38,8)</f>
         <v>00100100</v>
       </c>
-      <c r="D38" s="13" t="str">
+      <c r="D38" s="12" t="str">
         <f aca="false">DEC2HEX(A38,2)</f>
         <v>24</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="n">
+      <c r="A39" s="13" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D39,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D39,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C39" s="13" t="str">
+      <c r="C39" s="12" t="str">
         <f aca="false">DEC2BIN(A39,8)</f>
         <v>00100101</v>
       </c>
-      <c r="D39" s="13" t="str">
+      <c r="D39" s="12" t="str">
         <f aca="false">DEC2HEX(A39,2)</f>
         <v>25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="n">
+      <c r="A40" s="13" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D40,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D40,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C40" s="13" t="str">
+      <c r="C40" s="12" t="str">
         <f aca="false">DEC2BIN(A40,8)</f>
         <v>00100110</v>
       </c>
-      <c r="D40" s="13" t="str">
+      <c r="D40" s="12" t="str">
         <f aca="false">DEC2HEX(A40,2)</f>
         <v>26</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="n">
+      <c r="A41" s="13" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D41,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D41,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C41" s="13" t="str">
+      <c r="C41" s="12" t="str">
         <f aca="false">DEC2BIN(A41,8)</f>
         <v>00100111</v>
       </c>
-      <c r="D41" s="13" t="str">
+      <c r="D41" s="12" t="str">
         <f aca="false">DEC2HEX(A41,2)</f>
         <v>27</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="n">
+      <c r="A42" s="13" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D42,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D42,'Instruction Set'!I:I,0)))</f>
         <v>SHR A</v>
       </c>
-      <c r="C42" s="13" t="str">
+      <c r="C42" s="12" t="str">
         <f aca="false">DEC2BIN(A42,8)</f>
         <v>00101000</v>
       </c>
-      <c r="D42" s="13" t="str">
+      <c r="D42" s="12" t="str">
         <f aca="false">DEC2HEX(A42,2)</f>
         <v>28</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="n">
+      <c r="A43" s="13" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D43,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D43,'Instruction Set'!I:I,0)))</f>
         <v>SHR B</v>
       </c>
-      <c r="C43" s="13" t="str">
+      <c r="C43" s="12" t="str">
         <f aca="false">DEC2BIN(A43,8)</f>
         <v>00101001</v>
       </c>
-      <c r="D43" s="13" t="str">
+      <c r="D43" s="12" t="str">
         <f aca="false">DEC2HEX(A43,2)</f>
         <v>29</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="n">
+      <c r="A44" s="13" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D44,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D44,'Instruction Set'!I:I,0)))</f>
         <v>SHR C</v>
       </c>
-      <c r="C44" s="13" t="str">
+      <c r="C44" s="12" t="str">
         <f aca="false">DEC2BIN(A44,8)</f>
         <v>00101010</v>
       </c>
-      <c r="D44" s="13" t="str">
+      <c r="D44" s="12" t="str">
         <f aca="false">DEC2HEX(A44,2)</f>
         <v>2A</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="n">
+      <c r="A45" s="13" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D45,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D45,'Instruction Set'!I:I,0)))</f>
         <v>SHR D</v>
       </c>
-      <c r="C45" s="13" t="str">
+      <c r="C45" s="12" t="str">
         <f aca="false">DEC2BIN(A45,8)</f>
         <v>00101011</v>
       </c>
-      <c r="D45" s="13" t="str">
+      <c r="D45" s="12" t="str">
         <f aca="false">DEC2HEX(A45,2)</f>
         <v>2B</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="n">
+      <c r="A46" s="13" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D46,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D46,'Instruction Set'!I:I,0)))</f>
         <v>SHR H</v>
       </c>
-      <c r="C46" s="13" t="str">
+      <c r="C46" s="12" t="str">
         <f aca="false">DEC2BIN(A46,8)</f>
         <v>00101100</v>
       </c>
-      <c r="D46" s="13" t="str">
+      <c r="D46" s="12" t="str">
         <f aca="false">DEC2HEX(A46,2)</f>
         <v>2C</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="n">
+      <c r="A47" s="13" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D47,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D47,'Instruction Set'!I:I,0)))</f>
         <v>SHR L</v>
       </c>
-      <c r="C47" s="13" t="str">
+      <c r="C47" s="12" t="str">
         <f aca="false">DEC2BIN(A47,8)</f>
         <v>00101101</v>
       </c>
-      <c r="D47" s="13" t="str">
+      <c r="D47" s="12" t="str">
         <f aca="false">DEC2HEX(A47,2)</f>
         <v>2D</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="n">
+      <c r="A48" s="13" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D48,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D48,'Instruction Set'!I:I,0)))</f>
         <v>MOV SP,addr/data</v>
       </c>
-      <c r="C48" s="13" t="str">
+      <c r="C48" s="12" t="str">
         <f aca="false">DEC2BIN(A48,8)</f>
         <v>00101110</v>
       </c>
-      <c r="D48" s="13" t="str">
+      <c r="D48" s="12" t="str">
         <f aca="false">DEC2HEX(A48,2)</f>
         <v>2E</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="n">
+      <c r="A49" s="13" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D49,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D49,'Instruction Set'!I:I,0)))</f>
         <v>SHR M</v>
       </c>
-      <c r="C49" s="13" t="str">
+      <c r="C49" s="12" t="str">
         <f aca="false">DEC2BIN(A49,8)</f>
         <v>00101111</v>
       </c>
-      <c r="D49" s="13" t="str">
+      <c r="D49" s="12" t="str">
         <f aca="false">DEC2HEX(A49,2)</f>
         <v>2F</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="n">
+      <c r="A50" s="13" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D50,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D50,'Instruction Set'!I:I,0)))</f>
         <v>AND A</v>
       </c>
-      <c r="C50" s="13" t="str">
+      <c r="C50" s="12" t="str">
         <f aca="false">DEC2BIN(A50,8)</f>
         <v>00110000</v>
       </c>
-      <c r="D50" s="13" t="str">
+      <c r="D50" s="12" t="str">
         <f aca="false">DEC2HEX(A50,2)</f>
         <v>30</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="n">
+      <c r="A51" s="13" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D51,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D51,'Instruction Set'!I:I,0)))</f>
         <v>AND B</v>
       </c>
-      <c r="C51" s="13" t="str">
+      <c r="C51" s="12" t="str">
         <f aca="false">DEC2BIN(A51,8)</f>
         <v>00110001</v>
       </c>
-      <c r="D51" s="13" t="str">
+      <c r="D51" s="12" t="str">
         <f aca="false">DEC2HEX(A51,2)</f>
         <v>31</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="n">
+      <c r="A52" s="13" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D52,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D52,'Instruction Set'!I:I,0)))</f>
         <v>AND C</v>
       </c>
-      <c r="C52" s="13" t="str">
+      <c r="C52" s="12" t="str">
         <f aca="false">DEC2BIN(A52,8)</f>
         <v>00110010</v>
       </c>
-      <c r="D52" s="13" t="str">
+      <c r="D52" s="12" t="str">
         <f aca="false">DEC2HEX(A52,2)</f>
         <v>32</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="n">
+      <c r="A53" s="13" t="n">
         <v>51</v>
       </c>
       <c r="B53" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D53,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D53,'Instruction Set'!I:I,0)))</f>
         <v>AND D</v>
       </c>
-      <c r="C53" s="13" t="str">
+      <c r="C53" s="12" t="str">
         <f aca="false">DEC2BIN(A53,8)</f>
         <v>00110011</v>
       </c>
-      <c r="D53" s="13" t="str">
+      <c r="D53" s="12" t="str">
         <f aca="false">DEC2HEX(A53,2)</f>
         <v>33</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="n">
+      <c r="A54" s="13" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D54,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D54,'Instruction Set'!I:I,0)))</f>
         <v>AND H</v>
       </c>
-      <c r="C54" s="13" t="str">
+      <c r="C54" s="12" t="str">
         <f aca="false">DEC2BIN(A54,8)</f>
         <v>00110100</v>
       </c>
-      <c r="D54" s="13" t="str">
+      <c r="D54" s="12" t="str">
         <f aca="false">DEC2HEX(A54,2)</f>
         <v>34</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="n">
+      <c r="A55" s="13" t="n">
         <v>53</v>
       </c>
       <c r="B55" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D55,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D55,'Instruction Set'!I:I,0)))</f>
         <v>AND L</v>
       </c>
-      <c r="C55" s="13" t="str">
+      <c r="C55" s="12" t="str">
         <f aca="false">DEC2BIN(A55,8)</f>
         <v>00110101</v>
       </c>
-      <c r="D55" s="13" t="str">
+      <c r="D55" s="12" t="str">
         <f aca="false">DEC2HEX(A55,2)</f>
         <v>35</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14" t="n">
+      <c r="A56" s="13" t="n">
         <v>54</v>
       </c>
       <c r="B56" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D56,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D56,'Instruction Set'!I:I,0)))</f>
         <v>AND M</v>
       </c>
-      <c r="C56" s="13" t="str">
+      <c r="C56" s="12" t="str">
         <f aca="false">DEC2BIN(A56,8)</f>
         <v>00110110</v>
       </c>
-      <c r="D56" s="13" t="str">
+      <c r="D56" s="12" t="str">
         <f aca="false">DEC2HEX(A56,2)</f>
         <v>36</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="n">
+      <c r="A57" s="13" t="n">
         <v>55</v>
       </c>
       <c r="B57" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D57,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D57,'Instruction Set'!I:I,0)))</f>
         <v>AND data</v>
       </c>
-      <c r="C57" s="13" t="str">
+      <c r="C57" s="12" t="str">
         <f aca="false">DEC2BIN(A57,8)</f>
         <v>00110111</v>
       </c>
-      <c r="D57" s="13" t="str">
+      <c r="D57" s="12" t="str">
         <f aca="false">DEC2HEX(A57,2)</f>
         <v>37</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="n">
+      <c r="A58" s="13" t="n">
         <v>56</v>
       </c>
       <c r="B58" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D58,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D58,'Instruction Set'!I:I,0)))</f>
         <v>OR A</v>
       </c>
-      <c r="C58" s="13" t="str">
+      <c r="C58" s="12" t="str">
         <f aca="false">DEC2BIN(A58,8)</f>
         <v>00111000</v>
       </c>
-      <c r="D58" s="13" t="str">
+      <c r="D58" s="12" t="str">
         <f aca="false">DEC2HEX(A58,2)</f>
         <v>38</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="n">
+      <c r="A59" s="13" t="n">
         <v>57</v>
       </c>
       <c r="B59" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D59,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D59,'Instruction Set'!I:I,0)))</f>
         <v>OR B</v>
       </c>
-      <c r="C59" s="13" t="str">
+      <c r="C59" s="12" t="str">
         <f aca="false">DEC2BIN(A59,8)</f>
         <v>00111001</v>
       </c>
-      <c r="D59" s="13" t="str">
+      <c r="D59" s="12" t="str">
         <f aca="false">DEC2HEX(A59,2)</f>
         <v>39</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14" t="n">
+      <c r="A60" s="13" t="n">
         <v>58</v>
       </c>
       <c r="B60" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D60,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D60,'Instruction Set'!I:I,0)))</f>
         <v>OR C</v>
       </c>
-      <c r="C60" s="13" t="str">
+      <c r="C60" s="12" t="str">
         <f aca="false">DEC2BIN(A60,8)</f>
         <v>00111010</v>
       </c>
-      <c r="D60" s="13" t="str">
+      <c r="D60" s="12" t="str">
         <f aca="false">DEC2HEX(A60,2)</f>
         <v>3A</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14" t="n">
+      <c r="A61" s="13" t="n">
         <v>59</v>
       </c>
       <c r="B61" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D61,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D61,'Instruction Set'!I:I,0)))</f>
         <v>OR D</v>
       </c>
-      <c r="C61" s="13" t="str">
+      <c r="C61" s="12" t="str">
         <f aca="false">DEC2BIN(A61,8)</f>
         <v>00111011</v>
       </c>
-      <c r="D61" s="13" t="str">
+      <c r="D61" s="12" t="str">
         <f aca="false">DEC2HEX(A61,2)</f>
         <v>3B</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="n">
+      <c r="A62" s="13" t="n">
         <v>60</v>
       </c>
       <c r="B62" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D62,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D62,'Instruction Set'!I:I,0)))</f>
         <v>OR H</v>
       </c>
-      <c r="C62" s="13" t="str">
+      <c r="C62" s="12" t="str">
         <f aca="false">DEC2BIN(A62,8)</f>
         <v>00111100</v>
       </c>
-      <c r="D62" s="13" t="str">
+      <c r="D62" s="12" t="str">
         <f aca="false">DEC2HEX(A62,2)</f>
         <v>3C</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="n">
+      <c r="A63" s="13" t="n">
         <v>61</v>
       </c>
       <c r="B63" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D63,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D63,'Instruction Set'!I:I,0)))</f>
         <v>OR L</v>
       </c>
-      <c r="C63" s="13" t="str">
+      <c r="C63" s="12" t="str">
         <f aca="false">DEC2BIN(A63,8)</f>
         <v>00111101</v>
       </c>
-      <c r="D63" s="13" t="str">
+      <c r="D63" s="12" t="str">
         <f aca="false">DEC2HEX(A63,2)</f>
         <v>3D</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="n">
+      <c r="A64" s="13" t="n">
         <v>62</v>
       </c>
       <c r="B64" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D64,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D64,'Instruction Set'!I:I,0)))</f>
         <v>OR M</v>
       </c>
-      <c r="C64" s="13" t="str">
+      <c r="C64" s="12" t="str">
         <f aca="false">DEC2BIN(A64,8)</f>
         <v>00111110</v>
       </c>
-      <c r="D64" s="13" t="str">
+      <c r="D64" s="12" t="str">
         <f aca="false">DEC2HEX(A64,2)</f>
         <v>3E</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="n">
+      <c r="A65" s="13" t="n">
         <v>63</v>
       </c>
       <c r="B65" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D65,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D65,'Instruction Set'!I:I,0)))</f>
         <v>OR data</v>
       </c>
-      <c r="C65" s="13" t="str">
+      <c r="C65" s="12" t="str">
         <f aca="false">DEC2BIN(A65,8)</f>
         <v>00111111</v>
       </c>
-      <c r="D65" s="13" t="str">
+      <c r="D65" s="12" t="str">
         <f aca="false">DEC2HEX(A65,2)</f>
         <v>3F</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14" t="n">
+      <c r="A66" s="13" t="n">
         <v>64</v>
       </c>
       <c r="B66" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D66,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D66,'Instruction Set'!I:I,0)))</f>
         <v>XOR A</v>
       </c>
-      <c r="C66" s="13" t="str">
+      <c r="C66" s="12" t="str">
         <f aca="false">DEC2BIN(A66,8)</f>
         <v>01000000</v>
       </c>
-      <c r="D66" s="13" t="str">
+      <c r="D66" s="12" t="str">
         <f aca="false">DEC2HEX(A66,2)</f>
         <v>40</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="n">
+      <c r="A67" s="13" t="n">
         <v>65</v>
       </c>
       <c r="B67" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D67,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D67,'Instruction Set'!I:I,0)))</f>
         <v>XOR B</v>
       </c>
-      <c r="C67" s="13" t="str">
+      <c r="C67" s="12" t="str">
         <f aca="false">DEC2BIN(A67,8)</f>
         <v>01000001</v>
       </c>
-      <c r="D67" s="13" t="str">
+      <c r="D67" s="12" t="str">
         <f aca="false">DEC2HEX(A67,2)</f>
         <v>41</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14" t="n">
+      <c r="A68" s="13" t="n">
         <v>66</v>
       </c>
       <c r="B68" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D68,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D68,'Instruction Set'!I:I,0)))</f>
         <v>XOR C</v>
       </c>
-      <c r="C68" s="13" t="str">
+      <c r="C68" s="12" t="str">
         <f aca="false">DEC2BIN(A68,8)</f>
         <v>01000010</v>
       </c>
-      <c r="D68" s="13" t="str">
+      <c r="D68" s="12" t="str">
         <f aca="false">DEC2HEX(A68,2)</f>
         <v>42</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="n">
+      <c r="A69" s="13" t="n">
         <v>67</v>
       </c>
       <c r="B69" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D69,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D69,'Instruction Set'!I:I,0)))</f>
         <v>XOR D</v>
       </c>
-      <c r="C69" s="13" t="str">
+      <c r="C69" s="12" t="str">
         <f aca="false">DEC2BIN(A69,8)</f>
         <v>01000011</v>
       </c>
-      <c r="D69" s="13" t="str">
+      <c r="D69" s="12" t="str">
         <f aca="false">DEC2HEX(A69,2)</f>
         <v>43</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="n">
+      <c r="A70" s="13" t="n">
         <v>68</v>
       </c>
       <c r="B70" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D70,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D70,'Instruction Set'!I:I,0)))</f>
         <v>XOR H</v>
       </c>
-      <c r="C70" s="13" t="str">
+      <c r="C70" s="12" t="str">
         <f aca="false">DEC2BIN(A70,8)</f>
         <v>01000100</v>
       </c>
-      <c r="D70" s="13" t="str">
+      <c r="D70" s="12" t="str">
         <f aca="false">DEC2HEX(A70,2)</f>
         <v>44</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14" t="n">
+      <c r="A71" s="13" t="n">
         <v>69</v>
       </c>
       <c r="B71" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D71,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D71,'Instruction Set'!I:I,0)))</f>
         <v>XOR L</v>
       </c>
-      <c r="C71" s="13" t="str">
+      <c r="C71" s="12" t="str">
         <f aca="false">DEC2BIN(A71,8)</f>
         <v>01000101</v>
       </c>
-      <c r="D71" s="13" t="str">
+      <c r="D71" s="12" t="str">
         <f aca="false">DEC2HEX(A71,2)</f>
         <v>45</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="n">
+      <c r="A72" s="13" t="n">
         <v>70</v>
       </c>
       <c r="B72" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D72,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D72,'Instruction Set'!I:I,0)))</f>
         <v>XOR M</v>
       </c>
-      <c r="C72" s="13" t="str">
+      <c r="C72" s="12" t="str">
         <f aca="false">DEC2BIN(A72,8)</f>
         <v>01000110</v>
       </c>
-      <c r="D72" s="13" t="str">
+      <c r="D72" s="12" t="str">
         <f aca="false">DEC2HEX(A72,2)</f>
         <v>46</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="n">
+      <c r="A73" s="13" t="n">
         <v>71</v>
       </c>
       <c r="B73" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D73,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D73,'Instruction Set'!I:I,0)))</f>
         <v>XOR data</v>
       </c>
-      <c r="C73" s="13" t="str">
+      <c r="C73" s="12" t="str">
         <f aca="false">DEC2BIN(A73,8)</f>
         <v>01000111</v>
       </c>
-      <c r="D73" s="13" t="str">
+      <c r="D73" s="12" t="str">
         <f aca="false">DEC2HEX(A73,2)</f>
         <v>47</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="n">
+      <c r="A74" s="13" t="n">
         <v>72</v>
       </c>
       <c r="B74" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D74,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D74,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C74" s="13" t="str">
+      <c r="C74" s="12" t="str">
         <f aca="false">DEC2BIN(A74,8)</f>
         <v>01001000</v>
       </c>
-      <c r="D74" s="13" t="str">
+      <c r="D74" s="12" t="str">
         <f aca="false">DEC2HEX(A74,2)</f>
         <v>48</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="n">
+      <c r="A75" s="13" t="n">
         <v>73</v>
       </c>
       <c r="B75" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D75,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D75,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C75" s="13" t="str">
+      <c r="C75" s="12" t="str">
         <f aca="false">DEC2BIN(A75,8)</f>
         <v>01001001</v>
       </c>
-      <c r="D75" s="13" t="str">
+      <c r="D75" s="12" t="str">
         <f aca="false">DEC2HEX(A75,2)</f>
         <v>49</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="n">
+      <c r="A76" s="13" t="n">
         <v>74</v>
       </c>
       <c r="B76" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D76,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D76,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C76" s="13" t="str">
+      <c r="C76" s="12" t="str">
         <f aca="false">DEC2BIN(A76,8)</f>
         <v>01001010</v>
       </c>
-      <c r="D76" s="13" t="str">
+      <c r="D76" s="12" t="str">
         <f aca="false">DEC2HEX(A76,2)</f>
         <v>4A</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="n">
+      <c r="A77" s="13" t="n">
         <v>75</v>
       </c>
       <c r="B77" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D77,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D77,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C77" s="13" t="str">
+      <c r="C77" s="12" t="str">
         <f aca="false">DEC2BIN(A77,8)</f>
         <v>01001011</v>
       </c>
-      <c r="D77" s="13" t="str">
+      <c r="D77" s="12" t="str">
         <f aca="false">DEC2HEX(A77,2)</f>
         <v>4B</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="n">
+      <c r="A78" s="13" t="n">
         <v>76</v>
       </c>
       <c r="B78" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D78,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D78,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C78" s="13" t="str">
+      <c r="C78" s="12" t="str">
         <f aca="false">DEC2BIN(A78,8)</f>
         <v>01001100</v>
       </c>
-      <c r="D78" s="13" t="str">
+      <c r="D78" s="12" t="str">
         <f aca="false">DEC2HEX(A78,2)</f>
         <v>4C</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="n">
+      <c r="A79" s="13" t="n">
         <v>77</v>
       </c>
       <c r="B79" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D79,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D79,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C79" s="13" t="str">
+      <c r="C79" s="12" t="str">
         <f aca="false">DEC2BIN(A79,8)</f>
         <v>01001101</v>
       </c>
-      <c r="D79" s="13" t="str">
+      <c r="D79" s="12" t="str">
         <f aca="false">DEC2HEX(A79,2)</f>
         <v>4D</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14" t="n">
+      <c r="A80" s="13" t="n">
         <v>78</v>
       </c>
       <c r="B80" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D80,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D80,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C80" s="13" t="str">
+      <c r="C80" s="12" t="str">
         <f aca="false">DEC2BIN(A80,8)</f>
         <v>01001110</v>
       </c>
-      <c r="D80" s="13" t="str">
+      <c r="D80" s="12" t="str">
         <f aca="false">DEC2HEX(A80,2)</f>
         <v>4E</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14" t="n">
+      <c r="A81" s="13" t="n">
         <v>79</v>
       </c>
       <c r="B81" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D81,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D81,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C81" s="13" t="str">
+      <c r="C81" s="12" t="str">
         <f aca="false">DEC2BIN(A81,8)</f>
         <v>01001111</v>
       </c>
-      <c r="D81" s="13" t="str">
+      <c r="D81" s="12" t="str">
         <f aca="false">DEC2HEX(A81,2)</f>
         <v>4F</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="n">
+      <c r="A82" s="13" t="n">
         <v>80</v>
       </c>
       <c r="B82" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D82,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D82,'Instruction Set'!I:I,0)))</f>
         <v>ADC A</v>
       </c>
-      <c r="C82" s="13" t="str">
+      <c r="C82" s="12" t="str">
         <f aca="false">DEC2BIN(A82,8)</f>
         <v>01010000</v>
       </c>
-      <c r="D82" s="13" t="str">
+      <c r="D82" s="12" t="str">
         <f aca="false">DEC2HEX(A82,2)</f>
         <v>50</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14" t="n">
+      <c r="A83" s="13" t="n">
         <v>81</v>
       </c>
       <c r="B83" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D83,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D83,'Instruction Set'!I:I,0)))</f>
         <v>ADC B</v>
       </c>
-      <c r="C83" s="13" t="str">
+      <c r="C83" s="12" t="str">
         <f aca="false">DEC2BIN(A83,8)</f>
         <v>01010001</v>
       </c>
-      <c r="D83" s="13" t="str">
+      <c r="D83" s="12" t="str">
         <f aca="false">DEC2HEX(A83,2)</f>
         <v>51</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="14" t="n">
+      <c r="A84" s="13" t="n">
         <v>82</v>
       </c>
       <c r="B84" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D84,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D84,'Instruction Set'!I:I,0)))</f>
         <v>ADC C</v>
       </c>
-      <c r="C84" s="13" t="str">
+      <c r="C84" s="12" t="str">
         <f aca="false">DEC2BIN(A84,8)</f>
         <v>01010010</v>
       </c>
-      <c r="D84" s="13" t="str">
+      <c r="D84" s="12" t="str">
         <f aca="false">DEC2HEX(A84,2)</f>
         <v>52</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="14" t="n">
+      <c r="A85" s="13" t="n">
         <v>83</v>
       </c>
       <c r="B85" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D85,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D85,'Instruction Set'!I:I,0)))</f>
         <v>ADC D</v>
       </c>
-      <c r="C85" s="13" t="str">
+      <c r="C85" s="12" t="str">
         <f aca="false">DEC2BIN(A85,8)</f>
         <v>01010011</v>
       </c>
-      <c r="D85" s="13" t="str">
+      <c r="D85" s="12" t="str">
         <f aca="false">DEC2HEX(A85,2)</f>
         <v>53</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="14" t="n">
+      <c r="A86" s="13" t="n">
         <v>84</v>
       </c>
       <c r="B86" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D86,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D86,'Instruction Set'!I:I,0)))</f>
         <v>ADC H</v>
       </c>
-      <c r="C86" s="13" t="str">
+      <c r="C86" s="12" t="str">
         <f aca="false">DEC2BIN(A86,8)</f>
         <v>01010100</v>
       </c>
-      <c r="D86" s="13" t="str">
+      <c r="D86" s="12" t="str">
         <f aca="false">DEC2HEX(A86,2)</f>
         <v>54</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="n">
+      <c r="A87" s="13" t="n">
         <v>85</v>
       </c>
       <c r="B87" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D87,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D87,'Instruction Set'!I:I,0)))</f>
         <v>ADC L</v>
       </c>
-      <c r="C87" s="13" t="str">
+      <c r="C87" s="12" t="str">
         <f aca="false">DEC2BIN(A87,8)</f>
         <v>01010101</v>
       </c>
-      <c r="D87" s="13" t="str">
+      <c r="D87" s="12" t="str">
         <f aca="false">DEC2HEX(A87,2)</f>
         <v>55</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="14" t="n">
+      <c r="A88" s="13" t="n">
         <v>86</v>
       </c>
       <c r="B88" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D88,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D88,'Instruction Set'!I:I,0)))</f>
         <v>ADC M</v>
       </c>
-      <c r="C88" s="13" t="str">
+      <c r="C88" s="12" t="str">
         <f aca="false">DEC2BIN(A88,8)</f>
         <v>01010110</v>
       </c>
-      <c r="D88" s="13" t="str">
+      <c r="D88" s="12" t="str">
         <f aca="false">DEC2HEX(A88,2)</f>
         <v>56</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="14" t="n">
+      <c r="A89" s="13" t="n">
         <v>87</v>
       </c>
       <c r="B89" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D89,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D89,'Instruction Set'!I:I,0)))</f>
         <v>ADC data</v>
       </c>
-      <c r="C89" s="13" t="str">
+      <c r="C89" s="12" t="str">
         <f aca="false">DEC2BIN(A89,8)</f>
         <v>01010111</v>
       </c>
-      <c r="D89" s="13" t="str">
+      <c r="D89" s="12" t="str">
         <f aca="false">DEC2HEX(A89,2)</f>
         <v>57</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14" t="n">
+      <c r="A90" s="13" t="n">
         <v>88</v>
       </c>
       <c r="B90" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D90,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D90,'Instruction Set'!I:I,0)))</f>
         <v>SBB A</v>
       </c>
-      <c r="C90" s="13" t="str">
+      <c r="C90" s="12" t="str">
         <f aca="false">DEC2BIN(A90,8)</f>
         <v>01011000</v>
       </c>
-      <c r="D90" s="13" t="str">
+      <c r="D90" s="12" t="str">
         <f aca="false">DEC2HEX(A90,2)</f>
         <v>58</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="14" t="n">
+      <c r="A91" s="13" t="n">
         <v>89</v>
       </c>
       <c r="B91" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D91,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D91,'Instruction Set'!I:I,0)))</f>
         <v>SBB B</v>
       </c>
-      <c r="C91" s="13" t="str">
+      <c r="C91" s="12" t="str">
         <f aca="false">DEC2BIN(A91,8)</f>
         <v>01011001</v>
       </c>
-      <c r="D91" s="13" t="str">
+      <c r="D91" s="12" t="str">
         <f aca="false">DEC2HEX(A91,2)</f>
         <v>59</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="14" t="n">
+      <c r="A92" s="13" t="n">
         <v>90</v>
       </c>
       <c r="B92" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D92,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D92,'Instruction Set'!I:I,0)))</f>
         <v>SBB C</v>
       </c>
-      <c r="C92" s="13" t="str">
+      <c r="C92" s="12" t="str">
         <f aca="false">DEC2BIN(A92,8)</f>
         <v>01011010</v>
       </c>
-      <c r="D92" s="13" t="str">
+      <c r="D92" s="12" t="str">
         <f aca="false">DEC2HEX(A92,2)</f>
         <v>5A</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="14" t="n">
+      <c r="A93" s="13" t="n">
         <v>91</v>
       </c>
       <c r="B93" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D93,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D93,'Instruction Set'!I:I,0)))</f>
         <v>SBB D</v>
       </c>
-      <c r="C93" s="13" t="str">
+      <c r="C93" s="12" t="str">
         <f aca="false">DEC2BIN(A93,8)</f>
         <v>01011011</v>
       </c>
-      <c r="D93" s="13" t="str">
+      <c r="D93" s="12" t="str">
         <f aca="false">DEC2HEX(A93,2)</f>
         <v>5B</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14" t="n">
+      <c r="A94" s="13" t="n">
         <v>92</v>
       </c>
       <c r="B94" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D94,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D94,'Instruction Set'!I:I,0)))</f>
         <v>SBB H</v>
       </c>
-      <c r="C94" s="13" t="str">
+      <c r="C94" s="12" t="str">
         <f aca="false">DEC2BIN(A94,8)</f>
         <v>01011100</v>
       </c>
-      <c r="D94" s="13" t="str">
+      <c r="D94" s="12" t="str">
         <f aca="false">DEC2HEX(A94,2)</f>
         <v>5C</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14" t="n">
+      <c r="A95" s="13" t="n">
         <v>93</v>
       </c>
       <c r="B95" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D95,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D95,'Instruction Set'!I:I,0)))</f>
         <v>SBB L</v>
       </c>
-      <c r="C95" s="13" t="str">
+      <c r="C95" s="12" t="str">
         <f aca="false">DEC2BIN(A95,8)</f>
         <v>01011101</v>
       </c>
-      <c r="D95" s="13" t="str">
+      <c r="D95" s="12" t="str">
         <f aca="false">DEC2HEX(A95,2)</f>
         <v>5D</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="14" t="n">
+      <c r="A96" s="13" t="n">
         <v>94</v>
       </c>
       <c r="B96" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D96,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D96,'Instruction Set'!I:I,0)))</f>
         <v>SBB M</v>
       </c>
-      <c r="C96" s="13" t="str">
+      <c r="C96" s="12" t="str">
         <f aca="false">DEC2BIN(A96,8)</f>
         <v>01011110</v>
       </c>
-      <c r="D96" s="13" t="str">
+      <c r="D96" s="12" t="str">
         <f aca="false">DEC2HEX(A96,2)</f>
         <v>5E</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="14" t="n">
+      <c r="A97" s="13" t="n">
         <v>95</v>
       </c>
       <c r="B97" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D97,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D97,'Instruction Set'!I:I,0)))</f>
         <v>SBB data</v>
       </c>
-      <c r="C97" s="13" t="str">
+      <c r="C97" s="12" t="str">
         <f aca="false">DEC2BIN(A97,8)</f>
         <v>01011111</v>
       </c>
-      <c r="D97" s="13" t="str">
+      <c r="D97" s="12" t="str">
         <f aca="false">DEC2HEX(A97,2)</f>
         <v>5F</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="n">
+      <c r="A98" s="13" t="n">
         <v>96</v>
       </c>
       <c r="B98" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D98,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D98,'Instruction Set'!I:I,0)))</f>
         <v>ADD A</v>
       </c>
-      <c r="C98" s="13" t="str">
+      <c r="C98" s="12" t="str">
         <f aca="false">DEC2BIN(A98,8)</f>
         <v>01100000</v>
       </c>
-      <c r="D98" s="13" t="str">
+      <c r="D98" s="12" t="str">
         <f aca="false">DEC2HEX(A98,2)</f>
         <v>60</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="14" t="n">
+      <c r="A99" s="13" t="n">
         <v>97</v>
       </c>
       <c r="B99" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D99,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D99,'Instruction Set'!I:I,0)))</f>
         <v>SUB A</v>
       </c>
-      <c r="C99" s="13" t="str">
+      <c r="C99" s="12" t="str">
         <f aca="false">DEC2BIN(A99,8)</f>
         <v>01100001</v>
       </c>
-      <c r="D99" s="13" t="str">
+      <c r="D99" s="12" t="str">
         <f aca="false">DEC2HEX(A99,2)</f>
         <v>61</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="14" t="n">
+      <c r="A100" s="13" t="n">
         <v>98</v>
       </c>
       <c r="B100" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D100,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D100,'Instruction Set'!I:I,0)))</f>
         <v>ADD B</v>
       </c>
-      <c r="C100" s="13" t="str">
+      <c r="C100" s="12" t="str">
         <f aca="false">DEC2BIN(A100,8)</f>
         <v>01100010</v>
       </c>
-      <c r="D100" s="13" t="str">
+      <c r="D100" s="12" t="str">
         <f aca="false">DEC2HEX(A100,2)</f>
         <v>62</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="14" t="n">
+      <c r="A101" s="13" t="n">
         <v>99</v>
       </c>
       <c r="B101" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D101,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D101,'Instruction Set'!I:I,0)))</f>
         <v>SUB B</v>
       </c>
-      <c r="C101" s="13" t="str">
+      <c r="C101" s="12" t="str">
         <f aca="false">DEC2BIN(A101,8)</f>
         <v>01100011</v>
       </c>
-      <c r="D101" s="13" t="str">
+      <c r="D101" s="12" t="str">
         <f aca="false">DEC2HEX(A101,2)</f>
         <v>63</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14" t="n">
+      <c r="A102" s="13" t="n">
         <v>100</v>
       </c>
       <c r="B102" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D102,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D102,'Instruction Set'!I:I,0)))</f>
         <v>ADD C</v>
       </c>
-      <c r="C102" s="13" t="str">
+      <c r="C102" s="12" t="str">
         <f aca="false">DEC2BIN(A102,8)</f>
         <v>01100100</v>
       </c>
-      <c r="D102" s="13" t="str">
+      <c r="D102" s="12" t="str">
         <f aca="false">DEC2HEX(A102,2)</f>
         <v>64</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="14" t="n">
+      <c r="A103" s="13" t="n">
         <v>101</v>
       </c>
       <c r="B103" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D103,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D103,'Instruction Set'!I:I,0)))</f>
         <v>SUB C</v>
       </c>
-      <c r="C103" s="13" t="str">
+      <c r="C103" s="12" t="str">
         <f aca="false">DEC2BIN(A103,8)</f>
         <v>01100101</v>
       </c>
-      <c r="D103" s="13" t="str">
+      <c r="D103" s="12" t="str">
         <f aca="false">DEC2HEX(A103,2)</f>
         <v>65</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="14" t="n">
+      <c r="A104" s="13" t="n">
         <v>102</v>
       </c>
       <c r="B104" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D104,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D104,'Instruction Set'!I:I,0)))</f>
         <v>ADD D</v>
       </c>
-      <c r="C104" s="13" t="str">
+      <c r="C104" s="12" t="str">
         <f aca="false">DEC2BIN(A104,8)</f>
         <v>01100110</v>
       </c>
-      <c r="D104" s="13" t="str">
+      <c r="D104" s="12" t="str">
         <f aca="false">DEC2HEX(A104,2)</f>
         <v>66</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="14" t="n">
+      <c r="A105" s="13" t="n">
         <v>103</v>
       </c>
       <c r="B105" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D105,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D105,'Instruction Set'!I:I,0)))</f>
         <v>SUB D</v>
       </c>
-      <c r="C105" s="13" t="str">
+      <c r="C105" s="12" t="str">
         <f aca="false">DEC2BIN(A105,8)</f>
         <v>01100111</v>
       </c>
-      <c r="D105" s="13" t="str">
+      <c r="D105" s="12" t="str">
         <f aca="false">DEC2HEX(A105,2)</f>
         <v>67</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="14" t="n">
+      <c r="A106" s="13" t="n">
         <v>104</v>
       </c>
       <c r="B106" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D106,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D106,'Instruction Set'!I:I,0)))</f>
         <v>ADD H</v>
       </c>
-      <c r="C106" s="13" t="str">
+      <c r="C106" s="12" t="str">
         <f aca="false">DEC2BIN(A106,8)</f>
         <v>01101000</v>
       </c>
-      <c r="D106" s="13" t="str">
+      <c r="D106" s="12" t="str">
         <f aca="false">DEC2HEX(A106,2)</f>
         <v>68</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="14" t="n">
+      <c r="A107" s="13" t="n">
         <v>105</v>
       </c>
       <c r="B107" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D107,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D107,'Instruction Set'!I:I,0)))</f>
         <v>SUB H</v>
       </c>
-      <c r="C107" s="13" t="str">
+      <c r="C107" s="12" t="str">
         <f aca="false">DEC2BIN(A107,8)</f>
         <v>01101001</v>
       </c>
-      <c r="D107" s="13" t="str">
+      <c r="D107" s="12" t="str">
         <f aca="false">DEC2HEX(A107,2)</f>
         <v>69</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="14" t="n">
+      <c r="A108" s="13" t="n">
         <v>106</v>
       </c>
       <c r="B108" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D108,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D108,'Instruction Set'!I:I,0)))</f>
         <v>ADD L</v>
       </c>
-      <c r="C108" s="13" t="str">
+      <c r="C108" s="12" t="str">
         <f aca="false">DEC2BIN(A108,8)</f>
         <v>01101010</v>
       </c>
-      <c r="D108" s="13" t="str">
+      <c r="D108" s="12" t="str">
         <f aca="false">DEC2HEX(A108,2)</f>
         <v>6A</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="14" t="n">
+      <c r="A109" s="13" t="n">
         <v>107</v>
       </c>
       <c r="B109" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D109,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D109,'Instruction Set'!I:I,0)))</f>
         <v>SUB L</v>
       </c>
-      <c r="C109" s="13" t="str">
+      <c r="C109" s="12" t="str">
         <f aca="false">DEC2BIN(A109,8)</f>
         <v>01101011</v>
       </c>
-      <c r="D109" s="13" t="str">
+      <c r="D109" s="12" t="str">
         <f aca="false">DEC2HEX(A109,2)</f>
         <v>6B</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="14" t="n">
+      <c r="A110" s="13" t="n">
         <v>108</v>
       </c>
       <c r="B110" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D110,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D110,'Instruction Set'!I:I,0)))</f>
         <v>ADD M</v>
       </c>
-      <c r="C110" s="13" t="str">
+      <c r="C110" s="12" t="str">
         <f aca="false">DEC2BIN(A110,8)</f>
         <v>01101100</v>
       </c>
-      <c r="D110" s="13" t="str">
+      <c r="D110" s="12" t="str">
         <f aca="false">DEC2HEX(A110,2)</f>
         <v>6C</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="14" t="n">
+      <c r="A111" s="13" t="n">
         <v>109</v>
       </c>
       <c r="B111" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D111,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D111,'Instruction Set'!I:I,0)))</f>
         <v>SUB M</v>
       </c>
-      <c r="C111" s="13" t="str">
+      <c r="C111" s="12" t="str">
         <f aca="false">DEC2BIN(A111,8)</f>
         <v>01101101</v>
       </c>
-      <c r="D111" s="13" t="str">
+      <c r="D111" s="12" t="str">
         <f aca="false">DEC2HEX(A111,2)</f>
         <v>6D</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="14" t="n">
+      <c r="A112" s="13" t="n">
         <v>110</v>
       </c>
       <c r="B112" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D112,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D112,'Instruction Set'!I:I,0)))</f>
         <v>ADD data</v>
       </c>
-      <c r="C112" s="13" t="str">
+      <c r="C112" s="12" t="str">
         <f aca="false">DEC2BIN(A112,8)</f>
         <v>01101110</v>
       </c>
-      <c r="D112" s="13" t="str">
+      <c r="D112" s="12" t="str">
         <f aca="false">DEC2HEX(A112,2)</f>
         <v>6E</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="14" t="n">
+      <c r="A113" s="13" t="n">
         <v>111</v>
       </c>
       <c r="B113" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D113,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D113,'Instruction Set'!I:I,0)))</f>
         <v>SUB data</v>
       </c>
-      <c r="C113" s="13" t="str">
+      <c r="C113" s="12" t="str">
         <f aca="false">DEC2BIN(A113,8)</f>
         <v>01101111</v>
       </c>
-      <c r="D113" s="13" t="str">
+      <c r="D113" s="12" t="str">
         <f aca="false">DEC2HEX(A113,2)</f>
         <v>6F</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="14" t="n">
+      <c r="A114" s="13" t="n">
         <v>112</v>
       </c>
       <c r="B114" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D114,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D114,'Instruction Set'!I:I,0)))</f>
         <v>CMP A</v>
       </c>
-      <c r="C114" s="13" t="str">
+      <c r="C114" s="12" t="str">
         <f aca="false">DEC2BIN(A114,8)</f>
         <v>01110000</v>
       </c>
-      <c r="D114" s="13" t="str">
+      <c r="D114" s="12" t="str">
         <f aca="false">DEC2HEX(A114,2)</f>
         <v>70</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="14" t="n">
+      <c r="A115" s="13" t="n">
         <v>113</v>
       </c>
       <c r="B115" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D115,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D115,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C115" s="13" t="str">
+      <c r="C115" s="12" t="str">
         <f aca="false">DEC2BIN(A115,8)</f>
         <v>01110001</v>
       </c>
-      <c r="D115" s="13" t="str">
+      <c r="D115" s="12" t="str">
         <f aca="false">DEC2HEX(A115,2)</f>
         <v>71</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="14" t="n">
+      <c r="A116" s="13" t="n">
         <v>114</v>
       </c>
       <c r="B116" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D116,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D116,'Instruction Set'!I:I,0)))</f>
         <v>CMP B</v>
       </c>
-      <c r="C116" s="13" t="str">
+      <c r="C116" s="12" t="str">
         <f aca="false">DEC2BIN(A116,8)</f>
         <v>01110010</v>
       </c>
-      <c r="D116" s="13" t="str">
+      <c r="D116" s="12" t="str">
         <f aca="false">DEC2HEX(A116,2)</f>
         <v>72</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="14" t="n">
+      <c r="A117" s="13" t="n">
         <v>115</v>
       </c>
       <c r="B117" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D117,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D117,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C117" s="13" t="str">
+      <c r="C117" s="12" t="str">
         <f aca="false">DEC2BIN(A117,8)</f>
         <v>01110011</v>
       </c>
-      <c r="D117" s="13" t="str">
+      <c r="D117" s="12" t="str">
         <f aca="false">DEC2HEX(A117,2)</f>
         <v>73</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="14" t="n">
+      <c r="A118" s="13" t="n">
         <v>116</v>
       </c>
       <c r="B118" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D118,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D118,'Instruction Set'!I:I,0)))</f>
         <v>CMP C</v>
       </c>
-      <c r="C118" s="13" t="str">
+      <c r="C118" s="12" t="str">
         <f aca="false">DEC2BIN(A118,8)</f>
         <v>01110100</v>
       </c>
-      <c r="D118" s="13" t="str">
+      <c r="D118" s="12" t="str">
         <f aca="false">DEC2HEX(A118,2)</f>
         <v>74</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="14" t="n">
+      <c r="A119" s="13" t="n">
         <v>117</v>
       </c>
       <c r="B119" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D119,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D119,'Instruction Set'!I:I,0)))</f>
         <v>JMP M</v>
       </c>
-      <c r="C119" s="13" t="str">
+      <c r="C119" s="12" t="str">
         <f aca="false">DEC2BIN(A119,8)</f>
         <v>01110101</v>
       </c>
-      <c r="D119" s="13" t="str">
+      <c r="D119" s="12" t="str">
         <f aca="false">DEC2HEX(A119,2)</f>
         <v>75</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="14" t="n">
+      <c r="A120" s="13" t="n">
         <v>118</v>
       </c>
       <c r="B120" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D120,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D120,'Instruction Set'!I:I,0)))</f>
         <v>CMP D</v>
       </c>
-      <c r="C120" s="13" t="str">
+      <c r="C120" s="12" t="str">
         <f aca="false">DEC2BIN(A120,8)</f>
         <v>01110110</v>
       </c>
-      <c r="D120" s="13" t="str">
+      <c r="D120" s="12" t="str">
         <f aca="false">DEC2HEX(A120,2)</f>
         <v>76</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="14" t="n">
+      <c r="A121" s="13" t="n">
         <v>119</v>
       </c>
       <c r="B121" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D121,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D121,'Instruction Set'!I:I,0)))</f>
         <v>JMP addr</v>
       </c>
-      <c r="C121" s="13" t="str">
+      <c r="C121" s="12" t="str">
         <f aca="false">DEC2BIN(A121,8)</f>
         <v>01110111</v>
       </c>
-      <c r="D121" s="13" t="str">
+      <c r="D121" s="12" t="str">
         <f aca="false">DEC2HEX(A121,2)</f>
         <v>77</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="14" t="n">
+      <c r="A122" s="13" t="n">
         <v>120</v>
       </c>
       <c r="B122" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D122,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D122,'Instruction Set'!I:I,0)))</f>
         <v>CMP H</v>
       </c>
-      <c r="C122" s="13" t="str">
+      <c r="C122" s="12" t="str">
         <f aca="false">DEC2BIN(A122,8)</f>
         <v>01111000</v>
       </c>
-      <c r="D122" s="13" t="str">
+      <c r="D122" s="12" t="str">
         <f aca="false">DEC2HEX(A122,2)</f>
         <v>78</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="14" t="n">
+      <c r="A123" s="13" t="n">
         <v>121</v>
       </c>
       <c r="B123" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D123,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D123,'Instruction Set'!I:I,0)))</f>
         <v>JC M</v>
       </c>
-      <c r="C123" s="13" t="str">
+      <c r="C123" s="12" t="str">
         <f aca="false">DEC2BIN(A123,8)</f>
         <v>01111001</v>
       </c>
-      <c r="D123" s="13" t="str">
+      <c r="D123" s="12" t="str">
         <f aca="false">DEC2HEX(A123,2)</f>
         <v>79</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="14" t="n">
+      <c r="A124" s="13" t="n">
         <v>122</v>
       </c>
       <c r="B124" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D124,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D124,'Instruction Set'!I:I,0)))</f>
         <v>CMP L</v>
       </c>
-      <c r="C124" s="13" t="str">
+      <c r="C124" s="12" t="str">
         <f aca="false">DEC2BIN(A124,8)</f>
         <v>01111010</v>
       </c>
-      <c r="D124" s="13" t="str">
+      <c r="D124" s="12" t="str">
         <f aca="false">DEC2HEX(A124,2)</f>
         <v>7A</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="14" t="n">
+      <c r="A125" s="13" t="n">
         <v>123</v>
       </c>
       <c r="B125" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D125,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D125,'Instruction Set'!I:I,0)))</f>
         <v>JC addr</v>
       </c>
-      <c r="C125" s="13" t="str">
+      <c r="C125" s="12" t="str">
         <f aca="false">DEC2BIN(A125,8)</f>
         <v>01111011</v>
       </c>
-      <c r="D125" s="13" t="str">
+      <c r="D125" s="12" t="str">
         <f aca="false">DEC2HEX(A125,2)</f>
         <v>7B</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="14" t="n">
+      <c r="A126" s="13" t="n">
         <v>124</v>
       </c>
       <c r="B126" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D126,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D126,'Instruction Set'!I:I,0)))</f>
         <v>CMP M</v>
       </c>
-      <c r="C126" s="13" t="str">
+      <c r="C126" s="12" t="str">
         <f aca="false">DEC2BIN(A126,8)</f>
         <v>01111100</v>
       </c>
-      <c r="D126" s="13" t="str">
+      <c r="D126" s="12" t="str">
         <f aca="false">DEC2HEX(A126,2)</f>
         <v>7C</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="14" t="n">
+      <c r="A127" s="13" t="n">
         <v>125</v>
       </c>
       <c r="B127" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D127,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D127,'Instruction Set'!I:I,0)))</f>
         <v>JNC M</v>
       </c>
-      <c r="C127" s="13" t="str">
+      <c r="C127" s="12" t="str">
         <f aca="false">DEC2BIN(A127,8)</f>
         <v>01111101</v>
       </c>
-      <c r="D127" s="13" t="str">
+      <c r="D127" s="12" t="str">
         <f aca="false">DEC2HEX(A127,2)</f>
         <v>7D</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="14" t="n">
+      <c r="A128" s="13" t="n">
         <v>126</v>
       </c>
       <c r="B128" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D128,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D128,'Instruction Set'!I:I,0)))</f>
         <v>CMP data</v>
       </c>
-      <c r="C128" s="13" t="str">
+      <c r="C128" s="12" t="str">
         <f aca="false">DEC2BIN(A128,8)</f>
         <v>01111110</v>
       </c>
-      <c r="D128" s="13" t="str">
+      <c r="D128" s="12" t="str">
         <f aca="false">DEC2HEX(A128,2)</f>
         <v>7E</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="14" t="n">
+      <c r="A129" s="13" t="n">
         <v>127</v>
       </c>
       <c r="B129" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D129,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D129,'Instruction Set'!I:I,0)))</f>
         <v>JNC addr</v>
       </c>
-      <c r="C129" s="13" t="str">
+      <c r="C129" s="12" t="str">
         <f aca="false">DEC2BIN(A129,8)</f>
         <v>01111111</v>
       </c>
-      <c r="D129" s="13" t="str">
+      <c r="D129" s="12" t="str">
         <f aca="false">DEC2HEX(A129,2)</f>
         <v>7F</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="14" t="n">
+      <c r="A130" s="13" t="n">
         <v>128</v>
       </c>
       <c r="B130" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D130,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D130,'Instruction Set'!I:I,0)))</f>
         <v>PUSH A</v>
       </c>
-      <c r="C130" s="13" t="str">
+      <c r="C130" s="12" t="str">
         <f aca="false">DEC2BIN(A130,8)</f>
         <v>10000000</v>
       </c>
-      <c r="D130" s="13" t="str">
+      <c r="D130" s="12" t="str">
         <f aca="false">DEC2HEX(A130,2)</f>
         <v>80</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="14" t="n">
+      <c r="A131" s="13" t="n">
         <v>129</v>
       </c>
       <c r="B131" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D131,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D131,'Instruction Set'!I:I,0)))</f>
         <v>POP A</v>
       </c>
-      <c r="C131" s="13" t="str">
+      <c r="C131" s="12" t="str">
         <f aca="false">DEC2BIN(A131,8)</f>
         <v>10000001</v>
       </c>
-      <c r="D131" s="13" t="str">
+      <c r="D131" s="12" t="str">
         <f aca="false">DEC2HEX(A131,2)</f>
         <v>81</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="14" t="n">
+      <c r="A132" s="13" t="n">
         <v>130</v>
       </c>
       <c r="B132" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D132,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D132,'Instruction Set'!I:I,0)))</f>
         <v>MOV A,B</v>
       </c>
-      <c r="C132" s="13" t="str">
+      <c r="C132" s="12" t="str">
         <f aca="false">DEC2BIN(A132,8)</f>
         <v>10000010</v>
       </c>
-      <c r="D132" s="13" t="str">
+      <c r="D132" s="12" t="str">
         <f aca="false">DEC2HEX(A132,2)</f>
         <v>82</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="14" t="n">
+      <c r="A133" s="13" t="n">
         <v>131</v>
       </c>
       <c r="B133" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D133,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D133,'Instruction Set'!I:I,0)))</f>
         <v>RA</v>
       </c>
-      <c r="C133" s="13" t="str">
+      <c r="C133" s="12" t="str">
         <f aca="false">DEC2BIN(A133,8)</f>
         <v>10000011</v>
       </c>
-      <c r="D133" s="13" t="str">
+      <c r="D133" s="12" t="str">
         <f aca="false">DEC2HEX(A133,2)</f>
         <v>83</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="14" t="n">
+      <c r="A134" s="13" t="n">
         <v>132</v>
       </c>
       <c r="B134" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D134,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D134,'Instruction Set'!I:I,0)))</f>
         <v>MOV A,C</v>
       </c>
-      <c r="C134" s="13" t="str">
+      <c r="C134" s="12" t="str">
         <f aca="false">DEC2BIN(A134,8)</f>
         <v>10000100</v>
       </c>
-      <c r="D134" s="13" t="str">
+      <c r="D134" s="12" t="str">
         <f aca="false">DEC2HEX(A134,2)</f>
         <v>84</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="14" t="n">
+      <c r="A135" s="13" t="n">
         <v>133</v>
       </c>
       <c r="B135" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D135,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D135,'Instruction Set'!I:I,0)))</f>
         <v>RNA</v>
       </c>
-      <c r="C135" s="13" t="str">
+      <c r="C135" s="12" t="str">
         <f aca="false">DEC2BIN(A135,8)</f>
         <v>10000101</v>
       </c>
-      <c r="D135" s="13" t="str">
+      <c r="D135" s="12" t="str">
         <f aca="false">DEC2HEX(A135,2)</f>
         <v>85</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="14" t="n">
+      <c r="A136" s="13" t="n">
         <v>134</v>
       </c>
       <c r="B136" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D136,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D136,'Instruction Set'!I:I,0)))</f>
         <v>MOV A,D</v>
       </c>
-      <c r="C136" s="13" t="str">
+      <c r="C136" s="12" t="str">
         <f aca="false">DEC2BIN(A136,8)</f>
         <v>10000110</v>
       </c>
-      <c r="D136" s="13" t="str">
+      <c r="D136" s="12" t="str">
         <f aca="false">DEC2HEX(A136,2)</f>
         <v>86</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="14" t="n">
+      <c r="A137" s="13" t="n">
         <v>135</v>
       </c>
       <c r="B137" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D137,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D137,'Instruction Set'!I:I,0)))</f>
         <v>PUSHF</v>
       </c>
-      <c r="C137" s="13" t="str">
+      <c r="C137" s="12" t="str">
         <f aca="false">DEC2BIN(A137,8)</f>
         <v>10000111</v>
       </c>
-      <c r="D137" s="13" t="str">
+      <c r="D137" s="12" t="str">
         <f aca="false">DEC2HEX(A137,2)</f>
         <v>87</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="14" t="n">
+      <c r="A138" s="13" t="n">
         <v>136</v>
       </c>
       <c r="B138" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D138,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D138,'Instruction Set'!I:I,0)))</f>
         <v>MOV A,H</v>
       </c>
-      <c r="C138" s="13" t="str">
+      <c r="C138" s="12" t="str">
         <f aca="false">DEC2BIN(A138,8)</f>
         <v>10001000</v>
       </c>
-      <c r="D138" s="13" t="str">
+      <c r="D138" s="12" t="str">
         <f aca="false">DEC2HEX(A138,2)</f>
         <v>88</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="14" t="n">
+      <c r="A139" s="13" t="n">
         <v>137</v>
       </c>
       <c r="B139" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D139,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D139,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C139" s="13" t="str">
+      <c r="C139" s="12" t="str">
         <f aca="false">DEC2BIN(A139,8)</f>
         <v>10001001</v>
       </c>
-      <c r="D139" s="13" t="str">
+      <c r="D139" s="12" t="str">
         <f aca="false">DEC2HEX(A139,2)</f>
         <v>89</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="14" t="n">
+      <c r="A140" s="13" t="n">
         <v>138</v>
       </c>
       <c r="B140" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D140,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D140,'Instruction Set'!I:I,0)))</f>
         <v>MOV A,L</v>
       </c>
-      <c r="C140" s="13" t="str">
+      <c r="C140" s="12" t="str">
         <f aca="false">DEC2BIN(A140,8)</f>
         <v>10001010</v>
       </c>
-      <c r="D140" s="13" t="str">
+      <c r="D140" s="12" t="str">
         <f aca="false">DEC2HEX(A140,2)</f>
         <v>8A</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="14" t="n">
+      <c r="A141" s="13" t="n">
         <v>139</v>
       </c>
       <c r="B141" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D141,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D141,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C141" s="13" t="str">
+      <c r="C141" s="12" t="str">
         <f aca="false">DEC2BIN(A141,8)</f>
         <v>10001011</v>
       </c>
-      <c r="D141" s="13" t="str">
+      <c r="D141" s="12" t="str">
         <f aca="false">DEC2HEX(A141,2)</f>
         <v>8B</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="14" t="n">
+      <c r="A142" s="13" t="n">
         <v>140</v>
       </c>
       <c r="B142" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D142,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D142,'Instruction Set'!I:I,0)))</f>
         <v>MOV A,M</v>
       </c>
-      <c r="C142" s="13" t="str">
+      <c r="C142" s="12" t="str">
         <f aca="false">DEC2BIN(A142,8)</f>
         <v>10001100</v>
       </c>
-      <c r="D142" s="13" t="str">
+      <c r="D142" s="12" t="str">
         <f aca="false">DEC2HEX(A142,2)</f>
         <v>8C</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="14" t="n">
+      <c r="A143" s="13" t="n">
         <v>141</v>
       </c>
       <c r="B143" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D143,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D143,'Instruction Set'!I:I,0)))</f>
-        <v>LDA A,addr</v>
-      </c>
-      <c r="C143" s="13" t="str">
+        <v>LODA A,addr</v>
+      </c>
+      <c r="C143" s="12" t="str">
         <f aca="false">DEC2BIN(A143,8)</f>
         <v>10001101</v>
       </c>
-      <c r="D143" s="13" t="str">
+      <c r="D143" s="12" t="str">
         <f aca="false">DEC2HEX(A143,2)</f>
         <v>8D</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="14" t="n">
+      <c r="A144" s="13" t="n">
         <v>142</v>
       </c>
       <c r="B144" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D144,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D144,'Instruction Set'!I:I,0)))</f>
         <v>MOV A,data</v>
       </c>
-      <c r="C144" s="13" t="str">
+      <c r="C144" s="12" t="str">
         <f aca="false">DEC2BIN(A144,8)</f>
         <v>10001110</v>
       </c>
-      <c r="D144" s="13" t="str">
+      <c r="D144" s="12" t="str">
         <f aca="false">DEC2HEX(A144,2)</f>
         <v>8E</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="14" t="n">
+      <c r="A145" s="13" t="n">
         <v>143</v>
       </c>
       <c r="B145" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D145,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D145,'Instruction Set'!I:I,0)))</f>
         <v>JZ M</v>
       </c>
-      <c r="C145" s="13" t="str">
+      <c r="C145" s="12" t="str">
         <f aca="false">DEC2BIN(A145,8)</f>
         <v>10001111</v>
       </c>
-      <c r="D145" s="13" t="str">
+      <c r="D145" s="12" t="str">
         <f aca="false">DEC2HEX(A145,2)</f>
         <v>8F</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="14" t="n">
+      <c r="A146" s="13" t="n">
         <v>144</v>
       </c>
       <c r="B146" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D146,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D146,'Instruction Set'!I:I,0)))</f>
         <v>MOV B,A</v>
       </c>
-      <c r="C146" s="13" t="str">
+      <c r="C146" s="12" t="str">
         <f aca="false">DEC2BIN(A146,8)</f>
         <v>10010000</v>
       </c>
-      <c r="D146" s="13" t="str">
+      <c r="D146" s="12" t="str">
         <f aca="false">DEC2HEX(A146,2)</f>
         <v>90</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="14" t="n">
+      <c r="A147" s="13" t="n">
         <v>145</v>
       </c>
       <c r="B147" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D147,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D147,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C147" s="13" t="str">
+      <c r="C147" s="12" t="str">
         <f aca="false">DEC2BIN(A147,8)</f>
         <v>10010001</v>
       </c>
-      <c r="D147" s="13" t="str">
+      <c r="D147" s="12" t="str">
         <f aca="false">DEC2HEX(A147,2)</f>
         <v>91</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="14" t="n">
+      <c r="A148" s="13" t="n">
         <v>146</v>
       </c>
       <c r="B148" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D148,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D148,'Instruction Set'!I:I,0)))</f>
         <v>PUSH B</v>
       </c>
-      <c r="C148" s="13" t="str">
+      <c r="C148" s="12" t="str">
         <f aca="false">DEC2BIN(A148,8)</f>
         <v>10010010</v>
       </c>
-      <c r="D148" s="13" t="str">
+      <c r="D148" s="12" t="str">
         <f aca="false">DEC2HEX(A148,2)</f>
         <v>92</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="14" t="n">
+      <c r="A149" s="13" t="n">
         <v>147</v>
       </c>
       <c r="B149" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D149,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D149,'Instruction Set'!I:I,0)))</f>
         <v>POP B</v>
       </c>
-      <c r="C149" s="13" t="str">
+      <c r="C149" s="12" t="str">
         <f aca="false">DEC2BIN(A149,8)</f>
         <v>10010011</v>
       </c>
-      <c r="D149" s="13" t="str">
+      <c r="D149" s="12" t="str">
         <f aca="false">DEC2HEX(A149,2)</f>
         <v>93</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="14" t="n">
+      <c r="A150" s="13" t="n">
         <v>148</v>
       </c>
       <c r="B150" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D150,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D150,'Instruction Set'!I:I,0)))</f>
         <v>MOV B,C</v>
       </c>
-      <c r="C150" s="13" t="str">
+      <c r="C150" s="12" t="str">
         <f aca="false">DEC2BIN(A150,8)</f>
         <v>10010100</v>
       </c>
-      <c r="D150" s="13" t="str">
+      <c r="D150" s="12" t="str">
         <f aca="false">DEC2HEX(A150,2)</f>
         <v>94</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="14" t="n">
+      <c r="A151" s="13" t="n">
         <v>149</v>
       </c>
       <c r="B151" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D151,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D151,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C151" s="13" t="str">
+      <c r="C151" s="12" t="str">
         <f aca="false">DEC2BIN(A151,8)</f>
         <v>10010101</v>
       </c>
-      <c r="D151" s="13" t="str">
+      <c r="D151" s="12" t="str">
         <f aca="false">DEC2HEX(A151,2)</f>
         <v>95</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="14" t="n">
+      <c r="A152" s="13" t="n">
         <v>150</v>
       </c>
       <c r="B152" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D152,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D152,'Instruction Set'!I:I,0)))</f>
         <v>MOV B,D</v>
       </c>
-      <c r="C152" s="13" t="str">
+      <c r="C152" s="12" t="str">
         <f aca="false">DEC2BIN(A152,8)</f>
         <v>10010110</v>
       </c>
-      <c r="D152" s="13" t="str">
+      <c r="D152" s="12" t="str">
         <f aca="false">DEC2HEX(A152,2)</f>
         <v>96</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="14" t="n">
+      <c r="A153" s="13" t="n">
         <v>151</v>
       </c>
       <c r="B153" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D153,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D153,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C153" s="13" t="str">
+      <c r="C153" s="12" t="str">
         <f aca="false">DEC2BIN(A153,8)</f>
         <v>10010111</v>
       </c>
-      <c r="D153" s="13" t="str">
+      <c r="D153" s="12" t="str">
         <f aca="false">DEC2HEX(A153,2)</f>
         <v>97</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="14" t="n">
+      <c r="A154" s="13" t="n">
         <v>152</v>
       </c>
       <c r="B154" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D154,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D154,'Instruction Set'!I:I,0)))</f>
         <v>MOV B,H</v>
       </c>
-      <c r="C154" s="13" t="str">
+      <c r="C154" s="12" t="str">
         <f aca="false">DEC2BIN(A154,8)</f>
         <v>10011000</v>
       </c>
-      <c r="D154" s="13" t="str">
+      <c r="D154" s="12" t="str">
         <f aca="false">DEC2HEX(A154,2)</f>
         <v>98</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="14" t="n">
+      <c r="A155" s="13" t="n">
         <v>153</v>
       </c>
       <c r="B155" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D155,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D155,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C155" s="13" t="str">
+      <c r="C155" s="12" t="str">
         <f aca="false">DEC2BIN(A155,8)</f>
         <v>10011001</v>
       </c>
-      <c r="D155" s="13" t="str">
+      <c r="D155" s="12" t="str">
         <f aca="false">DEC2HEX(A155,2)</f>
         <v>99</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="14" t="n">
+      <c r="A156" s="13" t="n">
         <v>154</v>
       </c>
       <c r="B156" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D156,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D156,'Instruction Set'!I:I,0)))</f>
         <v>MOV B,L</v>
       </c>
-      <c r="C156" s="13" t="str">
+      <c r="C156" s="12" t="str">
         <f aca="false">DEC2BIN(A156,8)</f>
         <v>10011010</v>
       </c>
-      <c r="D156" s="13" t="str">
+      <c r="D156" s="12" t="str">
         <f aca="false">DEC2HEX(A156,2)</f>
         <v>9A</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="14" t="n">
+      <c r="A157" s="13" t="n">
         <v>155</v>
       </c>
       <c r="B157" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D157,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D157,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C157" s="13" t="str">
+      <c r="C157" s="12" t="str">
         <f aca="false">DEC2BIN(A157,8)</f>
         <v>10011011</v>
       </c>
-      <c r="D157" s="13" t="str">
+      <c r="D157" s="12" t="str">
         <f aca="false">DEC2HEX(A157,2)</f>
         <v>9B</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="14" t="n">
+      <c r="A158" s="13" t="n">
         <v>156</v>
       </c>
       <c r="B158" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D158,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D158,'Instruction Set'!I:I,0)))</f>
         <v>MOV B,M</v>
       </c>
-      <c r="C158" s="13" t="str">
+      <c r="C158" s="12" t="str">
         <f aca="false">DEC2BIN(A158,8)</f>
         <v>10011100</v>
       </c>
-      <c r="D158" s="13" t="str">
+      <c r="D158" s="12" t="str">
         <f aca="false">DEC2HEX(A158,2)</f>
         <v>9C</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="14" t="n">
+      <c r="A159" s="13" t="n">
         <v>157</v>
       </c>
       <c r="B159" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D159,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D159,'Instruction Set'!I:I,0)))</f>
-        <v>LDA B,addr</v>
-      </c>
-      <c r="C159" s="13" t="str">
+        <v>LODA B,addr</v>
+      </c>
+      <c r="C159" s="12" t="str">
         <f aca="false">DEC2BIN(A159,8)</f>
         <v>10011101</v>
       </c>
-      <c r="D159" s="13" t="str">
+      <c r="D159" s="12" t="str">
         <f aca="false">DEC2HEX(A159,2)</f>
         <v>9D</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="14" t="n">
+      <c r="A160" s="13" t="n">
         <v>158</v>
       </c>
       <c r="B160" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D160,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D160,'Instruction Set'!I:I,0)))</f>
         <v>MOV B,data</v>
       </c>
-      <c r="C160" s="13" t="str">
+      <c r="C160" s="12" t="str">
         <f aca="false">DEC2BIN(A160,8)</f>
         <v>10011110</v>
       </c>
-      <c r="D160" s="13" t="str">
+      <c r="D160" s="12" t="str">
         <f aca="false">DEC2HEX(A160,2)</f>
         <v>9E</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="14" t="n">
+      <c r="A161" s="13" t="n">
         <v>159</v>
       </c>
       <c r="B161" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D161,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D161,'Instruction Set'!I:I,0)))</f>
         <v>JZ addr</v>
       </c>
-      <c r="C161" s="13" t="str">
+      <c r="C161" s="12" t="str">
         <f aca="false">DEC2BIN(A161,8)</f>
         <v>10011111</v>
       </c>
-      <c r="D161" s="13" t="str">
+      <c r="D161" s="12" t="str">
         <f aca="false">DEC2HEX(A161,2)</f>
         <v>9F</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="14" t="n">
+      <c r="A162" s="13" t="n">
         <v>160</v>
       </c>
       <c r="B162" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D162,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D162,'Instruction Set'!I:I,0)))</f>
         <v>MOV C,A</v>
       </c>
-      <c r="C162" s="13" t="str">
+      <c r="C162" s="12" t="str">
         <f aca="false">DEC2BIN(A162,8)</f>
         <v>10100000</v>
       </c>
-      <c r="D162" s="13" t="str">
+      <c r="D162" s="12" t="str">
         <f aca="false">DEC2HEX(A162,2)</f>
         <v>A0</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="14" t="n">
+      <c r="A163" s="13" t="n">
         <v>161</v>
       </c>
       <c r="B163" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D163,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D163,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C163" s="13" t="str">
+      <c r="C163" s="12" t="str">
         <f aca="false">DEC2BIN(A163,8)</f>
         <v>10100001</v>
       </c>
-      <c r="D163" s="13" t="str">
+      <c r="D163" s="12" t="str">
         <f aca="false">DEC2HEX(A163,2)</f>
         <v>A1</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="14" t="n">
+      <c r="A164" s="13" t="n">
         <v>162</v>
       </c>
       <c r="B164" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D164,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D164,'Instruction Set'!I:I,0)))</f>
         <v>MOV C,B</v>
       </c>
-      <c r="C164" s="13" t="str">
+      <c r="C164" s="12" t="str">
         <f aca="false">DEC2BIN(A164,8)</f>
         <v>10100010</v>
       </c>
-      <c r="D164" s="13" t="str">
+      <c r="D164" s="12" t="str">
         <f aca="false">DEC2HEX(A164,2)</f>
         <v>A2</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="14" t="n">
+      <c r="A165" s="13" t="n">
         <v>163</v>
       </c>
       <c r="B165" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D165,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D165,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C165" s="13" t="str">
+      <c r="C165" s="12" t="str">
         <f aca="false">DEC2BIN(A165,8)</f>
         <v>10100011</v>
       </c>
-      <c r="D165" s="13" t="str">
+      <c r="D165" s="12" t="str">
         <f aca="false">DEC2HEX(A165,2)</f>
         <v>A3</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="14" t="n">
+      <c r="A166" s="13" t="n">
         <v>164</v>
       </c>
       <c r="B166" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D166,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D166,'Instruction Set'!I:I,0)))</f>
         <v>PUSH C</v>
       </c>
-      <c r="C166" s="13" t="str">
+      <c r="C166" s="12" t="str">
         <f aca="false">DEC2BIN(A166,8)</f>
         <v>10100100</v>
       </c>
-      <c r="D166" s="13" t="str">
+      <c r="D166" s="12" t="str">
         <f aca="false">DEC2HEX(A166,2)</f>
         <v>A4</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="14" t="n">
+      <c r="A167" s="13" t="n">
         <v>165</v>
       </c>
       <c r="B167" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D167,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D167,'Instruction Set'!I:I,0)))</f>
         <v>POP C</v>
       </c>
-      <c r="C167" s="13" t="str">
+      <c r="C167" s="12" t="str">
         <f aca="false">DEC2BIN(A167,8)</f>
         <v>10100101</v>
       </c>
-      <c r="D167" s="13" t="str">
+      <c r="D167" s="12" t="str">
         <f aca="false">DEC2HEX(A167,2)</f>
         <v>A5</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="14" t="n">
+      <c r="A168" s="13" t="n">
         <v>166</v>
       </c>
       <c r="B168" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D168,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D168,'Instruction Set'!I:I,0)))</f>
         <v>MOV C,D</v>
       </c>
-      <c r="C168" s="13" t="str">
+      <c r="C168" s="12" t="str">
         <f aca="false">DEC2BIN(A168,8)</f>
         <v>10100110</v>
       </c>
-      <c r="D168" s="13" t="str">
+      <c r="D168" s="12" t="str">
         <f aca="false">DEC2HEX(A168,2)</f>
         <v>A6</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="14" t="n">
+      <c r="A169" s="13" t="n">
         <v>167</v>
       </c>
       <c r="B169" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D169,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D169,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C169" s="13" t="str">
+      <c r="C169" s="12" t="str">
         <f aca="false">DEC2BIN(A169,8)</f>
         <v>10100111</v>
       </c>
-      <c r="D169" s="13" t="str">
+      <c r="D169" s="12" t="str">
         <f aca="false">DEC2HEX(A169,2)</f>
         <v>A7</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="14" t="n">
+      <c r="A170" s="13" t="n">
         <v>168</v>
       </c>
       <c r="B170" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D170,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D170,'Instruction Set'!I:I,0)))</f>
         <v>MOV C,H</v>
       </c>
-      <c r="C170" s="13" t="str">
+      <c r="C170" s="12" t="str">
         <f aca="false">DEC2BIN(A170,8)</f>
         <v>10101000</v>
       </c>
-      <c r="D170" s="13" t="str">
+      <c r="D170" s="12" t="str">
         <f aca="false">DEC2HEX(A170,2)</f>
         <v>A8</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="14" t="n">
+      <c r="A171" s="13" t="n">
         <v>169</v>
       </c>
       <c r="B171" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D171,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D171,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C171" s="13" t="str">
+      <c r="C171" s="12" t="str">
         <f aca="false">DEC2BIN(A171,8)</f>
         <v>10101001</v>
       </c>
-      <c r="D171" s="13" t="str">
+      <c r="D171" s="12" t="str">
         <f aca="false">DEC2HEX(A171,2)</f>
         <v>A9</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="14" t="n">
+      <c r="A172" s="13" t="n">
         <v>170</v>
       </c>
       <c r="B172" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D172,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D172,'Instruction Set'!I:I,0)))</f>
         <v>MOV C,L</v>
       </c>
-      <c r="C172" s="13" t="str">
+      <c r="C172" s="12" t="str">
         <f aca="false">DEC2BIN(A172,8)</f>
         <v>10101010</v>
       </c>
-      <c r="D172" s="13" t="str">
+      <c r="D172" s="12" t="str">
         <f aca="false">DEC2HEX(A172,2)</f>
         <v>AA</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="14" t="n">
+      <c r="A173" s="13" t="n">
         <v>171</v>
       </c>
       <c r="B173" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D173,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D173,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C173" s="13" t="str">
+      <c r="C173" s="12" t="str">
         <f aca="false">DEC2BIN(A173,8)</f>
         <v>10101011</v>
       </c>
-      <c r="D173" s="13" t="str">
+      <c r="D173" s="12" t="str">
         <f aca="false">DEC2HEX(A173,2)</f>
         <v>AB</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="14" t="n">
+      <c r="A174" s="13" t="n">
         <v>172</v>
       </c>
       <c r="B174" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D174,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D174,'Instruction Set'!I:I,0)))</f>
         <v>MOV C,M</v>
       </c>
-      <c r="C174" s="13" t="str">
+      <c r="C174" s="12" t="str">
         <f aca="false">DEC2BIN(A174,8)</f>
         <v>10101100</v>
       </c>
-      <c r="D174" s="13" t="str">
+      <c r="D174" s="12" t="str">
         <f aca="false">DEC2HEX(A174,2)</f>
         <v>AC</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="14" t="n">
+      <c r="A175" s="13" t="n">
         <v>173</v>
       </c>
       <c r="B175" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D175,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D175,'Instruction Set'!I:I,0)))</f>
-        <v>LDA C,addr</v>
-      </c>
-      <c r="C175" s="13" t="str">
+        <v>LODA C,addr</v>
+      </c>
+      <c r="C175" s="12" t="str">
         <f aca="false">DEC2BIN(A175,8)</f>
         <v>10101101</v>
       </c>
-      <c r="D175" s="13" t="str">
+      <c r="D175" s="12" t="str">
         <f aca="false">DEC2HEX(A175,2)</f>
         <v>AD</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="14" t="n">
+      <c r="A176" s="13" t="n">
         <v>174</v>
       </c>
       <c r="B176" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D176,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D176,'Instruction Set'!I:I,0)))</f>
         <v>MOV C,data</v>
       </c>
-      <c r="C176" s="13" t="str">
+      <c r="C176" s="12" t="str">
         <f aca="false">DEC2BIN(A176,8)</f>
         <v>10101110</v>
       </c>
-      <c r="D176" s="13" t="str">
+      <c r="D176" s="12" t="str">
         <f aca="false">DEC2HEX(A176,2)</f>
         <v>AE</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="14" t="n">
+      <c r="A177" s="13" t="n">
         <v>175</v>
       </c>
       <c r="B177" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D177,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D177,'Instruction Set'!I:I,0)))</f>
         <v>JNZ M</v>
       </c>
-      <c r="C177" s="13" t="str">
+      <c r="C177" s="12" t="str">
         <f aca="false">DEC2BIN(A177,8)</f>
         <v>10101111</v>
       </c>
-      <c r="D177" s="13" t="str">
+      <c r="D177" s="12" t="str">
         <f aca="false">DEC2HEX(A177,2)</f>
         <v>AF</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="14" t="n">
+      <c r="A178" s="13" t="n">
         <v>176</v>
       </c>
       <c r="B178" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D178,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D178,'Instruction Set'!I:I,0)))</f>
         <v>MOV D,A</v>
       </c>
-      <c r="C178" s="13" t="str">
+      <c r="C178" s="12" t="str">
         <f aca="false">DEC2BIN(A178,8)</f>
         <v>10110000</v>
       </c>
-      <c r="D178" s="13" t="str">
+      <c r="D178" s="12" t="str">
         <f aca="false">DEC2HEX(A178,2)</f>
         <v>B0</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="14" t="n">
+      <c r="A179" s="13" t="n">
         <v>177</v>
       </c>
       <c r="B179" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D179,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D179,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C179" s="13" t="str">
+      <c r="C179" s="12" t="str">
         <f aca="false">DEC2BIN(A179,8)</f>
         <v>10110001</v>
       </c>
-      <c r="D179" s="13" t="str">
+      <c r="D179" s="12" t="str">
         <f aca="false">DEC2HEX(A179,2)</f>
         <v>B1</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="14" t="n">
+      <c r="A180" s="13" t="n">
         <v>178</v>
       </c>
       <c r="B180" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D180,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D180,'Instruction Set'!I:I,0)))</f>
         <v>MOV D,B</v>
       </c>
-      <c r="C180" s="13" t="str">
+      <c r="C180" s="12" t="str">
         <f aca="false">DEC2BIN(A180,8)</f>
         <v>10110010</v>
       </c>
-      <c r="D180" s="13" t="str">
+      <c r="D180" s="12" t="str">
         <f aca="false">DEC2HEX(A180,2)</f>
         <v>B2</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="14" t="n">
+      <c r="A181" s="13" t="n">
         <v>179</v>
       </c>
       <c r="B181" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D181,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D181,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C181" s="13" t="str">
+      <c r="C181" s="12" t="str">
         <f aca="false">DEC2BIN(A181,8)</f>
         <v>10110011</v>
       </c>
-      <c r="D181" s="13" t="str">
+      <c r="D181" s="12" t="str">
         <f aca="false">DEC2HEX(A181,2)</f>
         <v>B3</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="14" t="n">
+      <c r="A182" s="13" t="n">
         <v>180</v>
       </c>
       <c r="B182" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D182,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D182,'Instruction Set'!I:I,0)))</f>
         <v>MOV D,C</v>
       </c>
-      <c r="C182" s="13" t="str">
+      <c r="C182" s="12" t="str">
         <f aca="false">DEC2BIN(A182,8)</f>
         <v>10110100</v>
       </c>
-      <c r="D182" s="13" t="str">
+      <c r="D182" s="12" t="str">
         <f aca="false">DEC2HEX(A182,2)</f>
         <v>B4</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="14" t="n">
+      <c r="A183" s="13" t="n">
         <v>181</v>
       </c>
       <c r="B183" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D183,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D183,'Instruction Set'!I:I,0)))</f>
         <v>IRET</v>
       </c>
-      <c r="C183" s="13" t="str">
+      <c r="C183" s="12" t="str">
         <f aca="false">DEC2BIN(A183,8)</f>
         <v>10110101</v>
       </c>
-      <c r="D183" s="13" t="str">
+      <c r="D183" s="12" t="str">
         <f aca="false">DEC2HEX(A183,2)</f>
         <v>B5</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="14" t="n">
+      <c r="A184" s="13" t="n">
         <v>182</v>
       </c>
       <c r="B184" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D184,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D184,'Instruction Set'!I:I,0)))</f>
         <v>PUSH D</v>
       </c>
-      <c r="C184" s="13" t="str">
+      <c r="C184" s="12" t="str">
         <f aca="false">DEC2BIN(A184,8)</f>
         <v>10110110</v>
       </c>
-      <c r="D184" s="13" t="str">
+      <c r="D184" s="12" t="str">
         <f aca="false">DEC2HEX(A184,2)</f>
         <v>B6</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="14" t="n">
+      <c r="A185" s="13" t="n">
         <v>183</v>
       </c>
       <c r="B185" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D185,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D185,'Instruction Set'!I:I,0)))</f>
         <v>POP D</v>
       </c>
-      <c r="C185" s="13" t="str">
+      <c r="C185" s="12" t="str">
         <f aca="false">DEC2BIN(A185,8)</f>
         <v>10110111</v>
       </c>
-      <c r="D185" s="13" t="str">
+      <c r="D185" s="12" t="str">
         <f aca="false">DEC2HEX(A185,2)</f>
         <v>B7</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="14" t="n">
+      <c r="A186" s="13" t="n">
         <v>184</v>
       </c>
       <c r="B186" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D186,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D186,'Instruction Set'!I:I,0)))</f>
         <v>MOV D,H</v>
       </c>
-      <c r="C186" s="13" t="str">
+      <c r="C186" s="12" t="str">
         <f aca="false">DEC2BIN(A186,8)</f>
         <v>10111000</v>
       </c>
-      <c r="D186" s="13" t="str">
+      <c r="D186" s="12" t="str">
         <f aca="false">DEC2HEX(A186,2)</f>
         <v>B8</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="14" t="n">
+      <c r="A187" s="13" t="n">
         <v>185</v>
       </c>
       <c r="B187" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D187,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D187,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C187" s="13" t="str">
+      <c r="C187" s="12" t="str">
         <f aca="false">DEC2BIN(A187,8)</f>
         <v>10111001</v>
       </c>
-      <c r="D187" s="13" t="str">
+      <c r="D187" s="12" t="str">
         <f aca="false">DEC2HEX(A187,2)</f>
         <v>B9</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="14" t="n">
+      <c r="A188" s="13" t="n">
         <v>186</v>
       </c>
       <c r="B188" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D188,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D188,'Instruction Set'!I:I,0)))</f>
         <v>MOV D,L</v>
       </c>
-      <c r="C188" s="13" t="str">
+      <c r="C188" s="12" t="str">
         <f aca="false">DEC2BIN(A188,8)</f>
         <v>10111010</v>
       </c>
-      <c r="D188" s="13" t="str">
+      <c r="D188" s="12" t="str">
         <f aca="false">DEC2HEX(A188,2)</f>
         <v>BA</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="14" t="n">
+      <c r="A189" s="13" t="n">
         <v>187</v>
       </c>
       <c r="B189" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D189,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D189,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C189" s="13" t="str">
+      <c r="C189" s="12" t="str">
         <f aca="false">DEC2BIN(A189,8)</f>
         <v>10111011</v>
       </c>
-      <c r="D189" s="13" t="str">
+      <c r="D189" s="12" t="str">
         <f aca="false">DEC2HEX(A189,2)</f>
         <v>BB</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="14" t="n">
+      <c r="A190" s="13" t="n">
         <v>188</v>
       </c>
       <c r="B190" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D190,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D190,'Instruction Set'!I:I,0)))</f>
         <v>MOV D,M</v>
       </c>
-      <c r="C190" s="13" t="str">
+      <c r="C190" s="12" t="str">
         <f aca="false">DEC2BIN(A190,8)</f>
         <v>10111100</v>
       </c>
-      <c r="D190" s="13" t="str">
+      <c r="D190" s="12" t="str">
         <f aca="false">DEC2HEX(A190,2)</f>
         <v>BC</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="14" t="n">
+      <c r="A191" s="13" t="n">
         <v>189</v>
       </c>
       <c r="B191" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D191,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D191,'Instruction Set'!I:I,0)))</f>
-        <v>LDA D,addr</v>
-      </c>
-      <c r="C191" s="13" t="str">
+        <v>LODA D,addr</v>
+      </c>
+      <c r="C191" s="12" t="str">
         <f aca="false">DEC2BIN(A191,8)</f>
         <v>10111101</v>
       </c>
-      <c r="D191" s="13" t="str">
+      <c r="D191" s="12" t="str">
         <f aca="false">DEC2HEX(A191,2)</f>
         <v>BD</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="14" t="n">
+      <c r="A192" s="13" t="n">
         <v>190</v>
       </c>
       <c r="B192" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D192,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D192,'Instruction Set'!I:I,0)))</f>
         <v>MOV D,data</v>
       </c>
-      <c r="C192" s="13" t="str">
+      <c r="C192" s="12" t="str">
         <f aca="false">DEC2BIN(A192,8)</f>
         <v>10111110</v>
       </c>
-      <c r="D192" s="13" t="str">
+      <c r="D192" s="12" t="str">
         <f aca="false">DEC2HEX(A192,2)</f>
         <v>BE</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="14" t="n">
+      <c r="A193" s="13" t="n">
         <v>191</v>
       </c>
       <c r="B193" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D193,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D193,'Instruction Set'!I:I,0)))</f>
         <v>JNZ addr</v>
       </c>
-      <c r="C193" s="13" t="str">
+      <c r="C193" s="12" t="str">
         <f aca="false">DEC2BIN(A193,8)</f>
         <v>10111111</v>
       </c>
-      <c r="D193" s="13" t="str">
+      <c r="D193" s="12" t="str">
         <f aca="false">DEC2HEX(A193,2)</f>
         <v>BF</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="14" t="n">
+      <c r="A194" s="13" t="n">
         <v>192</v>
       </c>
       <c r="B194" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D194,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D194,'Instruction Set'!I:I,0)))</f>
         <v>MOV H,A</v>
       </c>
-      <c r="C194" s="13" t="str">
+      <c r="C194" s="12" t="str">
         <f aca="false">DEC2BIN(A194,8)</f>
         <v>11000000</v>
       </c>
-      <c r="D194" s="13" t="str">
+      <c r="D194" s="12" t="str">
         <f aca="false">DEC2HEX(A194,2)</f>
         <v>C0</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="14" t="n">
+      <c r="A195" s="13" t="n">
         <v>193</v>
       </c>
       <c r="B195" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D195,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D195,'Instruction Set'!I:I,0)))</f>
         <v>CALL M</v>
       </c>
-      <c r="C195" s="13" t="str">
+      <c r="C195" s="12" t="str">
         <f aca="false">DEC2BIN(A195,8)</f>
         <v>11000001</v>
       </c>
-      <c r="D195" s="13" t="str">
+      <c r="D195" s="12" t="str">
         <f aca="false">DEC2HEX(A195,2)</f>
         <v>C1</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="14" t="n">
+      <c r="A196" s="13" t="n">
         <v>194</v>
       </c>
       <c r="B196" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D196,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D196,'Instruction Set'!I:I,0)))</f>
         <v>MOV H,B</v>
       </c>
-      <c r="C196" s="13" t="str">
+      <c r="C196" s="12" t="str">
         <f aca="false">DEC2BIN(A196,8)</f>
         <v>11000010</v>
       </c>
-      <c r="D196" s="13" t="str">
+      <c r="D196" s="12" t="str">
         <f aca="false">DEC2HEX(A196,2)</f>
         <v>C2</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="14" t="n">
+      <c r="A197" s="13" t="n">
         <v>195</v>
       </c>
       <c r="B197" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D197,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D197,'Instruction Set'!I:I,0)))</f>
         <v>CALL addr</v>
       </c>
-      <c r="C197" s="13" t="str">
+      <c r="C197" s="12" t="str">
         <f aca="false">DEC2BIN(A197,8)</f>
         <v>11000011</v>
       </c>
-      <c r="D197" s="13" t="str">
+      <c r="D197" s="12" t="str">
         <f aca="false">DEC2HEX(A197,2)</f>
         <v>C3</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="14" t="n">
+      <c r="A198" s="13" t="n">
         <v>196</v>
       </c>
       <c r="B198" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D198,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D198,'Instruction Set'!I:I,0)))</f>
         <v>MOV H,C</v>
       </c>
-      <c r="C198" s="13" t="str">
+      <c r="C198" s="12" t="str">
         <f aca="false">DEC2BIN(A198,8)</f>
         <v>11000100</v>
       </c>
-      <c r="D198" s="13" t="str">
+      <c r="D198" s="12" t="str">
         <f aca="false">DEC2HEX(A198,2)</f>
         <v>C4</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="14" t="n">
+      <c r="A199" s="13" t="n">
         <v>197</v>
       </c>
       <c r="B199" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D199,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D199,'Instruction Set'!I:I,0)))</f>
         <v>CC M</v>
       </c>
-      <c r="C199" s="13" t="str">
+      <c r="C199" s="12" t="str">
         <f aca="false">DEC2BIN(A199,8)</f>
         <v>11000101</v>
       </c>
-      <c r="D199" s="13" t="str">
+      <c r="D199" s="12" t="str">
         <f aca="false">DEC2HEX(A199,2)</f>
         <v>C5</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="14" t="n">
+      <c r="A200" s="13" t="n">
         <v>198</v>
       </c>
       <c r="B200" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D200,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D200,'Instruction Set'!I:I,0)))</f>
         <v>MOV H,D</v>
       </c>
-      <c r="C200" s="13" t="str">
+      <c r="C200" s="12" t="str">
         <f aca="false">DEC2BIN(A200,8)</f>
         <v>11000110</v>
       </c>
-      <c r="D200" s="13" t="str">
+      <c r="D200" s="12" t="str">
         <f aca="false">DEC2HEX(A200,2)</f>
         <v>C6</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="14" t="n">
+      <c r="A201" s="13" t="n">
         <v>199</v>
       </c>
       <c r="B201" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D201,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D201,'Instruction Set'!I:I,0)))</f>
         <v>CC addr</v>
       </c>
-      <c r="C201" s="13" t="str">
+      <c r="C201" s="12" t="str">
         <f aca="false">DEC2BIN(A201,8)</f>
         <v>11000111</v>
       </c>
-      <c r="D201" s="13" t="str">
+      <c r="D201" s="12" t="str">
         <f aca="false">DEC2HEX(A201,2)</f>
         <v>C7</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="14" t="n">
+      <c r="A202" s="13" t="n">
         <v>200</v>
       </c>
       <c r="B202" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D202,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D202,'Instruction Set'!I:I,0)))</f>
         <v>PUSH H</v>
       </c>
-      <c r="C202" s="13" t="str">
+      <c r="C202" s="12" t="str">
         <f aca="false">DEC2BIN(A202,8)</f>
         <v>11001000</v>
       </c>
-      <c r="D202" s="13" t="str">
+      <c r="D202" s="12" t="str">
         <f aca="false">DEC2HEX(A202,2)</f>
         <v>C8</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="14" t="n">
+      <c r="A203" s="13" t="n">
         <v>201</v>
       </c>
       <c r="B203" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D203,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D203,'Instruction Set'!I:I,0)))</f>
         <v>POP H</v>
       </c>
-      <c r="C203" s="13" t="str">
+      <c r="C203" s="12" t="str">
         <f aca="false">DEC2BIN(A203,8)</f>
         <v>11001001</v>
       </c>
-      <c r="D203" s="13" t="str">
+      <c r="D203" s="12" t="str">
         <f aca="false">DEC2HEX(A203,2)</f>
         <v>C9</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="14" t="n">
+      <c r="A204" s="13" t="n">
         <v>202</v>
       </c>
       <c r="B204" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D204,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D204,'Instruction Set'!I:I,0)))</f>
         <v>MOV H,L</v>
       </c>
-      <c r="C204" s="13" t="str">
+      <c r="C204" s="12" t="str">
         <f aca="false">DEC2BIN(A204,8)</f>
         <v>11001010</v>
       </c>
-      <c r="D204" s="13" t="str">
+      <c r="D204" s="12" t="str">
         <f aca="false">DEC2HEX(A204,2)</f>
         <v>CA</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="14" t="n">
+      <c r="A205" s="13" t="n">
         <v>203</v>
       </c>
       <c r="B205" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D205,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D205,'Instruction Set'!I:I,0)))</f>
         <v>CNC M</v>
       </c>
-      <c r="C205" s="13" t="str">
+      <c r="C205" s="12" t="str">
         <f aca="false">DEC2BIN(A205,8)</f>
         <v>11001011</v>
       </c>
-      <c r="D205" s="13" t="str">
+      <c r="D205" s="12" t="str">
         <f aca="false">DEC2HEX(A205,2)</f>
         <v>CB</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="14" t="n">
+      <c r="A206" s="13" t="n">
         <v>204</v>
       </c>
       <c r="B206" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D206,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D206,'Instruction Set'!I:I,0)))</f>
         <v>MOV H,M</v>
       </c>
-      <c r="C206" s="13" t="str">
+      <c r="C206" s="12" t="str">
         <f aca="false">DEC2BIN(A206,8)</f>
         <v>11001100</v>
       </c>
-      <c r="D206" s="13" t="str">
+      <c r="D206" s="12" t="str">
         <f aca="false">DEC2HEX(A206,2)</f>
         <v>CC</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="14" t="n">
+      <c r="A207" s="13" t="n">
         <v>205</v>
       </c>
       <c r="B207" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D207,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D207,'Instruction Set'!I:I,0)))</f>
-        <v>LDA H,addr</v>
-      </c>
-      <c r="C207" s="13" t="str">
+        <v>LODA H,addr</v>
+      </c>
+      <c r="C207" s="12" t="str">
         <f aca="false">DEC2BIN(A207,8)</f>
         <v>11001101</v>
       </c>
-      <c r="D207" s="13" t="str">
+      <c r="D207" s="12" t="str">
         <f aca="false">DEC2HEX(A207,2)</f>
         <v>CD</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="14" t="n">
+      <c r="A208" s="13" t="n">
         <v>206</v>
       </c>
       <c r="B208" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D208,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D208,'Instruction Set'!I:I,0)))</f>
         <v>MOV H,data</v>
       </c>
-      <c r="C208" s="13" t="str">
+      <c r="C208" s="12" t="str">
         <f aca="false">DEC2BIN(A208,8)</f>
         <v>11001110</v>
       </c>
-      <c r="D208" s="13" t="str">
+      <c r="D208" s="12" t="str">
         <f aca="false">DEC2HEX(A208,2)</f>
         <v>CE</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="14" t="n">
+      <c r="A209" s="13" t="n">
         <v>207</v>
       </c>
       <c r="B209" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D209,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D209,'Instruction Set'!I:I,0)))</f>
         <v>CNC addr</v>
       </c>
-      <c r="C209" s="13" t="str">
+      <c r="C209" s="12" t="str">
         <f aca="false">DEC2BIN(A209,8)</f>
         <v>11001111</v>
       </c>
-      <c r="D209" s="13" t="str">
+      <c r="D209" s="12" t="str">
         <f aca="false">DEC2HEX(A209,2)</f>
         <v>CF</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="14" t="n">
+      <c r="A210" s="13" t="n">
         <v>208</v>
       </c>
       <c r="B210" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D210,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D210,'Instruction Set'!I:I,0)))</f>
         <v>MOV L,A</v>
       </c>
-      <c r="C210" s="13" t="str">
+      <c r="C210" s="12" t="str">
         <f aca="false">DEC2BIN(A210,8)</f>
         <v>11010000</v>
       </c>
-      <c r="D210" s="13" t="str">
+      <c r="D210" s="12" t="str">
         <f aca="false">DEC2HEX(A210,2)</f>
         <v>D0</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="14" t="n">
+      <c r="A211" s="13" t="n">
         <v>209</v>
       </c>
       <c r="B211" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D211,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D211,'Instruction Set'!I:I,0)))</f>
         <v>CZ M</v>
       </c>
-      <c r="C211" s="13" t="str">
+      <c r="C211" s="12" t="str">
         <f aca="false">DEC2BIN(A211,8)</f>
         <v>11010001</v>
       </c>
-      <c r="D211" s="13" t="str">
+      <c r="D211" s="12" t="str">
         <f aca="false">DEC2HEX(A211,2)</f>
         <v>D1</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="14" t="n">
+      <c r="A212" s="13" t="n">
         <v>210</v>
       </c>
       <c r="B212" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D212,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D212,'Instruction Set'!I:I,0)))</f>
         <v>MOV L,B</v>
       </c>
-      <c r="C212" s="13" t="str">
+      <c r="C212" s="12" t="str">
         <f aca="false">DEC2BIN(A212,8)</f>
         <v>11010010</v>
       </c>
-      <c r="D212" s="13" t="str">
+      <c r="D212" s="12" t="str">
         <f aca="false">DEC2HEX(A212,2)</f>
         <v>D2</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="14" t="n">
+      <c r="A213" s="13" t="n">
         <v>211</v>
       </c>
       <c r="B213" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D213,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D213,'Instruction Set'!I:I,0)))</f>
         <v>CZ addr</v>
       </c>
-      <c r="C213" s="13" t="str">
+      <c r="C213" s="12" t="str">
         <f aca="false">DEC2BIN(A213,8)</f>
         <v>11010011</v>
       </c>
-      <c r="D213" s="13" t="str">
+      <c r="D213" s="12" t="str">
         <f aca="false">DEC2HEX(A213,2)</f>
         <v>D3</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="14" t="n">
+      <c r="A214" s="13" t="n">
         <v>212</v>
       </c>
       <c r="B214" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D214,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D214,'Instruction Set'!I:I,0)))</f>
         <v>MOV L,C</v>
       </c>
-      <c r="C214" s="13" t="str">
+      <c r="C214" s="12" t="str">
         <f aca="false">DEC2BIN(A214,8)</f>
         <v>11010100</v>
       </c>
-      <c r="D214" s="13" t="str">
+      <c r="D214" s="12" t="str">
         <f aca="false">DEC2HEX(A214,2)</f>
         <v>D4</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="14" t="n">
+      <c r="A215" s="13" t="n">
         <v>213</v>
       </c>
       <c r="B215" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D215,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D215,'Instruction Set'!I:I,0)))</f>
         <v>CNZ M</v>
       </c>
-      <c r="C215" s="13" t="str">
+      <c r="C215" s="12" t="str">
         <f aca="false">DEC2BIN(A215,8)</f>
         <v>11010101</v>
       </c>
-      <c r="D215" s="13" t="str">
+      <c r="D215" s="12" t="str">
         <f aca="false">DEC2HEX(A215,2)</f>
         <v>D5</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="14" t="n">
+      <c r="A216" s="13" t="n">
         <v>214</v>
       </c>
       <c r="B216" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D216,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D216,'Instruction Set'!I:I,0)))</f>
         <v>MOV L,D</v>
       </c>
-      <c r="C216" s="13" t="str">
+      <c r="C216" s="12" t="str">
         <f aca="false">DEC2BIN(A216,8)</f>
         <v>11010110</v>
       </c>
-      <c r="D216" s="13" t="str">
+      <c r="D216" s="12" t="str">
         <f aca="false">DEC2HEX(A216,2)</f>
         <v>D6</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="14" t="n">
+      <c r="A217" s="13" t="n">
         <v>215</v>
       </c>
       <c r="B217" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D217,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D217,'Instruction Set'!I:I,0)))</f>
         <v>CNZ addr</v>
       </c>
-      <c r="C217" s="13" t="str">
+      <c r="C217" s="12" t="str">
         <f aca="false">DEC2BIN(A217,8)</f>
         <v>11010111</v>
       </c>
-      <c r="D217" s="13" t="str">
+      <c r="D217" s="12" t="str">
         <f aca="false">DEC2HEX(A217,2)</f>
         <v>D7</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="14" t="n">
+      <c r="A218" s="13" t="n">
         <v>216</v>
       </c>
       <c r="B218" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D218,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D218,'Instruction Set'!I:I,0)))</f>
         <v>MOV L,H</v>
       </c>
-      <c r="C218" s="13" t="str">
+      <c r="C218" s="12" t="str">
         <f aca="false">DEC2BIN(A218,8)</f>
         <v>11011000</v>
       </c>
-      <c r="D218" s="13" t="str">
+      <c r="D218" s="12" t="str">
         <f aca="false">DEC2HEX(A218,2)</f>
         <v>D8</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="14" t="n">
+      <c r="A219" s="13" t="n">
         <v>217</v>
       </c>
       <c r="B219" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D219,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D219,'Instruction Set'!I:I,0)))</f>
         <v>POPF</v>
       </c>
-      <c r="C219" s="13" t="str">
+      <c r="C219" s="12" t="str">
         <f aca="false">DEC2BIN(A219,8)</f>
         <v>11011001</v>
       </c>
-      <c r="D219" s="13" t="str">
+      <c r="D219" s="12" t="str">
         <f aca="false">DEC2HEX(A219,2)</f>
         <v>D9</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="14" t="n">
+      <c r="A220" s="13" t="n">
         <v>218</v>
       </c>
       <c r="B220" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D220,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D220,'Instruction Set'!I:I,0)))</f>
         <v>PUSH L</v>
       </c>
-      <c r="C220" s="13" t="str">
+      <c r="C220" s="12" t="str">
         <f aca="false">DEC2BIN(A220,8)</f>
         <v>11011010</v>
       </c>
-      <c r="D220" s="13" t="str">
+      <c r="D220" s="12" t="str">
         <f aca="false">DEC2HEX(A220,2)</f>
         <v>DA</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="14" t="n">
+      <c r="A221" s="13" t="n">
         <v>219</v>
       </c>
       <c r="B221" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D221,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D221,'Instruction Set'!I:I,0)))</f>
         <v>POP L</v>
       </c>
-      <c r="C221" s="13" t="str">
+      <c r="C221" s="12" t="str">
         <f aca="false">DEC2BIN(A221,8)</f>
         <v>11011011</v>
       </c>
-      <c r="D221" s="13" t="str">
+      <c r="D221" s="12" t="str">
         <f aca="false">DEC2HEX(A221,2)</f>
         <v>DB</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="14" t="n">
+      <c r="A222" s="13" t="n">
         <v>220</v>
       </c>
       <c r="B222" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D222,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D222,'Instruction Set'!I:I,0)))</f>
         <v>MOV L,M</v>
       </c>
-      <c r="C222" s="13" t="str">
+      <c r="C222" s="12" t="str">
         <f aca="false">DEC2BIN(A222,8)</f>
         <v>11011100</v>
       </c>
-      <c r="D222" s="13" t="str">
+      <c r="D222" s="12" t="str">
         <f aca="false">DEC2HEX(A222,2)</f>
         <v>DC</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="14" t="n">
+      <c r="A223" s="13" t="n">
         <v>221</v>
       </c>
       <c r="B223" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D223,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D223,'Instruction Set'!I:I,0)))</f>
-        <v>LDA L,addr</v>
-      </c>
-      <c r="C223" s="13" t="str">
+        <v>LODA L,addr</v>
+      </c>
+      <c r="C223" s="12" t="str">
         <f aca="false">DEC2BIN(A223,8)</f>
         <v>11011101</v>
       </c>
-      <c r="D223" s="13" t="str">
+      <c r="D223" s="12" t="str">
         <f aca="false">DEC2HEX(A223,2)</f>
         <v>DD</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="14" t="n">
+      <c r="A224" s="13" t="n">
         <v>222</v>
       </c>
       <c r="B224" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D224,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D224,'Instruction Set'!I:I,0)))</f>
         <v>MOV L,data</v>
       </c>
-      <c r="C224" s="13" t="str">
+      <c r="C224" s="12" t="str">
         <f aca="false">DEC2BIN(A224,8)</f>
         <v>11011110</v>
       </c>
-      <c r="D224" s="13" t="str">
+      <c r="D224" s="12" t="str">
         <f aca="false">DEC2HEX(A224,2)</f>
         <v>DE</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="14" t="n">
+      <c r="A225" s="13" t="n">
         <v>223</v>
       </c>
       <c r="B225" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D225,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D225,'Instruction Set'!I:I,0)))</f>
         <v>INT int</v>
       </c>
-      <c r="C225" s="13" t="str">
+      <c r="C225" s="12" t="str">
         <f aca="false">DEC2BIN(A225,8)</f>
         <v>11011111</v>
       </c>
-      <c r="D225" s="13" t="str">
+      <c r="D225" s="12" t="str">
         <f aca="false">DEC2HEX(A225,2)</f>
         <v>DF</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="14" t="n">
+      <c r="A226" s="13" t="n">
         <v>224</v>
       </c>
       <c r="B226" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D226,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D226,'Instruction Set'!I:I,0)))</f>
         <v>MOV M,A</v>
       </c>
-      <c r="C226" s="13" t="str">
+      <c r="C226" s="12" t="str">
         <f aca="false">DEC2BIN(A226,8)</f>
         <v>11100000</v>
       </c>
-      <c r="D226" s="13" t="str">
+      <c r="D226" s="12" t="str">
         <f aca="false">DEC2HEX(A226,2)</f>
         <v>E0</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="14" t="n">
+      <c r="A227" s="13" t="n">
         <v>225</v>
       </c>
       <c r="B227" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D227,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D227,'Instruction Set'!I:I,0)))</f>
-        <v>STA addr,A</v>
-      </c>
-      <c r="C227" s="13" t="str">
+        <v>STOA addr,A</v>
+      </c>
+      <c r="C227" s="12" t="str">
         <f aca="false">DEC2BIN(A227,8)</f>
         <v>11100001</v>
       </c>
-      <c r="D227" s="13" t="str">
+      <c r="D227" s="12" t="str">
         <f aca="false">DEC2HEX(A227,2)</f>
         <v>E1</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="14" t="n">
+      <c r="A228" s="13" t="n">
         <v>226</v>
       </c>
       <c r="B228" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D228,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D228,'Instruction Set'!I:I,0)))</f>
         <v>MOV M,B</v>
       </c>
-      <c r="C228" s="13" t="str">
+      <c r="C228" s="12" t="str">
         <f aca="false">DEC2BIN(A228,8)</f>
         <v>11100010</v>
       </c>
-      <c r="D228" s="13" t="str">
+      <c r="D228" s="12" t="str">
         <f aca="false">DEC2HEX(A228,2)</f>
         <v>E2</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="14" t="n">
+      <c r="A229" s="13" t="n">
         <v>227</v>
       </c>
       <c r="B229" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D229,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D229,'Instruction Set'!I:I,0)))</f>
-        <v>STA addr,B</v>
-      </c>
-      <c r="C229" s="13" t="str">
+        <v>STOA addr,B</v>
+      </c>
+      <c r="C229" s="12" t="str">
         <f aca="false">DEC2BIN(A229,8)</f>
         <v>11100011</v>
       </c>
-      <c r="D229" s="13" t="str">
+      <c r="D229" s="12" t="str">
         <f aca="false">DEC2HEX(A229,2)</f>
         <v>E3</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="14" t="n">
+      <c r="A230" s="13" t="n">
         <v>228</v>
       </c>
       <c r="B230" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D230,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D230,'Instruction Set'!I:I,0)))</f>
         <v>MOV M,C</v>
       </c>
-      <c r="C230" s="13" t="str">
+      <c r="C230" s="12" t="str">
         <f aca="false">DEC2BIN(A230,8)</f>
         <v>11100100</v>
       </c>
-      <c r="D230" s="13" t="str">
+      <c r="D230" s="12" t="str">
         <f aca="false">DEC2HEX(A230,2)</f>
         <v>E4</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="14" t="n">
+      <c r="A231" s="13" t="n">
         <v>229</v>
       </c>
       <c r="B231" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D231,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D231,'Instruction Set'!I:I,0)))</f>
-        <v>STA addr,C</v>
-      </c>
-      <c r="C231" s="13" t="str">
+        <v>STOA addr,C</v>
+      </c>
+      <c r="C231" s="12" t="str">
         <f aca="false">DEC2BIN(A231,8)</f>
         <v>11100101</v>
       </c>
-      <c r="D231" s="13" t="str">
+      <c r="D231" s="12" t="str">
         <f aca="false">DEC2HEX(A231,2)</f>
         <v>E5</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="14" t="n">
+      <c r="A232" s="13" t="n">
         <v>230</v>
       </c>
       <c r="B232" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D232,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D232,'Instruction Set'!I:I,0)))</f>
         <v>MOV M,D</v>
       </c>
-      <c r="C232" s="13" t="str">
+      <c r="C232" s="12" t="str">
         <f aca="false">DEC2BIN(A232,8)</f>
         <v>11100110</v>
       </c>
-      <c r="D232" s="13" t="str">
+      <c r="D232" s="12" t="str">
         <f aca="false">DEC2HEX(A232,2)</f>
         <v>E6</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="14" t="n">
+      <c r="A233" s="13" t="n">
         <v>231</v>
       </c>
       <c r="B233" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D233,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D233,'Instruction Set'!I:I,0)))</f>
-        <v>STA addr,D</v>
-      </c>
-      <c r="C233" s="13" t="str">
+        <v>STOA addr,D</v>
+      </c>
+      <c r="C233" s="12" t="str">
         <f aca="false">DEC2BIN(A233,8)</f>
         <v>11100111</v>
       </c>
-      <c r="D233" s="13" t="str">
+      <c r="D233" s="12" t="str">
         <f aca="false">DEC2HEX(A233,2)</f>
         <v>E7</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="14" t="n">
+      <c r="A234" s="13" t="n">
         <v>232</v>
       </c>
       <c r="B234" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D234,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D234,'Instruction Set'!I:I,0)))</f>
         <v>MOV M,H</v>
       </c>
-      <c r="C234" s="13" t="str">
+      <c r="C234" s="12" t="str">
         <f aca="false">DEC2BIN(A234,8)</f>
         <v>11101000</v>
       </c>
-      <c r="D234" s="13" t="str">
+      <c r="D234" s="12" t="str">
         <f aca="false">DEC2HEX(A234,2)</f>
         <v>E8</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="14" t="n">
+      <c r="A235" s="13" t="n">
         <v>233</v>
       </c>
       <c r="B235" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D235,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D235,'Instruction Set'!I:I,0)))</f>
-        <v>STA addr,H</v>
-      </c>
-      <c r="C235" s="13" t="str">
+        <v>STOA addr,H</v>
+      </c>
+      <c r="C235" s="12" t="str">
         <f aca="false">DEC2BIN(A235,8)</f>
         <v>11101001</v>
       </c>
-      <c r="D235" s="13" t="str">
+      <c r="D235" s="12" t="str">
         <f aca="false">DEC2HEX(A235,2)</f>
         <v>E9</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="14" t="n">
+      <c r="A236" s="13" t="n">
         <v>234</v>
       </c>
       <c r="B236" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D236,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D236,'Instruction Set'!I:I,0)))</f>
         <v>MOV M,L</v>
       </c>
-      <c r="C236" s="13" t="str">
+      <c r="C236" s="12" t="str">
         <f aca="false">DEC2BIN(A236,8)</f>
         <v>11101010</v>
       </c>
-      <c r="D236" s="13" t="str">
+      <c r="D236" s="12" t="str">
         <f aca="false">DEC2HEX(A236,2)</f>
         <v>EA</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="14" t="n">
+      <c r="A237" s="13" t="n">
         <v>235</v>
       </c>
       <c r="B237" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D237,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D237,'Instruction Set'!I:I,0)))</f>
-        <v>STA addr,L</v>
-      </c>
-      <c r="C237" s="13" t="str">
+        <v>STOA addr,L</v>
+      </c>
+      <c r="C237" s="12" t="str">
         <f aca="false">DEC2BIN(A237,8)</f>
         <v>11101011</v>
       </c>
-      <c r="D237" s="13" t="str">
+      <c r="D237" s="12" t="str">
         <f aca="false">DEC2HEX(A237,2)</f>
         <v>EB</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="14" t="n">
+      <c r="A238" s="13" t="n">
         <v>236</v>
       </c>
       <c r="B238" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D238,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D238,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C238" s="13" t="str">
+      <c r="C238" s="12" t="str">
         <f aca="false">DEC2BIN(A238,8)</f>
         <v>11101100</v>
       </c>
-      <c r="D238" s="13" t="str">
+      <c r="D238" s="12" t="str">
         <f aca="false">DEC2HEX(A238,2)</f>
         <v>EC</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="14" t="n">
+      <c r="A239" s="13" t="n">
         <v>237</v>
       </c>
       <c r="B239" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D239,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D239,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C239" s="13" t="str">
+      <c r="C239" s="12" t="str">
         <f aca="false">DEC2BIN(A239,8)</f>
         <v>11101101</v>
       </c>
-      <c r="D239" s="13" t="str">
+      <c r="D239" s="12" t="str">
         <f aca="false">DEC2HEX(A239,2)</f>
         <v>ED</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="14" t="n">
+      <c r="A240" s="13" t="n">
         <v>238</v>
       </c>
       <c r="B240" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D240,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D240,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C240" s="13" t="str">
+      <c r="C240" s="12" t="str">
         <f aca="false">DEC2BIN(A240,8)</f>
         <v>11101110</v>
       </c>
-      <c r="D240" s="13" t="str">
+      <c r="D240" s="12" t="str">
         <f aca="false">DEC2HEX(A240,2)</f>
         <v>EE</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="14" t="n">
+      <c r="A241" s="13" t="n">
         <v>239</v>
       </c>
       <c r="B241" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D241,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D241,'Instruction Set'!I:I,0)))</f>
         <v/>
       </c>
-      <c r="C241" s="13" t="str">
+      <c r="C241" s="12" t="str">
         <f aca="false">DEC2BIN(A241,8)</f>
         <v>11101111</v>
       </c>
-      <c r="D241" s="13" t="str">
+      <c r="D241" s="12" t="str">
         <f aca="false">DEC2HEX(A241,2)</f>
         <v>EF</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="14" t="n">
+      <c r="A242" s="13" t="n">
         <v>240</v>
       </c>
       <c r="B242" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D242,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D242,'Instruction Set'!I:I,0)))</f>
         <v>INC A</v>
       </c>
-      <c r="C242" s="13" t="str">
+      <c r="C242" s="12" t="str">
         <f aca="false">DEC2BIN(A242,8)</f>
         <v>11110000</v>
       </c>
-      <c r="D242" s="13" t="str">
+      <c r="D242" s="12" t="str">
         <f aca="false">DEC2HEX(A242,2)</f>
         <v>F0</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="14" t="n">
+      <c r="A243" s="13" t="n">
         <v>241</v>
       </c>
       <c r="B243" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D243,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D243,'Instruction Set'!I:I,0)))</f>
         <v>INC B</v>
       </c>
-      <c r="C243" s="13" t="str">
+      <c r="C243" s="12" t="str">
         <f aca="false">DEC2BIN(A243,8)</f>
         <v>11110001</v>
       </c>
-      <c r="D243" s="13" t="str">
+      <c r="D243" s="12" t="str">
         <f aca="false">DEC2HEX(A243,2)</f>
         <v>F1</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="14" t="n">
+      <c r="A244" s="13" t="n">
         <v>242</v>
       </c>
       <c r="B244" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D244,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D244,'Instruction Set'!I:I,0)))</f>
         <v>INC C</v>
       </c>
-      <c r="C244" s="13" t="str">
+      <c r="C244" s="12" t="str">
         <f aca="false">DEC2BIN(A244,8)</f>
         <v>11110010</v>
       </c>
-      <c r="D244" s="13" t="str">
+      <c r="D244" s="12" t="str">
         <f aca="false">DEC2HEX(A244,2)</f>
         <v>F2</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="14" t="n">
+      <c r="A245" s="13" t="n">
         <v>243</v>
       </c>
       <c r="B245" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D245,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D245,'Instruction Set'!I:I,0)))</f>
         <v>INC D</v>
       </c>
-      <c r="C245" s="13" t="str">
+      <c r="C245" s="12" t="str">
         <f aca="false">DEC2BIN(A245,8)</f>
         <v>11110011</v>
       </c>
-      <c r="D245" s="13" t="str">
+      <c r="D245" s="12" t="str">
         <f aca="false">DEC2HEX(A245,2)</f>
         <v>F3</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="14" t="n">
+      <c r="A246" s="13" t="n">
         <v>244</v>
       </c>
       <c r="B246" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D246,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D246,'Instruction Set'!I:I,0)))</f>
         <v>INC H</v>
       </c>
-      <c r="C246" s="13" t="str">
+      <c r="C246" s="12" t="str">
         <f aca="false">DEC2BIN(A246,8)</f>
         <v>11110100</v>
       </c>
-      <c r="D246" s="13" t="str">
+      <c r="D246" s="12" t="str">
         <f aca="false">DEC2HEX(A246,2)</f>
         <v>F4</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="14" t="n">
+      <c r="A247" s="13" t="n">
         <v>245</v>
       </c>
       <c r="B247" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D247,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D247,'Instruction Set'!I:I,0)))</f>
         <v>INC L</v>
       </c>
-      <c r="C247" s="13" t="str">
+      <c r="C247" s="12" t="str">
         <f aca="false">DEC2BIN(A247,8)</f>
         <v>11110101</v>
       </c>
-      <c r="D247" s="13" t="str">
+      <c r="D247" s="12" t="str">
         <f aca="false">DEC2HEX(A247,2)</f>
         <v>F5</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="14" t="n">
+      <c r="A248" s="13" t="n">
         <v>246</v>
       </c>
       <c r="B248" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D248,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D248,'Instruction Set'!I:I,0)))</f>
         <v>INC M</v>
       </c>
-      <c r="C248" s="13" t="str">
+      <c r="C248" s="12" t="str">
         <f aca="false">DEC2BIN(A248,8)</f>
         <v>11110110</v>
       </c>
-      <c r="D248" s="13" t="str">
+      <c r="D248" s="12" t="str">
         <f aca="false">DEC2HEX(A248,2)</f>
         <v>F6</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="14" t="n">
+      <c r="A249" s="13" t="n">
         <v>247</v>
       </c>
       <c r="B249" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D249,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D249,'Instruction Set'!I:I,0)))</f>
         <v>RST</v>
       </c>
-      <c r="C249" s="13" t="str">
+      <c r="C249" s="12" t="str">
         <f aca="false">DEC2BIN(A249,8)</f>
         <v>11110111</v>
       </c>
-      <c r="D249" s="13" t="str">
+      <c r="D249" s="12" t="str">
         <f aca="false">DEC2HEX(A249,2)</f>
         <v>F7</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="14" t="n">
+      <c r="A250" s="13" t="n">
         <v>248</v>
       </c>
       <c r="B250" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D250,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D250,'Instruction Set'!I:I,0)))</f>
         <v>DEC A</v>
       </c>
-      <c r="C250" s="13" t="str">
+      <c r="C250" s="12" t="str">
         <f aca="false">DEC2BIN(A250,8)</f>
         <v>11111000</v>
       </c>
-      <c r="D250" s="13" t="str">
+      <c r="D250" s="12" t="str">
         <f aca="false">DEC2HEX(A250,2)</f>
         <v>F8</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="14" t="n">
+      <c r="A251" s="13" t="n">
         <v>249</v>
       </c>
       <c r="B251" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D251,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D251,'Instruction Set'!I:I,0)))</f>
         <v>DEC B</v>
       </c>
-      <c r="C251" s="13" t="str">
+      <c r="C251" s="12" t="str">
         <f aca="false">DEC2BIN(A251,8)</f>
         <v>11111001</v>
       </c>
-      <c r="D251" s="13" t="str">
+      <c r="D251" s="12" t="str">
         <f aca="false">DEC2HEX(A251,2)</f>
         <v>F9</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="14" t="n">
+      <c r="A252" s="13" t="n">
         <v>250</v>
       </c>
       <c r="B252" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D252,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D252,'Instruction Set'!I:I,0)))</f>
         <v>DEC C</v>
       </c>
-      <c r="C252" s="13" t="str">
+      <c r="C252" s="12" t="str">
         <f aca="false">DEC2BIN(A252,8)</f>
         <v>11111010</v>
       </c>
-      <c r="D252" s="13" t="str">
+      <c r="D252" s="12" t="str">
         <f aca="false">DEC2HEX(A252,2)</f>
         <v>FA</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="14" t="n">
+      <c r="A253" s="13" t="n">
         <v>251</v>
       </c>
       <c r="B253" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D253,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D253,'Instruction Set'!I:I,0)))</f>
         <v>DEC D</v>
       </c>
-      <c r="C253" s="13" t="str">
+      <c r="C253" s="12" t="str">
         <f aca="false">DEC2BIN(A253,8)</f>
         <v>11111011</v>
       </c>
-      <c r="D253" s="13" t="str">
+      <c r="D253" s="12" t="str">
         <f aca="false">DEC2HEX(A253,2)</f>
         <v>FB</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="14" t="n">
+      <c r="A254" s="13" t="n">
         <v>252</v>
       </c>
       <c r="B254" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D254,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D254,'Instruction Set'!I:I,0)))</f>
         <v>DEC H</v>
       </c>
-      <c r="C254" s="13" t="str">
+      <c r="C254" s="12" t="str">
         <f aca="false">DEC2BIN(A254,8)</f>
         <v>11111100</v>
       </c>
-      <c r="D254" s="13" t="str">
+      <c r="D254" s="12" t="str">
         <f aca="false">DEC2HEX(A254,2)</f>
         <v>FC</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="14" t="n">
+      <c r="A255" s="13" t="n">
         <v>253</v>
       </c>
       <c r="B255" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D255,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D255,'Instruction Set'!I:I,0)))</f>
         <v>DEC L</v>
       </c>
-      <c r="C255" s="13" t="str">
+      <c r="C255" s="12" t="str">
         <f aca="false">DEC2BIN(A255,8)</f>
         <v>11111101</v>
       </c>
-      <c r="D255" s="13" t="str">
+      <c r="D255" s="12" t="str">
         <f aca="false">DEC2HEX(A255,2)</f>
         <v>FD</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="14" t="n">
+      <c r="A256" s="13" t="n">
         <v>254</v>
       </c>
       <c r="B256" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D256,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D256,'Instruction Set'!I:I,0)))</f>
         <v>DEC M</v>
       </c>
-      <c r="C256" s="13" t="str">
+      <c r="C256" s="12" t="str">
         <f aca="false">DEC2BIN(A256,8)</f>
         <v>11111110</v>
       </c>
-      <c r="D256" s="13" t="str">
+      <c r="D256" s="12" t="str">
         <f aca="false">DEC2HEX(A256,2)</f>
         <v>FE</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="14" t="n">
+      <c r="A257" s="13" t="n">
         <v>255</v>
       </c>
       <c r="B257" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D257,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D257,'Instruction Set'!I:I,0)))</f>
         <v>HLT</v>
       </c>
-      <c r="C257" s="13" t="str">
+      <c r="C257" s="12" t="str">
         <f aca="false">DEC2BIN(A257,8)</f>
         <v>11111111</v>
       </c>
-      <c r="D257" s="13" t="str">
+      <c r="D257" s="12" t="str">
         <f aca="false">DEC2HEX(A257,2)</f>
         <v>FF</v>
       </c>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="705">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -2033,6 +2033,18 @@
     <t xml:space="preserve">Increment value at memory address in H and L registers by 1</t>
   </si>
   <si>
+    <t xml:space="preserve">INCHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment HL register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10010111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment HL register by 1 (carry from L to H if needed)</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEC r</t>
   </si>
   <si>
@@ -2088,6 +2100,18 @@
   </si>
   <si>
     <t xml:space="preserve">Decrement value at memory address in H and L registers by 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement HL register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10100111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement HL register by 1 (borrow from H to L if needed)</t>
   </si>
   <si>
     <t xml:space="preserve">PUSHF</t>
@@ -2373,7 +2397,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:L247"/>
+  <dimension ref="A1:L249"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7444,57 +7468,69 @@
       <c r="C239" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="D239" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="F239" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G239" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="H239" s="8" t="s">
         <v>672</v>
-      </c>
-      <c r="G239" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="H239" s="8" t="s">
-        <v>673</v>
       </c>
       <c r="I239" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H239),2)</f>
-        <v>F8</v>
+        <v>97</v>
       </c>
       <c r="L239" s="7" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="240" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="n">
         <v>239</v>
       </c>
-      <c r="C240" s="10" t="s">
+      <c r="B240" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C240" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="G240" s="1" t="s">
+      <c r="D240" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F240" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="H240" s="2" t="s">
+      <c r="G240" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="H240" s="8" t="s">
         <v>677</v>
       </c>
       <c r="I240" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H240),2)</f>
-        <v>F9</v>
+        <v>F8</v>
+      </c>
+      <c r="L240" s="7" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="n">
         <v>240</v>
       </c>
+      <c r="C241" s="10" t="s">
+        <v>679</v>
+      </c>
       <c r="G241" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="I241" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H241),2)</f>
-        <v>FA</v>
+        <v>F9</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7502,14 +7538,14 @@
         <v>241</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="I242" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H242),2)</f>
-        <v>FB</v>
+        <v>FA</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7517,14 +7553,14 @@
         <v>242</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="I243" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H243),2)</f>
-        <v>FC</v>
+        <v>FB</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7532,61 +7568,49 @@
         <v>243</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="I244" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H244),2)</f>
-        <v>FD</v>
+        <v>FC</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="n">
         <v>244</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G245" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="I245" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H245),2)</f>
-        <v>FE</v>
-      </c>
-      <c r="L245" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="246" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>FD</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="n">
         <v>245</v>
       </c>
-      <c r="B246" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="C246" s="7" t="s">
+      <c r="D246" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G246" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="F246" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="G246" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="H246" s="8" t="s">
+      <c r="H246" s="2" t="s">
         <v>691</v>
       </c>
       <c r="I246" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H246),2)</f>
-        <v>87</v>
-      </c>
-      <c r="L246" s="7" t="s">
+        <v>FE</v>
+      </c>
+      <c r="L246" s="1" t="s">
         <v>692</v>
       </c>
     </row>
@@ -7611,14 +7635,68 @@
       </c>
       <c r="I247" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H247),2)</f>
-        <v>D9</v>
+        <v>A7</v>
       </c>
       <c r="L247" s="7" t="s">
         <v>696</v>
       </c>
     </row>
+    <row r="248" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="7" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="F248" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G248" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="H248" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="I248" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H248),2)</f>
+        <v>87</v>
+      </c>
+      <c r="L248" s="7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="249" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="7" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="F249" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="G249" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="H249" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="I249" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H249),2)</f>
+        <v>D9</v>
+      </c>
+      <c r="L249" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I184 I193:I206 I215:I221 I230:I247">
+  <conditionalFormatting sqref="I2:I184 I193:I206 I215:I221 I230:I249">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7644,7 +7722,7 @@
       <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -10239,7 +10317,7 @@
       </c>
       <c r="B153" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D153,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D153,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>INCHL</v>
       </c>
       <c r="C153" s="12" t="str">
         <f aca="false">DEC2BIN(A153,8)</f>
@@ -10511,7 +10589,7 @@
       </c>
       <c r="B169" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D169,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D169,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>DECHL</v>
       </c>
       <c r="C169" s="12" t="str">
         <f aca="false">DEC2BIN(A169,8)</f>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -2033,6 +2033,63 @@
     <t xml:space="preserve">Increment value at memory address in H and L registers by 1</t>
   </si>
   <si>
+    <t xml:space="preserve">DEC r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement register by 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111&lt;r&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrement value at memory address in H and L registers by 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">INCHL</t>
   </si>
   <si>
@@ -2043,63 +2100,6 @@
   </si>
   <si>
     <t xml:space="preserve">Increment HL register by 1 (carry from L to H if needed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEC r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decrement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEC A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decrement register by 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111&lt;r&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEC B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEC C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEC D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEC H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEC L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEC M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decrement value at memory address in H and L registers by 1</t>
   </si>
   <si>
     <t xml:space="preserve">DECHL</t>
@@ -7468,69 +7468,57 @@
       <c r="C239" s="7" t="s">
         <v>671</v>
       </c>
+      <c r="D239" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="F239" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H239" s="8" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="I239" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H239),2)</f>
-        <v>97</v>
+        <v>F8</v>
       </c>
       <c r="L239" s="7" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="240" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="n">
         <v>239</v>
       </c>
-      <c r="B240" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="C240" s="7" t="s">
+      <c r="C240" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="D240" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F240" s="7" t="s">
+      <c r="G240" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="G240" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="H240" s="8" t="s">
+      <c r="H240" s="2" t="s">
         <v>677</v>
       </c>
       <c r="I240" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H240),2)</f>
-        <v>F8</v>
-      </c>
-      <c r="L240" s="7" t="s">
-        <v>678</v>
+        <v>F9</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="n">
         <v>240</v>
       </c>
-      <c r="C241" s="10" t="s">
+      <c r="G241" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H241" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="H241" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="I241" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H241),2)</f>
-        <v>F9</v>
+        <v>FA</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7538,14 +7526,14 @@
         <v>241</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="I242" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H242),2)</f>
-        <v>FA</v>
+        <v>FB</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7553,14 +7541,14 @@
         <v>242</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I243" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H243),2)</f>
-        <v>FB</v>
+        <v>FC</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7568,49 +7556,61 @@
         <v>243</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I244" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H244),2)</f>
-        <v>FC</v>
+        <v>FD</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="n">
         <v>244</v>
       </c>
+      <c r="D245" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G245" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I245" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H245),2)</f>
-        <v>FD</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>FE</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="246" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="n">
         <v>245</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G246" s="1" t="s">
+      <c r="B246" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="C246" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="H246" s="2" t="s">
+      <c r="F246" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="G246" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="H246" s="8" t="s">
         <v>691</v>
       </c>
       <c r="I246" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H246),2)</f>
-        <v>FE</v>
-      </c>
-      <c r="L246" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L246" s="7" t="s">
         <v>692</v>
       </c>
     </row>
@@ -7722,7 +7722,7 @@
       <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>

--- a/doc/instruction-set.xlsx
+++ b/doc/instruction-set.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="713">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -2112,6 +2112,30 @@
   </si>
   <si>
     <t xml:space="preserve">Decrement HL register by 1 (borrow from H to L if needed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSHHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push HL register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10010001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push HL register to stack and decrease stack pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POPHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop HL register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10010101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop HL register from stack and increase stack pointer</t>
   </si>
   <si>
     <t xml:space="preserve">PUSHF</t>
@@ -2397,7 +2421,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:L249"/>
+  <dimension ref="A1:L251"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7662,7 +7686,7 @@
       </c>
       <c r="I248" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H248),2)</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L248" s="7" t="s">
         <v>700</v>
@@ -7689,14 +7713,68 @@
       </c>
       <c r="I249" s="9" t="str">
         <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H249),2)</f>
-        <v>D9</v>
+        <v>95</v>
       </c>
       <c r="L249" s="7" t="s">
         <v>704</v>
       </c>
     </row>
+    <row r="250" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="7" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="G250" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="H250" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="I250" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H250),2)</f>
+        <v>87</v>
+      </c>
+      <c r="L250" s="7" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="251" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="7" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="F251" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="H251" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="I251" s="9" t="str">
+        <f aca="false">BIN2HEX(_xlfn.NUMBERVALUE(H251),2)</f>
+        <v>D9</v>
+      </c>
+      <c r="L251" s="7" t="s">
+        <v>712</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I184 I193:I206 I215:I221 I230:I249">
+  <conditionalFormatting sqref="I2:I184 I193:I206 I215:I221 I230:I251">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7717,12 +7795,12 @@
   <dimension ref="A1:D257"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="B147" activeCellId="0" sqref="B147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -10215,7 +10293,7 @@
       </c>
       <c r="B147" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D147,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D147,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>PUSHHL</v>
       </c>
       <c r="C147" s="12" t="str">
         <f aca="false">DEC2BIN(A147,8)</f>
@@ -10283,7 +10361,7 @@
       </c>
       <c r="B151" s="0" t="str">
         <f aca="false">IF(ISERROR(INDEX('Instruction Set'!G:G,MATCH(D151,'Instruction Set'!I:I,0))),"",INDEX('Instruction Set'!G:G,MATCH(D151,'Instruction Set'!I:I,0)))</f>
-        <v/>
+        <v>POPHL</v>
       </c>
       <c r="C151" s="12" t="str">
         <f aca="false">DEC2BIN(A151,8)</f>
